--- a/Översikt UPPSALA.xlsx
+++ b/Översikt UPPSALA.xlsx
@@ -572,7 +572,7 @@
         <v>44012</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -599,7 +599,7 @@
         <v>15</v>
       </c>
       <c r="J2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K2" t="n">
         <v>5</v>
@@ -614,13 +614,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
@@ -633,6 +633,7 @@
 Koralltaggsvamp
 Persiljespindling
 Spillkråka
+Svart taggsvamp
 Tallticka
 Talltita
 Ullticka
@@ -692,7 +693,7 @@
         <v>43913</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -802,7 +803,7 @@
         <v>43762</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -907,7 +908,7 @@
         <v>44377</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1017,7 +1018,7 @@
         <v>44349</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1116,7 +1117,7 @@
         <v>43381</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1219,7 +1220,7 @@
         <v>45082</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1322,7 +1323,7 @@
         <v>43875</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1419,7 +1420,7 @@
         <v>45013</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1516,7 +1517,7 @@
         <v>44222</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1616,7 +1617,7 @@
         <v>44623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1716,7 +1717,7 @@
         <v>44971</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1811,7 +1812,7 @@
         <v>43796</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1914,7 +1915,7 @@
         <v>44053</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2008,7 +2009,7 @@
         <v>44356</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2105,7 +2106,7 @@
         <v>45086</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2198,7 +2199,7 @@
         <v>43454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2295,7 +2296,7 @@
         <v>44158</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2392,7 +2393,7 @@
         <v>44180</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2489,7 +2490,7 @@
         <v>44497</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2585,7 +2586,7 @@
         <v>44901</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2677,7 +2678,7 @@
         <v>45092</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2773,7 +2774,7 @@
         <v>43433</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2864,7 +2865,7 @@
         <v>44376</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2964,7 +2965,7 @@
         <v>44575</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3055,7 +3056,7 @@
         <v>44356</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3145,7 +3146,7 @@
         <v>43814</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3239,7 +3240,7 @@
         <v>43861</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3328,7 +3329,7 @@
         <v>44119</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3417,7 +3418,7 @@
         <v>44351</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3510,7 +3511,7 @@
         <v>44500</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3603,7 +3604,7 @@
         <v>44574</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3692,7 +3693,7 @@
         <v>44792</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3786,7 +3787,7 @@
         <v>44879</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3875,7 +3876,7 @@
         <v>44922</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3968,7 +3969,7 @@
         <v>44977</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4057,7 +4058,7 @@
         <v>43511</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4145,7 +4146,7 @@
         <v>43857</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4233,7 +4234,7 @@
         <v>43980</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4325,7 +4326,7 @@
         <v>44056</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4422,7 +4423,7 @@
         <v>44101</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4515,7 +4516,7 @@
         <v>44462</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4612,7 +4613,7 @@
         <v>44664</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4700,7 +4701,7 @@
         <v>44719</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4788,7 +4789,7 @@
         <v>44740</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4876,7 +4877,7 @@
         <v>44974</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4964,7 +4965,7 @@
         <v>45002</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5061,7 +5062,7 @@
         <v>45049</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5149,7 +5150,7 @@
         <v>45117</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5237,7 +5238,7 @@
         <v>43511</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5324,7 +5325,7 @@
         <v>43731</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5411,7 +5412,7 @@
         <v>43796</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5503,7 +5504,7 @@
         <v>44101</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5595,7 +5596,7 @@
         <v>44133</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5687,7 +5688,7 @@
         <v>44495</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5774,7 +5775,7 @@
         <v>44652</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5866,7 +5867,7 @@
         <v>44684</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5953,7 +5954,7 @@
         <v>44692</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6045,7 +6046,7 @@
         <v>44791</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6132,7 +6133,7 @@
         <v>44804</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6219,7 +6220,7 @@
         <v>44938</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6311,7 +6312,7 @@
         <v>44956</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6398,7 +6399,7 @@
         <v>44973</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6490,7 +6491,7 @@
         <v>43503</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6581,7 +6582,7 @@
         <v>43545</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6672,7 +6673,7 @@
         <v>43607</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6758,7 +6759,7 @@
         <v>43654</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6844,7 +6845,7 @@
         <v>43742</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6935,7 +6936,7 @@
         <v>43929</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7021,7 +7022,7 @@
         <v>44054</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7112,7 +7113,7 @@
         <v>44101</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7203,7 +7204,7 @@
         <v>44659</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7289,7 +7290,7 @@
         <v>44879</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7375,7 +7376,7 @@
         <v>44967</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7461,7 +7462,7 @@
         <v>45002</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7552,7 +7553,7 @@
         <v>45090</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7643,7 +7644,7 @@
         <v>45121</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7734,7 +7735,7 @@
         <v>43321</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7819,7 +7820,7 @@
         <v>43339</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7904,7 +7905,7 @@
         <v>43462</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7989,7 +7990,7 @@
         <v>43473</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8074,7 +8075,7 @@
         <v>43473</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8164,7 +8165,7 @@
         <v>43528</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8249,7 +8250,7 @@
         <v>43551</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8339,7 +8340,7 @@
         <v>43693</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8424,7 +8425,7 @@
         <v>43693</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8509,7 +8510,7 @@
         <v>43731</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8594,7 +8595,7 @@
         <v>43755</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8679,7 +8680,7 @@
         <v>43867</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8764,7 +8765,7 @@
         <v>43893</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8849,7 +8850,7 @@
         <v>43980</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8939,7 +8940,7 @@
         <v>44042</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9024,7 +9025,7 @@
         <v>44266</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9114,7 +9115,7 @@
         <v>44467</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9204,7 +9205,7 @@
         <v>44487</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9289,7 +9290,7 @@
         <v>44489</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9374,7 +9375,7 @@
         <v>44589</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9459,7 +9460,7 @@
         <v>44614</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9544,7 +9545,7 @@
         <v>44645</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9634,7 +9635,7 @@
         <v>44678</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9724,7 +9725,7 @@
         <v>44729</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9814,7 +9815,7 @@
         <v>44849</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9899,7 +9900,7 @@
         <v>44855</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9989,7 +9990,7 @@
         <v>44897</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10074,7 +10075,7 @@
         <v>44917</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10164,7 +10165,7 @@
         <v>44958</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10249,7 +10250,7 @@
         <v>44963</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10334,7 +10335,7 @@
         <v>45002</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10424,7 +10425,7 @@
         <v>45021</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10509,7 +10510,7 @@
         <v>45022</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10599,7 +10600,7 @@
         <v>45022</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10689,7 +10690,7 @@
         <v>45055</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10774,7 +10775,7 @@
         <v>45061</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10859,7 +10860,7 @@
         <v>45072</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10949,7 +10950,7 @@
         <v>45097</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11034,7 +11035,7 @@
         <v>45098</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11119,7 +11120,7 @@
         <v>45104</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11204,7 +11205,7 @@
         <v>45121</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11294,7 +11295,7 @@
         <v>45139</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11379,7 +11380,7 @@
         <v>43321</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11436,7 +11437,7 @@
         <v>43321</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11493,7 +11494,7 @@
         <v>43335</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11550,7 +11551,7 @@
         <v>43341</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11607,7 +11608,7 @@
         <v>43347</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11664,7 +11665,7 @@
         <v>43355</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11721,7 +11722,7 @@
         <v>43360</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11778,7 +11779,7 @@
         <v>43377</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11835,7 +11836,7 @@
         <v>43378</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11897,7 +11898,7 @@
         <v>43378</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11954,7 +11955,7 @@
         <v>43378</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12016,7 +12017,7 @@
         <v>43381</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12078,7 +12079,7 @@
         <v>43381</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12140,7 +12141,7 @@
         <v>43389</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12197,7 +12198,7 @@
         <v>43395</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12254,7 +12255,7 @@
         <v>43398</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12316,7 +12317,7 @@
         <v>43407</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12373,7 +12374,7 @@
         <v>43411</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12435,7 +12436,7 @@
         <v>43418</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12497,7 +12498,7 @@
         <v>43420</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12559,7 +12560,7 @@
         <v>43423</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12616,7 +12617,7 @@
         <v>43423</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12673,7 +12674,7 @@
         <v>43424</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12730,7 +12731,7 @@
         <v>43424</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12792,7 +12793,7 @@
         <v>43424</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12854,7 +12855,7 @@
         <v>43427</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12911,7 +12912,7 @@
         <v>43430</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12968,7 +12969,7 @@
         <v>43431</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13025,7 +13026,7 @@
         <v>43433</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13082,7 +13083,7 @@
         <v>43433</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13139,7 +13140,7 @@
         <v>43433</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13196,7 +13197,7 @@
         <v>43433</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13253,7 +13254,7 @@
         <v>43436</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13310,7 +13311,7 @@
         <v>43436</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13367,7 +13368,7 @@
         <v>43437</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13424,7 +13425,7 @@
         <v>43439</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13481,7 +13482,7 @@
         <v>43444</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13538,7 +13539,7 @@
         <v>43445</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13595,7 +13596,7 @@
         <v>43446</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13652,7 +13653,7 @@
         <v>43447</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13709,7 +13710,7 @@
         <v>43447</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13766,7 +13767,7 @@
         <v>43447</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13828,7 +13829,7 @@
         <v>43451</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13885,7 +13886,7 @@
         <v>43451</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13942,7 +13943,7 @@
         <v>43451</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13999,7 +14000,7 @@
         <v>43452</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14056,7 +14057,7 @@
         <v>43452</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14113,7 +14114,7 @@
         <v>43455</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14170,7 +14171,7 @@
         <v>43455</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14227,7 +14228,7 @@
         <v>43455</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14284,7 +14285,7 @@
         <v>43455</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14341,7 +14342,7 @@
         <v>43460</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14398,7 +14399,7 @@
         <v>43464</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14455,7 +14456,7 @@
         <v>43468</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14512,7 +14513,7 @@
         <v>43472</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14569,7 +14570,7 @@
         <v>43472</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14626,7 +14627,7 @@
         <v>43472</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14683,7 +14684,7 @@
         <v>43472</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14740,7 +14741,7 @@
         <v>43473</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14802,7 +14803,7 @@
         <v>43473</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14859,7 +14860,7 @@
         <v>43473</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14916,7 +14917,7 @@
         <v>43473</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14973,7 +14974,7 @@
         <v>43473</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15030,7 +15031,7 @@
         <v>43473</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15087,7 +15088,7 @@
         <v>43473</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15144,7 +15145,7 @@
         <v>43473</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15201,7 +15202,7 @@
         <v>43474</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15258,7 +15259,7 @@
         <v>43474</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15315,7 +15316,7 @@
         <v>43475</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15372,7 +15373,7 @@
         <v>43475</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15429,7 +15430,7 @@
         <v>43475</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15486,7 +15487,7 @@
         <v>43476</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15543,7 +15544,7 @@
         <v>43479</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15605,7 +15606,7 @@
         <v>43479</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15662,7 +15663,7 @@
         <v>43479</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15719,7 +15720,7 @@
         <v>43479</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15781,7 +15782,7 @@
         <v>43479</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15843,7 +15844,7 @@
         <v>43480</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15900,7 +15901,7 @@
         <v>43480</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15957,7 +15958,7 @@
         <v>43481</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16014,7 +16015,7 @@
         <v>43481</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16071,7 +16072,7 @@
         <v>43481</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16128,7 +16129,7 @@
         <v>43481</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16185,7 +16186,7 @@
         <v>43481</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16247,7 +16248,7 @@
         <v>43482</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16304,7 +16305,7 @@
         <v>43482</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16361,7 +16362,7 @@
         <v>43482</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16418,7 +16419,7 @@
         <v>43482</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16475,7 +16476,7 @@
         <v>43482</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16532,7 +16533,7 @@
         <v>43482</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16589,7 +16590,7 @@
         <v>43482</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16646,7 +16647,7 @@
         <v>43485</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16703,7 +16704,7 @@
         <v>43486</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16760,7 +16761,7 @@
         <v>43486</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16822,7 +16823,7 @@
         <v>43486</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16879,7 +16880,7 @@
         <v>43487</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16936,7 +16937,7 @@
         <v>43488</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16998,7 +16999,7 @@
         <v>43488</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17055,7 +17056,7 @@
         <v>43488</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17117,7 +17118,7 @@
         <v>43492</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17179,7 +17180,7 @@
         <v>43493</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17236,7 +17237,7 @@
         <v>43493</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17293,7 +17294,7 @@
         <v>43496</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17350,7 +17351,7 @@
         <v>43496</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17407,7 +17408,7 @@
         <v>43498</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17469,7 +17470,7 @@
         <v>43500</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17526,7 +17527,7 @@
         <v>43500</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17588,7 +17589,7 @@
         <v>43500</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17645,7 +17646,7 @@
         <v>43500</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17702,7 +17703,7 @@
         <v>43500</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17764,7 +17765,7 @@
         <v>43503</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17821,7 +17822,7 @@
         <v>43504</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17878,7 +17879,7 @@
         <v>43507</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17935,7 +17936,7 @@
         <v>43507</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17992,7 +17993,7 @@
         <v>43508</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18049,7 +18050,7 @@
         <v>43509</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18106,7 +18107,7 @@
         <v>43511</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18163,7 +18164,7 @@
         <v>43511</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18220,7 +18221,7 @@
         <v>43511</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18277,7 +18278,7 @@
         <v>43511</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18334,7 +18335,7 @@
         <v>43511</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18391,7 +18392,7 @@
         <v>43516</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18453,7 +18454,7 @@
         <v>43517</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18510,7 +18511,7 @@
         <v>43517</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18572,7 +18573,7 @@
         <v>43517</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18634,7 +18635,7 @@
         <v>43517</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18696,7 +18697,7 @@
         <v>43523</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18753,7 +18754,7 @@
         <v>43528</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18810,7 +18811,7 @@
         <v>43528</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18867,7 +18868,7 @@
         <v>43531</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18924,7 +18925,7 @@
         <v>43531</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18981,7 +18982,7 @@
         <v>43531</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19043,7 +19044,7 @@
         <v>43532</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19105,7 +19106,7 @@
         <v>43535</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19162,7 +19163,7 @@
         <v>43536</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19219,7 +19220,7 @@
         <v>43538</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19281,7 +19282,7 @@
         <v>43538</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19343,7 +19344,7 @@
         <v>43544</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19400,7 +19401,7 @@
         <v>43550</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19457,7 +19458,7 @@
         <v>43552</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19514,7 +19515,7 @@
         <v>43553</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19576,7 +19577,7 @@
         <v>43553</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19633,7 +19634,7 @@
         <v>43556</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19690,7 +19691,7 @@
         <v>43559</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19747,7 +19748,7 @@
         <v>43559</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19804,7 +19805,7 @@
         <v>43560</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19861,7 +19862,7 @@
         <v>43570</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19918,7 +19919,7 @@
         <v>43572</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19975,7 +19976,7 @@
         <v>43578</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20032,7 +20033,7 @@
         <v>43578</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20089,7 +20090,7 @@
         <v>43583</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20146,7 +20147,7 @@
         <v>43585</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20208,7 +20209,7 @@
         <v>43591</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20265,7 +20266,7 @@
         <v>43592</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20327,7 +20328,7 @@
         <v>43600</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20384,7 +20385,7 @@
         <v>43605</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20441,7 +20442,7 @@
         <v>43605</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20498,7 +20499,7 @@
         <v>43607</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20555,7 +20556,7 @@
         <v>43628</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20612,7 +20613,7 @@
         <v>43628</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20669,7 +20670,7 @@
         <v>43628</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20731,7 +20732,7 @@
         <v>43630</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20788,7 +20789,7 @@
         <v>43630</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20845,7 +20846,7 @@
         <v>43647</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20902,7 +20903,7 @@
         <v>43647</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20959,7 +20960,7 @@
         <v>43648</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21016,7 +21017,7 @@
         <v>43651</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21073,7 +21074,7 @@
         <v>43651</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21130,7 +21131,7 @@
         <v>43651</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21187,7 +21188,7 @@
         <v>43651</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21244,7 +21245,7 @@
         <v>43654</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21301,7 +21302,7 @@
         <v>43654</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21358,7 +21359,7 @@
         <v>43656</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21415,7 +21416,7 @@
         <v>43661</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21472,7 +21473,7 @@
         <v>43661</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21529,7 +21530,7 @@
         <v>43663</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21586,7 +21587,7 @@
         <v>43677</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21643,7 +21644,7 @@
         <v>43682</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21700,7 +21701,7 @@
         <v>43686</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21757,7 +21758,7 @@
         <v>43693</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21814,7 +21815,7 @@
         <v>43696</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21876,7 +21877,7 @@
         <v>43696</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21933,7 +21934,7 @@
         <v>43699</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21990,7 +21991,7 @@
         <v>43699</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22047,7 +22048,7 @@
         <v>43699</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22104,7 +22105,7 @@
         <v>43705</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22161,7 +22162,7 @@
         <v>43706</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22223,7 +22224,7 @@
         <v>43706</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22285,7 +22286,7 @@
         <v>43706</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22347,7 +22348,7 @@
         <v>43706</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22404,7 +22405,7 @@
         <v>43706</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22466,7 +22467,7 @@
         <v>43706</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22528,7 +22529,7 @@
         <v>43707</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22590,7 +22591,7 @@
         <v>43707</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22652,7 +22653,7 @@
         <v>43707</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22709,7 +22710,7 @@
         <v>43707</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22771,7 +22772,7 @@
         <v>43710</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22828,7 +22829,7 @@
         <v>43712</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22885,7 +22886,7 @@
         <v>43712</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22942,7 +22943,7 @@
         <v>43713</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22999,7 +23000,7 @@
         <v>43716</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23056,7 +23057,7 @@
         <v>43718</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23113,7 +23114,7 @@
         <v>43718</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23175,7 +23176,7 @@
         <v>43718</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23232,7 +23233,7 @@
         <v>43718</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23294,7 +23295,7 @@
         <v>43718</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23356,7 +23357,7 @@
         <v>43718</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23413,7 +23414,7 @@
         <v>43720</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23470,7 +23471,7 @@
         <v>43727</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23527,7 +23528,7 @@
         <v>43730</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23584,7 +23585,7 @@
         <v>43733</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23646,7 +23647,7 @@
         <v>43735</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23708,7 +23709,7 @@
         <v>43735</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23770,7 +23771,7 @@
         <v>43736</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23827,7 +23828,7 @@
         <v>43745</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23884,7 +23885,7 @@
         <v>43745</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23946,7 +23947,7 @@
         <v>43747</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24008,7 +24009,7 @@
         <v>43748</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24065,7 +24066,7 @@
         <v>43755</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24127,7 +24128,7 @@
         <v>43759</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24184,7 +24185,7 @@
         <v>43763</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24246,7 +24247,7 @@
         <v>43773</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24303,7 +24304,7 @@
         <v>43773</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24360,7 +24361,7 @@
         <v>43773</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24422,7 +24423,7 @@
         <v>43777</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24479,7 +24480,7 @@
         <v>43777</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24541,7 +24542,7 @@
         <v>43780</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24603,7 +24604,7 @@
         <v>43780</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24665,7 +24666,7 @@
         <v>43782</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24722,7 +24723,7 @@
         <v>43784</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24779,7 +24780,7 @@
         <v>43791</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24836,7 +24837,7 @@
         <v>43791</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24893,7 +24894,7 @@
         <v>43791</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24950,7 +24951,7 @@
         <v>43791</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25007,7 +25008,7 @@
         <v>43795</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25064,7 +25065,7 @@
         <v>43795</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25121,7 +25122,7 @@
         <v>43795</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25178,7 +25179,7 @@
         <v>43801</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25235,7 +25236,7 @@
         <v>43801</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25292,7 +25293,7 @@
         <v>43803</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25349,7 +25350,7 @@
         <v>43808</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25406,7 +25407,7 @@
         <v>43808</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25463,7 +25464,7 @@
         <v>43811</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25520,7 +25521,7 @@
         <v>43812</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25582,7 +25583,7 @@
         <v>43814</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25644,7 +25645,7 @@
         <v>43814</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25706,7 +25707,7 @@
         <v>43815</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25763,7 +25764,7 @@
         <v>43815</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25825,7 +25826,7 @@
         <v>43817</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25882,7 +25883,7 @@
         <v>43817</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25939,7 +25940,7 @@
         <v>43818</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25996,7 +25997,7 @@
         <v>43818</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26053,7 +26054,7 @@
         <v>43822</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26110,7 +26111,7 @@
         <v>43837</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26167,7 +26168,7 @@
         <v>43837</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26224,7 +26225,7 @@
         <v>43838</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26281,7 +26282,7 @@
         <v>43844</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26338,7 +26339,7 @@
         <v>43850</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26395,7 +26396,7 @@
         <v>43853</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26452,7 +26453,7 @@
         <v>43853</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26514,7 +26515,7 @@
         <v>43866</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26576,7 +26577,7 @@
         <v>43866</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26638,7 +26639,7 @@
         <v>43867</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26695,7 +26696,7 @@
         <v>43874</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26752,7 +26753,7 @@
         <v>43878</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26814,7 +26815,7 @@
         <v>43878</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26871,7 +26872,7 @@
         <v>43878</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26928,7 +26929,7 @@
         <v>43879</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26990,7 +26991,7 @@
         <v>43879</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27052,7 +27053,7 @@
         <v>43879</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27114,7 +27115,7 @@
         <v>43881</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27171,7 +27172,7 @@
         <v>43882</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27228,7 +27229,7 @@
         <v>43882</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27290,7 +27291,7 @@
         <v>43882</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27352,7 +27353,7 @@
         <v>43886</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27409,7 +27410,7 @@
         <v>43887</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27466,7 +27467,7 @@
         <v>43891</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27528,7 +27529,7 @@
         <v>43892</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27590,7 +27591,7 @@
         <v>43892</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27647,7 +27648,7 @@
         <v>43892</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27709,7 +27710,7 @@
         <v>43894</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27766,7 +27767,7 @@
         <v>43894</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27823,7 +27824,7 @@
         <v>43899</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27880,7 +27881,7 @@
         <v>43899</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27942,7 +27943,7 @@
         <v>43903</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27999,7 +28000,7 @@
         <v>43908</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28056,7 +28057,7 @@
         <v>43908</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28113,7 +28114,7 @@
         <v>43908</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28175,7 +28176,7 @@
         <v>43908</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28232,7 +28233,7 @@
         <v>43913</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28294,7 +28295,7 @@
         <v>43927</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28351,7 +28352,7 @@
         <v>43927</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28408,7 +28409,7 @@
         <v>43929</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28465,7 +28466,7 @@
         <v>43937</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28522,7 +28523,7 @@
         <v>43944</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28579,7 +28580,7 @@
         <v>43948</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28636,7 +28637,7 @@
         <v>43948</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28693,7 +28694,7 @@
         <v>43950</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28755,7 +28756,7 @@
         <v>43973</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28817,7 +28818,7 @@
         <v>43984</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28874,7 +28875,7 @@
         <v>43987</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28931,7 +28932,7 @@
         <v>43987</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28988,7 +28989,7 @@
         <v>43990</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29045,7 +29046,7 @@
         <v>43999</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29102,7 +29103,7 @@
         <v>43999</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29159,7 +29160,7 @@
         <v>44000</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29216,7 +29217,7 @@
         <v>44000</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29273,7 +29274,7 @@
         <v>44007</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29330,7 +29331,7 @@
         <v>44007</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29387,7 +29388,7 @@
         <v>44012</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29449,7 +29450,7 @@
         <v>44013</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29506,7 +29507,7 @@
         <v>44014</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29563,7 +29564,7 @@
         <v>44015</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29625,7 +29626,7 @@
         <v>44016</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29687,7 +29688,7 @@
         <v>44019</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29749,7 +29750,7 @@
         <v>44026</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29806,7 +29807,7 @@
         <v>44029</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29863,7 +29864,7 @@
         <v>44033</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29925,7 +29926,7 @@
         <v>44035</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29982,7 +29983,7 @@
         <v>44035</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30039,7 +30040,7 @@
         <v>44041</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30101,7 +30102,7 @@
         <v>44048</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30163,7 +30164,7 @@
         <v>44048</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30225,7 +30226,7 @@
         <v>44048</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30287,7 +30288,7 @@
         <v>44050</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30344,7 +30345,7 @@
         <v>44055</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30401,7 +30402,7 @@
         <v>44056</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30458,7 +30459,7 @@
         <v>44063</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30520,7 +30521,7 @@
         <v>44063</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30577,7 +30578,7 @@
         <v>44063</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30634,7 +30635,7 @@
         <v>44063</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30691,7 +30692,7 @@
         <v>44070</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30748,7 +30749,7 @@
         <v>44076</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30805,7 +30806,7 @@
         <v>44081</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30862,7 +30863,7 @@
         <v>44083</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30919,7 +30920,7 @@
         <v>44091</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30981,7 +30982,7 @@
         <v>44095</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31038,7 +31039,7 @@
         <v>44095</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31095,7 +31096,7 @@
         <v>44103</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31152,7 +31153,7 @@
         <v>44105</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31214,7 +31215,7 @@
         <v>44105</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31271,7 +31272,7 @@
         <v>44105</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31333,7 +31334,7 @@
         <v>44106</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31390,7 +31391,7 @@
         <v>44109</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31447,7 +31448,7 @@
         <v>44119</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31504,7 +31505,7 @@
         <v>44123</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31561,7 +31562,7 @@
         <v>44123</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31618,7 +31619,7 @@
         <v>44126</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31675,7 +31676,7 @@
         <v>44130</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31732,7 +31733,7 @@
         <v>44131</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31794,7 +31795,7 @@
         <v>44131</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31856,7 +31857,7 @@
         <v>44134</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31918,7 +31919,7 @@
         <v>44137</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31975,7 +31976,7 @@
         <v>44139</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32032,7 +32033,7 @@
         <v>44139</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32089,7 +32090,7 @@
         <v>44139</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32146,7 +32147,7 @@
         <v>44140</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32203,7 +32204,7 @@
         <v>44144</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32260,7 +32261,7 @@
         <v>44144</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32317,7 +32318,7 @@
         <v>44144</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32374,7 +32375,7 @@
         <v>44146</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32431,7 +32432,7 @@
         <v>44151</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32488,7 +32489,7 @@
         <v>44153</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32550,7 +32551,7 @@
         <v>44155</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32607,7 +32608,7 @@
         <v>44155</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32664,7 +32665,7 @@
         <v>44159</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32726,7 +32727,7 @@
         <v>44159</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32788,7 +32789,7 @@
         <v>44160</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32850,7 +32851,7 @@
         <v>44161</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32912,7 +32913,7 @@
         <v>44161</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32974,7 +32975,7 @@
         <v>44162</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33031,7 +33032,7 @@
         <v>44165</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33093,7 +33094,7 @@
         <v>44166</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33155,7 +33156,7 @@
         <v>44167</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33212,7 +33213,7 @@
         <v>44168</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33269,7 +33270,7 @@
         <v>44180</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33331,7 +33332,7 @@
         <v>44200</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33388,7 +33389,7 @@
         <v>44207</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33450,7 +33451,7 @@
         <v>44209</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33507,7 +33508,7 @@
         <v>44209</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33564,7 +33565,7 @@
         <v>44210</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33621,7 +33622,7 @@
         <v>44211</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33678,7 +33679,7 @@
         <v>44216</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33735,7 +33736,7 @@
         <v>44216</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33792,7 +33793,7 @@
         <v>44222</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33849,7 +33850,7 @@
         <v>44223</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33906,7 +33907,7 @@
         <v>44230</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33963,7 +33964,7 @@
         <v>44245</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34020,7 +34021,7 @@
         <v>44252</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34077,7 +34078,7 @@
         <v>44252</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34134,7 +34135,7 @@
         <v>44266</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34191,7 +34192,7 @@
         <v>44273</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34248,7 +34249,7 @@
         <v>44279</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34305,7 +34306,7 @@
         <v>44286</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34362,7 +34363,7 @@
         <v>44286</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34419,7 +34420,7 @@
         <v>44294</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34481,7 +34482,7 @@
         <v>44297</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34538,7 +34539,7 @@
         <v>44297</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34600,7 +34601,7 @@
         <v>44299</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34662,7 +34663,7 @@
         <v>44313</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34724,7 +34725,7 @@
         <v>44313</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34786,7 +34787,7 @@
         <v>44314</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34848,7 +34849,7 @@
         <v>44351</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34910,7 +34911,7 @@
         <v>44357</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34972,7 +34973,7 @@
         <v>44365</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35034,7 +35035,7 @@
         <v>44365</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35091,7 +35092,7 @@
         <v>44369</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35148,7 +35149,7 @@
         <v>44379</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35205,7 +35206,7 @@
         <v>44379</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35262,7 +35263,7 @@
         <v>44383</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35324,7 +35325,7 @@
         <v>44383</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35386,7 +35387,7 @@
         <v>44390</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35443,7 +35444,7 @@
         <v>44395</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35500,7 +35501,7 @@
         <v>44407</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35562,7 +35563,7 @@
         <v>44420</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35619,7 +35620,7 @@
         <v>44420</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35676,7 +35677,7 @@
         <v>44426</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35733,7 +35734,7 @@
         <v>44438</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35795,7 +35796,7 @@
         <v>44442</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35852,7 +35853,7 @@
         <v>44445</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -35909,7 +35910,7 @@
         <v>44446</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -35966,7 +35967,7 @@
         <v>44447</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36023,7 +36024,7 @@
         <v>44453</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36080,7 +36081,7 @@
         <v>44459</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36142,7 +36143,7 @@
         <v>44461</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36204,7 +36205,7 @@
         <v>44463</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36261,7 +36262,7 @@
         <v>44470</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36318,7 +36319,7 @@
         <v>44479</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36375,7 +36376,7 @@
         <v>44481</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36432,7 +36433,7 @@
         <v>44484</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36489,7 +36490,7 @@
         <v>44486</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36546,7 +36547,7 @@
         <v>44489</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36603,7 +36604,7 @@
         <v>44489</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36660,7 +36661,7 @@
         <v>44494</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36722,7 +36723,7 @@
         <v>44495</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36779,7 +36780,7 @@
         <v>44497</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36836,7 +36837,7 @@
         <v>44503</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36893,7 +36894,7 @@
         <v>44504</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -36950,7 +36951,7 @@
         <v>44512</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37007,7 +37008,7 @@
         <v>44512</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37064,7 +37065,7 @@
         <v>44512</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37121,7 +37122,7 @@
         <v>44512</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37178,7 +37179,7 @@
         <v>44515</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37235,7 +37236,7 @@
         <v>44516</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37292,7 +37293,7 @@
         <v>44517</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37349,7 +37350,7 @@
         <v>44517</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37406,7 +37407,7 @@
         <v>44517</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37463,7 +37464,7 @@
         <v>44518</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37520,7 +37521,7 @@
         <v>44519</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37577,7 +37578,7 @@
         <v>44522</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37634,7 +37635,7 @@
         <v>44522</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37691,7 +37692,7 @@
         <v>44525</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37753,7 +37754,7 @@
         <v>44526</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37815,7 +37816,7 @@
         <v>44526</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -37872,7 +37873,7 @@
         <v>44526</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -37929,7 +37930,7 @@
         <v>44531</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -37986,7 +37987,7 @@
         <v>44531</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38043,7 +38044,7 @@
         <v>44531</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38105,7 +38106,7 @@
         <v>44531</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38162,7 +38163,7 @@
         <v>44532</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38219,7 +38220,7 @@
         <v>44532</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38276,7 +38277,7 @@
         <v>44532</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38333,7 +38334,7 @@
         <v>44532</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38390,7 +38391,7 @@
         <v>44535</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38447,7 +38448,7 @@
         <v>44535</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38504,7 +38505,7 @@
         <v>44540</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38566,7 +38567,7 @@
         <v>44543</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38628,7 +38629,7 @@
         <v>44543</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38690,7 +38691,7 @@
         <v>44544</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38747,7 +38748,7 @@
         <v>44544</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -38804,7 +38805,7 @@
         <v>44548</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -38861,7 +38862,7 @@
         <v>44553</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -38918,7 +38919,7 @@
         <v>44553</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -38975,7 +38976,7 @@
         <v>44560</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39032,7 +39033,7 @@
         <v>44560</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39089,7 +39090,7 @@
         <v>44569</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39151,7 +39152,7 @@
         <v>44571</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39213,7 +39214,7 @@
         <v>44572</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -39275,7 +39276,7 @@
         <v>44574</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -39332,7 +39333,7 @@
         <v>44575</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39389,7 +39390,7 @@
         <v>44575</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39446,7 +39447,7 @@
         <v>44575</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39503,7 +39504,7 @@
         <v>44583</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39565,7 +39566,7 @@
         <v>44583</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -39627,7 +39628,7 @@
         <v>44583</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -39689,7 +39690,7 @@
         <v>44588</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -39746,7 +39747,7 @@
         <v>44588</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -39803,7 +39804,7 @@
         <v>44593</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -39865,7 +39866,7 @@
         <v>44593</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -39922,7 +39923,7 @@
         <v>44593</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -39979,7 +39980,7 @@
         <v>44593</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40036,7 +40037,7 @@
         <v>44594</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40093,7 +40094,7 @@
         <v>44594</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40150,7 +40151,7 @@
         <v>44598</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40207,7 +40208,7 @@
         <v>44600</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -40264,7 +40265,7 @@
         <v>44600</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -40326,7 +40327,7 @@
         <v>44602</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -40383,7 +40384,7 @@
         <v>44602</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -40440,7 +40441,7 @@
         <v>44602</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -40497,7 +40498,7 @@
         <v>44602</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -40554,7 +40555,7 @@
         <v>44602</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -40611,7 +40612,7 @@
         <v>44602</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -40673,7 +40674,7 @@
         <v>44602</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -40730,7 +40731,7 @@
         <v>44603</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -40787,7 +40788,7 @@
         <v>44603</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -40844,7 +40845,7 @@
         <v>44603</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -40901,7 +40902,7 @@
         <v>44606</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -40958,7 +40959,7 @@
         <v>44608</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41020,7 +41021,7 @@
         <v>44608</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41082,7 +41083,7 @@
         <v>44608</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41139,7 +41140,7 @@
         <v>44609</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41201,7 +41202,7 @@
         <v>44609</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -41263,7 +41264,7 @@
         <v>44610</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -41325,7 +41326,7 @@
         <v>44610</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -41387,7 +41388,7 @@
         <v>44610</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -41449,7 +41450,7 @@
         <v>44612</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -41506,7 +41507,7 @@
         <v>44616</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -41568,7 +41569,7 @@
         <v>44616</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -41625,7 +41626,7 @@
         <v>44623</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -41687,7 +41688,7 @@
         <v>44634</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -41744,7 +41745,7 @@
         <v>44645</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -41801,7 +41802,7 @@
         <v>44649</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -41858,7 +41859,7 @@
         <v>44649</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -41915,7 +41916,7 @@
         <v>44652</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -41972,7 +41973,7 @@
         <v>44659</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42034,7 +42035,7 @@
         <v>44659</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42096,7 +42097,7 @@
         <v>44665</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42158,7 +42159,7 @@
         <v>44673</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -42220,7 +42221,7 @@
         <v>44676</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -42282,7 +42283,7 @@
         <v>44676</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -42339,7 +42340,7 @@
         <v>44690</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -42401,7 +42402,7 @@
         <v>44691</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -42463,7 +42464,7 @@
         <v>44692</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -42525,7 +42526,7 @@
         <v>44699</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -42587,7 +42588,7 @@
         <v>44700</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -42644,7 +42645,7 @@
         <v>44700</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -42701,7 +42702,7 @@
         <v>44701</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -42763,7 +42764,7 @@
         <v>44704</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -42825,7 +42826,7 @@
         <v>44704</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -42882,7 +42883,7 @@
         <v>44711</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -42944,7 +42945,7 @@
         <v>44713</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43006,7 +43007,7 @@
         <v>44713</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43068,7 +43069,7 @@
         <v>44714</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43125,7 +43126,7 @@
         <v>44719</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43182,7 +43183,7 @@
         <v>44720</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -43239,7 +43240,7 @@
         <v>44729</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -43296,7 +43297,7 @@
         <v>44733</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -43353,7 +43354,7 @@
         <v>44742</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -43410,7 +43411,7 @@
         <v>44742</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -43467,7 +43468,7 @@
         <v>44742</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -43529,7 +43530,7 @@
         <v>44742</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -43586,7 +43587,7 @@
         <v>44742</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -43643,7 +43644,7 @@
         <v>44743</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -43700,7 +43701,7 @@
         <v>44762</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -43762,7 +43763,7 @@
         <v>44764</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -43824,7 +43825,7 @@
         <v>44764</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -43886,7 +43887,7 @@
         <v>44769</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -43948,7 +43949,7 @@
         <v>44771</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44010,7 +44011,7 @@
         <v>44771</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44072,7 +44073,7 @@
         <v>44771</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44134,7 +44135,7 @@
         <v>44782</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44191,7 +44192,7 @@
         <v>44782</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -44248,7 +44249,7 @@
         <v>44784</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -44305,7 +44306,7 @@
         <v>44788</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -44362,7 +44363,7 @@
         <v>44795</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -44419,7 +44420,7 @@
         <v>44797</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -44476,7 +44477,7 @@
         <v>44798</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -44533,7 +44534,7 @@
         <v>44806</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -44590,7 +44591,7 @@
         <v>44810</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -44647,7 +44648,7 @@
         <v>44811</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -44704,7 +44705,7 @@
         <v>44816</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -44761,7 +44762,7 @@
         <v>44816</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -44818,7 +44819,7 @@
         <v>44816</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -44875,7 +44876,7 @@
         <v>44816</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -44932,7 +44933,7 @@
         <v>44816</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -44994,7 +44995,7 @@
         <v>44817</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45051,7 +45052,7 @@
         <v>44817</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45108,7 +45109,7 @@
         <v>44817</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -45165,7 +45166,7 @@
         <v>44819</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -45227,7 +45228,7 @@
         <v>44831</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -45284,7 +45285,7 @@
         <v>44832</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -45341,7 +45342,7 @@
         <v>44839</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -45398,7 +45399,7 @@
         <v>44844</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -45455,7 +45456,7 @@
         <v>44846</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -45512,7 +45513,7 @@
         <v>44847</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -45569,7 +45570,7 @@
         <v>44847</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -45626,7 +45627,7 @@
         <v>44847</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -45683,7 +45684,7 @@
         <v>44848</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -45740,7 +45741,7 @@
         <v>44849</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -45797,7 +45798,7 @@
         <v>44853</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -45854,7 +45855,7 @@
         <v>44865</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -45911,7 +45912,7 @@
         <v>44866</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -45968,7 +45969,7 @@
         <v>44872</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46025,7 +46026,7 @@
         <v>44872</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -46082,7 +46083,7 @@
         <v>44883</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -46144,7 +46145,7 @@
         <v>44883</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -46201,7 +46202,7 @@
         <v>44886</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -46258,7 +46259,7 @@
         <v>44886</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -46320,7 +46321,7 @@
         <v>44888</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -46382,7 +46383,7 @@
         <v>44893</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -46439,7 +46440,7 @@
         <v>44897</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -46496,7 +46497,7 @@
         <v>44897</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -46553,7 +46554,7 @@
         <v>44901</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -46615,7 +46616,7 @@
         <v>44904</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -46677,7 +46678,7 @@
         <v>44908</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -46734,7 +46735,7 @@
         <v>44908</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -46791,7 +46792,7 @@
         <v>44909</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -46848,7 +46849,7 @@
         <v>44909</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -46905,7 +46906,7 @@
         <v>44912</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -46962,7 +46963,7 @@
         <v>44916</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47024,7 +47025,7 @@
         <v>44916</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -47081,7 +47082,7 @@
         <v>44928</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -47143,7 +47144,7 @@
         <v>44928</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -47205,7 +47206,7 @@
         <v>44929</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -47262,7 +47263,7 @@
         <v>44930</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -47319,7 +47320,7 @@
         <v>44930</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -47381,7 +47382,7 @@
         <v>44935</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -47438,7 +47439,7 @@
         <v>44944</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -47495,7 +47496,7 @@
         <v>44944</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -47557,7 +47558,7 @@
         <v>44944</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -47614,7 +47615,7 @@
         <v>44944</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -47676,7 +47677,7 @@
         <v>44944</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -47733,7 +47734,7 @@
         <v>44945</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -47790,7 +47791,7 @@
         <v>44946</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -47847,7 +47848,7 @@
         <v>44949</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -47909,7 +47910,7 @@
         <v>44950</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -47971,7 +47972,7 @@
         <v>44952</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -48033,7 +48034,7 @@
         <v>44960</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -48095,7 +48096,7 @@
         <v>44960</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -48152,7 +48153,7 @@
         <v>44960</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -48209,7 +48210,7 @@
         <v>44964</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -48266,7 +48267,7 @@
         <v>44964</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -48323,7 +48324,7 @@
         <v>44965</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -48380,7 +48381,7 @@
         <v>44965</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -48437,7 +48438,7 @@
         <v>44966</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -48499,7 +48500,7 @@
         <v>44967</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -48556,7 +48557,7 @@
         <v>44967</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -48613,7 +48614,7 @@
         <v>44967</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -48670,7 +48671,7 @@
         <v>44967</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -48727,7 +48728,7 @@
         <v>44967</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -48784,7 +48785,7 @@
         <v>44969</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -48841,7 +48842,7 @@
         <v>44970</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -48903,7 +48904,7 @@
         <v>44971</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -48960,7 +48961,7 @@
         <v>44971</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -49017,7 +49018,7 @@
         <v>44972</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -49074,7 +49075,7 @@
         <v>44973</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -49131,7 +49132,7 @@
         <v>44973</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -49188,7 +49189,7 @@
         <v>44977</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -49250,7 +49251,7 @@
         <v>44977</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -49307,7 +49308,7 @@
         <v>44977</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -49364,7 +49365,7 @@
         <v>44978</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -49426,7 +49427,7 @@
         <v>44980</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -49483,7 +49484,7 @@
         <v>44980</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -49540,7 +49541,7 @@
         <v>44980</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -49597,7 +49598,7 @@
         <v>44980</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -49654,7 +49655,7 @@
         <v>44984</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -49716,7 +49717,7 @@
         <v>44984</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -49773,7 +49774,7 @@
         <v>44988</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -49830,7 +49831,7 @@
         <v>44991</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -49887,7 +49888,7 @@
         <v>44993</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -49944,7 +49945,7 @@
         <v>44993</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -50001,7 +50002,7 @@
         <v>44994</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -50058,7 +50059,7 @@
         <v>45006</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -50115,7 +50116,7 @@
         <v>45009</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -50177,7 +50178,7 @@
         <v>45013</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -50234,7 +50235,7 @@
         <v>45014</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -50291,7 +50292,7 @@
         <v>45026</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -50348,7 +50349,7 @@
         <v>45028</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -50410,7 +50411,7 @@
         <v>45033</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -50467,7 +50468,7 @@
         <v>45036</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -50524,7 +50525,7 @@
         <v>45037</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -50586,7 +50587,7 @@
         <v>45042</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -50643,7 +50644,7 @@
         <v>45042</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -50705,7 +50706,7 @@
         <v>45043</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -50762,7 +50763,7 @@
         <v>45049</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -50819,7 +50820,7 @@
         <v>45049</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -50876,7 +50877,7 @@
         <v>45049</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -50933,7 +50934,7 @@
         <v>45049</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -50990,7 +50991,7 @@
         <v>45050</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -51047,7 +51048,7 @@
         <v>45050</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -51104,7 +51105,7 @@
         <v>45050</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -51161,7 +51162,7 @@
         <v>45054</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -51218,7 +51219,7 @@
         <v>45054</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -51275,7 +51276,7 @@
         <v>45055</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -51332,7 +51333,7 @@
         <v>45056</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -51394,7 +51395,7 @@
         <v>45056</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -51456,7 +51457,7 @@
         <v>45058</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -51513,7 +51514,7 @@
         <v>45058</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -51570,7 +51571,7 @@
         <v>45058</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -51627,7 +51628,7 @@
         <v>45058</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -51684,7 +51685,7 @@
         <v>45058</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -51741,7 +51742,7 @@
         <v>45058</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -51803,7 +51804,7 @@
         <v>45060</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -51860,7 +51861,7 @@
         <v>45061</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -51917,7 +51918,7 @@
         <v>45063</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -51974,7 +51975,7 @@
         <v>45063</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -52031,7 +52032,7 @@
         <v>45063</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -52088,7 +52089,7 @@
         <v>45063</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -52145,7 +52146,7 @@
         <v>45070</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -52207,7 +52208,7 @@
         <v>45075</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -52264,7 +52265,7 @@
         <v>45078</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -52321,7 +52322,7 @@
         <v>45078</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -52383,7 +52384,7 @@
         <v>45078</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -52440,7 +52441,7 @@
         <v>45079</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -52497,7 +52498,7 @@
         <v>45084</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -52559,7 +52560,7 @@
         <v>45086</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -52621,7 +52622,7 @@
         <v>45089</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -52678,7 +52679,7 @@
         <v>45089</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -52735,7 +52736,7 @@
         <v>45089</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -52792,7 +52793,7 @@
         <v>45089</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -52849,7 +52850,7 @@
         <v>45091</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -52911,7 +52912,7 @@
         <v>45091</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -52968,7 +52969,7 @@
         <v>45091</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -53030,7 +53031,7 @@
         <v>45091</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -53092,7 +53093,7 @@
         <v>45091</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -53149,7 +53150,7 @@
         <v>45093</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -53211,7 +53212,7 @@
         <v>45096</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -53268,7 +53269,7 @@
         <v>45096</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -53325,7 +53326,7 @@
         <v>45096</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -53382,7 +53383,7 @@
         <v>45096</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -53439,7 +53440,7 @@
         <v>45096</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -53496,7 +53497,7 @@
         <v>45096</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -53553,7 +53554,7 @@
         <v>45096</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -53610,7 +53611,7 @@
         <v>45096</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -53667,7 +53668,7 @@
         <v>45097</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -53724,7 +53725,7 @@
         <v>45097</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -53781,7 +53782,7 @@
         <v>45097</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -53838,7 +53839,7 @@
         <v>45097</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -53895,7 +53896,7 @@
         <v>45097</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -53952,7 +53953,7 @@
         <v>45103</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -54009,7 +54010,7 @@
         <v>45103</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -54066,7 +54067,7 @@
         <v>45105</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -54123,7 +54124,7 @@
         <v>45105</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -54180,7 +54181,7 @@
         <v>45105</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -54237,7 +54238,7 @@
         <v>45107</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -54294,7 +54295,7 @@
         <v>45107</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -54351,7 +54352,7 @@
         <v>45107</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -54413,7 +54414,7 @@
         <v>45107</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -54470,7 +54471,7 @@
         <v>45107</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -54532,7 +54533,7 @@
         <v>45107</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -54589,7 +54590,7 @@
         <v>45110</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -54646,7 +54647,7 @@
         <v>45112</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -54703,7 +54704,7 @@
         <v>45113</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -54760,7 +54761,7 @@
         <v>45119</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -54817,7 +54818,7 @@
         <v>45121</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -54879,7 +54880,7 @@
         <v>45123</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -54936,7 +54937,7 @@
         <v>45127</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -54993,7 +54994,7 @@
         <v>45128</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -55050,7 +55051,7 @@
         <v>45131</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -55107,7 +55108,7 @@
         <v>45132</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -55164,7 +55165,7 @@
         <v>45134</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -55221,7 +55222,7 @@
         <v>45145</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -55278,7 +55279,7 @@
         <v>45148</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -55335,7 +55336,7 @@
         <v>45148</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -55392,7 +55393,7 @@
         <v>45148</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -55449,7 +55450,7 @@
         <v>45148</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -55506,7 +55507,7 @@
         <v>45148</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -55563,7 +55564,7 @@
         <v>45149</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -55625,7 +55626,7 @@
         <v>45152</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -55682,7 +55683,7 @@
         <v>45152</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -55744,7 +55745,7 @@
         <v>45152</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -55801,7 +55802,7 @@
         <v>45152</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -55863,7 +55864,7 @@
         <v>45153</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -55925,7 +55926,7 @@
         <v>45153</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -55987,7 +55988,7 @@
         <v>45160</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -56044,7 +56045,7 @@
         <v>45161</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -56101,7 +56102,7 @@
         <v>45162</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -56158,7 +56159,7 @@
         <v>45162</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -56215,7 +56216,7 @@
         <v>45162</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -56277,7 +56278,7 @@
         <v>45162</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -56339,7 +56340,7 @@
         <v>45164</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -56401,7 +56402,7 @@
         <v>45167</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -56458,7 +56459,7 @@
         <v>45169</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -56520,7 +56521,7 @@
         <v>45169</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>

--- a/Översikt UPPSALA.xlsx
+++ b/Översikt UPPSALA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y896"/>
+  <dimension ref="A1:Y897"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44012</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         <v>43913</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         <v>18.1</v>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
         <v>12</v>
@@ -718,7 +718,7 @@
         <v>9</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
@@ -730,20 +730,19 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
           <t>Skogsalm
 Cinnoberbagge
 Aspfjädermossa
-Knärot
 Rynkskinn
 Violgubbe
 Granticka
@@ -811,7 +810,7 @@
         <v>43762</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -916,7 +915,7 @@
         <v>44377</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1026,7 +1025,7 @@
         <v>44349</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1125,7 +1124,7 @@
         <v>43381</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1228,7 +1227,7 @@
         <v>45082</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1331,7 +1330,7 @@
         <v>43875</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1428,7 +1427,7 @@
         <v>45013</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1525,7 +1524,7 @@
         <v>44222</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1625,7 +1624,7 @@
         <v>44623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1725,7 +1724,7 @@
         <v>44971</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1820,7 +1819,7 @@
         <v>43796</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1923,7 +1922,7 @@
         <v>44053</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2017,7 +2016,7 @@
         <v>44356</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2114,7 +2113,7 @@
         <v>45086</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2207,7 +2206,7 @@
         <v>43454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2304,7 +2303,7 @@
         <v>44158</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2401,7 +2400,7 @@
         <v>44180</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2498,7 +2497,7 @@
         <v>44497</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2594,7 +2593,7 @@
         <v>44901</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2686,7 +2685,7 @@
         <v>45092</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2782,7 +2781,7 @@
         <v>43433</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2873,7 +2872,7 @@
         <v>44376</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2973,7 +2972,7 @@
         <v>44575</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3064,7 +3063,7 @@
         <v>44356</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3154,7 +3153,7 @@
         <v>43814</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3248,7 +3247,7 @@
         <v>43861</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3337,7 +3336,7 @@
         <v>44119</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3426,7 +3425,7 @@
         <v>44351</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3519,7 +3518,7 @@
         <v>44500</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3612,7 +3611,7 @@
         <v>44574</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3701,7 +3700,7 @@
         <v>44792</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3795,7 +3794,7 @@
         <v>44879</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3884,7 +3883,7 @@
         <v>44922</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3977,7 +3976,7 @@
         <v>44977</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4066,7 +4065,7 @@
         <v>45107</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4155,7 +4154,7 @@
         <v>43511</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4243,7 +4242,7 @@
         <v>43857</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4331,7 +4330,7 @@
         <v>43980</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4423,7 +4422,7 @@
         <v>44056</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4520,7 +4519,7 @@
         <v>44101</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4613,7 +4612,7 @@
         <v>44462</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4710,7 +4709,7 @@
         <v>44664</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4798,7 +4797,7 @@
         <v>44719</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4886,7 +4885,7 @@
         <v>44740</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4974,7 +4973,7 @@
         <v>44974</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5062,7 +5061,7 @@
         <v>45002</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5159,7 +5158,7 @@
         <v>45049</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5247,7 +5246,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5335,7 +5334,7 @@
         <v>43511</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5422,7 +5421,7 @@
         <v>43731</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5509,7 +5508,7 @@
         <v>43796</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5601,7 +5600,7 @@
         <v>44101</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5693,7 +5692,7 @@
         <v>44133</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5785,7 +5784,7 @@
         <v>44495</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5872,7 +5871,7 @@
         <v>44652</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5964,7 +5963,7 @@
         <v>44684</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6051,7 +6050,7 @@
         <v>44692</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6143,7 +6142,7 @@
         <v>44791</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6230,7 +6229,7 @@
         <v>44804</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6317,7 +6316,7 @@
         <v>44938</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6409,7 +6408,7 @@
         <v>44956</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6496,7 +6495,7 @@
         <v>44973</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6588,7 +6587,7 @@
         <v>43503</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6679,7 +6678,7 @@
         <v>43545</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6770,7 +6769,7 @@
         <v>43607</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6856,7 +6855,7 @@
         <v>43654</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6942,7 +6941,7 @@
         <v>43742</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7033,7 +7032,7 @@
         <v>43929</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7119,7 +7118,7 @@
         <v>44054</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7210,7 +7209,7 @@
         <v>44101</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7301,7 +7300,7 @@
         <v>44659</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7387,7 +7386,7 @@
         <v>44879</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7473,7 +7472,7 @@
         <v>44967</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7559,7 +7558,7 @@
         <v>45002</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7650,7 +7649,7 @@
         <v>45090</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7741,7 +7740,7 @@
         <v>45121</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7832,7 +7831,7 @@
         <v>43321</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7917,7 +7916,7 @@
         <v>43339</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8002,7 +8001,7 @@
         <v>43462</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8087,7 +8086,7 @@
         <v>43473</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8172,7 +8171,7 @@
         <v>43473</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8262,7 +8261,7 @@
         <v>43528</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8347,7 +8346,7 @@
         <v>43551</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8437,7 +8436,7 @@
         <v>43693</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8522,7 +8521,7 @@
         <v>43693</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8607,7 +8606,7 @@
         <v>43731</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8692,7 +8691,7 @@
         <v>43755</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8777,7 +8776,7 @@
         <v>43867</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8862,7 +8861,7 @@
         <v>43893</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8947,7 +8946,7 @@
         <v>43980</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9037,7 +9036,7 @@
         <v>44042</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9122,7 +9121,7 @@
         <v>44266</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9212,7 +9211,7 @@
         <v>44467</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9302,7 +9301,7 @@
         <v>44487</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9387,7 +9386,7 @@
         <v>44489</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9472,7 +9471,7 @@
         <v>44589</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9557,7 +9556,7 @@
         <v>44614</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9642,7 +9641,7 @@
         <v>44645</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9732,7 +9731,7 @@
         <v>44678</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9822,7 +9821,7 @@
         <v>44729</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9912,7 +9911,7 @@
         <v>44849</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9997,7 +9996,7 @@
         <v>44855</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10087,7 +10086,7 @@
         <v>44897</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10172,7 +10171,7 @@
         <v>44917</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10262,7 +10261,7 @@
         <v>44958</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10347,7 +10346,7 @@
         <v>44963</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10432,7 +10431,7 @@
         <v>45002</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10522,7 +10521,7 @@
         <v>45021</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10607,7 +10606,7 @@
         <v>45022</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10697,7 +10696,7 @@
         <v>45022</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10787,7 +10786,7 @@
         <v>45055</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10872,7 +10871,7 @@
         <v>45061</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10957,7 +10956,7 @@
         <v>45072</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11047,7 +11046,7 @@
         <v>45097</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11132,7 +11131,7 @@
         <v>45098</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11217,7 +11216,7 @@
         <v>45104</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11302,7 +11301,7 @@
         <v>45121</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11392,7 +11391,7 @@
         <v>45139</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11477,7 +11476,7 @@
         <v>43321</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11534,7 +11533,7 @@
         <v>43321</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11591,7 +11590,7 @@
         <v>43335</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11648,7 +11647,7 @@
         <v>43341</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11705,7 +11704,7 @@
         <v>43347</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11762,7 +11761,7 @@
         <v>43355</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11819,7 +11818,7 @@
         <v>43360</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11876,7 +11875,7 @@
         <v>43377</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11933,7 +11932,7 @@
         <v>43378</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11995,7 +11994,7 @@
         <v>43378</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12052,7 +12051,7 @@
         <v>43378</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12114,7 +12113,7 @@
         <v>43381</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12176,7 +12175,7 @@
         <v>43381</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12238,7 +12237,7 @@
         <v>43389</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12295,7 +12294,7 @@
         <v>43395</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12352,7 +12351,7 @@
         <v>43398</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12414,7 +12413,7 @@
         <v>43407</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12471,7 +12470,7 @@
         <v>43411</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12533,7 +12532,7 @@
         <v>43418</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12595,7 +12594,7 @@
         <v>43420</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12657,7 +12656,7 @@
         <v>43423</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12714,7 +12713,7 @@
         <v>43423</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12771,7 +12770,7 @@
         <v>43424</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12828,7 +12827,7 @@
         <v>43424</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12890,7 +12889,7 @@
         <v>43424</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12952,7 +12951,7 @@
         <v>43427</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13009,7 +13008,7 @@
         <v>43430</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13066,7 +13065,7 @@
         <v>43431</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13123,7 +13122,7 @@
         <v>43433</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13180,7 +13179,7 @@
         <v>43433</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13237,7 +13236,7 @@
         <v>43433</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13294,7 +13293,7 @@
         <v>43433</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13351,7 +13350,7 @@
         <v>43436</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13408,7 +13407,7 @@
         <v>43436</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13465,7 +13464,7 @@
         <v>43437</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13522,7 +13521,7 @@
         <v>43439</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13579,7 +13578,7 @@
         <v>43444</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13636,7 +13635,7 @@
         <v>43445</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13693,7 +13692,7 @@
         <v>43446</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13750,7 +13749,7 @@
         <v>43447</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13807,7 +13806,7 @@
         <v>43447</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13864,7 +13863,7 @@
         <v>43447</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13926,7 +13925,7 @@
         <v>43451</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13983,7 +13982,7 @@
         <v>43451</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14040,7 +14039,7 @@
         <v>43451</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14097,7 +14096,7 @@
         <v>43452</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14154,7 +14153,7 @@
         <v>43452</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14211,7 +14210,7 @@
         <v>43455</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14268,7 +14267,7 @@
         <v>43455</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14325,7 +14324,7 @@
         <v>43455</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14382,7 +14381,7 @@
         <v>43455</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14439,7 +14438,7 @@
         <v>43460</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14496,7 +14495,7 @@
         <v>43464</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14553,7 +14552,7 @@
         <v>43468</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14610,7 +14609,7 @@
         <v>43472</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14667,7 +14666,7 @@
         <v>43472</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14724,7 +14723,7 @@
         <v>43472</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14781,7 +14780,7 @@
         <v>43472</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14838,7 +14837,7 @@
         <v>43473</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14900,7 +14899,7 @@
         <v>43473</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14957,7 +14956,7 @@
         <v>43473</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15014,7 +15013,7 @@
         <v>43473</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15071,7 +15070,7 @@
         <v>43473</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15128,7 +15127,7 @@
         <v>43473</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15185,7 +15184,7 @@
         <v>43473</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15242,7 +15241,7 @@
         <v>43473</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15299,7 +15298,7 @@
         <v>43474</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15356,7 +15355,7 @@
         <v>43474</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15413,7 +15412,7 @@
         <v>43475</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15470,7 +15469,7 @@
         <v>43475</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15527,7 +15526,7 @@
         <v>43475</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15584,7 +15583,7 @@
         <v>43476</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15641,7 +15640,7 @@
         <v>43479</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15703,7 +15702,7 @@
         <v>43479</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15760,7 +15759,7 @@
         <v>43479</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15817,7 +15816,7 @@
         <v>43479</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15879,7 +15878,7 @@
         <v>43479</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15941,7 +15940,7 @@
         <v>43480</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15998,7 +15997,7 @@
         <v>43480</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16055,7 +16054,7 @@
         <v>43481</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16112,7 +16111,7 @@
         <v>43481</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16169,7 +16168,7 @@
         <v>43481</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16226,7 +16225,7 @@
         <v>43481</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16283,7 +16282,7 @@
         <v>43481</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16345,7 +16344,7 @@
         <v>43482</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16402,7 +16401,7 @@
         <v>43482</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16459,7 +16458,7 @@
         <v>43482</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16516,7 +16515,7 @@
         <v>43482</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16573,7 +16572,7 @@
         <v>43482</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16630,7 +16629,7 @@
         <v>43482</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16687,7 +16686,7 @@
         <v>43482</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16744,7 +16743,7 @@
         <v>43485</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16801,7 +16800,7 @@
         <v>43486</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16858,7 +16857,7 @@
         <v>43486</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16920,7 +16919,7 @@
         <v>43486</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16977,7 +16976,7 @@
         <v>43487</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17034,7 +17033,7 @@
         <v>43488</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17096,7 +17095,7 @@
         <v>43488</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17153,7 +17152,7 @@
         <v>43488</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17215,7 +17214,7 @@
         <v>43492</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17277,7 +17276,7 @@
         <v>43493</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17334,7 +17333,7 @@
         <v>43493</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17391,7 +17390,7 @@
         <v>43496</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17448,7 +17447,7 @@
         <v>43496</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17505,7 +17504,7 @@
         <v>43498</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17567,7 +17566,7 @@
         <v>43500</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17624,7 +17623,7 @@
         <v>43500</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17686,7 +17685,7 @@
         <v>43500</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17743,7 +17742,7 @@
         <v>43500</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17800,7 +17799,7 @@
         <v>43500</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17862,7 +17861,7 @@
         <v>43503</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17919,7 +17918,7 @@
         <v>43504</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17976,7 +17975,7 @@
         <v>43507</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18033,7 +18032,7 @@
         <v>43507</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18090,7 +18089,7 @@
         <v>43508</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18147,7 +18146,7 @@
         <v>43509</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18204,7 +18203,7 @@
         <v>43511</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18261,7 +18260,7 @@
         <v>43511</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18318,7 +18317,7 @@
         <v>43511</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18375,7 +18374,7 @@
         <v>43511</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18432,7 +18431,7 @@
         <v>43511</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18489,7 +18488,7 @@
         <v>43516</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18551,7 +18550,7 @@
         <v>43517</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18608,7 +18607,7 @@
         <v>43517</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18670,7 +18669,7 @@
         <v>43517</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18732,7 +18731,7 @@
         <v>43517</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18794,7 +18793,7 @@
         <v>43523</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18851,7 +18850,7 @@
         <v>43528</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18908,7 +18907,7 @@
         <v>43528</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18965,7 +18964,7 @@
         <v>43531</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19022,7 +19021,7 @@
         <v>43531</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19079,7 +19078,7 @@
         <v>43531</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19141,7 +19140,7 @@
         <v>43532</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19203,7 +19202,7 @@
         <v>43535</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19260,7 +19259,7 @@
         <v>43536</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19317,7 +19316,7 @@
         <v>43538</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19379,7 +19378,7 @@
         <v>43538</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19441,7 +19440,7 @@
         <v>43544</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19498,7 +19497,7 @@
         <v>43550</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19555,7 +19554,7 @@
         <v>43552</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19612,7 +19611,7 @@
         <v>43553</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19674,7 +19673,7 @@
         <v>43553</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19731,7 +19730,7 @@
         <v>43556</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19788,7 +19787,7 @@
         <v>43559</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19845,7 +19844,7 @@
         <v>43559</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19902,7 +19901,7 @@
         <v>43560</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19959,7 +19958,7 @@
         <v>43570</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20016,7 +20015,7 @@
         <v>43572</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20073,7 +20072,7 @@
         <v>43578</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20130,7 +20129,7 @@
         <v>43578</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20187,7 +20186,7 @@
         <v>43583</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20244,7 +20243,7 @@
         <v>43585</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20306,7 +20305,7 @@
         <v>43591</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20363,7 +20362,7 @@
         <v>43592</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20425,7 +20424,7 @@
         <v>43600</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20482,7 +20481,7 @@
         <v>43605</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20539,7 +20538,7 @@
         <v>43605</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20596,7 +20595,7 @@
         <v>43607</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20653,7 +20652,7 @@
         <v>43628</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20710,7 +20709,7 @@
         <v>43628</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20767,7 +20766,7 @@
         <v>43628</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20829,7 +20828,7 @@
         <v>43630</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20886,7 +20885,7 @@
         <v>43630</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20943,7 +20942,7 @@
         <v>43647</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21000,7 +20999,7 @@
         <v>43647</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21057,7 +21056,7 @@
         <v>43648</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21114,7 +21113,7 @@
         <v>43651</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21171,7 +21170,7 @@
         <v>43651</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21228,7 +21227,7 @@
         <v>43651</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21285,7 +21284,7 @@
         <v>43651</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21342,7 +21341,7 @@
         <v>43654</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21399,7 +21398,7 @@
         <v>43654</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21456,7 +21455,7 @@
         <v>43656</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21513,7 +21512,7 @@
         <v>43661</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21570,7 +21569,7 @@
         <v>43661</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21627,7 +21626,7 @@
         <v>43663</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21684,7 +21683,7 @@
         <v>43677</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21741,7 +21740,7 @@
         <v>43682</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21798,7 +21797,7 @@
         <v>43686</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21855,7 +21854,7 @@
         <v>43693</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21912,7 +21911,7 @@
         <v>43696</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21974,7 +21973,7 @@
         <v>43696</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22031,7 +22030,7 @@
         <v>43699</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22088,7 +22087,7 @@
         <v>43699</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22145,7 +22144,7 @@
         <v>43699</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22202,7 +22201,7 @@
         <v>43705</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22259,7 +22258,7 @@
         <v>43706</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22321,7 +22320,7 @@
         <v>43706</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22383,7 +22382,7 @@
         <v>43706</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22445,7 +22444,7 @@
         <v>43706</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22502,7 +22501,7 @@
         <v>43706</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22564,7 +22563,7 @@
         <v>43706</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22626,7 +22625,7 @@
         <v>43707</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22688,7 +22687,7 @@
         <v>43707</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22750,7 +22749,7 @@
         <v>43707</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22807,7 +22806,7 @@
         <v>43707</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22869,7 +22868,7 @@
         <v>43710</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22926,7 +22925,7 @@
         <v>43712</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22983,7 +22982,7 @@
         <v>43712</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23040,7 +23039,7 @@
         <v>43713</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23097,7 +23096,7 @@
         <v>43716</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23154,7 +23153,7 @@
         <v>43718</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23211,7 +23210,7 @@
         <v>43718</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23273,7 +23272,7 @@
         <v>43718</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23330,7 +23329,7 @@
         <v>43718</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23392,7 +23391,7 @@
         <v>43718</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23454,7 +23453,7 @@
         <v>43718</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23511,7 +23510,7 @@
         <v>43720</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23568,7 +23567,7 @@
         <v>43727</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23625,7 +23624,7 @@
         <v>43730</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23682,7 +23681,7 @@
         <v>43733</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23744,7 +23743,7 @@
         <v>43735</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23806,7 +23805,7 @@
         <v>43735</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23868,7 +23867,7 @@
         <v>43736</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23925,7 +23924,7 @@
         <v>43745</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23982,7 +23981,7 @@
         <v>43745</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24044,7 +24043,7 @@
         <v>43747</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24106,7 +24105,7 @@
         <v>43748</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24163,7 +24162,7 @@
         <v>43755</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24225,7 +24224,7 @@
         <v>43759</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24282,7 +24281,7 @@
         <v>43763</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24344,7 +24343,7 @@
         <v>43773</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24401,7 +24400,7 @@
         <v>43773</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24458,7 +24457,7 @@
         <v>43773</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24520,7 +24519,7 @@
         <v>43777</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24577,7 +24576,7 @@
         <v>43777</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24639,7 +24638,7 @@
         <v>43780</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24701,7 +24700,7 @@
         <v>43780</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24763,7 +24762,7 @@
         <v>43782</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24820,7 +24819,7 @@
         <v>43784</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24877,7 +24876,7 @@
         <v>43791</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24934,7 +24933,7 @@
         <v>43791</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24991,7 +24990,7 @@
         <v>43791</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25048,7 +25047,7 @@
         <v>43791</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25105,7 +25104,7 @@
         <v>43795</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25162,7 +25161,7 @@
         <v>43795</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25219,7 +25218,7 @@
         <v>43795</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25276,7 +25275,7 @@
         <v>43801</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25333,7 +25332,7 @@
         <v>43801</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25390,7 +25389,7 @@
         <v>43803</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25447,7 +25446,7 @@
         <v>43808</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25504,7 +25503,7 @@
         <v>43808</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25561,7 +25560,7 @@
         <v>43811</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25618,7 +25617,7 @@
         <v>43812</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25680,7 +25679,7 @@
         <v>43814</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25742,7 +25741,7 @@
         <v>43814</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25804,7 +25803,7 @@
         <v>43815</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25861,7 +25860,7 @@
         <v>43815</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25923,7 +25922,7 @@
         <v>43817</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25980,7 +25979,7 @@
         <v>43817</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26037,7 +26036,7 @@
         <v>43818</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26094,7 +26093,7 @@
         <v>43818</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26151,7 +26150,7 @@
         <v>43822</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26208,7 +26207,7 @@
         <v>43837</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26265,7 +26264,7 @@
         <v>43837</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26322,7 +26321,7 @@
         <v>43838</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26379,7 +26378,7 @@
         <v>43844</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26436,7 +26435,7 @@
         <v>43850</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26493,7 +26492,7 @@
         <v>43853</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26550,7 +26549,7 @@
         <v>43853</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26612,7 +26611,7 @@
         <v>43866</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26674,7 +26673,7 @@
         <v>43866</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26736,7 +26735,7 @@
         <v>43867</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26793,7 +26792,7 @@
         <v>43874</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26850,7 +26849,7 @@
         <v>43878</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26912,7 +26911,7 @@
         <v>43878</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26969,7 +26968,7 @@
         <v>43878</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27026,7 +27025,7 @@
         <v>43879</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27088,7 +27087,7 @@
         <v>43879</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27150,7 +27149,7 @@
         <v>43879</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27212,7 +27211,7 @@
         <v>43881</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27269,7 +27268,7 @@
         <v>43882</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27326,7 +27325,7 @@
         <v>43882</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27388,7 +27387,7 @@
         <v>43882</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27450,7 +27449,7 @@
         <v>43886</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27507,7 +27506,7 @@
         <v>43887</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27564,7 +27563,7 @@
         <v>43891</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27626,7 +27625,7 @@
         <v>43892</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27688,7 +27687,7 @@
         <v>43892</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27745,7 +27744,7 @@
         <v>43892</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27807,7 +27806,7 @@
         <v>43894</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27864,7 +27863,7 @@
         <v>43894</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27921,7 +27920,7 @@
         <v>43899</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27978,7 +27977,7 @@
         <v>43899</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28040,7 +28039,7 @@
         <v>43903</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28097,7 +28096,7 @@
         <v>43908</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28154,7 +28153,7 @@
         <v>43908</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28211,7 +28210,7 @@
         <v>43908</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28273,7 +28272,7 @@
         <v>43908</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28330,7 +28329,7 @@
         <v>43913</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28392,7 +28391,7 @@
         <v>43927</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28449,7 +28448,7 @@
         <v>43927</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28506,7 +28505,7 @@
         <v>43929</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28563,7 +28562,7 @@
         <v>43937</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28620,7 +28619,7 @@
         <v>43944</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28677,7 +28676,7 @@
         <v>43948</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28734,7 +28733,7 @@
         <v>43948</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28791,7 +28790,7 @@
         <v>43950</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28853,7 +28852,7 @@
         <v>43973</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28915,7 +28914,7 @@
         <v>43984</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28972,7 +28971,7 @@
         <v>43987</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29029,7 +29028,7 @@
         <v>43987</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29086,7 +29085,7 @@
         <v>43990</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29143,7 +29142,7 @@
         <v>43999</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29200,7 +29199,7 @@
         <v>43999</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29257,7 +29256,7 @@
         <v>44000</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29314,7 +29313,7 @@
         <v>44000</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29371,7 +29370,7 @@
         <v>44007</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29428,7 +29427,7 @@
         <v>44007</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29485,7 +29484,7 @@
         <v>44012</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29547,7 +29546,7 @@
         <v>44013</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29604,7 +29603,7 @@
         <v>44014</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29661,7 +29660,7 @@
         <v>44015</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29723,7 +29722,7 @@
         <v>44016</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29785,7 +29784,7 @@
         <v>44019</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29847,7 +29846,7 @@
         <v>44026</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29904,7 +29903,7 @@
         <v>44029</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29961,7 +29960,7 @@
         <v>44033</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30023,7 +30022,7 @@
         <v>44035</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30080,7 +30079,7 @@
         <v>44035</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30137,7 +30136,7 @@
         <v>44041</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30199,7 +30198,7 @@
         <v>44048</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30261,7 +30260,7 @@
         <v>44048</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30323,7 +30322,7 @@
         <v>44048</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30385,7 +30384,7 @@
         <v>44050</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30442,7 +30441,7 @@
         <v>44055</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30499,7 +30498,7 @@
         <v>44056</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30556,7 +30555,7 @@
         <v>44063</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30618,7 +30617,7 @@
         <v>44063</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30675,7 +30674,7 @@
         <v>44063</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30732,7 +30731,7 @@
         <v>44063</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30789,7 +30788,7 @@
         <v>44070</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30846,7 +30845,7 @@
         <v>44076</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30903,7 +30902,7 @@
         <v>44081</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30960,7 +30959,7 @@
         <v>44083</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31017,7 +31016,7 @@
         <v>44091</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31079,7 +31078,7 @@
         <v>44095</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31136,7 +31135,7 @@
         <v>44095</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31193,7 +31192,7 @@
         <v>44103</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31250,7 +31249,7 @@
         <v>44105</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31312,7 +31311,7 @@
         <v>44105</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31369,7 +31368,7 @@
         <v>44105</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31431,7 +31430,7 @@
         <v>44106</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31488,7 +31487,7 @@
         <v>44109</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31545,7 +31544,7 @@
         <v>44119</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31602,7 +31601,7 @@
         <v>44123</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31659,7 +31658,7 @@
         <v>44123</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31716,7 +31715,7 @@
         <v>44126</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31773,7 +31772,7 @@
         <v>44130</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31830,7 +31829,7 @@
         <v>44131</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31892,7 +31891,7 @@
         <v>44131</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31954,7 +31953,7 @@
         <v>44134</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32016,7 +32015,7 @@
         <v>44137</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32073,7 +32072,7 @@
         <v>44139</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32130,7 +32129,7 @@
         <v>44139</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32187,7 +32186,7 @@
         <v>44139</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32244,7 +32243,7 @@
         <v>44140</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32301,7 +32300,7 @@
         <v>44144</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32358,7 +32357,7 @@
         <v>44144</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32415,7 +32414,7 @@
         <v>44144</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32472,7 +32471,7 @@
         <v>44146</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32529,7 +32528,7 @@
         <v>44151</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32586,7 +32585,7 @@
         <v>44153</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32648,7 +32647,7 @@
         <v>44155</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32705,7 +32704,7 @@
         <v>44155</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32762,7 +32761,7 @@
         <v>44159</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32824,7 +32823,7 @@
         <v>44159</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32886,7 +32885,7 @@
         <v>44160</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32948,7 +32947,7 @@
         <v>44161</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33010,7 +33009,7 @@
         <v>44161</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33072,7 +33071,7 @@
         <v>44162</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33129,7 +33128,7 @@
         <v>44165</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33191,7 +33190,7 @@
         <v>44166</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33253,7 +33252,7 @@
         <v>44167</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33310,7 +33309,7 @@
         <v>44168</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33367,7 +33366,7 @@
         <v>44180</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33429,7 +33428,7 @@
         <v>44200</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33486,7 +33485,7 @@
         <v>44207</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33548,7 +33547,7 @@
         <v>44209</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33605,7 +33604,7 @@
         <v>44209</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33662,7 +33661,7 @@
         <v>44210</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33719,7 +33718,7 @@
         <v>44211</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33776,7 +33775,7 @@
         <v>44216</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33833,7 +33832,7 @@
         <v>44216</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33890,7 +33889,7 @@
         <v>44222</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33947,7 +33946,7 @@
         <v>44223</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34004,7 +34003,7 @@
         <v>44230</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34061,7 +34060,7 @@
         <v>44245</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34118,7 +34117,7 @@
         <v>44252</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34175,7 +34174,7 @@
         <v>44252</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34232,7 +34231,7 @@
         <v>44266</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34289,7 +34288,7 @@
         <v>44273</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34346,7 +34345,7 @@
         <v>44279</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34403,7 +34402,7 @@
         <v>44286</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34460,7 +34459,7 @@
         <v>44286</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34517,7 +34516,7 @@
         <v>44294</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34579,7 +34578,7 @@
         <v>44297</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34636,7 +34635,7 @@
         <v>44297</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34698,7 +34697,7 @@
         <v>44299</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34760,7 +34759,7 @@
         <v>44313</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34822,7 +34821,7 @@
         <v>44313</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34884,7 +34883,7 @@
         <v>44314</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34946,7 +34945,7 @@
         <v>44351</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35008,7 +35007,7 @@
         <v>44357</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35070,7 +35069,7 @@
         <v>44365</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35132,7 +35131,7 @@
         <v>44365</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35189,7 +35188,7 @@
         <v>44369</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35246,7 +35245,7 @@
         <v>44379</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35303,7 +35302,7 @@
         <v>44379</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35360,7 +35359,7 @@
         <v>44383</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35422,7 +35421,7 @@
         <v>44383</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35484,7 +35483,7 @@
         <v>44390</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35541,7 +35540,7 @@
         <v>44395</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35598,7 +35597,7 @@
         <v>44407</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35660,7 +35659,7 @@
         <v>44420</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35717,7 +35716,7 @@
         <v>44420</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35774,7 +35773,7 @@
         <v>44426</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35831,7 +35830,7 @@
         <v>44438</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35893,7 +35892,7 @@
         <v>44442</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -35950,7 +35949,7 @@
         <v>44445</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36007,7 +36006,7 @@
         <v>44446</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36064,7 +36063,7 @@
         <v>44447</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36121,7 +36120,7 @@
         <v>44453</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36178,7 +36177,7 @@
         <v>44459</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36240,7 +36239,7 @@
         <v>44461</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36302,7 +36301,7 @@
         <v>44463</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36359,7 +36358,7 @@
         <v>44470</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36416,7 +36415,7 @@
         <v>44479</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36473,7 +36472,7 @@
         <v>44481</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36530,7 +36529,7 @@
         <v>44484</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36587,7 +36586,7 @@
         <v>44486</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36644,7 +36643,7 @@
         <v>44489</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36701,7 +36700,7 @@
         <v>44489</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36758,7 +36757,7 @@
         <v>44494</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36820,7 +36819,7 @@
         <v>44495</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36877,7 +36876,7 @@
         <v>44497</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36934,7 +36933,7 @@
         <v>44503</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -36991,7 +36990,7 @@
         <v>44504</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37048,7 +37047,7 @@
         <v>44512</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37105,7 +37104,7 @@
         <v>44512</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37162,7 +37161,7 @@
         <v>44512</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37219,7 +37218,7 @@
         <v>44512</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37276,7 +37275,7 @@
         <v>44515</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37333,7 +37332,7 @@
         <v>44516</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37390,7 +37389,7 @@
         <v>44517</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37447,7 +37446,7 @@
         <v>44517</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37504,7 +37503,7 @@
         <v>44517</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37561,7 +37560,7 @@
         <v>44518</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37618,7 +37617,7 @@
         <v>44519</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37675,7 +37674,7 @@
         <v>44522</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37732,7 +37731,7 @@
         <v>44522</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37789,7 +37788,7 @@
         <v>44525</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37851,7 +37850,7 @@
         <v>44526</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -37913,7 +37912,7 @@
         <v>44526</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -37970,7 +37969,7 @@
         <v>44526</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38027,7 +38026,7 @@
         <v>44531</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38084,7 +38083,7 @@
         <v>44531</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38141,7 +38140,7 @@
         <v>44531</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38203,7 +38202,7 @@
         <v>44531</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38260,7 +38259,7 @@
         <v>44532</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38317,7 +38316,7 @@
         <v>44532</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38374,7 +38373,7 @@
         <v>44532</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38431,7 +38430,7 @@
         <v>44532</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38488,7 +38487,7 @@
         <v>44535</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38545,7 +38544,7 @@
         <v>44535</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38602,7 +38601,7 @@
         <v>44540</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38664,7 +38663,7 @@
         <v>44543</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38726,7 +38725,7 @@
         <v>44543</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38788,7 +38787,7 @@
         <v>44544</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -38845,7 +38844,7 @@
         <v>44544</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -38902,7 +38901,7 @@
         <v>44548</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -38959,7 +38958,7 @@
         <v>44553</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39016,7 +39015,7 @@
         <v>44553</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39073,7 +39072,7 @@
         <v>44560</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39130,7 +39129,7 @@
         <v>44560</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39187,7 +39186,7 @@
         <v>44569</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39249,7 +39248,7 @@
         <v>44571</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -39311,7 +39310,7 @@
         <v>44572</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -39373,7 +39372,7 @@
         <v>44574</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39430,7 +39429,7 @@
         <v>44575</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39487,7 +39486,7 @@
         <v>44575</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39544,7 +39543,7 @@
         <v>44575</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39601,7 +39600,7 @@
         <v>44583</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -39663,7 +39662,7 @@
         <v>44583</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -39725,7 +39724,7 @@
         <v>44583</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -39787,7 +39786,7 @@
         <v>44588</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -39844,7 +39843,7 @@
         <v>44588</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -39901,7 +39900,7 @@
         <v>44593</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -39963,7 +39962,7 @@
         <v>44593</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40020,7 +40019,7 @@
         <v>44593</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40077,7 +40076,7 @@
         <v>44593</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40134,7 +40133,7 @@
         <v>44594</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40191,7 +40190,7 @@
         <v>44594</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40248,7 +40247,7 @@
         <v>44598</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -40305,7 +40304,7 @@
         <v>44600</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -40362,7 +40361,7 @@
         <v>44600</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -40424,7 +40423,7 @@
         <v>44602</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -40481,7 +40480,7 @@
         <v>44602</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -40538,7 +40537,7 @@
         <v>44602</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -40595,7 +40594,7 @@
         <v>44602</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -40652,7 +40651,7 @@
         <v>44602</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -40709,7 +40708,7 @@
         <v>44602</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -40771,7 +40770,7 @@
         <v>44602</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -40828,7 +40827,7 @@
         <v>44603</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -40885,7 +40884,7 @@
         <v>44603</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -40942,7 +40941,7 @@
         <v>44603</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -40999,7 +40998,7 @@
         <v>44606</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41056,7 +41055,7 @@
         <v>44608</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41118,7 +41117,7 @@
         <v>44608</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41180,7 +41179,7 @@
         <v>44608</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41237,7 +41236,7 @@
         <v>44609</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -41299,7 +41298,7 @@
         <v>44609</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -41361,7 +41360,7 @@
         <v>44610</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -41423,7 +41422,7 @@
         <v>44610</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -41485,7 +41484,7 @@
         <v>44610</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -41547,7 +41546,7 @@
         <v>44612</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -41604,7 +41603,7 @@
         <v>44616</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -41666,7 +41665,7 @@
         <v>44616</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -41723,7 +41722,7 @@
         <v>44623</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -41785,7 +41784,7 @@
         <v>44634</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -41842,7 +41841,7 @@
         <v>44645</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -41899,7 +41898,7 @@
         <v>44649</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -41956,7 +41955,7 @@
         <v>44649</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42013,7 +42012,7 @@
         <v>44652</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42070,7 +42069,7 @@
         <v>44659</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42132,7 +42131,7 @@
         <v>44659</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42194,7 +42193,7 @@
         <v>44665</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -42256,7 +42255,7 @@
         <v>44673</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -42318,7 +42317,7 @@
         <v>44676</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -42380,7 +42379,7 @@
         <v>44676</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -42437,7 +42436,7 @@
         <v>44690</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -42499,7 +42498,7 @@
         <v>44691</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -42561,7 +42560,7 @@
         <v>44692</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -42623,7 +42622,7 @@
         <v>44699</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -42685,7 +42684,7 @@
         <v>44700</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -42742,7 +42741,7 @@
         <v>44700</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -42799,7 +42798,7 @@
         <v>44701</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -42861,7 +42860,7 @@
         <v>44704</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -42923,7 +42922,7 @@
         <v>44704</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -42980,7 +42979,7 @@
         <v>44711</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43042,7 +43041,7 @@
         <v>44713</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43104,7 +43103,7 @@
         <v>44713</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43166,7 +43165,7 @@
         <v>44714</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43223,7 +43222,7 @@
         <v>44719</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -43280,7 +43279,7 @@
         <v>44720</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -43337,7 +43336,7 @@
         <v>44729</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -43394,7 +43393,7 @@
         <v>44733</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -43451,7 +43450,7 @@
         <v>44742</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -43508,7 +43507,7 @@
         <v>44742</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -43565,7 +43564,7 @@
         <v>44742</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -43627,7 +43626,7 @@
         <v>44742</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -43684,7 +43683,7 @@
         <v>44742</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -43741,7 +43740,7 @@
         <v>44743</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -43798,7 +43797,7 @@
         <v>44762</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -43860,7 +43859,7 @@
         <v>44764</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -43922,7 +43921,7 @@
         <v>44764</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -43984,7 +43983,7 @@
         <v>44769</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44046,7 +44045,7 @@
         <v>44771</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44108,7 +44107,7 @@
         <v>44771</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44170,7 +44169,7 @@
         <v>44771</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44232,7 +44231,7 @@
         <v>44782</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -44289,7 +44288,7 @@
         <v>44782</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -44346,7 +44345,7 @@
         <v>44784</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -44403,7 +44402,7 @@
         <v>44788</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -44460,7 +44459,7 @@
         <v>44795</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -44517,7 +44516,7 @@
         <v>44797</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -44574,7 +44573,7 @@
         <v>44798</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -44631,7 +44630,7 @@
         <v>44806</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -44688,7 +44687,7 @@
         <v>44810</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -44745,7 +44744,7 @@
         <v>44811</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -44802,7 +44801,7 @@
         <v>44816</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -44859,7 +44858,7 @@
         <v>44816</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -44916,7 +44915,7 @@
         <v>44816</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -44973,7 +44972,7 @@
         <v>44816</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45030,7 +45029,7 @@
         <v>44816</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45092,7 +45091,7 @@
         <v>44817</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45149,7 +45148,7 @@
         <v>44817</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -45206,7 +45205,7 @@
         <v>44817</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -45263,7 +45262,7 @@
         <v>44819</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -45325,7 +45324,7 @@
         <v>44831</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -45382,7 +45381,7 @@
         <v>44832</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -45439,7 +45438,7 @@
         <v>44839</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -45496,7 +45495,7 @@
         <v>44844</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -45553,7 +45552,7 @@
         <v>44846</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -45610,7 +45609,7 @@
         <v>44847</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -45667,7 +45666,7 @@
         <v>44847</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -45724,7 +45723,7 @@
         <v>44847</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -45781,7 +45780,7 @@
         <v>44848</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -45838,7 +45837,7 @@
         <v>44849</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -45895,7 +45894,7 @@
         <v>44853</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -45952,7 +45951,7 @@
         <v>44865</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46009,7 +46008,7 @@
         <v>44866</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46066,7 +46065,7 @@
         <v>44872</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -46123,7 +46122,7 @@
         <v>44872</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -46180,7 +46179,7 @@
         <v>44883</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -46242,7 +46241,7 @@
         <v>44883</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -46299,7 +46298,7 @@
         <v>44886</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -46356,7 +46355,7 @@
         <v>44886</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -46418,7 +46417,7 @@
         <v>44888</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -46480,7 +46479,7 @@
         <v>44893</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -46537,7 +46536,7 @@
         <v>44897</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -46594,7 +46593,7 @@
         <v>44897</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -46651,7 +46650,7 @@
         <v>44901</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -46713,7 +46712,7 @@
         <v>44904</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -46775,7 +46774,7 @@
         <v>44908</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -46832,7 +46831,7 @@
         <v>44908</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -46889,7 +46888,7 @@
         <v>44909</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -46946,7 +46945,7 @@
         <v>44909</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47003,7 +47002,7 @@
         <v>44912</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47060,7 +47059,7 @@
         <v>44916</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -47122,7 +47121,7 @@
         <v>44916</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -47179,7 +47178,7 @@
         <v>44928</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -47241,7 +47240,7 @@
         <v>44928</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -47303,7 +47302,7 @@
         <v>44929</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -47360,7 +47359,7 @@
         <v>44930</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -47417,7 +47416,7 @@
         <v>44930</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -47479,7 +47478,7 @@
         <v>44935</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -47536,7 +47535,7 @@
         <v>44944</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -47593,7 +47592,7 @@
         <v>44944</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -47655,7 +47654,7 @@
         <v>44944</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -47712,7 +47711,7 @@
         <v>44944</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -47774,7 +47773,7 @@
         <v>44944</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -47831,7 +47830,7 @@
         <v>44945</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -47888,7 +47887,7 @@
         <v>44946</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -47945,7 +47944,7 @@
         <v>44949</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48007,7 +48006,7 @@
         <v>44950</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -48069,7 +48068,7 @@
         <v>44952</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -48131,7 +48130,7 @@
         <v>44960</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -48193,7 +48192,7 @@
         <v>44960</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -48250,7 +48249,7 @@
         <v>44960</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -48307,7 +48306,7 @@
         <v>44964</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -48364,7 +48363,7 @@
         <v>44964</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -48421,7 +48420,7 @@
         <v>44965</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -48478,7 +48477,7 @@
         <v>44965</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -48535,7 +48534,7 @@
         <v>44966</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -48597,7 +48596,7 @@
         <v>44967</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -48654,7 +48653,7 @@
         <v>44967</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -48711,7 +48710,7 @@
         <v>44967</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -48768,7 +48767,7 @@
         <v>44967</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -48825,7 +48824,7 @@
         <v>44967</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -48882,7 +48881,7 @@
         <v>44969</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -48939,7 +48938,7 @@
         <v>44970</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49001,7 +49000,7 @@
         <v>44971</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -49058,7 +49057,7 @@
         <v>44971</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -49115,7 +49114,7 @@
         <v>44972</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -49172,7 +49171,7 @@
         <v>44973</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -49229,7 +49228,7 @@
         <v>44973</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -49286,7 +49285,7 @@
         <v>44977</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -49348,7 +49347,7 @@
         <v>44977</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -49405,7 +49404,7 @@
         <v>44977</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -49462,7 +49461,7 @@
         <v>44978</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -49524,7 +49523,7 @@
         <v>44980</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -49581,7 +49580,7 @@
         <v>44980</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -49638,7 +49637,7 @@
         <v>44980</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -49695,7 +49694,7 @@
         <v>44980</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -49752,7 +49751,7 @@
         <v>44984</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -49814,7 +49813,7 @@
         <v>44984</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -49871,7 +49870,7 @@
         <v>44988</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -49928,7 +49927,7 @@
         <v>44991</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -49985,7 +49984,7 @@
         <v>44993</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -50042,7 +50041,7 @@
         <v>44993</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -50099,7 +50098,7 @@
         <v>44994</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -50156,7 +50155,7 @@
         <v>45006</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -50213,7 +50212,7 @@
         <v>45009</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -50275,7 +50274,7 @@
         <v>45013</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -50332,7 +50331,7 @@
         <v>45014</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -50389,7 +50388,7 @@
         <v>45026</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -50446,7 +50445,7 @@
         <v>45028</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -50508,7 +50507,7 @@
         <v>45033</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -50565,7 +50564,7 @@
         <v>45036</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -50622,7 +50621,7 @@
         <v>45037</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -50684,7 +50683,7 @@
         <v>45042</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -50741,7 +50740,7 @@
         <v>45042</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -50803,7 +50802,7 @@
         <v>45043</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -50860,7 +50859,7 @@
         <v>45049</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -50917,7 +50916,7 @@
         <v>45049</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -50974,7 +50973,7 @@
         <v>45049</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -51031,7 +51030,7 @@
         <v>45049</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -51088,7 +51087,7 @@
         <v>45050</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -51145,7 +51144,7 @@
         <v>45050</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -51202,7 +51201,7 @@
         <v>45050</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -51259,7 +51258,7 @@
         <v>45054</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -51316,7 +51315,7 @@
         <v>45054</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -51373,7 +51372,7 @@
         <v>45055</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -51430,7 +51429,7 @@
         <v>45056</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -51492,7 +51491,7 @@
         <v>45056</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -51554,7 +51553,7 @@
         <v>45058</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -51611,7 +51610,7 @@
         <v>45058</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -51668,7 +51667,7 @@
         <v>45058</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -51725,7 +51724,7 @@
         <v>45058</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -51782,7 +51781,7 @@
         <v>45058</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -51839,7 +51838,7 @@
         <v>45058</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -51901,7 +51900,7 @@
         <v>45060</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -51958,7 +51957,7 @@
         <v>45061</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -52015,7 +52014,7 @@
         <v>45063</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -52072,7 +52071,7 @@
         <v>45063</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -52129,7 +52128,7 @@
         <v>45063</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -52186,7 +52185,7 @@
         <v>45063</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -52243,7 +52242,7 @@
         <v>45070</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -52305,7 +52304,7 @@
         <v>45075</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -52362,7 +52361,7 @@
         <v>45078</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -52419,7 +52418,7 @@
         <v>45078</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -52481,7 +52480,7 @@
         <v>45078</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -52538,7 +52537,7 @@
         <v>45079</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -52595,7 +52594,7 @@
         <v>45084</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -52657,7 +52656,7 @@
         <v>45086</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -52719,7 +52718,7 @@
         <v>45089</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -52776,7 +52775,7 @@
         <v>45089</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -52833,7 +52832,7 @@
         <v>45089</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -52890,7 +52889,7 @@
         <v>45089</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -52947,7 +52946,7 @@
         <v>45091</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -53009,7 +53008,7 @@
         <v>45091</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -53066,7 +53065,7 @@
         <v>45091</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -53128,7 +53127,7 @@
         <v>45091</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -53190,7 +53189,7 @@
         <v>45091</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -53247,7 +53246,7 @@
         <v>45093</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -53309,7 +53308,7 @@
         <v>45096</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -53366,7 +53365,7 @@
         <v>45096</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -53423,7 +53422,7 @@
         <v>45096</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -53480,7 +53479,7 @@
         <v>45096</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -53537,7 +53536,7 @@
         <v>45096</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -53594,7 +53593,7 @@
         <v>45096</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -53651,7 +53650,7 @@
         <v>45096</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -53708,7 +53707,7 @@
         <v>45096</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -53765,7 +53764,7 @@
         <v>45097</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -53822,7 +53821,7 @@
         <v>45097</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -53879,7 +53878,7 @@
         <v>45097</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -53936,7 +53935,7 @@
         <v>45097</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -53993,7 +53992,7 @@
         <v>45097</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -54050,7 +54049,7 @@
         <v>45103</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -54107,7 +54106,7 @@
         <v>45103</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -54164,7 +54163,7 @@
         <v>45105</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -54221,7 +54220,7 @@
         <v>45105</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -54278,7 +54277,7 @@
         <v>45105</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -54335,7 +54334,7 @@
         <v>45107</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -54392,7 +54391,7 @@
         <v>45107</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -54449,7 +54448,7 @@
         <v>45107</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -54511,7 +54510,7 @@
         <v>45107</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -54573,7 +54572,7 @@
         <v>45107</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -54630,7 +54629,7 @@
         <v>45110</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -54687,7 +54686,7 @@
         <v>45112</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -54744,7 +54743,7 @@
         <v>45113</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -54801,7 +54800,7 @@
         <v>45119</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -54858,7 +54857,7 @@
         <v>45121</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -54920,7 +54919,7 @@
         <v>45123</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -54977,7 +54976,7 @@
         <v>45127</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -55034,7 +55033,7 @@
         <v>45128</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -55091,7 +55090,7 @@
         <v>45131</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -55148,7 +55147,7 @@
         <v>45132</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -55205,7 +55204,7 @@
         <v>45134</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -55262,7 +55261,7 @@
         <v>45145</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -55319,7 +55318,7 @@
         <v>45148</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -55376,7 +55375,7 @@
         <v>45148</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -55433,7 +55432,7 @@
         <v>45148</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -55490,7 +55489,7 @@
         <v>45148</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -55547,7 +55546,7 @@
         <v>45148</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -55604,7 +55603,7 @@
         <v>45149</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -55666,7 +55665,7 @@
         <v>45152</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -55723,7 +55722,7 @@
         <v>45152</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -55785,7 +55784,7 @@
         <v>45152</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -55842,7 +55841,7 @@
         <v>45152</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -55904,7 +55903,7 @@
         <v>45153</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -55966,7 +55965,7 @@
         <v>45153</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -56028,7 +56027,7 @@
         <v>45160</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -56085,7 +56084,7 @@
         <v>45161</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -56142,7 +56141,7 @@
         <v>45162</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -56199,7 +56198,7 @@
         <v>45162</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -56256,7 +56255,7 @@
         <v>45162</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -56318,7 +56317,7 @@
         <v>45162</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -56380,7 +56379,7 @@
         <v>45164</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -56442,7 +56441,7 @@
         <v>45167</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -56499,7 +56498,7 @@
         <v>45169</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -56561,7 +56560,7 @@
         <v>45169</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -56623,7 +56622,7 @@
         <v>45173</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -56670,7 +56669,7 @@
       </c>
       <c r="R895" s="2" t="inlineStr"/>
     </row>
-    <row r="896">
+    <row r="896" ht="15" customHeight="1">
       <c r="A896" t="inlineStr">
         <is>
           <t>A 40872-2023</t>
@@ -56680,7 +56679,7 @@
         <v>45173</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -56726,6 +56725,68 @@
         <v>0</v>
       </c>
       <c r="R896" s="2" t="inlineStr"/>
+    </row>
+    <row r="897">
+      <c r="A897" t="inlineStr">
+        <is>
+          <t>A 41422-2023</t>
+        </is>
+      </c>
+      <c r="B897" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="C897" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D897" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E897" t="inlineStr">
+        <is>
+          <t>UPPSALA</t>
+        </is>
+      </c>
+      <c r="F897" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G897" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H897" t="n">
+        <v>0</v>
+      </c>
+      <c r="I897" t="n">
+        <v>0</v>
+      </c>
+      <c r="J897" t="n">
+        <v>0</v>
+      </c>
+      <c r="K897" t="n">
+        <v>0</v>
+      </c>
+      <c r="L897" t="n">
+        <v>0</v>
+      </c>
+      <c r="M897" t="n">
+        <v>0</v>
+      </c>
+      <c r="N897" t="n">
+        <v>0</v>
+      </c>
+      <c r="O897" t="n">
+        <v>0</v>
+      </c>
+      <c r="P897" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q897" t="n">
+        <v>0</v>
+      </c>
+      <c r="R897" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt UPPSALA.xlsx
+++ b/Översikt UPPSALA.xlsx
@@ -572,7 +572,7 @@
         <v>44012</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         <v>43913</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>43762</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>44377</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         <v>44349</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>43381</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>45082</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
         <v>43875</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>45013</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>44222</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>44623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>44971</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         <v>43796</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>44053</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2016,7 +2016,7 @@
         <v>44356</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>45086</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
         <v>44158</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>44180</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>44497</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>44901</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2685,7 +2685,7 @@
         <v>45092</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>43433</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>44376</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>44575</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>44356</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>43814</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>43861</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>44119</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>44351</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>44500</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>44574</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         <v>44792</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>44879</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>44922</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3976,7 +3976,7 @@
         <v>44977</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>45107</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4154,7 +4154,7 @@
         <v>43511</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>43857</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>43980</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>44056</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         <v>44101</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>44462</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>44664</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>44719</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>44740</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>44974</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5061,7 +5061,7 @@
         <v>45002</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>45049</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>43511</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43731</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>43796</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>44101</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>44133</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5784,7 +5784,7 @@
         <v>44495</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>44652</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5963,7 +5963,7 @@
         <v>44684</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         <v>44692</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6142,7 +6142,7 @@
         <v>44791</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44804</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>44938</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6408,7 +6408,7 @@
         <v>44956</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>44973</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>43503</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>43545</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>43607</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>43654</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6941,7 +6941,7 @@
         <v>43742</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7032,7 +7032,7 @@
         <v>43929</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>44054</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>44101</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>44659</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>44879</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>44967</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7558,7 +7558,7 @@
         <v>45002</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7649,7 +7649,7 @@
         <v>45090</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>45121</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7831,7 +7831,7 @@
         <v>43321</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>43339</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8001,7 +8001,7 @@
         <v>43462</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
         <v>43473</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>43473</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43528</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         <v>43551</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>43693</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
         <v>43693</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8606,7 +8606,7 @@
         <v>43731</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>43755</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8776,7 +8776,7 @@
         <v>43867</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8861,7 +8861,7 @@
         <v>43893</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         <v>43980</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9036,7 +9036,7 @@
         <v>44042</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>44266</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44467</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>44487</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9386,7 +9386,7 @@
         <v>44489</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9471,7 +9471,7 @@
         <v>44589</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9556,7 +9556,7 @@
         <v>44614</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>44645</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>44678</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9821,7 +9821,7 @@
         <v>44729</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>44849</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>44855</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10086,7 +10086,7 @@
         <v>44897</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         <v>44917</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44958</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>44963</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10431,7 +10431,7 @@
         <v>45002</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>45021</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10606,7 +10606,7 @@
         <v>45022</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10696,7 +10696,7 @@
         <v>45022</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>45055</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
         <v>45061</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>45072</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11046,7 +11046,7 @@
         <v>45097</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>45098</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>45104</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
         <v>45121</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11391,7 +11391,7 @@
         <v>45139</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11476,7 +11476,7 @@
         <v>43321</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>43321</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>43335</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>43341</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11704,7 +11704,7 @@
         <v>43347</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11761,7 +11761,7 @@
         <v>43355</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11818,7 +11818,7 @@
         <v>43360</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11875,7 +11875,7 @@
         <v>43377</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11932,7 +11932,7 @@
         <v>43378</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>43378</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12051,7 +12051,7 @@
         <v>43378</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12113,7 +12113,7 @@
         <v>43381</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>43381</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>43389</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>43395</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>43398</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>43407</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>43411</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12532,7 +12532,7 @@
         <v>43418</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12594,7 +12594,7 @@
         <v>43420</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12656,7 +12656,7 @@
         <v>43423</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12713,7 +12713,7 @@
         <v>43423</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12770,7 +12770,7 @@
         <v>43424</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12827,7 +12827,7 @@
         <v>43424</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12889,7 +12889,7 @@
         <v>43424</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         <v>43427</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13008,7 +13008,7 @@
         <v>43430</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13065,7 +13065,7 @@
         <v>43431</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13122,7 +13122,7 @@
         <v>43433</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13179,7 +13179,7 @@
         <v>43433</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13236,7 +13236,7 @@
         <v>43433</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13293,7 +13293,7 @@
         <v>43433</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13350,7 +13350,7 @@
         <v>43436</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>43436</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>43437</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>43439</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>43444</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>43445</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>43446</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13749,7 +13749,7 @@
         <v>43447</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>43447</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13863,7 +13863,7 @@
         <v>43447</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
         <v>43451</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13982,7 +13982,7 @@
         <v>43451</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>43451</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>43452</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>43452</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>43455</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>43455</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>43455</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>43455</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>43460</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>43464</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>43468</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>43472</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43472</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>43472</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>43472</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>43473</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>43473</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>43473</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>43473</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>43473</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>43473</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>43473</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
         <v>43473</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15298,7 +15298,7 @@
         <v>43474</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         <v>43474</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15412,7 +15412,7 @@
         <v>43475</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15469,7 +15469,7 @@
         <v>43475</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15526,7 +15526,7 @@
         <v>43475</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15583,7 +15583,7 @@
         <v>43476</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15640,7 +15640,7 @@
         <v>43479</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>43479</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>43479</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>43479</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15878,7 +15878,7 @@
         <v>43479</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15940,7 +15940,7 @@
         <v>43480</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15997,7 +15997,7 @@
         <v>43480</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16054,7 +16054,7 @@
         <v>43481</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16111,7 +16111,7 @@
         <v>43481</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16168,7 +16168,7 @@
         <v>43481</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16225,7 +16225,7 @@
         <v>43481</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>43481</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16344,7 +16344,7 @@
         <v>43482</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16401,7 +16401,7 @@
         <v>43482</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>43482</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>43482</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>43482</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
         <v>43482</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>43482</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>43485</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16800,7 +16800,7 @@
         <v>43486</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16857,7 +16857,7 @@
         <v>43486</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16919,7 +16919,7 @@
         <v>43486</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16976,7 +16976,7 @@
         <v>43487</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17033,7 +17033,7 @@
         <v>43488</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17095,7 +17095,7 @@
         <v>43488</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17152,7 +17152,7 @@
         <v>43488</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17214,7 +17214,7 @@
         <v>43492</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17276,7 +17276,7 @@
         <v>43493</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17333,7 +17333,7 @@
         <v>43493</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>43496</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17447,7 +17447,7 @@
         <v>43496</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17504,7 +17504,7 @@
         <v>43498</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17566,7 +17566,7 @@
         <v>43500</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17623,7 +17623,7 @@
         <v>43500</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
         <v>43500</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17742,7 +17742,7 @@
         <v>43500</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17799,7 +17799,7 @@
         <v>43500</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17861,7 +17861,7 @@
         <v>43503</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>43504</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>43507</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18032,7 +18032,7 @@
         <v>43507</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>43508</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>43509</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>43511</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18260,7 +18260,7 @@
         <v>43511</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18317,7 +18317,7 @@
         <v>43511</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18374,7 +18374,7 @@
         <v>43511</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18431,7 +18431,7 @@
         <v>43511</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18488,7 +18488,7 @@
         <v>43516</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18550,7 +18550,7 @@
         <v>43517</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18607,7 +18607,7 @@
         <v>43517</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18669,7 +18669,7 @@
         <v>43517</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18731,7 +18731,7 @@
         <v>43517</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18793,7 +18793,7 @@
         <v>43523</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18850,7 +18850,7 @@
         <v>43528</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18907,7 +18907,7 @@
         <v>43528</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18964,7 +18964,7 @@
         <v>43531</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19021,7 +19021,7 @@
         <v>43531</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19078,7 +19078,7 @@
         <v>43531</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19140,7 +19140,7 @@
         <v>43532</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>43535</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19259,7 +19259,7 @@
         <v>43536</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19316,7 +19316,7 @@
         <v>43538</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>43538</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19440,7 +19440,7 @@
         <v>43544</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19497,7 +19497,7 @@
         <v>43550</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19554,7 +19554,7 @@
         <v>43552</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19611,7 +19611,7 @@
         <v>43553</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19673,7 +19673,7 @@
         <v>43553</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19730,7 +19730,7 @@
         <v>43556</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19787,7 +19787,7 @@
         <v>43559</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19844,7 +19844,7 @@
         <v>43559</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19901,7 +19901,7 @@
         <v>43560</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19958,7 +19958,7 @@
         <v>43570</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20015,7 +20015,7 @@
         <v>43572</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20072,7 +20072,7 @@
         <v>43578</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20129,7 +20129,7 @@
         <v>43578</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20186,7 +20186,7 @@
         <v>43583</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20243,7 +20243,7 @@
         <v>43585</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20305,7 +20305,7 @@
         <v>43591</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20362,7 +20362,7 @@
         <v>43592</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20424,7 +20424,7 @@
         <v>43600</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20481,7 +20481,7 @@
         <v>43605</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20538,7 +20538,7 @@
         <v>43605</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20595,7 +20595,7 @@
         <v>43607</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20652,7 +20652,7 @@
         <v>43628</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
         <v>43628</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20766,7 +20766,7 @@
         <v>43628</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20828,7 +20828,7 @@
         <v>43630</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20885,7 +20885,7 @@
         <v>43630</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20942,7 +20942,7 @@
         <v>43647</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20999,7 +20999,7 @@
         <v>43647</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21056,7 +21056,7 @@
         <v>43648</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21113,7 +21113,7 @@
         <v>43651</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21170,7 +21170,7 @@
         <v>43651</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21227,7 +21227,7 @@
         <v>43651</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21284,7 +21284,7 @@
         <v>43651</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21341,7 +21341,7 @@
         <v>43654</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21398,7 +21398,7 @@
         <v>43654</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21455,7 +21455,7 @@
         <v>43656</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21512,7 +21512,7 @@
         <v>43661</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21569,7 +21569,7 @@
         <v>43661</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21626,7 +21626,7 @@
         <v>43663</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21683,7 +21683,7 @@
         <v>43677</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21740,7 +21740,7 @@
         <v>43682</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21797,7 +21797,7 @@
         <v>43686</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21854,7 +21854,7 @@
         <v>43693</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21911,7 +21911,7 @@
         <v>43696</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21973,7 +21973,7 @@
         <v>43696</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22030,7 +22030,7 @@
         <v>43699</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22087,7 +22087,7 @@
         <v>43699</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22144,7 +22144,7 @@
         <v>43699</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22201,7 +22201,7 @@
         <v>43705</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22258,7 +22258,7 @@
         <v>43706</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22320,7 +22320,7 @@
         <v>43706</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>43706</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22444,7 +22444,7 @@
         <v>43706</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22501,7 +22501,7 @@
         <v>43706</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22563,7 +22563,7 @@
         <v>43706</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22625,7 +22625,7 @@
         <v>43707</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22687,7 +22687,7 @@
         <v>43707</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22749,7 +22749,7 @@
         <v>43707</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22806,7 +22806,7 @@
         <v>43707</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22868,7 +22868,7 @@
         <v>43710</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22925,7 +22925,7 @@
         <v>43712</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22982,7 +22982,7 @@
         <v>43712</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23039,7 +23039,7 @@
         <v>43713</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23096,7 +23096,7 @@
         <v>43716</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23153,7 +23153,7 @@
         <v>43718</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23210,7 +23210,7 @@
         <v>43718</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23272,7 +23272,7 @@
         <v>43718</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23329,7 +23329,7 @@
         <v>43718</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23391,7 +23391,7 @@
         <v>43718</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23453,7 +23453,7 @@
         <v>43718</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23510,7 +23510,7 @@
         <v>43720</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23567,7 +23567,7 @@
         <v>43727</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23624,7 +23624,7 @@
         <v>43730</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23681,7 +23681,7 @@
         <v>43733</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23743,7 +23743,7 @@
         <v>43735</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23805,7 +23805,7 @@
         <v>43735</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23867,7 +23867,7 @@
         <v>43736</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>43745</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>43745</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24043,7 +24043,7 @@
         <v>43747</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24105,7 +24105,7 @@
         <v>43748</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24162,7 +24162,7 @@
         <v>43755</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24224,7 +24224,7 @@
         <v>43759</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24281,7 +24281,7 @@
         <v>43763</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24343,7 +24343,7 @@
         <v>43773</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24400,7 +24400,7 @@
         <v>43773</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24457,7 +24457,7 @@
         <v>43773</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24519,7 +24519,7 @@
         <v>43777</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
         <v>43777</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24638,7 +24638,7 @@
         <v>43780</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24700,7 +24700,7 @@
         <v>43780</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24762,7 +24762,7 @@
         <v>43782</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24819,7 +24819,7 @@
         <v>43784</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24876,7 +24876,7 @@
         <v>43791</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24933,7 +24933,7 @@
         <v>43791</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24990,7 +24990,7 @@
         <v>43791</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25047,7 +25047,7 @@
         <v>43791</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25104,7 +25104,7 @@
         <v>43795</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25161,7 +25161,7 @@
         <v>43795</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25218,7 +25218,7 @@
         <v>43795</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25275,7 +25275,7 @@
         <v>43801</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25332,7 +25332,7 @@
         <v>43801</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25389,7 +25389,7 @@
         <v>43803</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25446,7 +25446,7 @@
         <v>43808</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25503,7 +25503,7 @@
         <v>43808</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25560,7 +25560,7 @@
         <v>43811</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25617,7 +25617,7 @@
         <v>43812</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25679,7 +25679,7 @@
         <v>43814</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25741,7 +25741,7 @@
         <v>43814</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25803,7 +25803,7 @@
         <v>43815</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25860,7 +25860,7 @@
         <v>43815</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25922,7 +25922,7 @@
         <v>43817</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25979,7 +25979,7 @@
         <v>43817</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26036,7 +26036,7 @@
         <v>43818</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26093,7 +26093,7 @@
         <v>43818</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26150,7 +26150,7 @@
         <v>43822</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26207,7 +26207,7 @@
         <v>43837</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26264,7 +26264,7 @@
         <v>43837</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26321,7 +26321,7 @@
         <v>43838</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26378,7 +26378,7 @@
         <v>43844</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26435,7 +26435,7 @@
         <v>43850</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26492,7 +26492,7 @@
         <v>43853</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26549,7 +26549,7 @@
         <v>43853</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26611,7 +26611,7 @@
         <v>43866</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26673,7 +26673,7 @@
         <v>43866</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26735,7 +26735,7 @@
         <v>43867</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26792,7 +26792,7 @@
         <v>43874</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26849,7 +26849,7 @@
         <v>43878</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26911,7 +26911,7 @@
         <v>43878</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26968,7 +26968,7 @@
         <v>43878</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27025,7 +27025,7 @@
         <v>43879</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27087,7 +27087,7 @@
         <v>43879</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27149,7 +27149,7 @@
         <v>43879</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27211,7 +27211,7 @@
         <v>43881</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27268,7 +27268,7 @@
         <v>43882</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27325,7 +27325,7 @@
         <v>43882</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27387,7 +27387,7 @@
         <v>43882</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27449,7 +27449,7 @@
         <v>43886</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         <v>43887</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27563,7 +27563,7 @@
         <v>43891</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27625,7 +27625,7 @@
         <v>43892</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27687,7 +27687,7 @@
         <v>43892</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27744,7 +27744,7 @@
         <v>43892</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27806,7 +27806,7 @@
         <v>43894</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27863,7 +27863,7 @@
         <v>43894</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27920,7 +27920,7 @@
         <v>43899</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27977,7 +27977,7 @@
         <v>43899</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28039,7 +28039,7 @@
         <v>43903</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28096,7 +28096,7 @@
         <v>43908</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28153,7 +28153,7 @@
         <v>43908</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28210,7 +28210,7 @@
         <v>43908</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28272,7 +28272,7 @@
         <v>43908</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28329,7 +28329,7 @@
         <v>43913</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28391,7 +28391,7 @@
         <v>43927</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28448,7 +28448,7 @@
         <v>43927</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28505,7 +28505,7 @@
         <v>43929</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28562,7 +28562,7 @@
         <v>43937</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28619,7 +28619,7 @@
         <v>43944</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28676,7 +28676,7 @@
         <v>43948</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28733,7 +28733,7 @@
         <v>43948</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28790,7 +28790,7 @@
         <v>43950</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28852,7 +28852,7 @@
         <v>43973</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28914,7 +28914,7 @@
         <v>43984</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28971,7 +28971,7 @@
         <v>43987</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29028,7 +29028,7 @@
         <v>43987</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29085,7 +29085,7 @@
         <v>43990</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29142,7 +29142,7 @@
         <v>43999</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29199,7 +29199,7 @@
         <v>43999</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29256,7 +29256,7 @@
         <v>44000</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29313,7 +29313,7 @@
         <v>44000</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29370,7 +29370,7 @@
         <v>44007</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29427,7 +29427,7 @@
         <v>44007</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29484,7 +29484,7 @@
         <v>44012</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29546,7 +29546,7 @@
         <v>44013</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29603,7 +29603,7 @@
         <v>44014</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29660,7 +29660,7 @@
         <v>44015</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29722,7 +29722,7 @@
         <v>44016</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29784,7 +29784,7 @@
         <v>44019</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29846,7 +29846,7 @@
         <v>44026</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29903,7 +29903,7 @@
         <v>44029</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29960,7 +29960,7 @@
         <v>44033</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30022,7 +30022,7 @@
         <v>44035</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30079,7 +30079,7 @@
         <v>44035</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30136,7 +30136,7 @@
         <v>44041</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30198,7 +30198,7 @@
         <v>44048</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30260,7 +30260,7 @@
         <v>44048</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30322,7 +30322,7 @@
         <v>44048</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30384,7 +30384,7 @@
         <v>44050</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30441,7 +30441,7 @@
         <v>44055</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30498,7 +30498,7 @@
         <v>44056</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30555,7 +30555,7 @@
         <v>44063</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30617,7 +30617,7 @@
         <v>44063</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30674,7 +30674,7 @@
         <v>44063</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30731,7 +30731,7 @@
         <v>44063</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30788,7 +30788,7 @@
         <v>44070</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30845,7 +30845,7 @@
         <v>44076</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30902,7 +30902,7 @@
         <v>44081</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30959,7 +30959,7 @@
         <v>44083</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31016,7 +31016,7 @@
         <v>44091</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31078,7 +31078,7 @@
         <v>44095</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31135,7 +31135,7 @@
         <v>44095</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31192,7 +31192,7 @@
         <v>44103</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31249,7 +31249,7 @@
         <v>44105</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31311,7 +31311,7 @@
         <v>44105</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31368,7 +31368,7 @@
         <v>44105</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31430,7 +31430,7 @@
         <v>44106</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31487,7 +31487,7 @@
         <v>44109</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31544,7 +31544,7 @@
         <v>44119</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31601,7 +31601,7 @@
         <v>44123</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31658,7 +31658,7 @@
         <v>44123</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31715,7 +31715,7 @@
         <v>44126</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31772,7 +31772,7 @@
         <v>44130</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31829,7 +31829,7 @@
         <v>44131</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31891,7 +31891,7 @@
         <v>44131</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31953,7 +31953,7 @@
         <v>44134</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32015,7 +32015,7 @@
         <v>44137</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32072,7 +32072,7 @@
         <v>44139</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32129,7 +32129,7 @@
         <v>44139</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32186,7 +32186,7 @@
         <v>44139</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32243,7 +32243,7 @@
         <v>44140</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32300,7 +32300,7 @@
         <v>44144</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32357,7 +32357,7 @@
         <v>44144</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32414,7 +32414,7 @@
         <v>44144</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32471,7 +32471,7 @@
         <v>44146</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32528,7 +32528,7 @@
         <v>44151</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32585,7 +32585,7 @@
         <v>44153</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32647,7 +32647,7 @@
         <v>44155</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32704,7 +32704,7 @@
         <v>44155</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32761,7 +32761,7 @@
         <v>44159</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32823,7 +32823,7 @@
         <v>44159</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32885,7 +32885,7 @@
         <v>44160</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32947,7 +32947,7 @@
         <v>44161</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33009,7 +33009,7 @@
         <v>44161</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33071,7 +33071,7 @@
         <v>44162</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33128,7 +33128,7 @@
         <v>44165</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33190,7 +33190,7 @@
         <v>44166</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33252,7 +33252,7 @@
         <v>44167</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33309,7 +33309,7 @@
         <v>44168</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33366,7 +33366,7 @@
         <v>44180</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33428,7 +33428,7 @@
         <v>44200</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33485,7 +33485,7 @@
         <v>44207</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33547,7 +33547,7 @@
         <v>44209</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33604,7 +33604,7 @@
         <v>44209</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33661,7 +33661,7 @@
         <v>44210</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33718,7 +33718,7 @@
         <v>44211</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33775,7 +33775,7 @@
         <v>44216</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33832,7 +33832,7 @@
         <v>44216</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33889,7 +33889,7 @@
         <v>44222</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33946,7 +33946,7 @@
         <v>44223</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34003,7 +34003,7 @@
         <v>44230</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34060,7 +34060,7 @@
         <v>44245</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34117,7 +34117,7 @@
         <v>44252</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34174,7 +34174,7 @@
         <v>44252</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34231,7 +34231,7 @@
         <v>44266</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34288,7 +34288,7 @@
         <v>44273</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34345,7 +34345,7 @@
         <v>44279</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34402,7 +34402,7 @@
         <v>44286</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34459,7 +34459,7 @@
         <v>44286</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34516,7 +34516,7 @@
         <v>44294</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34578,7 +34578,7 @@
         <v>44297</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34635,7 +34635,7 @@
         <v>44297</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34697,7 +34697,7 @@
         <v>44299</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34759,7 +34759,7 @@
         <v>44313</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34821,7 +34821,7 @@
         <v>44313</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34883,7 +34883,7 @@
         <v>44314</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34945,7 +34945,7 @@
         <v>44351</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35007,7 +35007,7 @@
         <v>44357</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35069,7 +35069,7 @@
         <v>44365</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35131,7 +35131,7 @@
         <v>44365</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35188,7 +35188,7 @@
         <v>44369</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35245,7 +35245,7 @@
         <v>44379</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35302,7 +35302,7 @@
         <v>44379</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35359,7 +35359,7 @@
         <v>44383</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35421,7 +35421,7 @@
         <v>44383</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35483,7 +35483,7 @@
         <v>44390</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35540,7 +35540,7 @@
         <v>44395</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35597,7 +35597,7 @@
         <v>44407</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35659,7 +35659,7 @@
         <v>44420</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35716,7 +35716,7 @@
         <v>44420</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35773,7 +35773,7 @@
         <v>44426</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35830,7 +35830,7 @@
         <v>44438</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35892,7 +35892,7 @@
         <v>44442</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -35949,7 +35949,7 @@
         <v>44445</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36006,7 +36006,7 @@
         <v>44446</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36063,7 +36063,7 @@
         <v>44447</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36120,7 +36120,7 @@
         <v>44453</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36177,7 +36177,7 @@
         <v>44459</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36239,7 +36239,7 @@
         <v>44461</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36301,7 +36301,7 @@
         <v>44463</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36358,7 +36358,7 @@
         <v>44470</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36415,7 +36415,7 @@
         <v>44479</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36472,7 +36472,7 @@
         <v>44481</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36529,7 +36529,7 @@
         <v>44484</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36586,7 +36586,7 @@
         <v>44486</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36643,7 +36643,7 @@
         <v>44489</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36700,7 +36700,7 @@
         <v>44489</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36757,7 +36757,7 @@
         <v>44494</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36819,7 +36819,7 @@
         <v>44495</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36876,7 +36876,7 @@
         <v>44497</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36933,7 +36933,7 @@
         <v>44503</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -36990,7 +36990,7 @@
         <v>44504</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37047,7 +37047,7 @@
         <v>44512</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37104,7 +37104,7 @@
         <v>44512</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37161,7 +37161,7 @@
         <v>44512</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37218,7 +37218,7 @@
         <v>44512</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37275,7 +37275,7 @@
         <v>44515</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37332,7 +37332,7 @@
         <v>44516</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37389,7 +37389,7 @@
         <v>44517</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37446,7 +37446,7 @@
         <v>44517</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37503,7 +37503,7 @@
         <v>44517</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37560,7 +37560,7 @@
         <v>44518</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37617,7 +37617,7 @@
         <v>44519</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37674,7 +37674,7 @@
         <v>44522</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37731,7 +37731,7 @@
         <v>44522</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37788,7 +37788,7 @@
         <v>44525</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37850,7 +37850,7 @@
         <v>44526</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -37912,7 +37912,7 @@
         <v>44526</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -37969,7 +37969,7 @@
         <v>44526</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38026,7 +38026,7 @@
         <v>44531</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38083,7 +38083,7 @@
         <v>44531</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38140,7 +38140,7 @@
         <v>44531</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38202,7 +38202,7 @@
         <v>44531</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38259,7 +38259,7 @@
         <v>44532</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38316,7 +38316,7 @@
         <v>44532</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38373,7 +38373,7 @@
         <v>44532</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38430,7 +38430,7 @@
         <v>44532</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38487,7 +38487,7 @@
         <v>44535</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38544,7 +38544,7 @@
         <v>44535</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38601,7 +38601,7 @@
         <v>44540</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38663,7 +38663,7 @@
         <v>44543</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38725,7 +38725,7 @@
         <v>44543</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38787,7 +38787,7 @@
         <v>44544</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -38844,7 +38844,7 @@
         <v>44544</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -38901,7 +38901,7 @@
         <v>44548</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -38958,7 +38958,7 @@
         <v>44553</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39015,7 +39015,7 @@
         <v>44553</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39072,7 +39072,7 @@
         <v>44560</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39129,7 +39129,7 @@
         <v>44560</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39186,7 +39186,7 @@
         <v>44569</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39248,7 +39248,7 @@
         <v>44571</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -39310,7 +39310,7 @@
         <v>44572</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -39372,7 +39372,7 @@
         <v>44574</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39429,7 +39429,7 @@
         <v>44575</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39486,7 +39486,7 @@
         <v>44575</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39543,7 +39543,7 @@
         <v>44575</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39600,7 +39600,7 @@
         <v>44583</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -39662,7 +39662,7 @@
         <v>44583</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -39724,7 +39724,7 @@
         <v>44583</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -39786,7 +39786,7 @@
         <v>44588</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -39843,7 +39843,7 @@
         <v>44588</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -39900,7 +39900,7 @@
         <v>44593</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -39962,7 +39962,7 @@
         <v>44593</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40019,7 +40019,7 @@
         <v>44593</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40076,7 +40076,7 @@
         <v>44593</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40133,7 +40133,7 @@
         <v>44594</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40190,7 +40190,7 @@
         <v>44594</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40247,7 +40247,7 @@
         <v>44598</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -40304,7 +40304,7 @@
         <v>44600</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -40361,7 +40361,7 @@
         <v>44600</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -40423,7 +40423,7 @@
         <v>44602</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -40480,7 +40480,7 @@
         <v>44602</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -40537,7 +40537,7 @@
         <v>44602</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -40594,7 +40594,7 @@
         <v>44602</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -40651,7 +40651,7 @@
         <v>44602</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -40708,7 +40708,7 @@
         <v>44602</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -40770,7 +40770,7 @@
         <v>44602</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -40827,7 +40827,7 @@
         <v>44603</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -40884,7 +40884,7 @@
         <v>44603</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -40941,7 +40941,7 @@
         <v>44603</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -40998,7 +40998,7 @@
         <v>44606</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41055,7 +41055,7 @@
         <v>44608</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41117,7 +41117,7 @@
         <v>44608</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41179,7 +41179,7 @@
         <v>44608</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41236,7 +41236,7 @@
         <v>44609</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -41298,7 +41298,7 @@
         <v>44609</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -41360,7 +41360,7 @@
         <v>44610</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -41422,7 +41422,7 @@
         <v>44610</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -41484,7 +41484,7 @@
         <v>44610</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -41546,7 +41546,7 @@
         <v>44612</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -41603,7 +41603,7 @@
         <v>44616</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -41665,7 +41665,7 @@
         <v>44616</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -41722,7 +41722,7 @@
         <v>44623</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -41784,7 +41784,7 @@
         <v>44634</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -41841,7 +41841,7 @@
         <v>44645</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -41898,7 +41898,7 @@
         <v>44649</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -41955,7 +41955,7 @@
         <v>44649</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42012,7 +42012,7 @@
         <v>44652</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42069,7 +42069,7 @@
         <v>44659</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42131,7 +42131,7 @@
         <v>44659</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42193,7 +42193,7 @@
         <v>44665</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -42255,7 +42255,7 @@
         <v>44673</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -42317,7 +42317,7 @@
         <v>44676</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -42379,7 +42379,7 @@
         <v>44676</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -42436,7 +42436,7 @@
         <v>44690</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -42498,7 +42498,7 @@
         <v>44691</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -42560,7 +42560,7 @@
         <v>44692</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -42622,7 +42622,7 @@
         <v>44699</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -42684,7 +42684,7 @@
         <v>44700</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -42741,7 +42741,7 @@
         <v>44700</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -42798,7 +42798,7 @@
         <v>44701</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -42860,7 +42860,7 @@
         <v>44704</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -42922,7 +42922,7 @@
         <v>44704</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -42979,7 +42979,7 @@
         <v>44711</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43041,7 +43041,7 @@
         <v>44713</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43103,7 +43103,7 @@
         <v>44713</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43165,7 +43165,7 @@
         <v>44714</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43222,7 +43222,7 @@
         <v>44719</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -43279,7 +43279,7 @@
         <v>44720</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -43336,7 +43336,7 @@
         <v>44729</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -43393,7 +43393,7 @@
         <v>44733</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -43450,7 +43450,7 @@
         <v>44742</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -43507,7 +43507,7 @@
         <v>44742</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -43564,7 +43564,7 @@
         <v>44742</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -43626,7 +43626,7 @@
         <v>44742</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -43683,7 +43683,7 @@
         <v>44742</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -43740,7 +43740,7 @@
         <v>44743</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -43797,7 +43797,7 @@
         <v>44762</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -43859,7 +43859,7 @@
         <v>44764</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -43921,7 +43921,7 @@
         <v>44764</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -43983,7 +43983,7 @@
         <v>44769</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44045,7 +44045,7 @@
         <v>44771</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44107,7 +44107,7 @@
         <v>44771</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44169,7 +44169,7 @@
         <v>44771</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44231,7 +44231,7 @@
         <v>44782</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -44288,7 +44288,7 @@
         <v>44782</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -44345,7 +44345,7 @@
         <v>44784</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -44402,7 +44402,7 @@
         <v>44788</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -44459,7 +44459,7 @@
         <v>44795</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -44516,7 +44516,7 @@
         <v>44797</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -44573,7 +44573,7 @@
         <v>44798</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -44630,7 +44630,7 @@
         <v>44806</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -44687,7 +44687,7 @@
         <v>44810</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -44744,7 +44744,7 @@
         <v>44811</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -44801,7 +44801,7 @@
         <v>44816</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -44858,7 +44858,7 @@
         <v>44816</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -44915,7 +44915,7 @@
         <v>44816</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -44972,7 +44972,7 @@
         <v>44816</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45029,7 +45029,7 @@
         <v>44816</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45091,7 +45091,7 @@
         <v>44817</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45148,7 +45148,7 @@
         <v>44817</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -45205,7 +45205,7 @@
         <v>44817</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -45262,7 +45262,7 @@
         <v>44819</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -45324,7 +45324,7 @@
         <v>44831</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -45381,7 +45381,7 @@
         <v>44832</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -45438,7 +45438,7 @@
         <v>44839</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -45495,7 +45495,7 @@
         <v>44844</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -45552,7 +45552,7 @@
         <v>44846</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -45609,7 +45609,7 @@
         <v>44847</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -45666,7 +45666,7 @@
         <v>44847</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -45723,7 +45723,7 @@
         <v>44847</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -45780,7 +45780,7 @@
         <v>44848</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -45837,7 +45837,7 @@
         <v>44849</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -45894,7 +45894,7 @@
         <v>44853</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -45951,7 +45951,7 @@
         <v>44865</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46008,7 +46008,7 @@
         <v>44866</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46065,7 +46065,7 @@
         <v>44872</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -46122,7 +46122,7 @@
         <v>44872</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -46179,7 +46179,7 @@
         <v>44883</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -46241,7 +46241,7 @@
         <v>44883</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -46298,7 +46298,7 @@
         <v>44886</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -46355,7 +46355,7 @@
         <v>44886</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -46417,7 +46417,7 @@
         <v>44888</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -46479,7 +46479,7 @@
         <v>44893</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -46536,7 +46536,7 @@
         <v>44897</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -46593,7 +46593,7 @@
         <v>44897</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -46650,7 +46650,7 @@
         <v>44901</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -46712,7 +46712,7 @@
         <v>44904</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -46774,7 +46774,7 @@
         <v>44908</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -46831,7 +46831,7 @@
         <v>44908</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -46888,7 +46888,7 @@
         <v>44909</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -46945,7 +46945,7 @@
         <v>44909</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47002,7 +47002,7 @@
         <v>44912</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47059,7 +47059,7 @@
         <v>44916</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -47121,7 +47121,7 @@
         <v>44916</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -47178,7 +47178,7 @@
         <v>44928</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -47240,7 +47240,7 @@
         <v>44928</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -47302,7 +47302,7 @@
         <v>44929</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -47359,7 +47359,7 @@
         <v>44930</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -47416,7 +47416,7 @@
         <v>44930</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -47478,7 +47478,7 @@
         <v>44935</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -47535,7 +47535,7 @@
         <v>44944</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -47592,7 +47592,7 @@
         <v>44944</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -47654,7 +47654,7 @@
         <v>44944</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -47711,7 +47711,7 @@
         <v>44944</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -47773,7 +47773,7 @@
         <v>44944</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -47830,7 +47830,7 @@
         <v>44945</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -47887,7 +47887,7 @@
         <v>44946</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -47944,7 +47944,7 @@
         <v>44949</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48006,7 +48006,7 @@
         <v>44950</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -48068,7 +48068,7 @@
         <v>44952</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -48130,7 +48130,7 @@
         <v>44960</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -48192,7 +48192,7 @@
         <v>44960</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -48249,7 +48249,7 @@
         <v>44960</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -48306,7 +48306,7 @@
         <v>44964</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -48363,7 +48363,7 @@
         <v>44964</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -48420,7 +48420,7 @@
         <v>44965</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -48477,7 +48477,7 @@
         <v>44965</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -48534,7 +48534,7 @@
         <v>44966</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -48596,7 +48596,7 @@
         <v>44967</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -48653,7 +48653,7 @@
         <v>44967</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -48710,7 +48710,7 @@
         <v>44967</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -48767,7 +48767,7 @@
         <v>44967</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -48824,7 +48824,7 @@
         <v>44967</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -48881,7 +48881,7 @@
         <v>44969</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -48938,7 +48938,7 @@
         <v>44970</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49000,7 +49000,7 @@
         <v>44971</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -49057,7 +49057,7 @@
         <v>44971</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -49114,7 +49114,7 @@
         <v>44972</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -49171,7 +49171,7 @@
         <v>44973</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -49228,7 +49228,7 @@
         <v>44973</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -49285,7 +49285,7 @@
         <v>44977</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -49347,7 +49347,7 @@
         <v>44977</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -49404,7 +49404,7 @@
         <v>44977</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -49461,7 +49461,7 @@
         <v>44978</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -49523,7 +49523,7 @@
         <v>44980</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -49580,7 +49580,7 @@
         <v>44980</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -49637,7 +49637,7 @@
         <v>44980</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -49694,7 +49694,7 @@
         <v>44980</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -49751,7 +49751,7 @@
         <v>44984</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -49813,7 +49813,7 @@
         <v>44984</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -49870,7 +49870,7 @@
         <v>44988</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -49927,7 +49927,7 @@
         <v>44991</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -49984,7 +49984,7 @@
         <v>44993</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -50041,7 +50041,7 @@
         <v>44993</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -50098,7 +50098,7 @@
         <v>44994</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -50155,7 +50155,7 @@
         <v>45006</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -50212,7 +50212,7 @@
         <v>45009</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -50274,7 +50274,7 @@
         <v>45013</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -50331,7 +50331,7 @@
         <v>45014</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -50388,7 +50388,7 @@
         <v>45026</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -50445,7 +50445,7 @@
         <v>45028</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -50507,7 +50507,7 @@
         <v>45033</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -50564,7 +50564,7 @@
         <v>45036</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -50621,7 +50621,7 @@
         <v>45037</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -50683,7 +50683,7 @@
         <v>45042</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -50740,7 +50740,7 @@
         <v>45042</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -50802,7 +50802,7 @@
         <v>45043</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -50859,7 +50859,7 @@
         <v>45049</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -50916,7 +50916,7 @@
         <v>45049</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -50973,7 +50973,7 @@
         <v>45049</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -51030,7 +51030,7 @@
         <v>45049</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -51087,7 +51087,7 @@
         <v>45050</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -51144,7 +51144,7 @@
         <v>45050</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -51201,7 +51201,7 @@
         <v>45050</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -51258,7 +51258,7 @@
         <v>45054</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -51315,7 +51315,7 @@
         <v>45054</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -51372,7 +51372,7 @@
         <v>45055</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -51429,7 +51429,7 @@
         <v>45056</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -51491,7 +51491,7 @@
         <v>45056</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -51553,7 +51553,7 @@
         <v>45058</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -51610,7 +51610,7 @@
         <v>45058</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -51667,7 +51667,7 @@
         <v>45058</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -51724,7 +51724,7 @@
         <v>45058</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -51781,7 +51781,7 @@
         <v>45058</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -51838,7 +51838,7 @@
         <v>45058</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -51900,7 +51900,7 @@
         <v>45060</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -51957,7 +51957,7 @@
         <v>45061</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -52014,7 +52014,7 @@
         <v>45063</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -52071,7 +52071,7 @@
         <v>45063</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -52128,7 +52128,7 @@
         <v>45063</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -52185,7 +52185,7 @@
         <v>45063</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -52242,7 +52242,7 @@
         <v>45070</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -52304,7 +52304,7 @@
         <v>45075</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -52361,7 +52361,7 @@
         <v>45078</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -52418,7 +52418,7 @@
         <v>45078</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -52480,7 +52480,7 @@
         <v>45078</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -52537,7 +52537,7 @@
         <v>45079</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -52594,7 +52594,7 @@
         <v>45084</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -52656,7 +52656,7 @@
         <v>45086</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -52718,7 +52718,7 @@
         <v>45089</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -52775,7 +52775,7 @@
         <v>45089</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -52832,7 +52832,7 @@
         <v>45089</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -52889,7 +52889,7 @@
         <v>45089</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -52946,7 +52946,7 @@
         <v>45091</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -53008,7 +53008,7 @@
         <v>45091</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -53065,7 +53065,7 @@
         <v>45091</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -53127,7 +53127,7 @@
         <v>45091</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -53189,7 +53189,7 @@
         <v>45091</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -53246,7 +53246,7 @@
         <v>45093</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -53308,7 +53308,7 @@
         <v>45096</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -53365,7 +53365,7 @@
         <v>45096</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -53422,7 +53422,7 @@
         <v>45096</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -53479,7 +53479,7 @@
         <v>45096</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -53536,7 +53536,7 @@
         <v>45096</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -53593,7 +53593,7 @@
         <v>45096</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -53650,7 +53650,7 @@
         <v>45096</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -53707,7 +53707,7 @@
         <v>45096</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -53764,7 +53764,7 @@
         <v>45097</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -53821,7 +53821,7 @@
         <v>45097</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -53878,7 +53878,7 @@
         <v>45097</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -53935,7 +53935,7 @@
         <v>45097</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -53992,7 +53992,7 @@
         <v>45097</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -54049,7 +54049,7 @@
         <v>45103</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -54106,7 +54106,7 @@
         <v>45103</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -54163,7 +54163,7 @@
         <v>45105</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -54220,7 +54220,7 @@
         <v>45105</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -54277,7 +54277,7 @@
         <v>45105</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -54334,7 +54334,7 @@
         <v>45107</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -54391,7 +54391,7 @@
         <v>45107</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -54448,7 +54448,7 @@
         <v>45107</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -54510,7 +54510,7 @@
         <v>45107</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -54572,7 +54572,7 @@
         <v>45107</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -54629,7 +54629,7 @@
         <v>45110</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -54686,7 +54686,7 @@
         <v>45112</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -54743,7 +54743,7 @@
         <v>45113</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -54800,7 +54800,7 @@
         <v>45119</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -54857,7 +54857,7 @@
         <v>45121</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -54919,7 +54919,7 @@
         <v>45123</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -54976,7 +54976,7 @@
         <v>45127</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -55033,7 +55033,7 @@
         <v>45128</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -55090,7 +55090,7 @@
         <v>45131</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -55147,7 +55147,7 @@
         <v>45132</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -55204,7 +55204,7 @@
         <v>45134</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -55261,7 +55261,7 @@
         <v>45145</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -55318,7 +55318,7 @@
         <v>45148</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -55375,7 +55375,7 @@
         <v>45148</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -55432,7 +55432,7 @@
         <v>45148</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -55489,7 +55489,7 @@
         <v>45148</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -55546,7 +55546,7 @@
         <v>45148</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -55603,7 +55603,7 @@
         <v>45149</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -55665,7 +55665,7 @@
         <v>45152</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -55722,7 +55722,7 @@
         <v>45152</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -55784,7 +55784,7 @@
         <v>45152</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -55841,7 +55841,7 @@
         <v>45152</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -55903,7 +55903,7 @@
         <v>45153</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -55965,7 +55965,7 @@
         <v>45153</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -56027,7 +56027,7 @@
         <v>45160</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -56084,7 +56084,7 @@
         <v>45161</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -56141,7 +56141,7 @@
         <v>45162</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -56198,7 +56198,7 @@
         <v>45162</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -56255,7 +56255,7 @@
         <v>45162</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -56317,7 +56317,7 @@
         <v>45162</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -56379,7 +56379,7 @@
         <v>45164</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -56441,7 +56441,7 @@
         <v>45167</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -56498,7 +56498,7 @@
         <v>45169</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -56560,7 +56560,7 @@
         <v>45169</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -56622,7 +56622,7 @@
         <v>45173</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -56679,7 +56679,7 @@
         <v>45173</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -56736,7 +56736,7 @@
         <v>45175</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>

--- a/Översikt UPPSALA.xlsx
+++ b/Översikt UPPSALA.xlsx
@@ -572,7 +572,7 @@
         <v>44012</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         <v>43913</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         <v>18.1</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I3" t="n">
         <v>12</v>
@@ -718,7 +718,7 @@
         <v>9</v>
       </c>
       <c r="K3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
@@ -730,19 +730,20 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
           <t>Skogsalm
 Cinnoberbagge
 Aspfjädermossa
+Knärot
 Rynkskinn
 Violgubbe
 Granticka
@@ -810,7 +811,7 @@
         <v>43762</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -915,7 +916,7 @@
         <v>44377</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1025,7 +1026,7 @@
         <v>44349</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1117,14 +1118,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 51650-2018</t>
+          <t>A 24492-2023</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>43381</v>
+        <v>45082</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1138,26 +1139,26 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>6.3</v>
+        <v>8.6</v>
       </c>
       <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
         <v>6</v>
       </c>
-      <c r="I7" t="n">
-        <v>4</v>
-      </c>
       <c r="J7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1169,12 +1170,116 @@
         <v>9</v>
       </c>
       <c r="P7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>15</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Ask
+Vågticka
+Blekticka
+Ekticka
+Jättekamskivling
+Mindre hackspett
+Reliktbock
+Rödbrun blekspik
+Tallticka
+Dvärgtufs
+Fällmossa
+Grovticka
+Gulpudrad spiklav
+Scharlakansskål
+Svart trolldruva</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPSALA/artfynd/A 24492-2023.xlsx")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPSALA/kartor/A 24492-2023.png")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPSALA/klagomål/A 24492-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPSALA/klagomålsmail/A 24492-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPSALA/tillsyn/A 24492-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_UPPSALA/tillsynsmail/A 24492-2023.docx")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 51650-2018</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>43381</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>UPPSALA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4</v>
+      </c>
+      <c r="J8" t="n">
+        <v>8</v>
+      </c>
+      <c r="K8" t="n">
         <v>1</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>9</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
         <v>14</v>
       </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Tallbit
 Kråka
@@ -1192,131 +1297,28 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_UPPSALA/artfynd/A 51650-2018.xlsx")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_UPPSALA/kartor/A 51650-2018.png")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_UPPSALA/klagomål/A 51650-2018.docx")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_UPPSALA/klagomålsmail/A 51650-2018.docx")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_UPPSALA/tillsyn/A 51650-2018.docx")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_UPPSALA/tillsynsmail/A 51650-2018.docx")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 24492-2023</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45082</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>UPPSALA</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>6</v>
-      </c>
-      <c r="J8" t="n">
-        <v>6</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>8</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>14</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Ask
-Vågticka
-Blekticka
-Ekticka
-Mindre hackspett
-Reliktbock
-Rödbrun blekspik
-Tallticka
-Dvärgtufs
-Fällmossa
-Grovticka
-Gulpudrad spiklav
-Scharlakansskål
-Svart trolldruva</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPSALA/artfynd/A 24492-2023.xlsx")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPSALA/kartor/A 24492-2023.png")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPSALA/klagomål/A 24492-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPSALA/klagomålsmail/A 24492-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPSALA/tillsyn/A 24492-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_UPPSALA/tillsynsmail/A 24492-2023.docx")</f>
         <v/>
       </c>
     </row>
@@ -1330,7 +1332,7 @@
         <v>43875</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1427,7 +1429,7 @@
         <v>45013</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1524,7 +1526,7 @@
         <v>44222</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1624,7 +1626,7 @@
         <v>44623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1724,7 +1726,7 @@
         <v>44971</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1819,7 +1821,7 @@
         <v>43796</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1922,7 +1924,7 @@
         <v>44053</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2016,7 +2018,7 @@
         <v>44356</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2113,7 +2115,7 @@
         <v>45086</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2206,7 +2208,7 @@
         <v>43454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2303,7 +2305,7 @@
         <v>44158</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2400,7 +2402,7 @@
         <v>44180</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2497,7 +2499,7 @@
         <v>44497</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2593,7 +2595,7 @@
         <v>44901</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2685,7 +2687,7 @@
         <v>45092</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2781,7 +2783,7 @@
         <v>43433</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2872,7 +2874,7 @@
         <v>44376</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2972,7 +2974,7 @@
         <v>44575</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3063,7 +3065,7 @@
         <v>44356</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3153,7 +3155,7 @@
         <v>43814</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3247,7 +3249,7 @@
         <v>43861</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3336,7 +3338,7 @@
         <v>44119</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3425,7 +3427,7 @@
         <v>44351</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3518,7 +3520,7 @@
         <v>44500</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3611,7 +3613,7 @@
         <v>44574</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3700,7 +3702,7 @@
         <v>44792</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3794,7 +3796,7 @@
         <v>44879</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3883,7 +3885,7 @@
         <v>44922</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3976,7 +3978,7 @@
         <v>44977</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4065,7 +4067,7 @@
         <v>45107</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4154,7 +4156,7 @@
         <v>43511</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4242,7 +4244,7 @@
         <v>43857</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4330,7 +4332,7 @@
         <v>43980</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4422,7 +4424,7 @@
         <v>44056</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4519,7 +4521,7 @@
         <v>44101</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4612,7 +4614,7 @@
         <v>44462</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4709,7 +4711,7 @@
         <v>44664</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4797,7 +4799,7 @@
         <v>44719</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4885,7 +4887,7 @@
         <v>44740</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4973,7 +4975,7 @@
         <v>44974</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5061,7 +5063,7 @@
         <v>45002</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5158,7 +5160,7 @@
         <v>45049</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5246,7 +5248,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5334,7 +5336,7 @@
         <v>43511</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5421,7 +5423,7 @@
         <v>43731</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5508,7 +5510,7 @@
         <v>43796</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5600,7 +5602,7 @@
         <v>44101</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5692,7 +5694,7 @@
         <v>44133</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5784,7 +5786,7 @@
         <v>44495</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5871,7 +5873,7 @@
         <v>44652</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5963,7 +5965,7 @@
         <v>44684</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6050,7 +6052,7 @@
         <v>44692</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6142,7 +6144,7 @@
         <v>44791</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6229,7 +6231,7 @@
         <v>44804</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6316,7 +6318,7 @@
         <v>44938</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6408,7 +6410,7 @@
         <v>44956</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6495,7 +6497,7 @@
         <v>44973</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6587,7 +6589,7 @@
         <v>43503</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6678,7 +6680,7 @@
         <v>43545</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6769,7 +6771,7 @@
         <v>43607</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6855,7 +6857,7 @@
         <v>43654</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6941,7 +6943,7 @@
         <v>43742</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7032,7 +7034,7 @@
         <v>43929</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7118,7 +7120,7 @@
         <v>44054</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7209,7 +7211,7 @@
         <v>44101</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7300,7 +7302,7 @@
         <v>44659</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7386,7 +7388,7 @@
         <v>44879</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7472,7 +7474,7 @@
         <v>44967</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7558,7 +7560,7 @@
         <v>45002</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7649,7 +7651,7 @@
         <v>45090</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7740,7 +7742,7 @@
         <v>45121</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7831,7 +7833,7 @@
         <v>43321</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7916,7 +7918,7 @@
         <v>43339</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8001,7 +8003,7 @@
         <v>43462</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8086,7 +8088,7 @@
         <v>43473</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8171,7 +8173,7 @@
         <v>43473</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8261,7 +8263,7 @@
         <v>43528</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8346,7 +8348,7 @@
         <v>43551</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8436,7 +8438,7 @@
         <v>43693</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8521,7 +8523,7 @@
         <v>43693</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8606,7 +8608,7 @@
         <v>43731</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8691,7 +8693,7 @@
         <v>43755</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8776,7 +8778,7 @@
         <v>43867</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8861,7 +8863,7 @@
         <v>43893</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8946,7 +8948,7 @@
         <v>43980</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9036,7 +9038,7 @@
         <v>44042</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9121,7 +9123,7 @@
         <v>44266</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9211,7 +9213,7 @@
         <v>44467</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9301,7 +9303,7 @@
         <v>44487</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9386,7 +9388,7 @@
         <v>44489</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9471,7 +9473,7 @@
         <v>44589</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9556,7 +9558,7 @@
         <v>44614</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9641,7 +9643,7 @@
         <v>44645</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9731,7 +9733,7 @@
         <v>44678</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9821,7 +9823,7 @@
         <v>44729</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9911,7 +9913,7 @@
         <v>44849</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9996,7 +9998,7 @@
         <v>44855</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10086,7 +10088,7 @@
         <v>44897</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10171,7 +10173,7 @@
         <v>44917</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10261,7 +10263,7 @@
         <v>44958</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10346,7 +10348,7 @@
         <v>44963</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10431,7 +10433,7 @@
         <v>45002</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10521,7 +10523,7 @@
         <v>45021</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10606,7 +10608,7 @@
         <v>45022</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10696,7 +10698,7 @@
         <v>45022</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10786,7 +10788,7 @@
         <v>45055</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10871,7 +10873,7 @@
         <v>45061</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10956,7 +10958,7 @@
         <v>45072</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11046,7 +11048,7 @@
         <v>45097</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11131,7 +11133,7 @@
         <v>45098</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11216,7 +11218,7 @@
         <v>45104</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11301,7 +11303,7 @@
         <v>45121</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11391,7 +11393,7 @@
         <v>45139</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11476,7 +11478,7 @@
         <v>43321</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11533,7 +11535,7 @@
         <v>43321</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11590,7 +11592,7 @@
         <v>43335</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11647,7 +11649,7 @@
         <v>43341</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11704,7 +11706,7 @@
         <v>43347</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11761,7 +11763,7 @@
         <v>43355</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11818,7 +11820,7 @@
         <v>43360</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11875,7 +11877,7 @@
         <v>43377</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11932,7 +11934,7 @@
         <v>43378</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11994,7 +11996,7 @@
         <v>43378</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12051,7 +12053,7 @@
         <v>43378</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12113,7 +12115,7 @@
         <v>43381</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12175,7 +12177,7 @@
         <v>43381</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12237,7 +12239,7 @@
         <v>43389</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12294,7 +12296,7 @@
         <v>43395</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12351,7 +12353,7 @@
         <v>43398</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12413,7 +12415,7 @@
         <v>43407</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12470,7 +12472,7 @@
         <v>43411</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12532,7 +12534,7 @@
         <v>43418</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12594,7 +12596,7 @@
         <v>43420</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12656,7 +12658,7 @@
         <v>43423</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12713,7 +12715,7 @@
         <v>43423</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12770,7 +12772,7 @@
         <v>43424</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12827,7 +12829,7 @@
         <v>43424</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12889,7 +12891,7 @@
         <v>43424</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12951,7 +12953,7 @@
         <v>43427</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13008,7 +13010,7 @@
         <v>43430</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13065,7 +13067,7 @@
         <v>43431</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13122,7 +13124,7 @@
         <v>43433</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13179,7 +13181,7 @@
         <v>43433</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13236,7 +13238,7 @@
         <v>43433</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13293,7 +13295,7 @@
         <v>43433</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13350,7 +13352,7 @@
         <v>43436</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13407,7 +13409,7 @@
         <v>43436</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13464,7 +13466,7 @@
         <v>43437</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13521,7 +13523,7 @@
         <v>43439</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13578,7 +13580,7 @@
         <v>43444</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13635,7 +13637,7 @@
         <v>43445</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13692,7 +13694,7 @@
         <v>43446</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13749,7 +13751,7 @@
         <v>43447</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13806,7 +13808,7 @@
         <v>43447</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13863,7 +13865,7 @@
         <v>43447</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13925,7 +13927,7 @@
         <v>43451</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13982,7 +13984,7 @@
         <v>43451</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14039,7 +14041,7 @@
         <v>43451</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14096,7 +14098,7 @@
         <v>43452</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14153,7 +14155,7 @@
         <v>43452</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14210,7 +14212,7 @@
         <v>43455</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14267,7 +14269,7 @@
         <v>43455</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14324,7 +14326,7 @@
         <v>43455</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14381,7 +14383,7 @@
         <v>43455</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14438,7 +14440,7 @@
         <v>43460</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14495,7 +14497,7 @@
         <v>43464</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14552,7 +14554,7 @@
         <v>43468</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14609,7 +14611,7 @@
         <v>43472</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14666,7 +14668,7 @@
         <v>43472</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14723,7 +14725,7 @@
         <v>43472</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14780,7 +14782,7 @@
         <v>43472</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14837,7 +14839,7 @@
         <v>43473</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14899,7 +14901,7 @@
         <v>43473</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14956,7 +14958,7 @@
         <v>43473</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15013,7 +15015,7 @@
         <v>43473</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15070,7 +15072,7 @@
         <v>43473</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15127,7 +15129,7 @@
         <v>43473</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15184,7 +15186,7 @@
         <v>43473</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15241,7 +15243,7 @@
         <v>43473</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15298,7 +15300,7 @@
         <v>43474</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15355,7 +15357,7 @@
         <v>43474</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15412,7 +15414,7 @@
         <v>43475</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15469,7 +15471,7 @@
         <v>43475</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15526,7 +15528,7 @@
         <v>43475</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15583,7 +15585,7 @@
         <v>43476</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15640,7 +15642,7 @@
         <v>43479</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15702,7 +15704,7 @@
         <v>43479</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15759,7 +15761,7 @@
         <v>43479</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15816,7 +15818,7 @@
         <v>43479</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15878,7 +15880,7 @@
         <v>43479</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15940,7 +15942,7 @@
         <v>43480</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15997,7 +15999,7 @@
         <v>43480</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16054,7 +16056,7 @@
         <v>43481</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16111,7 +16113,7 @@
         <v>43481</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16168,7 +16170,7 @@
         <v>43481</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16225,7 +16227,7 @@
         <v>43481</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16282,7 +16284,7 @@
         <v>43481</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16344,7 +16346,7 @@
         <v>43482</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16401,7 +16403,7 @@
         <v>43482</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16458,7 +16460,7 @@
         <v>43482</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16515,7 +16517,7 @@
         <v>43482</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16572,7 +16574,7 @@
         <v>43482</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16629,7 +16631,7 @@
         <v>43482</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16686,7 +16688,7 @@
         <v>43482</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16743,7 +16745,7 @@
         <v>43485</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16800,7 +16802,7 @@
         <v>43486</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16857,7 +16859,7 @@
         <v>43486</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16919,7 +16921,7 @@
         <v>43486</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16976,7 +16978,7 @@
         <v>43487</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17033,7 +17035,7 @@
         <v>43488</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17095,7 +17097,7 @@
         <v>43488</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17152,7 +17154,7 @@
         <v>43488</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17214,7 +17216,7 @@
         <v>43492</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17276,7 +17278,7 @@
         <v>43493</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17333,7 +17335,7 @@
         <v>43493</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17390,7 +17392,7 @@
         <v>43496</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17447,7 +17449,7 @@
         <v>43496</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17504,7 +17506,7 @@
         <v>43498</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17566,7 +17568,7 @@
         <v>43500</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17623,7 +17625,7 @@
         <v>43500</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17685,7 +17687,7 @@
         <v>43500</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17742,7 +17744,7 @@
         <v>43500</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17799,7 +17801,7 @@
         <v>43500</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17861,7 +17863,7 @@
         <v>43503</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17918,7 +17920,7 @@
         <v>43504</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17975,7 +17977,7 @@
         <v>43507</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18032,7 +18034,7 @@
         <v>43507</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18089,7 +18091,7 @@
         <v>43508</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18146,7 +18148,7 @@
         <v>43509</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18203,7 +18205,7 @@
         <v>43511</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18260,7 +18262,7 @@
         <v>43511</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18317,7 +18319,7 @@
         <v>43511</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18374,7 +18376,7 @@
         <v>43511</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18431,7 +18433,7 @@
         <v>43511</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18488,7 +18490,7 @@
         <v>43516</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18550,7 +18552,7 @@
         <v>43517</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18607,7 +18609,7 @@
         <v>43517</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18669,7 +18671,7 @@
         <v>43517</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18731,7 +18733,7 @@
         <v>43517</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18793,7 +18795,7 @@
         <v>43523</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18850,7 +18852,7 @@
         <v>43528</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18907,7 +18909,7 @@
         <v>43528</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18964,7 +18966,7 @@
         <v>43531</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19021,7 +19023,7 @@
         <v>43531</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19078,7 +19080,7 @@
         <v>43531</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19140,7 +19142,7 @@
         <v>43532</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19202,7 +19204,7 @@
         <v>43535</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19259,7 +19261,7 @@
         <v>43536</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19316,7 +19318,7 @@
         <v>43538</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19378,7 +19380,7 @@
         <v>43538</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19440,7 +19442,7 @@
         <v>43544</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19497,7 +19499,7 @@
         <v>43550</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19554,7 +19556,7 @@
         <v>43552</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19611,7 +19613,7 @@
         <v>43553</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19673,7 +19675,7 @@
         <v>43553</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19730,7 +19732,7 @@
         <v>43556</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19787,7 +19789,7 @@
         <v>43559</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19844,7 +19846,7 @@
         <v>43559</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19901,7 +19903,7 @@
         <v>43560</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19958,7 +19960,7 @@
         <v>43570</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20015,7 +20017,7 @@
         <v>43572</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20072,7 +20074,7 @@
         <v>43578</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20129,7 +20131,7 @@
         <v>43578</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20186,7 +20188,7 @@
         <v>43583</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20243,7 +20245,7 @@
         <v>43585</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20305,7 +20307,7 @@
         <v>43591</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20362,7 +20364,7 @@
         <v>43592</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20424,7 +20426,7 @@
         <v>43600</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20481,7 +20483,7 @@
         <v>43605</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20538,7 +20540,7 @@
         <v>43605</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20595,7 +20597,7 @@
         <v>43607</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20652,7 +20654,7 @@
         <v>43628</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20709,7 +20711,7 @@
         <v>43628</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20766,7 +20768,7 @@
         <v>43628</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20828,7 +20830,7 @@
         <v>43630</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20885,7 +20887,7 @@
         <v>43630</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20942,7 +20944,7 @@
         <v>43647</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20999,7 +21001,7 @@
         <v>43647</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21056,7 +21058,7 @@
         <v>43648</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21113,7 +21115,7 @@
         <v>43651</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21170,7 +21172,7 @@
         <v>43651</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21227,7 +21229,7 @@
         <v>43651</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21284,7 +21286,7 @@
         <v>43651</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21341,7 +21343,7 @@
         <v>43654</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21398,7 +21400,7 @@
         <v>43654</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21455,7 +21457,7 @@
         <v>43656</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21512,7 +21514,7 @@
         <v>43661</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21569,7 +21571,7 @@
         <v>43661</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21626,7 +21628,7 @@
         <v>43663</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21683,7 +21685,7 @@
         <v>43677</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21740,7 +21742,7 @@
         <v>43682</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21797,7 +21799,7 @@
         <v>43686</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21854,7 +21856,7 @@
         <v>43693</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21911,7 +21913,7 @@
         <v>43696</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21973,7 +21975,7 @@
         <v>43696</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22030,7 +22032,7 @@
         <v>43699</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22087,7 +22089,7 @@
         <v>43699</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22144,7 +22146,7 @@
         <v>43699</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22201,7 +22203,7 @@
         <v>43705</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22258,7 +22260,7 @@
         <v>43706</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22320,7 +22322,7 @@
         <v>43706</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22382,7 +22384,7 @@
         <v>43706</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22444,7 +22446,7 @@
         <v>43706</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22501,7 +22503,7 @@
         <v>43706</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22563,7 +22565,7 @@
         <v>43706</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22625,7 +22627,7 @@
         <v>43707</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22687,7 +22689,7 @@
         <v>43707</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22749,7 +22751,7 @@
         <v>43707</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22806,7 +22808,7 @@
         <v>43707</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22868,7 +22870,7 @@
         <v>43710</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22925,7 +22927,7 @@
         <v>43712</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22982,7 +22984,7 @@
         <v>43712</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23039,7 +23041,7 @@
         <v>43713</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23096,7 +23098,7 @@
         <v>43716</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23153,7 +23155,7 @@
         <v>43718</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23210,7 +23212,7 @@
         <v>43718</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23272,7 +23274,7 @@
         <v>43718</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23329,7 +23331,7 @@
         <v>43718</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23391,7 +23393,7 @@
         <v>43718</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23453,7 +23455,7 @@
         <v>43718</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23510,7 +23512,7 @@
         <v>43720</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23567,7 +23569,7 @@
         <v>43727</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23624,7 +23626,7 @@
         <v>43730</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23681,7 +23683,7 @@
         <v>43733</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23743,7 +23745,7 @@
         <v>43735</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23805,7 +23807,7 @@
         <v>43735</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23867,7 +23869,7 @@
         <v>43736</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23924,7 +23926,7 @@
         <v>43745</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23981,7 +23983,7 @@
         <v>43745</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24043,7 +24045,7 @@
         <v>43747</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24105,7 +24107,7 @@
         <v>43748</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24162,7 +24164,7 @@
         <v>43755</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24224,7 +24226,7 @@
         <v>43759</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24281,7 +24283,7 @@
         <v>43763</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24343,7 +24345,7 @@
         <v>43773</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24400,7 +24402,7 @@
         <v>43773</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24457,7 +24459,7 @@
         <v>43773</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24519,7 +24521,7 @@
         <v>43777</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24576,7 +24578,7 @@
         <v>43777</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24638,7 +24640,7 @@
         <v>43780</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24700,7 +24702,7 @@
         <v>43780</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24762,7 +24764,7 @@
         <v>43782</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24819,7 +24821,7 @@
         <v>43784</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24876,7 +24878,7 @@
         <v>43791</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24933,7 +24935,7 @@
         <v>43791</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24990,7 +24992,7 @@
         <v>43791</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25047,7 +25049,7 @@
         <v>43791</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25104,7 +25106,7 @@
         <v>43795</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25161,7 +25163,7 @@
         <v>43795</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25218,7 +25220,7 @@
         <v>43795</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25275,7 +25277,7 @@
         <v>43801</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25332,7 +25334,7 @@
         <v>43801</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25389,7 +25391,7 @@
         <v>43803</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25446,7 +25448,7 @@
         <v>43808</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25503,7 +25505,7 @@
         <v>43808</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25560,7 +25562,7 @@
         <v>43811</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25617,7 +25619,7 @@
         <v>43812</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25679,7 +25681,7 @@
         <v>43814</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25741,7 +25743,7 @@
         <v>43814</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25803,7 +25805,7 @@
         <v>43815</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25860,7 +25862,7 @@
         <v>43815</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25922,7 +25924,7 @@
         <v>43817</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25979,7 +25981,7 @@
         <v>43817</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26036,7 +26038,7 @@
         <v>43818</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26093,7 +26095,7 @@
         <v>43818</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26150,7 +26152,7 @@
         <v>43822</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26207,7 +26209,7 @@
         <v>43837</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26264,7 +26266,7 @@
         <v>43837</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26321,7 +26323,7 @@
         <v>43838</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26378,7 +26380,7 @@
         <v>43844</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26435,7 +26437,7 @@
         <v>43850</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26492,7 +26494,7 @@
         <v>43853</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26549,7 +26551,7 @@
         <v>43853</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26611,7 +26613,7 @@
         <v>43866</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26673,7 +26675,7 @@
         <v>43866</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26735,7 +26737,7 @@
         <v>43867</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26792,7 +26794,7 @@
         <v>43874</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26849,7 +26851,7 @@
         <v>43878</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26911,7 +26913,7 @@
         <v>43878</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26968,7 +26970,7 @@
         <v>43878</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27025,7 +27027,7 @@
         <v>43879</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27087,7 +27089,7 @@
         <v>43879</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27149,7 +27151,7 @@
         <v>43879</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27211,7 +27213,7 @@
         <v>43881</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27268,7 +27270,7 @@
         <v>43882</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27325,7 +27327,7 @@
         <v>43882</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27387,7 +27389,7 @@
         <v>43882</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27449,7 +27451,7 @@
         <v>43886</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27506,7 +27508,7 @@
         <v>43887</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27563,7 +27565,7 @@
         <v>43891</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27625,7 +27627,7 @@
         <v>43892</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27687,7 +27689,7 @@
         <v>43892</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27744,7 +27746,7 @@
         <v>43892</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27806,7 +27808,7 @@
         <v>43894</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27863,7 +27865,7 @@
         <v>43894</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27920,7 +27922,7 @@
         <v>43899</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27977,7 +27979,7 @@
         <v>43899</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28039,7 +28041,7 @@
         <v>43903</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28096,7 +28098,7 @@
         <v>43908</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28153,7 +28155,7 @@
         <v>43908</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28210,7 +28212,7 @@
         <v>43908</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28272,7 +28274,7 @@
         <v>43908</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28329,7 +28331,7 @@
         <v>43913</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28391,7 +28393,7 @@
         <v>43927</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28448,7 +28450,7 @@
         <v>43927</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28505,7 +28507,7 @@
         <v>43929</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28562,7 +28564,7 @@
         <v>43937</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28619,7 +28621,7 @@
         <v>43944</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28676,7 +28678,7 @@
         <v>43948</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28733,7 +28735,7 @@
         <v>43948</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28790,7 +28792,7 @@
         <v>43950</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28852,7 +28854,7 @@
         <v>43973</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28914,7 +28916,7 @@
         <v>43984</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28971,7 +28973,7 @@
         <v>43987</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29028,7 +29030,7 @@
         <v>43987</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29085,7 +29087,7 @@
         <v>43990</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29142,7 +29144,7 @@
         <v>43999</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29199,7 +29201,7 @@
         <v>43999</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29256,7 +29258,7 @@
         <v>44000</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29313,7 +29315,7 @@
         <v>44000</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29370,7 +29372,7 @@
         <v>44007</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29427,7 +29429,7 @@
         <v>44007</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29484,7 +29486,7 @@
         <v>44012</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29546,7 +29548,7 @@
         <v>44013</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29603,7 +29605,7 @@
         <v>44014</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29660,7 +29662,7 @@
         <v>44015</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29722,7 +29724,7 @@
         <v>44016</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29784,7 +29786,7 @@
         <v>44019</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29846,7 +29848,7 @@
         <v>44026</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29903,7 +29905,7 @@
         <v>44029</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29960,7 +29962,7 @@
         <v>44033</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30022,7 +30024,7 @@
         <v>44035</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30079,7 +30081,7 @@
         <v>44035</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30136,7 +30138,7 @@
         <v>44041</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30198,7 +30200,7 @@
         <v>44048</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30260,7 +30262,7 @@
         <v>44048</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30322,7 +30324,7 @@
         <v>44048</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30384,7 +30386,7 @@
         <v>44050</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30441,7 +30443,7 @@
         <v>44055</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30498,7 +30500,7 @@
         <v>44056</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30555,7 +30557,7 @@
         <v>44063</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30617,7 +30619,7 @@
         <v>44063</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30674,7 +30676,7 @@
         <v>44063</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30731,7 +30733,7 @@
         <v>44063</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30788,7 +30790,7 @@
         <v>44070</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30845,7 +30847,7 @@
         <v>44076</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30902,7 +30904,7 @@
         <v>44081</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30959,7 +30961,7 @@
         <v>44083</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31016,7 +31018,7 @@
         <v>44091</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31078,7 +31080,7 @@
         <v>44095</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31135,7 +31137,7 @@
         <v>44095</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31192,7 +31194,7 @@
         <v>44103</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31249,7 +31251,7 @@
         <v>44105</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31311,7 +31313,7 @@
         <v>44105</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31368,7 +31370,7 @@
         <v>44105</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31430,7 +31432,7 @@
         <v>44106</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31487,7 +31489,7 @@
         <v>44109</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31544,7 +31546,7 @@
         <v>44119</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31601,7 +31603,7 @@
         <v>44123</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31658,7 +31660,7 @@
         <v>44123</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31715,7 +31717,7 @@
         <v>44126</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31772,7 +31774,7 @@
         <v>44130</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31829,7 +31831,7 @@
         <v>44131</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31891,7 +31893,7 @@
         <v>44131</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31953,7 +31955,7 @@
         <v>44134</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32015,7 +32017,7 @@
         <v>44137</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32072,7 +32074,7 @@
         <v>44139</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32129,7 +32131,7 @@
         <v>44139</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32186,7 +32188,7 @@
         <v>44139</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32243,7 +32245,7 @@
         <v>44140</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32300,7 +32302,7 @@
         <v>44144</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32357,7 +32359,7 @@
         <v>44144</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32414,7 +32416,7 @@
         <v>44144</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32471,7 +32473,7 @@
         <v>44146</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32528,7 +32530,7 @@
         <v>44151</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32585,7 +32587,7 @@
         <v>44153</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32647,7 +32649,7 @@
         <v>44155</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32704,7 +32706,7 @@
         <v>44155</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32761,7 +32763,7 @@
         <v>44159</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32823,7 +32825,7 @@
         <v>44159</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32885,7 +32887,7 @@
         <v>44160</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32947,7 +32949,7 @@
         <v>44161</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33009,7 +33011,7 @@
         <v>44161</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33071,7 +33073,7 @@
         <v>44162</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33128,7 +33130,7 @@
         <v>44165</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33190,7 +33192,7 @@
         <v>44166</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33252,7 +33254,7 @@
         <v>44167</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33309,7 +33311,7 @@
         <v>44168</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33366,7 +33368,7 @@
         <v>44180</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33428,7 +33430,7 @@
         <v>44200</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33485,7 +33487,7 @@
         <v>44207</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33547,7 +33549,7 @@
         <v>44209</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33604,7 +33606,7 @@
         <v>44209</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33661,7 +33663,7 @@
         <v>44210</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33718,7 +33720,7 @@
         <v>44211</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33775,7 +33777,7 @@
         <v>44216</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33832,7 +33834,7 @@
         <v>44216</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33889,7 +33891,7 @@
         <v>44222</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33946,7 +33948,7 @@
         <v>44223</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34003,7 +34005,7 @@
         <v>44230</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34060,7 +34062,7 @@
         <v>44245</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34117,7 +34119,7 @@
         <v>44252</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34174,7 +34176,7 @@
         <v>44252</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34231,7 +34233,7 @@
         <v>44266</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34288,7 +34290,7 @@
         <v>44273</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34345,7 +34347,7 @@
         <v>44279</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34402,7 +34404,7 @@
         <v>44286</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34459,7 +34461,7 @@
         <v>44286</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34516,7 +34518,7 @@
         <v>44294</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34578,7 +34580,7 @@
         <v>44297</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34635,7 +34637,7 @@
         <v>44297</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34697,7 +34699,7 @@
         <v>44299</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34759,7 +34761,7 @@
         <v>44313</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34821,7 +34823,7 @@
         <v>44313</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34883,7 +34885,7 @@
         <v>44314</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34945,7 +34947,7 @@
         <v>44351</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35007,7 +35009,7 @@
         <v>44357</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35069,7 +35071,7 @@
         <v>44365</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35131,7 +35133,7 @@
         <v>44365</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35188,7 +35190,7 @@
         <v>44369</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35245,7 +35247,7 @@
         <v>44379</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35302,7 +35304,7 @@
         <v>44379</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35359,7 +35361,7 @@
         <v>44383</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35421,7 +35423,7 @@
         <v>44383</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35483,7 +35485,7 @@
         <v>44390</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35540,7 +35542,7 @@
         <v>44395</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35597,7 +35599,7 @@
         <v>44407</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35659,7 +35661,7 @@
         <v>44420</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35716,7 +35718,7 @@
         <v>44420</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35773,7 +35775,7 @@
         <v>44426</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35830,7 +35832,7 @@
         <v>44438</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35892,7 +35894,7 @@
         <v>44442</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -35949,7 +35951,7 @@
         <v>44445</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36006,7 +36008,7 @@
         <v>44446</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36063,7 +36065,7 @@
         <v>44447</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36120,7 +36122,7 @@
         <v>44453</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36177,7 +36179,7 @@
         <v>44459</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36239,7 +36241,7 @@
         <v>44461</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36301,7 +36303,7 @@
         <v>44463</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36358,7 +36360,7 @@
         <v>44470</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36415,7 +36417,7 @@
         <v>44479</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36472,7 +36474,7 @@
         <v>44481</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36529,7 +36531,7 @@
         <v>44484</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36586,7 +36588,7 @@
         <v>44486</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36643,7 +36645,7 @@
         <v>44489</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36700,7 +36702,7 @@
         <v>44489</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36757,7 +36759,7 @@
         <v>44494</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36819,7 +36821,7 @@
         <v>44495</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36876,7 +36878,7 @@
         <v>44497</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36933,7 +36935,7 @@
         <v>44503</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -36990,7 +36992,7 @@
         <v>44504</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37047,7 +37049,7 @@
         <v>44512</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37104,7 +37106,7 @@
         <v>44512</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37161,7 +37163,7 @@
         <v>44512</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37218,7 +37220,7 @@
         <v>44512</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37275,7 +37277,7 @@
         <v>44515</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37332,7 +37334,7 @@
         <v>44516</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37389,7 +37391,7 @@
         <v>44517</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37446,7 +37448,7 @@
         <v>44517</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37503,7 +37505,7 @@
         <v>44517</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37560,7 +37562,7 @@
         <v>44518</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37617,7 +37619,7 @@
         <v>44519</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37674,7 +37676,7 @@
         <v>44522</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37731,7 +37733,7 @@
         <v>44522</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37788,7 +37790,7 @@
         <v>44525</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37850,7 +37852,7 @@
         <v>44526</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -37912,7 +37914,7 @@
         <v>44526</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -37969,7 +37971,7 @@
         <v>44526</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38026,7 +38028,7 @@
         <v>44531</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38083,7 +38085,7 @@
         <v>44531</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38140,7 +38142,7 @@
         <v>44531</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38202,7 +38204,7 @@
         <v>44531</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38259,7 +38261,7 @@
         <v>44532</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38316,7 +38318,7 @@
         <v>44532</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38373,7 +38375,7 @@
         <v>44532</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38430,7 +38432,7 @@
         <v>44532</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38487,7 +38489,7 @@
         <v>44535</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38544,7 +38546,7 @@
         <v>44535</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38601,7 +38603,7 @@
         <v>44540</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38663,7 +38665,7 @@
         <v>44543</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38725,7 +38727,7 @@
         <v>44543</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38787,7 +38789,7 @@
         <v>44544</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -38844,7 +38846,7 @@
         <v>44544</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -38901,7 +38903,7 @@
         <v>44548</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -38958,7 +38960,7 @@
         <v>44553</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39015,7 +39017,7 @@
         <v>44553</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39072,7 +39074,7 @@
         <v>44560</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39129,7 +39131,7 @@
         <v>44560</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39186,7 +39188,7 @@
         <v>44569</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39248,7 +39250,7 @@
         <v>44571</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -39310,7 +39312,7 @@
         <v>44572</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -39372,7 +39374,7 @@
         <v>44574</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39429,7 +39431,7 @@
         <v>44575</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39486,7 +39488,7 @@
         <v>44575</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39543,7 +39545,7 @@
         <v>44575</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39600,7 +39602,7 @@
         <v>44583</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -39662,7 +39664,7 @@
         <v>44583</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -39724,7 +39726,7 @@
         <v>44583</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -39786,7 +39788,7 @@
         <v>44588</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -39843,7 +39845,7 @@
         <v>44588</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -39900,7 +39902,7 @@
         <v>44593</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -39962,7 +39964,7 @@
         <v>44593</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40019,7 +40021,7 @@
         <v>44593</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40076,7 +40078,7 @@
         <v>44593</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40133,7 +40135,7 @@
         <v>44594</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40190,7 +40192,7 @@
         <v>44594</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40247,7 +40249,7 @@
         <v>44598</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -40304,7 +40306,7 @@
         <v>44600</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -40361,7 +40363,7 @@
         <v>44600</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -40423,7 +40425,7 @@
         <v>44602</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -40480,7 +40482,7 @@
         <v>44602</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -40537,7 +40539,7 @@
         <v>44602</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -40594,7 +40596,7 @@
         <v>44602</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -40651,7 +40653,7 @@
         <v>44602</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -40708,7 +40710,7 @@
         <v>44602</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -40770,7 +40772,7 @@
         <v>44602</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -40827,7 +40829,7 @@
         <v>44603</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -40884,7 +40886,7 @@
         <v>44603</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -40941,7 +40943,7 @@
         <v>44603</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -40998,7 +41000,7 @@
         <v>44606</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41055,7 +41057,7 @@
         <v>44608</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41117,7 +41119,7 @@
         <v>44608</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41179,7 +41181,7 @@
         <v>44608</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41236,7 +41238,7 @@
         <v>44609</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -41298,7 +41300,7 @@
         <v>44609</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -41360,7 +41362,7 @@
         <v>44610</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -41422,7 +41424,7 @@
         <v>44610</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -41484,7 +41486,7 @@
         <v>44610</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -41546,7 +41548,7 @@
         <v>44612</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -41603,7 +41605,7 @@
         <v>44616</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -41665,7 +41667,7 @@
         <v>44616</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -41722,7 +41724,7 @@
         <v>44623</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -41784,7 +41786,7 @@
         <v>44634</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -41841,7 +41843,7 @@
         <v>44645</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -41898,7 +41900,7 @@
         <v>44649</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -41955,7 +41957,7 @@
         <v>44649</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42012,7 +42014,7 @@
         <v>44652</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42069,7 +42071,7 @@
         <v>44659</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42131,7 +42133,7 @@
         <v>44659</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42193,7 +42195,7 @@
         <v>44665</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -42255,7 +42257,7 @@
         <v>44673</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -42317,7 +42319,7 @@
         <v>44676</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -42379,7 +42381,7 @@
         <v>44676</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -42436,7 +42438,7 @@
         <v>44690</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -42498,7 +42500,7 @@
         <v>44691</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -42560,7 +42562,7 @@
         <v>44692</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -42622,7 +42624,7 @@
         <v>44699</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -42684,7 +42686,7 @@
         <v>44700</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -42741,7 +42743,7 @@
         <v>44700</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -42798,7 +42800,7 @@
         <v>44701</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -42860,7 +42862,7 @@
         <v>44704</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -42922,7 +42924,7 @@
         <v>44704</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -42979,7 +42981,7 @@
         <v>44711</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43041,7 +43043,7 @@
         <v>44713</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43103,7 +43105,7 @@
         <v>44713</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43165,7 +43167,7 @@
         <v>44714</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43222,7 +43224,7 @@
         <v>44719</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -43279,7 +43281,7 @@
         <v>44720</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -43336,7 +43338,7 @@
         <v>44729</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -43393,7 +43395,7 @@
         <v>44733</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -43450,7 +43452,7 @@
         <v>44742</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -43507,7 +43509,7 @@
         <v>44742</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -43564,7 +43566,7 @@
         <v>44742</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -43626,7 +43628,7 @@
         <v>44742</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -43683,7 +43685,7 @@
         <v>44742</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -43740,7 +43742,7 @@
         <v>44743</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -43797,7 +43799,7 @@
         <v>44762</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -43859,7 +43861,7 @@
         <v>44764</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -43921,7 +43923,7 @@
         <v>44764</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -43983,7 +43985,7 @@
         <v>44769</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44045,7 +44047,7 @@
         <v>44771</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44107,7 +44109,7 @@
         <v>44771</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44169,7 +44171,7 @@
         <v>44771</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44231,7 +44233,7 @@
         <v>44782</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -44288,7 +44290,7 @@
         <v>44782</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -44345,7 +44347,7 @@
         <v>44784</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -44402,7 +44404,7 @@
         <v>44788</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -44459,7 +44461,7 @@
         <v>44795</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -44516,7 +44518,7 @@
         <v>44797</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -44573,7 +44575,7 @@
         <v>44798</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -44630,7 +44632,7 @@
         <v>44806</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -44687,7 +44689,7 @@
         <v>44810</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -44744,7 +44746,7 @@
         <v>44811</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -44801,7 +44803,7 @@
         <v>44816</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -44858,7 +44860,7 @@
         <v>44816</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -44915,7 +44917,7 @@
         <v>44816</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -44972,7 +44974,7 @@
         <v>44816</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45029,7 +45031,7 @@
         <v>44816</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45091,7 +45093,7 @@
         <v>44817</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45148,7 +45150,7 @@
         <v>44817</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -45205,7 +45207,7 @@
         <v>44817</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -45262,7 +45264,7 @@
         <v>44819</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -45324,7 +45326,7 @@
         <v>44831</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -45381,7 +45383,7 @@
         <v>44832</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -45438,7 +45440,7 @@
         <v>44839</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -45495,7 +45497,7 @@
         <v>44844</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -45552,7 +45554,7 @@
         <v>44846</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -45609,7 +45611,7 @@
         <v>44847</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -45666,7 +45668,7 @@
         <v>44847</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -45723,7 +45725,7 @@
         <v>44847</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -45780,7 +45782,7 @@
         <v>44848</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -45837,7 +45839,7 @@
         <v>44849</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -45894,7 +45896,7 @@
         <v>44853</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -45951,7 +45953,7 @@
         <v>44865</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46008,7 +46010,7 @@
         <v>44866</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46065,7 +46067,7 @@
         <v>44872</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -46122,7 +46124,7 @@
         <v>44872</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -46179,7 +46181,7 @@
         <v>44883</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -46241,7 +46243,7 @@
         <v>44883</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -46298,7 +46300,7 @@
         <v>44886</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -46355,7 +46357,7 @@
         <v>44886</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -46417,7 +46419,7 @@
         <v>44888</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -46479,7 +46481,7 @@
         <v>44893</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -46536,7 +46538,7 @@
         <v>44897</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -46593,7 +46595,7 @@
         <v>44897</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -46650,7 +46652,7 @@
         <v>44901</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -46712,7 +46714,7 @@
         <v>44904</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -46774,7 +46776,7 @@
         <v>44908</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -46831,7 +46833,7 @@
         <v>44908</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -46888,7 +46890,7 @@
         <v>44909</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -46945,7 +46947,7 @@
         <v>44909</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47002,7 +47004,7 @@
         <v>44912</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47059,7 +47061,7 @@
         <v>44916</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -47121,7 +47123,7 @@
         <v>44916</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -47178,7 +47180,7 @@
         <v>44928</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -47240,7 +47242,7 @@
         <v>44928</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -47302,7 +47304,7 @@
         <v>44929</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -47359,7 +47361,7 @@
         <v>44930</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -47416,7 +47418,7 @@
         <v>44930</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -47478,7 +47480,7 @@
         <v>44935</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -47535,7 +47537,7 @@
         <v>44944</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -47592,7 +47594,7 @@
         <v>44944</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -47654,7 +47656,7 @@
         <v>44944</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -47711,7 +47713,7 @@
         <v>44944</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -47773,7 +47775,7 @@
         <v>44944</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -47830,7 +47832,7 @@
         <v>44945</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -47887,7 +47889,7 @@
         <v>44946</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -47944,7 +47946,7 @@
         <v>44949</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48006,7 +48008,7 @@
         <v>44950</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -48068,7 +48070,7 @@
         <v>44952</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -48130,7 +48132,7 @@
         <v>44960</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -48192,7 +48194,7 @@
         <v>44960</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -48249,7 +48251,7 @@
         <v>44960</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -48306,7 +48308,7 @@
         <v>44964</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -48363,7 +48365,7 @@
         <v>44964</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -48420,7 +48422,7 @@
         <v>44965</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -48477,7 +48479,7 @@
         <v>44965</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -48534,7 +48536,7 @@
         <v>44966</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -48596,7 +48598,7 @@
         <v>44967</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -48653,7 +48655,7 @@
         <v>44967</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -48710,7 +48712,7 @@
         <v>44967</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -48767,7 +48769,7 @@
         <v>44967</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -48824,7 +48826,7 @@
         <v>44967</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -48881,7 +48883,7 @@
         <v>44969</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -48938,7 +48940,7 @@
         <v>44970</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49000,7 +49002,7 @@
         <v>44971</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -49057,7 +49059,7 @@
         <v>44971</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -49114,7 +49116,7 @@
         <v>44972</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -49171,7 +49173,7 @@
         <v>44973</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -49228,7 +49230,7 @@
         <v>44973</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -49285,7 +49287,7 @@
         <v>44977</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -49347,7 +49349,7 @@
         <v>44977</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -49404,7 +49406,7 @@
         <v>44977</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -49461,7 +49463,7 @@
         <v>44978</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -49523,7 +49525,7 @@
         <v>44980</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -49580,7 +49582,7 @@
         <v>44980</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -49637,7 +49639,7 @@
         <v>44980</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -49694,7 +49696,7 @@
         <v>44980</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -49751,7 +49753,7 @@
         <v>44984</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -49813,7 +49815,7 @@
         <v>44984</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -49870,7 +49872,7 @@
         <v>44988</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -49927,7 +49929,7 @@
         <v>44991</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -49984,7 +49986,7 @@
         <v>44993</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -50041,7 +50043,7 @@
         <v>44993</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -50098,7 +50100,7 @@
         <v>44994</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -50155,7 +50157,7 @@
         <v>45006</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -50212,7 +50214,7 @@
         <v>45009</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -50274,7 +50276,7 @@
         <v>45013</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -50331,7 +50333,7 @@
         <v>45014</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -50388,7 +50390,7 @@
         <v>45026</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -50445,7 +50447,7 @@
         <v>45028</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -50507,7 +50509,7 @@
         <v>45033</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -50564,7 +50566,7 @@
         <v>45036</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -50621,7 +50623,7 @@
         <v>45037</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -50683,7 +50685,7 @@
         <v>45042</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -50740,7 +50742,7 @@
         <v>45042</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -50802,7 +50804,7 @@
         <v>45043</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -50859,7 +50861,7 @@
         <v>45049</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -50916,7 +50918,7 @@
         <v>45049</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -50973,7 +50975,7 @@
         <v>45049</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -51030,7 +51032,7 @@
         <v>45049</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -51087,7 +51089,7 @@
         <v>45050</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -51144,7 +51146,7 @@
         <v>45050</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -51201,7 +51203,7 @@
         <v>45050</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -51258,7 +51260,7 @@
         <v>45054</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -51315,7 +51317,7 @@
         <v>45054</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -51372,7 +51374,7 @@
         <v>45055</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -51429,7 +51431,7 @@
         <v>45056</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -51491,7 +51493,7 @@
         <v>45056</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -51553,7 +51555,7 @@
         <v>45058</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -51610,7 +51612,7 @@
         <v>45058</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -51667,7 +51669,7 @@
         <v>45058</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -51724,7 +51726,7 @@
         <v>45058</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -51781,7 +51783,7 @@
         <v>45058</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -51838,7 +51840,7 @@
         <v>45058</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -51900,7 +51902,7 @@
         <v>45060</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -51957,7 +51959,7 @@
         <v>45061</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -52014,7 +52016,7 @@
         <v>45063</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -52071,7 +52073,7 @@
         <v>45063</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -52128,7 +52130,7 @@
         <v>45063</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -52185,7 +52187,7 @@
         <v>45063</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -52242,7 +52244,7 @@
         <v>45070</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -52304,7 +52306,7 @@
         <v>45075</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -52361,7 +52363,7 @@
         <v>45078</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -52418,7 +52420,7 @@
         <v>45078</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -52480,7 +52482,7 @@
         <v>45078</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -52537,7 +52539,7 @@
         <v>45079</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -52594,7 +52596,7 @@
         <v>45084</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -52656,7 +52658,7 @@
         <v>45086</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -52718,7 +52720,7 @@
         <v>45089</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -52775,7 +52777,7 @@
         <v>45089</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -52832,7 +52834,7 @@
         <v>45089</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -52889,7 +52891,7 @@
         <v>45089</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -52946,7 +52948,7 @@
         <v>45091</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -53008,7 +53010,7 @@
         <v>45091</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -53065,7 +53067,7 @@
         <v>45091</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -53127,7 +53129,7 @@
         <v>45091</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -53189,7 +53191,7 @@
         <v>45091</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -53246,7 +53248,7 @@
         <v>45093</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -53308,7 +53310,7 @@
         <v>45096</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -53365,7 +53367,7 @@
         <v>45096</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -53422,7 +53424,7 @@
         <v>45096</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -53479,7 +53481,7 @@
         <v>45096</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -53536,7 +53538,7 @@
         <v>45096</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -53593,7 +53595,7 @@
         <v>45096</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -53650,7 +53652,7 @@
         <v>45096</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -53707,7 +53709,7 @@
         <v>45096</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -53764,7 +53766,7 @@
         <v>45097</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -53821,7 +53823,7 @@
         <v>45097</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -53878,7 +53880,7 @@
         <v>45097</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -53935,7 +53937,7 @@
         <v>45097</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -53992,7 +53994,7 @@
         <v>45097</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -54049,7 +54051,7 @@
         <v>45103</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -54106,7 +54108,7 @@
         <v>45103</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -54163,7 +54165,7 @@
         <v>45105</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -54220,7 +54222,7 @@
         <v>45105</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -54277,7 +54279,7 @@
         <v>45105</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -54334,7 +54336,7 @@
         <v>45107</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -54391,7 +54393,7 @@
         <v>45107</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -54448,7 +54450,7 @@
         <v>45107</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -54510,7 +54512,7 @@
         <v>45107</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -54572,7 +54574,7 @@
         <v>45107</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -54629,7 +54631,7 @@
         <v>45110</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -54686,7 +54688,7 @@
         <v>45112</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -54743,7 +54745,7 @@
         <v>45113</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -54800,7 +54802,7 @@
         <v>45119</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -54857,7 +54859,7 @@
         <v>45121</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -54919,7 +54921,7 @@
         <v>45123</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -54976,7 +54978,7 @@
         <v>45127</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -55033,7 +55035,7 @@
         <v>45128</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -55090,7 +55092,7 @@
         <v>45131</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -55147,7 +55149,7 @@
         <v>45132</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -55204,7 +55206,7 @@
         <v>45134</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -55261,7 +55263,7 @@
         <v>45145</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -55318,7 +55320,7 @@
         <v>45148</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -55375,7 +55377,7 @@
         <v>45148</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -55432,7 +55434,7 @@
         <v>45148</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -55489,7 +55491,7 @@
         <v>45148</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -55546,7 +55548,7 @@
         <v>45148</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -55603,7 +55605,7 @@
         <v>45149</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -55665,7 +55667,7 @@
         <v>45152</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -55722,7 +55724,7 @@
         <v>45152</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -55784,7 +55786,7 @@
         <v>45152</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -55841,7 +55843,7 @@
         <v>45152</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -55903,7 +55905,7 @@
         <v>45153</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -55965,7 +55967,7 @@
         <v>45153</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -56027,7 +56029,7 @@
         <v>45160</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -56084,7 +56086,7 @@
         <v>45161</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -56141,7 +56143,7 @@
         <v>45162</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -56198,7 +56200,7 @@
         <v>45162</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -56255,7 +56257,7 @@
         <v>45162</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -56317,7 +56319,7 @@
         <v>45162</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -56379,7 +56381,7 @@
         <v>45164</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -56441,7 +56443,7 @@
         <v>45167</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -56498,7 +56500,7 @@
         <v>45169</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -56560,7 +56562,7 @@
         <v>45169</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -56622,7 +56624,7 @@
         <v>45173</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -56679,7 +56681,7 @@
         <v>45173</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -56736,7 +56738,7 @@
         <v>45175</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>

--- a/Översikt UPPSALA.xlsx
+++ b/Översikt UPPSALA.xlsx
@@ -572,7 +572,7 @@
         <v>44012</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         <v>43913</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         <v>43762</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44377</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>44349</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>45082</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>43381</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>43875</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>45013</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1526,7 +1526,7 @@
         <v>44222</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>44623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         <v>44971</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>43796</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>44053</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>44356</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>45086</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>44158</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>44180</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2499,7 +2499,7 @@
         <v>44497</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>44901</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>45092</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
         <v>43433</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>44376</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>44575</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>44356</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3155,7 +3155,7 @@
         <v>43814</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43861</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>44119</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3427,7 +3427,7 @@
         <v>44351</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>44500</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>44574</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3702,7 +3702,7 @@
         <v>44792</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>44879</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>44922</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>44977</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>45107</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>43511</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         <v>43857</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43980</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>44056</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>44101</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
         <v>44462</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>44664</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>44719</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>44740</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>44974</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>45002</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5160,7 +5160,7 @@
         <v>45049</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5336,7 +5336,7 @@
         <v>43511</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>43731</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43796</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>44101</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>44133</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>44495</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>44652</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>44684</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>44692</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>44791</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>44804</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>44938</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6410,7 +6410,7 @@
         <v>44956</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
         <v>44973</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6589,7 +6589,7 @@
         <v>43503</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6680,7 +6680,7 @@
         <v>43545</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>43607</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>43654</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6943,7 +6943,7 @@
         <v>43742</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         <v>43929</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>44054</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>44101</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>44659</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>44879</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>44967</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>45002</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>45090</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7742,7 +7742,7 @@
         <v>45121</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7833,7 +7833,7 @@
         <v>43321</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>43339</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>43462</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8088,7 +8088,7 @@
         <v>43473</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>43473</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8263,7 +8263,7 @@
         <v>43528</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>43551</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>43693</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>43693</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>43731</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8693,7 +8693,7 @@
         <v>43755</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8778,7 +8778,7 @@
         <v>43867</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43893</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8948,7 +8948,7 @@
         <v>43980</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>44042</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>44266</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>44467</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         <v>44487</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         <v>44489</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>44589</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>44614</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9643,7 +9643,7 @@
         <v>44645</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>44678</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>44729</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>44849</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>44855</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10088,7 +10088,7 @@
         <v>44897</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>44917</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         <v>44958</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10348,7 +10348,7 @@
         <v>44963</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>45002</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10523,7 +10523,7 @@
         <v>45021</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>45022</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10698,7 +10698,7 @@
         <v>45022</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>45055</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
         <v>45061</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>45072</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>45097</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>45098</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11218,7 +11218,7 @@
         <v>45104</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11303,7 +11303,7 @@
         <v>45121</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11393,7 +11393,7 @@
         <v>45139</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11478,7 +11478,7 @@
         <v>43321</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11535,7 +11535,7 @@
         <v>43321</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11592,7 +11592,7 @@
         <v>43335</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11649,7 +11649,7 @@
         <v>43341</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11706,7 +11706,7 @@
         <v>43347</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11763,7 +11763,7 @@
         <v>43355</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11820,7 +11820,7 @@
         <v>43360</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11877,7 +11877,7 @@
         <v>43377</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11934,7 +11934,7 @@
         <v>43378</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11996,7 +11996,7 @@
         <v>43378</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12053,7 +12053,7 @@
         <v>43378</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         <v>43381</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         <v>43381</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>43389</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>43395</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>43398</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>43407</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>43411</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>43418</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>43420</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12658,7 +12658,7 @@
         <v>43423</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12715,7 +12715,7 @@
         <v>43423</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12772,7 +12772,7 @@
         <v>43424</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12829,7 +12829,7 @@
         <v>43424</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>43424</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12953,7 +12953,7 @@
         <v>43427</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13010,7 +13010,7 @@
         <v>43430</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13067,7 +13067,7 @@
         <v>43431</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         <v>43433</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>43433</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>43433</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13295,7 +13295,7 @@
         <v>43433</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13352,7 +13352,7 @@
         <v>43436</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13409,7 +13409,7 @@
         <v>43436</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13466,7 +13466,7 @@
         <v>43437</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13523,7 +13523,7 @@
         <v>43439</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13580,7 +13580,7 @@
         <v>43444</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13637,7 +13637,7 @@
         <v>43445</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13694,7 +13694,7 @@
         <v>43446</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13751,7 +13751,7 @@
         <v>43447</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13808,7 +13808,7 @@
         <v>43447</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13865,7 +13865,7 @@
         <v>43447</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13927,7 +13927,7 @@
         <v>43451</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13984,7 +13984,7 @@
         <v>43451</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
         <v>43451</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14098,7 +14098,7 @@
         <v>43452</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>43452</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         <v>43455</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>43455</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14326,7 +14326,7 @@
         <v>43455</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14383,7 +14383,7 @@
         <v>43455</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14440,7 +14440,7 @@
         <v>43460</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14497,7 +14497,7 @@
         <v>43464</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14554,7 +14554,7 @@
         <v>43468</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14611,7 +14611,7 @@
         <v>43472</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14668,7 +14668,7 @@
         <v>43472</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14725,7 +14725,7 @@
         <v>43472</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14782,7 +14782,7 @@
         <v>43472</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>43473</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14901,7 +14901,7 @@
         <v>43473</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>43473</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>43473</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>43473</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>43473</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>43473</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>43473</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>43474</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>43474</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>43475</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>43475</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>43475</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15585,7 +15585,7 @@
         <v>43476</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>43479</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>43479</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>43479</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15818,7 +15818,7 @@
         <v>43479</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>43479</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15942,7 +15942,7 @@
         <v>43480</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15999,7 +15999,7 @@
         <v>43480</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16056,7 +16056,7 @@
         <v>43481</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>43481</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>43481</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>43481</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16284,7 +16284,7 @@
         <v>43481</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>43482</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>43482</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>43482</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>43482</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>43482</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>43482</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>43482</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16745,7 +16745,7 @@
         <v>43485</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16802,7 +16802,7 @@
         <v>43486</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16859,7 +16859,7 @@
         <v>43486</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>43486</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>43487</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17035,7 +17035,7 @@
         <v>43488</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>43488</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>43488</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>43492</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>43493</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>43493</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>43496</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>43496</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>43498</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>43500</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>43500</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17687,7 +17687,7 @@
         <v>43500</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>43500</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17801,7 +17801,7 @@
         <v>43500</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>43503</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         <v>43504</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>43507</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18034,7 +18034,7 @@
         <v>43507</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         <v>43508</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18148,7 +18148,7 @@
         <v>43509</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18205,7 +18205,7 @@
         <v>43511</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18262,7 +18262,7 @@
         <v>43511</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18319,7 +18319,7 @@
         <v>43511</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18376,7 +18376,7 @@
         <v>43511</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18433,7 +18433,7 @@
         <v>43511</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>43516</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         <v>43517</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18609,7 +18609,7 @@
         <v>43517</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18671,7 +18671,7 @@
         <v>43517</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>43517</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18795,7 +18795,7 @@
         <v>43523</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18852,7 +18852,7 @@
         <v>43528</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         <v>43528</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18966,7 +18966,7 @@
         <v>43531</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19023,7 +19023,7 @@
         <v>43531</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19080,7 +19080,7 @@
         <v>43531</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19142,7 +19142,7 @@
         <v>43532</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>43535</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>43536</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>43538</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19380,7 +19380,7 @@
         <v>43538</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19442,7 +19442,7 @@
         <v>43544</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19499,7 +19499,7 @@
         <v>43550</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19556,7 +19556,7 @@
         <v>43552</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19613,7 +19613,7 @@
         <v>43553</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         <v>43553</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19732,7 +19732,7 @@
         <v>43556</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19789,7 +19789,7 @@
         <v>43559</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19846,7 +19846,7 @@
         <v>43559</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19903,7 +19903,7 @@
         <v>43560</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19960,7 +19960,7 @@
         <v>43570</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20017,7 +20017,7 @@
         <v>43572</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         <v>43578</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20131,7 +20131,7 @@
         <v>43578</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
         <v>43583</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20245,7 +20245,7 @@
         <v>43585</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20307,7 +20307,7 @@
         <v>43591</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20364,7 +20364,7 @@
         <v>43592</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20426,7 +20426,7 @@
         <v>43600</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20483,7 +20483,7 @@
         <v>43605</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20540,7 +20540,7 @@
         <v>43605</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20597,7 +20597,7 @@
         <v>43607</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20654,7 +20654,7 @@
         <v>43628</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20711,7 +20711,7 @@
         <v>43628</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>43628</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         <v>43630</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20887,7 +20887,7 @@
         <v>43630</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20944,7 +20944,7 @@
         <v>43647</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21001,7 +21001,7 @@
         <v>43647</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21058,7 +21058,7 @@
         <v>43648</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         <v>43651</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21172,7 +21172,7 @@
         <v>43651</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21229,7 +21229,7 @@
         <v>43651</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21286,7 +21286,7 @@
         <v>43651</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21343,7 +21343,7 @@
         <v>43654</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21400,7 +21400,7 @@
         <v>43654</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21457,7 +21457,7 @@
         <v>43656</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21514,7 +21514,7 @@
         <v>43661</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21571,7 +21571,7 @@
         <v>43661</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21628,7 +21628,7 @@
         <v>43663</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21685,7 +21685,7 @@
         <v>43677</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21742,7 +21742,7 @@
         <v>43682</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21799,7 +21799,7 @@
         <v>43686</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21856,7 +21856,7 @@
         <v>43693</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
         <v>43696</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21975,7 +21975,7 @@
         <v>43696</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22032,7 +22032,7 @@
         <v>43699</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22089,7 +22089,7 @@
         <v>43699</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         <v>43699</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22203,7 +22203,7 @@
         <v>43705</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22260,7 +22260,7 @@
         <v>43706</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22322,7 +22322,7 @@
         <v>43706</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22384,7 +22384,7 @@
         <v>43706</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22446,7 +22446,7 @@
         <v>43706</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22503,7 +22503,7 @@
         <v>43706</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22565,7 +22565,7 @@
         <v>43706</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         <v>43707</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22689,7 +22689,7 @@
         <v>43707</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22751,7 +22751,7 @@
         <v>43707</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22808,7 +22808,7 @@
         <v>43707</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22870,7 +22870,7 @@
         <v>43710</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22927,7 +22927,7 @@
         <v>43712</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22984,7 +22984,7 @@
         <v>43712</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23041,7 +23041,7 @@
         <v>43713</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23098,7 +23098,7 @@
         <v>43716</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23155,7 +23155,7 @@
         <v>43718</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23212,7 +23212,7 @@
         <v>43718</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23274,7 +23274,7 @@
         <v>43718</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23331,7 +23331,7 @@
         <v>43718</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23393,7 +23393,7 @@
         <v>43718</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23455,7 +23455,7 @@
         <v>43718</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23512,7 +23512,7 @@
         <v>43720</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23569,7 +23569,7 @@
         <v>43727</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23626,7 +23626,7 @@
         <v>43730</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>43733</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23745,7 +23745,7 @@
         <v>43735</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23807,7 +23807,7 @@
         <v>43735</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23869,7 +23869,7 @@
         <v>43736</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23926,7 +23926,7 @@
         <v>43745</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23983,7 +23983,7 @@
         <v>43745</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24045,7 +24045,7 @@
         <v>43747</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24107,7 +24107,7 @@
         <v>43748</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24164,7 +24164,7 @@
         <v>43755</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>43759</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>43763</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24345,7 +24345,7 @@
         <v>43773</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24402,7 +24402,7 @@
         <v>43773</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24459,7 +24459,7 @@
         <v>43773</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24521,7 +24521,7 @@
         <v>43777</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24578,7 +24578,7 @@
         <v>43777</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>43780</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24702,7 +24702,7 @@
         <v>43780</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24764,7 +24764,7 @@
         <v>43782</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24821,7 +24821,7 @@
         <v>43784</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24878,7 +24878,7 @@
         <v>43791</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24935,7 +24935,7 @@
         <v>43791</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24992,7 +24992,7 @@
         <v>43791</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25049,7 +25049,7 @@
         <v>43791</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         <v>43795</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25163,7 +25163,7 @@
         <v>43795</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25220,7 +25220,7 @@
         <v>43795</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25277,7 +25277,7 @@
         <v>43801</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25334,7 +25334,7 @@
         <v>43801</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25391,7 +25391,7 @@
         <v>43803</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25448,7 +25448,7 @@
         <v>43808</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25505,7 +25505,7 @@
         <v>43808</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25562,7 +25562,7 @@
         <v>43811</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25619,7 +25619,7 @@
         <v>43812</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25681,7 +25681,7 @@
         <v>43814</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25743,7 +25743,7 @@
         <v>43814</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25805,7 +25805,7 @@
         <v>43815</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25862,7 +25862,7 @@
         <v>43815</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25924,7 +25924,7 @@
         <v>43817</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25981,7 +25981,7 @@
         <v>43817</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26038,7 +26038,7 @@
         <v>43818</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26095,7 +26095,7 @@
         <v>43818</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26152,7 +26152,7 @@
         <v>43822</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26209,7 +26209,7 @@
         <v>43837</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26266,7 +26266,7 @@
         <v>43837</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26323,7 +26323,7 @@
         <v>43838</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26380,7 +26380,7 @@
         <v>43844</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26437,7 +26437,7 @@
         <v>43850</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26494,7 +26494,7 @@
         <v>43853</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26551,7 +26551,7 @@
         <v>43853</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26613,7 +26613,7 @@
         <v>43866</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26675,7 +26675,7 @@
         <v>43866</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26737,7 +26737,7 @@
         <v>43867</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26794,7 +26794,7 @@
         <v>43874</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26851,7 +26851,7 @@
         <v>43878</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26913,7 +26913,7 @@
         <v>43878</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26970,7 +26970,7 @@
         <v>43878</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27027,7 +27027,7 @@
         <v>43879</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27089,7 +27089,7 @@
         <v>43879</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27151,7 +27151,7 @@
         <v>43879</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27213,7 +27213,7 @@
         <v>43881</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27270,7 +27270,7 @@
         <v>43882</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27327,7 +27327,7 @@
         <v>43882</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27389,7 +27389,7 @@
         <v>43882</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         <v>43886</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>43887</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>43891</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>43892</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27689,7 +27689,7 @@
         <v>43892</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         <v>43892</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27808,7 +27808,7 @@
         <v>43894</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27865,7 +27865,7 @@
         <v>43894</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27922,7 +27922,7 @@
         <v>43899</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27979,7 +27979,7 @@
         <v>43899</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28041,7 +28041,7 @@
         <v>43903</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28098,7 +28098,7 @@
         <v>43908</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28155,7 +28155,7 @@
         <v>43908</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28212,7 +28212,7 @@
         <v>43908</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28274,7 +28274,7 @@
         <v>43908</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28331,7 +28331,7 @@
         <v>43913</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28393,7 +28393,7 @@
         <v>43927</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28450,7 +28450,7 @@
         <v>43927</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28507,7 +28507,7 @@
         <v>43929</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28564,7 +28564,7 @@
         <v>43937</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28621,7 +28621,7 @@
         <v>43944</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28678,7 +28678,7 @@
         <v>43948</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28735,7 +28735,7 @@
         <v>43948</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28792,7 +28792,7 @@
         <v>43950</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28854,7 +28854,7 @@
         <v>43973</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28916,7 +28916,7 @@
         <v>43984</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28973,7 +28973,7 @@
         <v>43987</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29030,7 +29030,7 @@
         <v>43987</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29087,7 +29087,7 @@
         <v>43990</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29144,7 +29144,7 @@
         <v>43999</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29201,7 +29201,7 @@
         <v>43999</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29258,7 +29258,7 @@
         <v>44000</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29315,7 +29315,7 @@
         <v>44000</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29372,7 +29372,7 @@
         <v>44007</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29429,7 +29429,7 @@
         <v>44007</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29486,7 +29486,7 @@
         <v>44012</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29548,7 +29548,7 @@
         <v>44013</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29605,7 +29605,7 @@
         <v>44014</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29662,7 +29662,7 @@
         <v>44015</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29724,7 +29724,7 @@
         <v>44016</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29786,7 +29786,7 @@
         <v>44019</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29848,7 +29848,7 @@
         <v>44026</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29905,7 +29905,7 @@
         <v>44029</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29962,7 +29962,7 @@
         <v>44033</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30024,7 +30024,7 @@
         <v>44035</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30081,7 +30081,7 @@
         <v>44035</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30138,7 +30138,7 @@
         <v>44041</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30200,7 +30200,7 @@
         <v>44048</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30262,7 +30262,7 @@
         <v>44048</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30324,7 +30324,7 @@
         <v>44048</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         <v>44050</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30443,7 +30443,7 @@
         <v>44055</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30500,7 +30500,7 @@
         <v>44056</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30557,7 +30557,7 @@
         <v>44063</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         <v>44063</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30676,7 +30676,7 @@
         <v>44063</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30733,7 +30733,7 @@
         <v>44063</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30790,7 +30790,7 @@
         <v>44070</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30847,7 +30847,7 @@
         <v>44076</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30904,7 +30904,7 @@
         <v>44081</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30961,7 +30961,7 @@
         <v>44083</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31018,7 +31018,7 @@
         <v>44091</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31080,7 +31080,7 @@
         <v>44095</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31137,7 +31137,7 @@
         <v>44095</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31194,7 +31194,7 @@
         <v>44103</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31251,7 +31251,7 @@
         <v>44105</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31313,7 +31313,7 @@
         <v>44105</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31370,7 +31370,7 @@
         <v>44105</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31432,7 +31432,7 @@
         <v>44106</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31489,7 +31489,7 @@
         <v>44109</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31546,7 +31546,7 @@
         <v>44119</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31603,7 +31603,7 @@
         <v>44123</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31660,7 +31660,7 @@
         <v>44123</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31717,7 +31717,7 @@
         <v>44126</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31774,7 +31774,7 @@
         <v>44130</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31831,7 +31831,7 @@
         <v>44131</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31893,7 +31893,7 @@
         <v>44131</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31955,7 +31955,7 @@
         <v>44134</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32017,7 +32017,7 @@
         <v>44137</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32074,7 +32074,7 @@
         <v>44139</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         <v>44139</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32188,7 +32188,7 @@
         <v>44139</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32245,7 +32245,7 @@
         <v>44140</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32302,7 +32302,7 @@
         <v>44144</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32359,7 +32359,7 @@
         <v>44144</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32416,7 +32416,7 @@
         <v>44144</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32473,7 +32473,7 @@
         <v>44146</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32530,7 +32530,7 @@
         <v>44151</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32587,7 +32587,7 @@
         <v>44153</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32649,7 +32649,7 @@
         <v>44155</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         <v>44155</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32763,7 +32763,7 @@
         <v>44159</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32825,7 +32825,7 @@
         <v>44159</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32887,7 +32887,7 @@
         <v>44160</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32949,7 +32949,7 @@
         <v>44161</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33011,7 +33011,7 @@
         <v>44161</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33073,7 +33073,7 @@
         <v>44162</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33130,7 +33130,7 @@
         <v>44165</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33192,7 +33192,7 @@
         <v>44166</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33254,7 +33254,7 @@
         <v>44167</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33311,7 +33311,7 @@
         <v>44168</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33368,7 +33368,7 @@
         <v>44180</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33430,7 +33430,7 @@
         <v>44200</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33487,7 +33487,7 @@
         <v>44207</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33549,7 +33549,7 @@
         <v>44209</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33606,7 +33606,7 @@
         <v>44209</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33663,7 +33663,7 @@
         <v>44210</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33720,7 +33720,7 @@
         <v>44211</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33777,7 +33777,7 @@
         <v>44216</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33834,7 +33834,7 @@
         <v>44216</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33891,7 +33891,7 @@
         <v>44222</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33948,7 +33948,7 @@
         <v>44223</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34005,7 +34005,7 @@
         <v>44230</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34062,7 +34062,7 @@
         <v>44245</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34119,7 +34119,7 @@
         <v>44252</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34176,7 +34176,7 @@
         <v>44252</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34233,7 +34233,7 @@
         <v>44266</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34290,7 +34290,7 @@
         <v>44273</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34347,7 +34347,7 @@
         <v>44279</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34404,7 +34404,7 @@
         <v>44286</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34461,7 +34461,7 @@
         <v>44286</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34518,7 +34518,7 @@
         <v>44294</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34580,7 +34580,7 @@
         <v>44297</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34637,7 +34637,7 @@
         <v>44297</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34699,7 +34699,7 @@
         <v>44299</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34761,7 +34761,7 @@
         <v>44313</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34823,7 +34823,7 @@
         <v>44313</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34885,7 +34885,7 @@
         <v>44314</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34947,7 +34947,7 @@
         <v>44351</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35009,7 +35009,7 @@
         <v>44357</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35071,7 +35071,7 @@
         <v>44365</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35133,7 +35133,7 @@
         <v>44365</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35190,7 +35190,7 @@
         <v>44369</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35247,7 +35247,7 @@
         <v>44379</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35304,7 +35304,7 @@
         <v>44379</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35361,7 +35361,7 @@
         <v>44383</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35423,7 +35423,7 @@
         <v>44383</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35485,7 +35485,7 @@
         <v>44390</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35542,7 +35542,7 @@
         <v>44395</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35599,7 +35599,7 @@
         <v>44407</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35661,7 +35661,7 @@
         <v>44420</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35718,7 +35718,7 @@
         <v>44420</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35775,7 +35775,7 @@
         <v>44426</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35832,7 +35832,7 @@
         <v>44438</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35894,7 +35894,7 @@
         <v>44442</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -35951,7 +35951,7 @@
         <v>44445</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36008,7 +36008,7 @@
         <v>44446</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36065,7 +36065,7 @@
         <v>44447</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36122,7 +36122,7 @@
         <v>44453</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36179,7 +36179,7 @@
         <v>44459</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36241,7 +36241,7 @@
         <v>44461</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36303,7 +36303,7 @@
         <v>44463</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36360,7 +36360,7 @@
         <v>44470</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36417,7 +36417,7 @@
         <v>44479</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36474,7 +36474,7 @@
         <v>44481</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36531,7 +36531,7 @@
         <v>44484</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36588,7 +36588,7 @@
         <v>44486</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36645,7 +36645,7 @@
         <v>44489</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36702,7 +36702,7 @@
         <v>44489</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36759,7 +36759,7 @@
         <v>44494</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36821,7 +36821,7 @@
         <v>44495</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36878,7 +36878,7 @@
         <v>44497</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36935,7 +36935,7 @@
         <v>44503</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -36992,7 +36992,7 @@
         <v>44504</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37049,7 +37049,7 @@
         <v>44512</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         <v>44512</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37163,7 +37163,7 @@
         <v>44512</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37220,7 +37220,7 @@
         <v>44512</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37277,7 +37277,7 @@
         <v>44515</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37334,7 +37334,7 @@
         <v>44516</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37391,7 +37391,7 @@
         <v>44517</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37448,7 +37448,7 @@
         <v>44517</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37505,7 +37505,7 @@
         <v>44517</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37562,7 +37562,7 @@
         <v>44518</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37619,7 +37619,7 @@
         <v>44519</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37676,7 +37676,7 @@
         <v>44522</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37733,7 +37733,7 @@
         <v>44522</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37790,7 +37790,7 @@
         <v>44525</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37852,7 +37852,7 @@
         <v>44526</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -37914,7 +37914,7 @@
         <v>44526</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -37971,7 +37971,7 @@
         <v>44526</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38028,7 +38028,7 @@
         <v>44531</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38085,7 +38085,7 @@
         <v>44531</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38142,7 +38142,7 @@
         <v>44531</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38204,7 +38204,7 @@
         <v>44531</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38261,7 +38261,7 @@
         <v>44532</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38318,7 +38318,7 @@
         <v>44532</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38375,7 +38375,7 @@
         <v>44532</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38432,7 +38432,7 @@
         <v>44532</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38489,7 +38489,7 @@
         <v>44535</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         <v>44535</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38603,7 +38603,7 @@
         <v>44540</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38665,7 +38665,7 @@
         <v>44543</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38727,7 +38727,7 @@
         <v>44543</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38789,7 +38789,7 @@
         <v>44544</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -38846,7 +38846,7 @@
         <v>44544</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -38903,7 +38903,7 @@
         <v>44548</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -38960,7 +38960,7 @@
         <v>44553</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39017,7 +39017,7 @@
         <v>44553</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39074,7 +39074,7 @@
         <v>44560</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39131,7 +39131,7 @@
         <v>44560</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39188,7 +39188,7 @@
         <v>44569</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39250,7 +39250,7 @@
         <v>44571</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -39312,7 +39312,7 @@
         <v>44572</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -39374,7 +39374,7 @@
         <v>44574</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39431,7 +39431,7 @@
         <v>44575</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39488,7 +39488,7 @@
         <v>44575</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39545,7 +39545,7 @@
         <v>44575</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39602,7 +39602,7 @@
         <v>44583</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -39664,7 +39664,7 @@
         <v>44583</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -39726,7 +39726,7 @@
         <v>44583</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -39788,7 +39788,7 @@
         <v>44588</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -39845,7 +39845,7 @@
         <v>44588</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -39902,7 +39902,7 @@
         <v>44593</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -39964,7 +39964,7 @@
         <v>44593</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40021,7 +40021,7 @@
         <v>44593</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40078,7 +40078,7 @@
         <v>44593</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40135,7 +40135,7 @@
         <v>44594</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40192,7 +40192,7 @@
         <v>44594</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40249,7 +40249,7 @@
         <v>44598</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         <v>44600</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -40363,7 +40363,7 @@
         <v>44600</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -40425,7 +40425,7 @@
         <v>44602</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -40482,7 +40482,7 @@
         <v>44602</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -40539,7 +40539,7 @@
         <v>44602</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -40596,7 +40596,7 @@
         <v>44602</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -40653,7 +40653,7 @@
         <v>44602</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -40710,7 +40710,7 @@
         <v>44602</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -40772,7 +40772,7 @@
         <v>44602</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -40829,7 +40829,7 @@
         <v>44603</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -40886,7 +40886,7 @@
         <v>44603</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -40943,7 +40943,7 @@
         <v>44603</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41000,7 +41000,7 @@
         <v>44606</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41057,7 +41057,7 @@
         <v>44608</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41119,7 +41119,7 @@
         <v>44608</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41181,7 +41181,7 @@
         <v>44608</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41238,7 +41238,7 @@
         <v>44609</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -41300,7 +41300,7 @@
         <v>44609</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -41362,7 +41362,7 @@
         <v>44610</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -41424,7 +41424,7 @@
         <v>44610</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -41486,7 +41486,7 @@
         <v>44610</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -41548,7 +41548,7 @@
         <v>44612</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -41605,7 +41605,7 @@
         <v>44616</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -41667,7 +41667,7 @@
         <v>44616</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -41724,7 +41724,7 @@
         <v>44623</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -41786,7 +41786,7 @@
         <v>44634</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -41843,7 +41843,7 @@
         <v>44645</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -41900,7 +41900,7 @@
         <v>44649</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -41957,7 +41957,7 @@
         <v>44649</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42014,7 +42014,7 @@
         <v>44652</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42071,7 +42071,7 @@
         <v>44659</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42133,7 +42133,7 @@
         <v>44659</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42195,7 +42195,7 @@
         <v>44665</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -42257,7 +42257,7 @@
         <v>44673</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -42319,7 +42319,7 @@
         <v>44676</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -42381,7 +42381,7 @@
         <v>44676</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -42438,7 +42438,7 @@
         <v>44690</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -42500,7 +42500,7 @@
         <v>44691</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -42562,7 +42562,7 @@
         <v>44692</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -42624,7 +42624,7 @@
         <v>44699</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -42686,7 +42686,7 @@
         <v>44700</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -42743,7 +42743,7 @@
         <v>44700</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -42800,7 +42800,7 @@
         <v>44701</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -42862,7 +42862,7 @@
         <v>44704</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -42924,7 +42924,7 @@
         <v>44704</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -42981,7 +42981,7 @@
         <v>44711</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43043,7 +43043,7 @@
         <v>44713</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43105,7 +43105,7 @@
         <v>44713</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43167,7 +43167,7 @@
         <v>44714</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43224,7 +43224,7 @@
         <v>44719</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -43281,7 +43281,7 @@
         <v>44720</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -43338,7 +43338,7 @@
         <v>44729</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -43395,7 +43395,7 @@
         <v>44733</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -43452,7 +43452,7 @@
         <v>44742</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -43509,7 +43509,7 @@
         <v>44742</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -43566,7 +43566,7 @@
         <v>44742</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -43628,7 +43628,7 @@
         <v>44742</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -43685,7 +43685,7 @@
         <v>44742</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -43742,7 +43742,7 @@
         <v>44743</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -43799,7 +43799,7 @@
         <v>44762</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -43861,7 +43861,7 @@
         <v>44764</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -43923,7 +43923,7 @@
         <v>44764</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -43985,7 +43985,7 @@
         <v>44769</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44047,7 +44047,7 @@
         <v>44771</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44109,7 +44109,7 @@
         <v>44771</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44171,7 +44171,7 @@
         <v>44771</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44233,7 +44233,7 @@
         <v>44782</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -44290,7 +44290,7 @@
         <v>44782</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -44347,7 +44347,7 @@
         <v>44784</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -44404,7 +44404,7 @@
         <v>44788</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -44461,7 +44461,7 @@
         <v>44795</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -44518,7 +44518,7 @@
         <v>44797</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -44575,7 +44575,7 @@
         <v>44798</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -44632,7 +44632,7 @@
         <v>44806</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -44689,7 +44689,7 @@
         <v>44810</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -44746,7 +44746,7 @@
         <v>44811</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -44803,7 +44803,7 @@
         <v>44816</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -44860,7 +44860,7 @@
         <v>44816</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -44917,7 +44917,7 @@
         <v>44816</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -44974,7 +44974,7 @@
         <v>44816</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45031,7 +45031,7 @@
         <v>44816</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45093,7 +45093,7 @@
         <v>44817</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45150,7 +45150,7 @@
         <v>44817</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -45207,7 +45207,7 @@
         <v>44817</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -45264,7 +45264,7 @@
         <v>44819</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -45326,7 +45326,7 @@
         <v>44831</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -45383,7 +45383,7 @@
         <v>44832</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -45440,7 +45440,7 @@
         <v>44839</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -45497,7 +45497,7 @@
         <v>44844</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -45554,7 +45554,7 @@
         <v>44846</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -45611,7 +45611,7 @@
         <v>44847</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -45668,7 +45668,7 @@
         <v>44847</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -45725,7 +45725,7 @@
         <v>44847</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -45782,7 +45782,7 @@
         <v>44848</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -45839,7 +45839,7 @@
         <v>44849</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -45896,7 +45896,7 @@
         <v>44853</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -45953,7 +45953,7 @@
         <v>44865</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46010,7 +46010,7 @@
         <v>44866</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46067,7 +46067,7 @@
         <v>44872</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -46124,7 +46124,7 @@
         <v>44872</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -46181,7 +46181,7 @@
         <v>44883</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -46243,7 +46243,7 @@
         <v>44883</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -46300,7 +46300,7 @@
         <v>44886</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -46357,7 +46357,7 @@
         <v>44886</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -46419,7 +46419,7 @@
         <v>44888</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -46481,7 +46481,7 @@
         <v>44893</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -46538,7 +46538,7 @@
         <v>44897</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -46595,7 +46595,7 @@
         <v>44897</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -46652,7 +46652,7 @@
         <v>44901</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -46714,7 +46714,7 @@
         <v>44904</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -46776,7 +46776,7 @@
         <v>44908</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -46833,7 +46833,7 @@
         <v>44908</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -46890,7 +46890,7 @@
         <v>44909</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -46947,7 +46947,7 @@
         <v>44909</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47004,7 +47004,7 @@
         <v>44912</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47061,7 +47061,7 @@
         <v>44916</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -47123,7 +47123,7 @@
         <v>44916</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -47180,7 +47180,7 @@
         <v>44928</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -47242,7 +47242,7 @@
         <v>44928</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -47304,7 +47304,7 @@
         <v>44929</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -47361,7 +47361,7 @@
         <v>44930</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -47418,7 +47418,7 @@
         <v>44930</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -47480,7 +47480,7 @@
         <v>44935</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -47537,7 +47537,7 @@
         <v>44944</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -47594,7 +47594,7 @@
         <v>44944</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -47656,7 +47656,7 @@
         <v>44944</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -47713,7 +47713,7 @@
         <v>44944</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -47775,7 +47775,7 @@
         <v>44944</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -47832,7 +47832,7 @@
         <v>44945</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -47889,7 +47889,7 @@
         <v>44946</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -47946,7 +47946,7 @@
         <v>44949</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48008,7 +48008,7 @@
         <v>44950</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -48070,7 +48070,7 @@
         <v>44952</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -48132,7 +48132,7 @@
         <v>44960</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -48194,7 +48194,7 @@
         <v>44960</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -48251,7 +48251,7 @@
         <v>44960</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -48308,7 +48308,7 @@
         <v>44964</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -48365,7 +48365,7 @@
         <v>44964</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -48422,7 +48422,7 @@
         <v>44965</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -48479,7 +48479,7 @@
         <v>44965</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -48536,7 +48536,7 @@
         <v>44966</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -48598,7 +48598,7 @@
         <v>44967</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -48655,7 +48655,7 @@
         <v>44967</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -48712,7 +48712,7 @@
         <v>44967</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -48769,7 +48769,7 @@
         <v>44967</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -48826,7 +48826,7 @@
         <v>44967</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -48883,7 +48883,7 @@
         <v>44969</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -48940,7 +48940,7 @@
         <v>44970</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49002,7 +49002,7 @@
         <v>44971</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -49059,7 +49059,7 @@
         <v>44971</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -49116,7 +49116,7 @@
         <v>44972</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -49173,7 +49173,7 @@
         <v>44973</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -49230,7 +49230,7 @@
         <v>44973</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -49287,7 +49287,7 @@
         <v>44977</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -49349,7 +49349,7 @@
         <v>44977</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -49406,7 +49406,7 @@
         <v>44977</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -49463,7 +49463,7 @@
         <v>44978</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -49525,7 +49525,7 @@
         <v>44980</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -49582,7 +49582,7 @@
         <v>44980</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -49639,7 +49639,7 @@
         <v>44980</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -49696,7 +49696,7 @@
         <v>44980</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -49753,7 +49753,7 @@
         <v>44984</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -49815,7 +49815,7 @@
         <v>44984</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -49872,7 +49872,7 @@
         <v>44988</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -49929,7 +49929,7 @@
         <v>44991</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -49986,7 +49986,7 @@
         <v>44993</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -50043,7 +50043,7 @@
         <v>44993</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -50100,7 +50100,7 @@
         <v>44994</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -50157,7 +50157,7 @@
         <v>45006</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -50214,7 +50214,7 @@
         <v>45009</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -50276,7 +50276,7 @@
         <v>45013</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -50333,7 +50333,7 @@
         <v>45014</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -50390,7 +50390,7 @@
         <v>45026</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -50447,7 +50447,7 @@
         <v>45028</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -50509,7 +50509,7 @@
         <v>45033</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -50566,7 +50566,7 @@
         <v>45036</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -50623,7 +50623,7 @@
         <v>45037</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -50685,7 +50685,7 @@
         <v>45042</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -50742,7 +50742,7 @@
         <v>45042</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -50804,7 +50804,7 @@
         <v>45043</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -50861,7 +50861,7 @@
         <v>45049</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -50918,7 +50918,7 @@
         <v>45049</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -50975,7 +50975,7 @@
         <v>45049</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -51032,7 +51032,7 @@
         <v>45049</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -51089,7 +51089,7 @@
         <v>45050</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -51146,7 +51146,7 @@
         <v>45050</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -51203,7 +51203,7 @@
         <v>45050</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -51260,7 +51260,7 @@
         <v>45054</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -51317,7 +51317,7 @@
         <v>45054</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -51374,7 +51374,7 @@
         <v>45055</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -51431,7 +51431,7 @@
         <v>45056</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -51493,7 +51493,7 @@
         <v>45056</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -51555,7 +51555,7 @@
         <v>45058</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -51612,7 +51612,7 @@
         <v>45058</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -51669,7 +51669,7 @@
         <v>45058</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -51726,7 +51726,7 @@
         <v>45058</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -51783,7 +51783,7 @@
         <v>45058</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -51840,7 +51840,7 @@
         <v>45058</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -51902,7 +51902,7 @@
         <v>45060</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -51959,7 +51959,7 @@
         <v>45061</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -52016,7 +52016,7 @@
         <v>45063</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -52073,7 +52073,7 @@
         <v>45063</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -52130,7 +52130,7 @@
         <v>45063</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -52187,7 +52187,7 @@
         <v>45063</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -52244,7 +52244,7 @@
         <v>45070</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -52306,7 +52306,7 @@
         <v>45075</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -52363,7 +52363,7 @@
         <v>45078</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -52420,7 +52420,7 @@
         <v>45078</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -52482,7 +52482,7 @@
         <v>45078</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -52539,7 +52539,7 @@
         <v>45079</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -52596,7 +52596,7 @@
         <v>45084</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -52658,7 +52658,7 @@
         <v>45086</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -52720,7 +52720,7 @@
         <v>45089</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -52777,7 +52777,7 @@
         <v>45089</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -52834,7 +52834,7 @@
         <v>45089</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -52891,7 +52891,7 @@
         <v>45089</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -52948,7 +52948,7 @@
         <v>45091</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -53010,7 +53010,7 @@
         <v>45091</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -53067,7 +53067,7 @@
         <v>45091</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -53129,7 +53129,7 @@
         <v>45091</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -53191,7 +53191,7 @@
         <v>45091</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -53248,7 +53248,7 @@
         <v>45093</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -53310,7 +53310,7 @@
         <v>45096</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -53367,7 +53367,7 @@
         <v>45096</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -53424,7 +53424,7 @@
         <v>45096</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -53481,7 +53481,7 @@
         <v>45096</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -53538,7 +53538,7 @@
         <v>45096</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -53595,7 +53595,7 @@
         <v>45096</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -53652,7 +53652,7 @@
         <v>45096</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -53709,7 +53709,7 @@
         <v>45096</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -53766,7 +53766,7 @@
         <v>45097</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -53823,7 +53823,7 @@
         <v>45097</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -53880,7 +53880,7 @@
         <v>45097</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -53937,7 +53937,7 @@
         <v>45097</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -53994,7 +53994,7 @@
         <v>45097</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -54051,7 +54051,7 @@
         <v>45103</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -54108,7 +54108,7 @@
         <v>45103</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -54165,7 +54165,7 @@
         <v>45105</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -54222,7 +54222,7 @@
         <v>45105</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -54279,7 +54279,7 @@
         <v>45105</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -54336,7 +54336,7 @@
         <v>45107</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -54393,7 +54393,7 @@
         <v>45107</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -54450,7 +54450,7 @@
         <v>45107</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -54512,7 +54512,7 @@
         <v>45107</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -54574,7 +54574,7 @@
         <v>45107</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -54631,7 +54631,7 @@
         <v>45110</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -54688,7 +54688,7 @@
         <v>45112</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -54745,7 +54745,7 @@
         <v>45113</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -54802,7 +54802,7 @@
         <v>45119</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -54859,7 +54859,7 @@
         <v>45121</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -54921,7 +54921,7 @@
         <v>45123</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -54978,7 +54978,7 @@
         <v>45127</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -55035,7 +55035,7 @@
         <v>45128</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -55092,7 +55092,7 @@
         <v>45131</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -55149,7 +55149,7 @@
         <v>45132</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -55206,7 +55206,7 @@
         <v>45134</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -55263,7 +55263,7 @@
         <v>45145</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -55320,7 +55320,7 @@
         <v>45148</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -55377,7 +55377,7 @@
         <v>45148</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -55434,7 +55434,7 @@
         <v>45148</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -55491,7 +55491,7 @@
         <v>45148</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -55548,7 +55548,7 @@
         <v>45148</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -55605,7 +55605,7 @@
         <v>45149</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -55667,7 +55667,7 @@
         <v>45152</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -55724,7 +55724,7 @@
         <v>45152</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -55786,7 +55786,7 @@
         <v>45152</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -55843,7 +55843,7 @@
         <v>45152</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -55905,7 +55905,7 @@
         <v>45153</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -55967,7 +55967,7 @@
         <v>45153</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -56029,7 +56029,7 @@
         <v>45160</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -56086,7 +56086,7 @@
         <v>45161</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -56143,7 +56143,7 @@
         <v>45162</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -56200,7 +56200,7 @@
         <v>45162</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -56257,7 +56257,7 @@
         <v>45162</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -56319,7 +56319,7 @@
         <v>45162</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -56381,7 +56381,7 @@
         <v>45164</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -56443,7 +56443,7 @@
         <v>45167</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -56500,7 +56500,7 @@
         <v>45169</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -56562,7 +56562,7 @@
         <v>45169</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -56624,7 +56624,7 @@
         <v>45173</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -56681,7 +56681,7 @@
         <v>45173</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -56738,7 +56738,7 @@
         <v>45175</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>

--- a/Översikt UPPSALA.xlsx
+++ b/Översikt UPPSALA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y897"/>
+  <dimension ref="A1:Y898"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44012</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         <v>43913</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         <v>43762</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44377</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>44349</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>45082</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>43381</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>43875</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>45013</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1526,7 +1526,7 @@
         <v>44222</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>44623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         <v>44971</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>43796</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>44053</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>44356</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>45086</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>44158</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>44180</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2499,7 +2499,7 @@
         <v>44497</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>44901</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>45092</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
         <v>43433</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>44376</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>44575</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>44356</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3155,7 +3155,7 @@
         <v>43814</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43861</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>44119</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3427,7 +3427,7 @@
         <v>44351</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>44500</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>44574</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3702,7 +3702,7 @@
         <v>44792</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>44879</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>44922</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>44977</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>45107</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>43511</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         <v>43857</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43980</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>44056</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>44101</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
         <v>44462</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>44664</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>44719</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>44740</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>44974</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>45002</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5160,7 +5160,7 @@
         <v>45049</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5336,7 +5336,7 @@
         <v>43511</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>43731</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43796</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>44101</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>44133</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>44495</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>44652</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>44684</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>44692</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>44791</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>44804</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>44938</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6410,7 +6410,7 @@
         <v>44956</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
         <v>44973</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6589,7 +6589,7 @@
         <v>43503</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6680,7 +6680,7 @@
         <v>43545</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>43607</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>43654</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6943,7 +6943,7 @@
         <v>43742</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         <v>43929</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>44054</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>44101</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>44659</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>44879</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>44967</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>45002</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>45090</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7742,7 +7742,7 @@
         <v>45121</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7833,7 +7833,7 @@
         <v>43321</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>43339</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>43462</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8088,7 +8088,7 @@
         <v>43473</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>43473</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8263,7 +8263,7 @@
         <v>43528</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>43551</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>43693</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>43693</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>43731</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8693,7 +8693,7 @@
         <v>43755</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8778,7 +8778,7 @@
         <v>43867</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43893</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8948,7 +8948,7 @@
         <v>43980</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>44042</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>44266</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>44467</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         <v>44487</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         <v>44489</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>44589</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>44614</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9643,7 +9643,7 @@
         <v>44645</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>44678</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>44729</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>44849</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>44855</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10088,7 +10088,7 @@
         <v>44897</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>44917</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         <v>44958</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10348,7 +10348,7 @@
         <v>44963</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>45002</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10523,7 +10523,7 @@
         <v>45021</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>45022</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10698,7 +10698,7 @@
         <v>45022</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>45055</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
         <v>45061</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>45072</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>45097</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>45098</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11218,7 +11218,7 @@
         <v>45104</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11303,7 +11303,7 @@
         <v>45121</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11393,7 +11393,7 @@
         <v>45139</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11478,7 +11478,7 @@
         <v>43321</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11535,7 +11535,7 @@
         <v>43321</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11592,7 +11592,7 @@
         <v>43335</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11649,7 +11649,7 @@
         <v>43341</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11706,7 +11706,7 @@
         <v>43347</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11763,7 +11763,7 @@
         <v>43355</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11820,7 +11820,7 @@
         <v>43360</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11877,7 +11877,7 @@
         <v>43377</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11934,7 +11934,7 @@
         <v>43378</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11996,7 +11996,7 @@
         <v>43378</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12053,7 +12053,7 @@
         <v>43378</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         <v>43381</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         <v>43381</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>43389</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>43395</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>43398</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>43407</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>43411</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>43418</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>43420</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12658,7 +12658,7 @@
         <v>43423</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12715,7 +12715,7 @@
         <v>43423</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12772,7 +12772,7 @@
         <v>43424</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12829,7 +12829,7 @@
         <v>43424</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>43424</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12953,7 +12953,7 @@
         <v>43427</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13010,7 +13010,7 @@
         <v>43430</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13067,7 +13067,7 @@
         <v>43431</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         <v>43433</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>43433</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>43433</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13295,7 +13295,7 @@
         <v>43433</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13352,7 +13352,7 @@
         <v>43436</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13409,7 +13409,7 @@
         <v>43436</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13466,7 +13466,7 @@
         <v>43437</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13523,7 +13523,7 @@
         <v>43439</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13580,7 +13580,7 @@
         <v>43444</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13637,7 +13637,7 @@
         <v>43445</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13694,7 +13694,7 @@
         <v>43446</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13751,7 +13751,7 @@
         <v>43447</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13808,7 +13808,7 @@
         <v>43447</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13865,7 +13865,7 @@
         <v>43447</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13927,7 +13927,7 @@
         <v>43451</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13984,7 +13984,7 @@
         <v>43451</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
         <v>43451</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14098,7 +14098,7 @@
         <v>43452</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>43452</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         <v>43455</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>43455</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14326,7 +14326,7 @@
         <v>43455</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14383,7 +14383,7 @@
         <v>43455</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14440,7 +14440,7 @@
         <v>43460</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14497,7 +14497,7 @@
         <v>43464</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14554,7 +14554,7 @@
         <v>43468</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14611,7 +14611,7 @@
         <v>43472</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14668,7 +14668,7 @@
         <v>43472</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14725,7 +14725,7 @@
         <v>43472</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14782,7 +14782,7 @@
         <v>43472</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>43473</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14901,7 +14901,7 @@
         <v>43473</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>43473</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>43473</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>43473</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>43473</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>43473</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>43473</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>43474</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>43474</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>43475</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>43475</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>43475</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15585,7 +15585,7 @@
         <v>43476</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>43479</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>43479</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>43479</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15818,7 +15818,7 @@
         <v>43479</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>43479</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15942,7 +15942,7 @@
         <v>43480</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15999,7 +15999,7 @@
         <v>43480</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16056,7 +16056,7 @@
         <v>43481</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>43481</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>43481</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>43481</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16284,7 +16284,7 @@
         <v>43481</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>43482</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>43482</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>43482</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>43482</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>43482</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>43482</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>43482</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16745,7 +16745,7 @@
         <v>43485</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16802,7 +16802,7 @@
         <v>43486</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16859,7 +16859,7 @@
         <v>43486</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>43486</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>43487</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17035,7 +17035,7 @@
         <v>43488</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>43488</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>43488</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>43492</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>43493</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>43493</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>43496</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>43496</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>43498</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>43500</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>43500</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17687,7 +17687,7 @@
         <v>43500</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>43500</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17801,7 +17801,7 @@
         <v>43500</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>43503</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         <v>43504</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>43507</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18034,7 +18034,7 @@
         <v>43507</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         <v>43508</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18148,7 +18148,7 @@
         <v>43509</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18205,7 +18205,7 @@
         <v>43511</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18262,7 +18262,7 @@
         <v>43511</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18319,7 +18319,7 @@
         <v>43511</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18376,7 +18376,7 @@
         <v>43511</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18433,7 +18433,7 @@
         <v>43511</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>43516</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         <v>43517</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18609,7 +18609,7 @@
         <v>43517</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18671,7 +18671,7 @@
         <v>43517</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>43517</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18795,7 +18795,7 @@
         <v>43523</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18852,7 +18852,7 @@
         <v>43528</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         <v>43528</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18966,7 +18966,7 @@
         <v>43531</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19023,7 +19023,7 @@
         <v>43531</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19080,7 +19080,7 @@
         <v>43531</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19142,7 +19142,7 @@
         <v>43532</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>43535</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>43536</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>43538</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19380,7 +19380,7 @@
         <v>43538</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19442,7 +19442,7 @@
         <v>43544</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19499,7 +19499,7 @@
         <v>43550</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19556,7 +19556,7 @@
         <v>43552</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19613,7 +19613,7 @@
         <v>43553</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         <v>43553</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19732,7 +19732,7 @@
         <v>43556</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19789,7 +19789,7 @@
         <v>43559</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19846,7 +19846,7 @@
         <v>43559</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19903,7 +19903,7 @@
         <v>43560</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19960,7 +19960,7 @@
         <v>43570</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20017,7 +20017,7 @@
         <v>43572</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         <v>43578</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20131,7 +20131,7 @@
         <v>43578</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
         <v>43583</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20245,7 +20245,7 @@
         <v>43585</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20307,7 +20307,7 @@
         <v>43591</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20364,7 +20364,7 @@
         <v>43592</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20426,7 +20426,7 @@
         <v>43600</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20483,7 +20483,7 @@
         <v>43605</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20540,7 +20540,7 @@
         <v>43605</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20597,7 +20597,7 @@
         <v>43607</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20654,7 +20654,7 @@
         <v>43628</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20711,7 +20711,7 @@
         <v>43628</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>43628</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         <v>43630</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20887,7 +20887,7 @@
         <v>43630</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20944,7 +20944,7 @@
         <v>43647</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21001,7 +21001,7 @@
         <v>43647</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21058,7 +21058,7 @@
         <v>43648</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         <v>43651</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21172,7 +21172,7 @@
         <v>43651</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21229,7 +21229,7 @@
         <v>43651</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21286,7 +21286,7 @@
         <v>43651</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21343,7 +21343,7 @@
         <v>43654</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21400,7 +21400,7 @@
         <v>43654</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21457,7 +21457,7 @@
         <v>43656</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21514,7 +21514,7 @@
         <v>43661</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21571,7 +21571,7 @@
         <v>43661</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21628,7 +21628,7 @@
         <v>43663</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21685,7 +21685,7 @@
         <v>43677</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21742,7 +21742,7 @@
         <v>43682</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21799,7 +21799,7 @@
         <v>43686</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21856,7 +21856,7 @@
         <v>43693</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
         <v>43696</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21975,7 +21975,7 @@
         <v>43696</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22032,7 +22032,7 @@
         <v>43699</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22089,7 +22089,7 @@
         <v>43699</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         <v>43699</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22203,7 +22203,7 @@
         <v>43705</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22260,7 +22260,7 @@
         <v>43706</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22322,7 +22322,7 @@
         <v>43706</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22384,7 +22384,7 @@
         <v>43706</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22446,7 +22446,7 @@
         <v>43706</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22503,7 +22503,7 @@
         <v>43706</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22565,7 +22565,7 @@
         <v>43706</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         <v>43707</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22689,7 +22689,7 @@
         <v>43707</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22751,7 +22751,7 @@
         <v>43707</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22808,7 +22808,7 @@
         <v>43707</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22870,7 +22870,7 @@
         <v>43710</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22927,7 +22927,7 @@
         <v>43712</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22984,7 +22984,7 @@
         <v>43712</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23041,7 +23041,7 @@
         <v>43713</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23098,7 +23098,7 @@
         <v>43716</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23155,7 +23155,7 @@
         <v>43718</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23212,7 +23212,7 @@
         <v>43718</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23274,7 +23274,7 @@
         <v>43718</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23331,7 +23331,7 @@
         <v>43718</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23393,7 +23393,7 @@
         <v>43718</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23455,7 +23455,7 @@
         <v>43718</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23512,7 +23512,7 @@
         <v>43720</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23569,7 +23569,7 @@
         <v>43727</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23626,7 +23626,7 @@
         <v>43730</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>43733</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23745,7 +23745,7 @@
         <v>43735</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23807,7 +23807,7 @@
         <v>43735</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23869,7 +23869,7 @@
         <v>43736</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23926,7 +23926,7 @@
         <v>43745</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23983,7 +23983,7 @@
         <v>43745</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24045,7 +24045,7 @@
         <v>43747</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24107,7 +24107,7 @@
         <v>43748</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24164,7 +24164,7 @@
         <v>43755</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>43759</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>43763</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24345,7 +24345,7 @@
         <v>43773</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24402,7 +24402,7 @@
         <v>43773</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24459,7 +24459,7 @@
         <v>43773</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24521,7 +24521,7 @@
         <v>43777</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24578,7 +24578,7 @@
         <v>43777</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>43780</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24702,7 +24702,7 @@
         <v>43780</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24764,7 +24764,7 @@
         <v>43782</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24821,7 +24821,7 @@
         <v>43784</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24878,7 +24878,7 @@
         <v>43791</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24935,7 +24935,7 @@
         <v>43791</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24992,7 +24992,7 @@
         <v>43791</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25049,7 +25049,7 @@
         <v>43791</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         <v>43795</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25163,7 +25163,7 @@
         <v>43795</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25220,7 +25220,7 @@
         <v>43795</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25277,7 +25277,7 @@
         <v>43801</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25334,7 +25334,7 @@
         <v>43801</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25391,7 +25391,7 @@
         <v>43803</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25448,7 +25448,7 @@
         <v>43808</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25505,7 +25505,7 @@
         <v>43808</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25562,7 +25562,7 @@
         <v>43811</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25619,7 +25619,7 @@
         <v>43812</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25681,7 +25681,7 @@
         <v>43814</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25743,7 +25743,7 @@
         <v>43814</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25805,7 +25805,7 @@
         <v>43815</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25862,7 +25862,7 @@
         <v>43815</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25924,7 +25924,7 @@
         <v>43817</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25981,7 +25981,7 @@
         <v>43817</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26038,7 +26038,7 @@
         <v>43818</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26095,7 +26095,7 @@
         <v>43818</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26152,7 +26152,7 @@
         <v>43822</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26209,7 +26209,7 @@
         <v>43837</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26266,7 +26266,7 @@
         <v>43837</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26323,7 +26323,7 @@
         <v>43838</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26380,7 +26380,7 @@
         <v>43844</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26437,7 +26437,7 @@
         <v>43850</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26494,7 +26494,7 @@
         <v>43853</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26551,7 +26551,7 @@
         <v>43853</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26613,7 +26613,7 @@
         <v>43866</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26675,7 +26675,7 @@
         <v>43866</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26737,7 +26737,7 @@
         <v>43867</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26794,7 +26794,7 @@
         <v>43874</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26851,7 +26851,7 @@
         <v>43878</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26913,7 +26913,7 @@
         <v>43878</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26970,7 +26970,7 @@
         <v>43878</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27027,7 +27027,7 @@
         <v>43879</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27089,7 +27089,7 @@
         <v>43879</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27151,7 +27151,7 @@
         <v>43879</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27213,7 +27213,7 @@
         <v>43881</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27270,7 +27270,7 @@
         <v>43882</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27327,7 +27327,7 @@
         <v>43882</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27389,7 +27389,7 @@
         <v>43882</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         <v>43886</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>43887</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>43891</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>43892</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27689,7 +27689,7 @@
         <v>43892</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         <v>43892</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27808,7 +27808,7 @@
         <v>43894</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27865,7 +27865,7 @@
         <v>43894</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27922,7 +27922,7 @@
         <v>43899</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27979,7 +27979,7 @@
         <v>43899</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28041,7 +28041,7 @@
         <v>43903</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28098,7 +28098,7 @@
         <v>43908</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28155,7 +28155,7 @@
         <v>43908</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28212,7 +28212,7 @@
         <v>43908</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28274,7 +28274,7 @@
         <v>43908</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28331,7 +28331,7 @@
         <v>43913</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28393,7 +28393,7 @@
         <v>43927</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28450,7 +28450,7 @@
         <v>43927</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28507,7 +28507,7 @@
         <v>43929</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28564,7 +28564,7 @@
         <v>43937</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28621,7 +28621,7 @@
         <v>43944</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28678,7 +28678,7 @@
         <v>43948</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28735,7 +28735,7 @@
         <v>43948</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28792,7 +28792,7 @@
         <v>43950</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28854,7 +28854,7 @@
         <v>43973</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28916,7 +28916,7 @@
         <v>43984</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28973,7 +28973,7 @@
         <v>43987</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29030,7 +29030,7 @@
         <v>43987</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29087,7 +29087,7 @@
         <v>43990</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29144,7 +29144,7 @@
         <v>43999</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29201,7 +29201,7 @@
         <v>43999</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29258,7 +29258,7 @@
         <v>44000</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29315,7 +29315,7 @@
         <v>44000</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29372,7 +29372,7 @@
         <v>44007</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29429,7 +29429,7 @@
         <v>44007</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29486,7 +29486,7 @@
         <v>44012</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29548,7 +29548,7 @@
         <v>44013</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29605,7 +29605,7 @@
         <v>44014</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29662,7 +29662,7 @@
         <v>44015</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29724,7 +29724,7 @@
         <v>44016</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29786,7 +29786,7 @@
         <v>44019</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29848,7 +29848,7 @@
         <v>44026</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29905,7 +29905,7 @@
         <v>44029</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29962,7 +29962,7 @@
         <v>44033</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30024,7 +30024,7 @@
         <v>44035</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30081,7 +30081,7 @@
         <v>44035</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30138,7 +30138,7 @@
         <v>44041</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30200,7 +30200,7 @@
         <v>44048</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30262,7 +30262,7 @@
         <v>44048</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30324,7 +30324,7 @@
         <v>44048</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         <v>44050</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30443,7 +30443,7 @@
         <v>44055</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30500,7 +30500,7 @@
         <v>44056</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30557,7 +30557,7 @@
         <v>44063</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         <v>44063</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30676,7 +30676,7 @@
         <v>44063</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30733,7 +30733,7 @@
         <v>44063</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30790,7 +30790,7 @@
         <v>44070</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30847,7 +30847,7 @@
         <v>44076</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30904,7 +30904,7 @@
         <v>44081</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30961,7 +30961,7 @@
         <v>44083</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31018,7 +31018,7 @@
         <v>44091</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31080,7 +31080,7 @@
         <v>44095</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31137,7 +31137,7 @@
         <v>44095</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31194,7 +31194,7 @@
         <v>44103</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31251,7 +31251,7 @@
         <v>44105</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31313,7 +31313,7 @@
         <v>44105</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31370,7 +31370,7 @@
         <v>44105</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31432,7 +31432,7 @@
         <v>44106</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31489,7 +31489,7 @@
         <v>44109</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31546,7 +31546,7 @@
         <v>44119</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31603,7 +31603,7 @@
         <v>44123</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31660,7 +31660,7 @@
         <v>44123</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31717,7 +31717,7 @@
         <v>44126</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31774,7 +31774,7 @@
         <v>44130</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31831,7 +31831,7 @@
         <v>44131</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31893,7 +31893,7 @@
         <v>44131</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31955,7 +31955,7 @@
         <v>44134</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32017,7 +32017,7 @@
         <v>44137</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32074,7 +32074,7 @@
         <v>44139</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         <v>44139</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32188,7 +32188,7 @@
         <v>44139</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32245,7 +32245,7 @@
         <v>44140</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32302,7 +32302,7 @@
         <v>44144</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32359,7 +32359,7 @@
         <v>44144</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32416,7 +32416,7 @@
         <v>44144</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32473,7 +32473,7 @@
         <v>44146</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32530,7 +32530,7 @@
         <v>44151</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32587,7 +32587,7 @@
         <v>44153</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32649,7 +32649,7 @@
         <v>44155</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         <v>44155</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32763,7 +32763,7 @@
         <v>44159</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32825,7 +32825,7 @@
         <v>44159</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32887,7 +32887,7 @@
         <v>44160</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32949,7 +32949,7 @@
         <v>44161</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33011,7 +33011,7 @@
         <v>44161</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33073,7 +33073,7 @@
         <v>44162</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33130,7 +33130,7 @@
         <v>44165</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33192,7 +33192,7 @@
         <v>44166</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33254,7 +33254,7 @@
         <v>44167</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33311,7 +33311,7 @@
         <v>44168</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33368,7 +33368,7 @@
         <v>44180</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33430,7 +33430,7 @@
         <v>44200</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33487,7 +33487,7 @@
         <v>44207</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33549,7 +33549,7 @@
         <v>44209</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33606,7 +33606,7 @@
         <v>44209</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33663,7 +33663,7 @@
         <v>44210</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33720,7 +33720,7 @@
         <v>44211</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33777,7 +33777,7 @@
         <v>44216</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33834,7 +33834,7 @@
         <v>44216</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33891,7 +33891,7 @@
         <v>44222</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33948,7 +33948,7 @@
         <v>44223</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34005,7 +34005,7 @@
         <v>44230</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34062,7 +34062,7 @@
         <v>44245</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34119,7 +34119,7 @@
         <v>44252</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34176,7 +34176,7 @@
         <v>44252</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34233,7 +34233,7 @@
         <v>44266</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34290,7 +34290,7 @@
         <v>44273</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34347,7 +34347,7 @@
         <v>44279</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34404,7 +34404,7 @@
         <v>44286</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34461,7 +34461,7 @@
         <v>44286</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34518,7 +34518,7 @@
         <v>44294</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34580,7 +34580,7 @@
         <v>44297</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34637,7 +34637,7 @@
         <v>44297</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34699,7 +34699,7 @@
         <v>44299</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34761,7 +34761,7 @@
         <v>44313</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34823,7 +34823,7 @@
         <v>44313</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34885,7 +34885,7 @@
         <v>44314</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34947,7 +34947,7 @@
         <v>44351</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35009,7 +35009,7 @@
         <v>44357</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35071,7 +35071,7 @@
         <v>44365</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35133,7 +35133,7 @@
         <v>44365</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35190,7 +35190,7 @@
         <v>44369</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35247,7 +35247,7 @@
         <v>44379</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35304,7 +35304,7 @@
         <v>44379</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35361,7 +35361,7 @@
         <v>44383</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35423,7 +35423,7 @@
         <v>44383</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35485,7 +35485,7 @@
         <v>44390</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35542,7 +35542,7 @@
         <v>44395</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35599,7 +35599,7 @@
         <v>44407</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35661,7 +35661,7 @@
         <v>44420</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35718,7 +35718,7 @@
         <v>44420</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35775,7 +35775,7 @@
         <v>44426</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35832,7 +35832,7 @@
         <v>44438</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35894,7 +35894,7 @@
         <v>44442</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -35951,7 +35951,7 @@
         <v>44445</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36008,7 +36008,7 @@
         <v>44446</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36065,7 +36065,7 @@
         <v>44447</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36122,7 +36122,7 @@
         <v>44453</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36179,7 +36179,7 @@
         <v>44459</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36241,7 +36241,7 @@
         <v>44461</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36303,7 +36303,7 @@
         <v>44463</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36360,7 +36360,7 @@
         <v>44470</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36417,7 +36417,7 @@
         <v>44479</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36474,7 +36474,7 @@
         <v>44481</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36531,7 +36531,7 @@
         <v>44484</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36588,7 +36588,7 @@
         <v>44486</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36645,7 +36645,7 @@
         <v>44489</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36702,7 +36702,7 @@
         <v>44489</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36759,7 +36759,7 @@
         <v>44494</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36821,7 +36821,7 @@
         <v>44495</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36878,7 +36878,7 @@
         <v>44497</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36935,7 +36935,7 @@
         <v>44503</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -36992,7 +36992,7 @@
         <v>44504</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37049,7 +37049,7 @@
         <v>44512</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         <v>44512</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37163,7 +37163,7 @@
         <v>44512</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37220,7 +37220,7 @@
         <v>44512</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37277,7 +37277,7 @@
         <v>44515</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37334,7 +37334,7 @@
         <v>44516</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37391,7 +37391,7 @@
         <v>44517</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37448,7 +37448,7 @@
         <v>44517</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37505,7 +37505,7 @@
         <v>44517</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37562,7 +37562,7 @@
         <v>44518</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37619,7 +37619,7 @@
         <v>44519</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37676,7 +37676,7 @@
         <v>44522</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37733,7 +37733,7 @@
         <v>44522</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37790,7 +37790,7 @@
         <v>44525</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37852,7 +37852,7 @@
         <v>44526</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -37914,7 +37914,7 @@
         <v>44526</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -37971,7 +37971,7 @@
         <v>44526</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38028,7 +38028,7 @@
         <v>44531</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38085,7 +38085,7 @@
         <v>44531</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38142,7 +38142,7 @@
         <v>44531</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38204,7 +38204,7 @@
         <v>44531</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38261,7 +38261,7 @@
         <v>44532</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38318,7 +38318,7 @@
         <v>44532</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38375,7 +38375,7 @@
         <v>44532</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38432,7 +38432,7 @@
         <v>44532</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38489,7 +38489,7 @@
         <v>44535</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         <v>44535</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38603,7 +38603,7 @@
         <v>44540</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38665,7 +38665,7 @@
         <v>44543</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38727,7 +38727,7 @@
         <v>44543</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38789,7 +38789,7 @@
         <v>44544</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -38846,7 +38846,7 @@
         <v>44544</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -38903,7 +38903,7 @@
         <v>44548</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -38960,7 +38960,7 @@
         <v>44553</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39017,7 +39017,7 @@
         <v>44553</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39074,7 +39074,7 @@
         <v>44560</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39131,7 +39131,7 @@
         <v>44560</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39188,7 +39188,7 @@
         <v>44569</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39250,7 +39250,7 @@
         <v>44571</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -39312,7 +39312,7 @@
         <v>44572</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -39374,7 +39374,7 @@
         <v>44574</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39431,7 +39431,7 @@
         <v>44575</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39488,7 +39488,7 @@
         <v>44575</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39545,7 +39545,7 @@
         <v>44575</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39602,7 +39602,7 @@
         <v>44583</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -39664,7 +39664,7 @@
         <v>44583</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -39726,7 +39726,7 @@
         <v>44583</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -39788,7 +39788,7 @@
         <v>44588</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -39845,7 +39845,7 @@
         <v>44588</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -39902,7 +39902,7 @@
         <v>44593</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -39964,7 +39964,7 @@
         <v>44593</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40021,7 +40021,7 @@
         <v>44593</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40078,7 +40078,7 @@
         <v>44593</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40135,7 +40135,7 @@
         <v>44594</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40192,7 +40192,7 @@
         <v>44594</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40249,7 +40249,7 @@
         <v>44598</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         <v>44600</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -40363,7 +40363,7 @@
         <v>44600</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -40425,7 +40425,7 @@
         <v>44602</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -40482,7 +40482,7 @@
         <v>44602</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -40539,7 +40539,7 @@
         <v>44602</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -40596,7 +40596,7 @@
         <v>44602</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -40653,7 +40653,7 @@
         <v>44602</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -40710,7 +40710,7 @@
         <v>44602</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -40772,7 +40772,7 @@
         <v>44602</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -40829,7 +40829,7 @@
         <v>44603</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -40886,7 +40886,7 @@
         <v>44603</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -40943,7 +40943,7 @@
         <v>44603</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41000,7 +41000,7 @@
         <v>44606</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41057,7 +41057,7 @@
         <v>44608</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41119,7 +41119,7 @@
         <v>44608</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41181,7 +41181,7 @@
         <v>44608</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41238,7 +41238,7 @@
         <v>44609</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -41300,7 +41300,7 @@
         <v>44609</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -41362,7 +41362,7 @@
         <v>44610</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -41424,7 +41424,7 @@
         <v>44610</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -41486,7 +41486,7 @@
         <v>44610</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -41548,7 +41548,7 @@
         <v>44612</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -41605,7 +41605,7 @@
         <v>44616</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -41667,7 +41667,7 @@
         <v>44616</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -41724,7 +41724,7 @@
         <v>44623</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -41786,7 +41786,7 @@
         <v>44634</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -41843,7 +41843,7 @@
         <v>44645</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -41900,7 +41900,7 @@
         <v>44649</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -41957,7 +41957,7 @@
         <v>44649</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42014,7 +42014,7 @@
         <v>44652</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42071,7 +42071,7 @@
         <v>44659</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42133,7 +42133,7 @@
         <v>44659</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42195,7 +42195,7 @@
         <v>44665</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -42257,7 +42257,7 @@
         <v>44673</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -42319,7 +42319,7 @@
         <v>44676</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -42381,7 +42381,7 @@
         <v>44676</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -42438,7 +42438,7 @@
         <v>44690</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -42500,7 +42500,7 @@
         <v>44691</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -42562,7 +42562,7 @@
         <v>44692</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -42624,7 +42624,7 @@
         <v>44699</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -42686,7 +42686,7 @@
         <v>44700</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -42743,7 +42743,7 @@
         <v>44700</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -42800,7 +42800,7 @@
         <v>44701</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -42862,7 +42862,7 @@
         <v>44704</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -42924,7 +42924,7 @@
         <v>44704</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -42981,7 +42981,7 @@
         <v>44711</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43043,7 +43043,7 @@
         <v>44713</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43105,7 +43105,7 @@
         <v>44713</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43167,7 +43167,7 @@
         <v>44714</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43224,7 +43224,7 @@
         <v>44719</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -43281,7 +43281,7 @@
         <v>44720</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -43338,7 +43338,7 @@
         <v>44729</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -43395,7 +43395,7 @@
         <v>44733</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -43452,7 +43452,7 @@
         <v>44742</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -43509,7 +43509,7 @@
         <v>44742</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -43566,7 +43566,7 @@
         <v>44742</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -43628,7 +43628,7 @@
         <v>44742</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -43685,7 +43685,7 @@
         <v>44742</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -43742,7 +43742,7 @@
         <v>44743</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -43799,7 +43799,7 @@
         <v>44762</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -43861,7 +43861,7 @@
         <v>44764</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -43923,7 +43923,7 @@
         <v>44764</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -43985,7 +43985,7 @@
         <v>44769</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44047,7 +44047,7 @@
         <v>44771</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44109,7 +44109,7 @@
         <v>44771</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44171,7 +44171,7 @@
         <v>44771</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44233,7 +44233,7 @@
         <v>44782</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -44290,7 +44290,7 @@
         <v>44782</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -44347,7 +44347,7 @@
         <v>44784</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -44404,7 +44404,7 @@
         <v>44788</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -44461,7 +44461,7 @@
         <v>44795</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -44518,7 +44518,7 @@
         <v>44797</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -44575,7 +44575,7 @@
         <v>44798</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -44632,7 +44632,7 @@
         <v>44806</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -44689,7 +44689,7 @@
         <v>44810</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -44746,7 +44746,7 @@
         <v>44811</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -44803,7 +44803,7 @@
         <v>44816</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -44860,7 +44860,7 @@
         <v>44816</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -44917,7 +44917,7 @@
         <v>44816</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -44974,7 +44974,7 @@
         <v>44816</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45031,7 +45031,7 @@
         <v>44816</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45093,7 +45093,7 @@
         <v>44817</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45150,7 +45150,7 @@
         <v>44817</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -45207,7 +45207,7 @@
         <v>44817</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -45264,7 +45264,7 @@
         <v>44819</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -45326,7 +45326,7 @@
         <v>44831</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -45383,7 +45383,7 @@
         <v>44832</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -45440,7 +45440,7 @@
         <v>44839</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -45497,7 +45497,7 @@
         <v>44844</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -45554,7 +45554,7 @@
         <v>44846</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -45611,7 +45611,7 @@
         <v>44847</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -45668,7 +45668,7 @@
         <v>44847</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -45725,7 +45725,7 @@
         <v>44847</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -45782,7 +45782,7 @@
         <v>44848</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -45839,7 +45839,7 @@
         <v>44849</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -45896,7 +45896,7 @@
         <v>44853</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -45953,7 +45953,7 @@
         <v>44865</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46010,7 +46010,7 @@
         <v>44866</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46067,7 +46067,7 @@
         <v>44872</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -46124,7 +46124,7 @@
         <v>44872</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -46181,7 +46181,7 @@
         <v>44883</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -46243,7 +46243,7 @@
         <v>44883</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -46300,7 +46300,7 @@
         <v>44886</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -46357,7 +46357,7 @@
         <v>44886</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -46419,7 +46419,7 @@
         <v>44888</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -46481,7 +46481,7 @@
         <v>44893</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -46538,7 +46538,7 @@
         <v>44897</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -46595,7 +46595,7 @@
         <v>44897</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -46652,7 +46652,7 @@
         <v>44901</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -46714,7 +46714,7 @@
         <v>44904</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -46776,7 +46776,7 @@
         <v>44908</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -46833,7 +46833,7 @@
         <v>44908</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -46890,7 +46890,7 @@
         <v>44909</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -46947,7 +46947,7 @@
         <v>44909</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47004,7 +47004,7 @@
         <v>44912</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47061,7 +47061,7 @@
         <v>44916</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -47123,7 +47123,7 @@
         <v>44916</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -47180,7 +47180,7 @@
         <v>44928</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -47242,7 +47242,7 @@
         <v>44928</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -47304,7 +47304,7 @@
         <v>44929</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -47361,7 +47361,7 @@
         <v>44930</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -47418,7 +47418,7 @@
         <v>44930</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -47480,7 +47480,7 @@
         <v>44935</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -47537,7 +47537,7 @@
         <v>44944</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -47594,7 +47594,7 @@
         <v>44944</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -47656,7 +47656,7 @@
         <v>44944</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -47713,7 +47713,7 @@
         <v>44944</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -47775,7 +47775,7 @@
         <v>44944</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -47832,7 +47832,7 @@
         <v>44945</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -47889,7 +47889,7 @@
         <v>44946</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -47946,7 +47946,7 @@
         <v>44949</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48008,7 +48008,7 @@
         <v>44950</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -48070,7 +48070,7 @@
         <v>44952</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -48132,7 +48132,7 @@
         <v>44960</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -48194,7 +48194,7 @@
         <v>44960</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -48251,7 +48251,7 @@
         <v>44960</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -48308,7 +48308,7 @@
         <v>44964</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -48365,7 +48365,7 @@
         <v>44964</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -48422,7 +48422,7 @@
         <v>44965</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -48479,7 +48479,7 @@
         <v>44965</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -48536,7 +48536,7 @@
         <v>44966</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -48598,7 +48598,7 @@
         <v>44967</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -48655,7 +48655,7 @@
         <v>44967</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -48712,7 +48712,7 @@
         <v>44967</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -48769,7 +48769,7 @@
         <v>44967</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -48826,7 +48826,7 @@
         <v>44967</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -48883,7 +48883,7 @@
         <v>44969</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -48940,7 +48940,7 @@
         <v>44970</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49002,7 +49002,7 @@
         <v>44971</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -49059,7 +49059,7 @@
         <v>44971</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -49116,7 +49116,7 @@
         <v>44972</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -49173,7 +49173,7 @@
         <v>44973</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -49230,7 +49230,7 @@
         <v>44973</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -49287,7 +49287,7 @@
         <v>44977</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -49349,7 +49349,7 @@
         <v>44977</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -49406,7 +49406,7 @@
         <v>44977</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -49463,7 +49463,7 @@
         <v>44978</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -49525,7 +49525,7 @@
         <v>44980</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -49582,7 +49582,7 @@
         <v>44980</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -49639,7 +49639,7 @@
         <v>44980</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -49696,7 +49696,7 @@
         <v>44980</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -49753,7 +49753,7 @@
         <v>44984</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -49815,7 +49815,7 @@
         <v>44984</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -49872,7 +49872,7 @@
         <v>44988</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -49929,7 +49929,7 @@
         <v>44991</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -49986,7 +49986,7 @@
         <v>44993</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -50043,7 +50043,7 @@
         <v>44993</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -50100,7 +50100,7 @@
         <v>44994</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -50157,7 +50157,7 @@
         <v>45006</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -50214,7 +50214,7 @@
         <v>45009</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -50276,7 +50276,7 @@
         <v>45013</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -50333,7 +50333,7 @@
         <v>45014</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -50390,7 +50390,7 @@
         <v>45026</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -50447,7 +50447,7 @@
         <v>45028</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -50509,7 +50509,7 @@
         <v>45033</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -50566,7 +50566,7 @@
         <v>45036</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -50623,7 +50623,7 @@
         <v>45037</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -50685,7 +50685,7 @@
         <v>45042</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -50742,7 +50742,7 @@
         <v>45042</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -50804,7 +50804,7 @@
         <v>45043</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -50861,7 +50861,7 @@
         <v>45049</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -50918,7 +50918,7 @@
         <v>45049</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -50975,7 +50975,7 @@
         <v>45049</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -51032,7 +51032,7 @@
         <v>45049</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -51089,7 +51089,7 @@
         <v>45050</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -51146,7 +51146,7 @@
         <v>45050</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -51203,7 +51203,7 @@
         <v>45050</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -51260,7 +51260,7 @@
         <v>45054</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -51317,7 +51317,7 @@
         <v>45054</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -51374,7 +51374,7 @@
         <v>45055</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -51431,7 +51431,7 @@
         <v>45056</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -51493,7 +51493,7 @@
         <v>45056</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -51555,7 +51555,7 @@
         <v>45058</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -51612,7 +51612,7 @@
         <v>45058</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -51669,7 +51669,7 @@
         <v>45058</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -51726,7 +51726,7 @@
         <v>45058</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -51783,7 +51783,7 @@
         <v>45058</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -51840,7 +51840,7 @@
         <v>45058</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -51902,7 +51902,7 @@
         <v>45060</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -51959,7 +51959,7 @@
         <v>45061</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -52016,7 +52016,7 @@
         <v>45063</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -52073,7 +52073,7 @@
         <v>45063</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -52130,7 +52130,7 @@
         <v>45063</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -52187,7 +52187,7 @@
         <v>45063</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -52244,7 +52244,7 @@
         <v>45070</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -52306,7 +52306,7 @@
         <v>45075</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -52363,7 +52363,7 @@
         <v>45078</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -52420,7 +52420,7 @@
         <v>45078</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -52482,7 +52482,7 @@
         <v>45078</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -52539,7 +52539,7 @@
         <v>45079</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -52596,7 +52596,7 @@
         <v>45084</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -52658,7 +52658,7 @@
         <v>45086</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -52720,7 +52720,7 @@
         <v>45089</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -52777,7 +52777,7 @@
         <v>45089</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -52834,7 +52834,7 @@
         <v>45089</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -52891,7 +52891,7 @@
         <v>45089</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -52948,7 +52948,7 @@
         <v>45091</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -53010,7 +53010,7 @@
         <v>45091</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -53067,7 +53067,7 @@
         <v>45091</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -53129,7 +53129,7 @@
         <v>45091</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -53191,7 +53191,7 @@
         <v>45091</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -53248,7 +53248,7 @@
         <v>45093</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -53310,7 +53310,7 @@
         <v>45096</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -53367,7 +53367,7 @@
         <v>45096</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -53424,7 +53424,7 @@
         <v>45096</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -53481,7 +53481,7 @@
         <v>45096</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -53538,7 +53538,7 @@
         <v>45096</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -53595,7 +53595,7 @@
         <v>45096</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -53652,7 +53652,7 @@
         <v>45096</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -53709,7 +53709,7 @@
         <v>45096</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -53766,7 +53766,7 @@
         <v>45097</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -53823,7 +53823,7 @@
         <v>45097</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -53880,7 +53880,7 @@
         <v>45097</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -53937,7 +53937,7 @@
         <v>45097</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -53994,7 +53994,7 @@
         <v>45097</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -54051,7 +54051,7 @@
         <v>45103</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -54108,7 +54108,7 @@
         <v>45103</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -54165,7 +54165,7 @@
         <v>45105</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -54222,7 +54222,7 @@
         <v>45105</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -54279,7 +54279,7 @@
         <v>45105</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -54336,7 +54336,7 @@
         <v>45107</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -54393,7 +54393,7 @@
         <v>45107</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -54450,7 +54450,7 @@
         <v>45107</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -54512,7 +54512,7 @@
         <v>45107</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -54574,7 +54574,7 @@
         <v>45107</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -54631,7 +54631,7 @@
         <v>45110</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -54688,7 +54688,7 @@
         <v>45112</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -54745,7 +54745,7 @@
         <v>45113</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -54802,7 +54802,7 @@
         <v>45119</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -54859,7 +54859,7 @@
         <v>45121</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -54921,7 +54921,7 @@
         <v>45123</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -54978,7 +54978,7 @@
         <v>45127</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -55035,7 +55035,7 @@
         <v>45128</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -55092,7 +55092,7 @@
         <v>45131</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -55149,7 +55149,7 @@
         <v>45132</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -55206,7 +55206,7 @@
         <v>45134</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -55263,7 +55263,7 @@
         <v>45145</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -55320,7 +55320,7 @@
         <v>45148</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -55377,7 +55377,7 @@
         <v>45148</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -55434,7 +55434,7 @@
         <v>45148</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -55491,7 +55491,7 @@
         <v>45148</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -55548,7 +55548,7 @@
         <v>45148</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -55605,7 +55605,7 @@
         <v>45149</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -55667,7 +55667,7 @@
         <v>45152</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -55724,7 +55724,7 @@
         <v>45152</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -55786,7 +55786,7 @@
         <v>45152</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -55843,7 +55843,7 @@
         <v>45152</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -55905,7 +55905,7 @@
         <v>45153</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -55967,7 +55967,7 @@
         <v>45153</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -56029,7 +56029,7 @@
         <v>45160</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -56086,7 +56086,7 @@
         <v>45161</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -56143,7 +56143,7 @@
         <v>45162</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -56200,7 +56200,7 @@
         <v>45162</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -56257,7 +56257,7 @@
         <v>45162</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -56319,7 +56319,7 @@
         <v>45162</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -56381,7 +56381,7 @@
         <v>45164</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -56443,7 +56443,7 @@
         <v>45167</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -56500,7 +56500,7 @@
         <v>45169</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -56562,7 +56562,7 @@
         <v>45169</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -56624,7 +56624,7 @@
         <v>45173</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -56681,7 +56681,7 @@
         <v>45173</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -56728,7 +56728,7 @@
       </c>
       <c r="R896" s="2" t="inlineStr"/>
     </row>
-    <row r="897">
+    <row r="897" ht="15" customHeight="1">
       <c r="A897" t="inlineStr">
         <is>
           <t>A 41422-2023</t>
@@ -56738,7 +56738,7 @@
         <v>45175</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -56789,6 +56789,63 @@
         <v>0</v>
       </c>
       <c r="R897" s="2" t="inlineStr"/>
+    </row>
+    <row r="898">
+      <c r="A898" t="inlineStr">
+        <is>
+          <t>A 42436-2023</t>
+        </is>
+      </c>
+      <c r="B898" s="1" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C898" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D898" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E898" t="inlineStr">
+        <is>
+          <t>UPPSALA</t>
+        </is>
+      </c>
+      <c r="G898" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H898" t="n">
+        <v>0</v>
+      </c>
+      <c r="I898" t="n">
+        <v>0</v>
+      </c>
+      <c r="J898" t="n">
+        <v>0</v>
+      </c>
+      <c r="K898" t="n">
+        <v>0</v>
+      </c>
+      <c r="L898" t="n">
+        <v>0</v>
+      </c>
+      <c r="M898" t="n">
+        <v>0</v>
+      </c>
+      <c r="N898" t="n">
+        <v>0</v>
+      </c>
+      <c r="O898" t="n">
+        <v>0</v>
+      </c>
+      <c r="P898" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q898" t="n">
+        <v>0</v>
+      </c>
+      <c r="R898" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt UPPSALA.xlsx
+++ b/Översikt UPPSALA.xlsx
@@ -572,7 +572,7 @@
         <v>44012</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         <v>43913</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         <v>43762</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44377</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>44349</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>45082</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>43381</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>43875</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>45013</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1526,7 +1526,7 @@
         <v>44222</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>44623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         <v>44971</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>43796</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>44053</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>44356</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>45086</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>44158</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>44180</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2499,7 +2499,7 @@
         <v>44497</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>44901</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>45092</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
         <v>43433</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>44376</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>44575</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>44356</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3155,7 +3155,7 @@
         <v>43814</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43861</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>44119</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3427,7 +3427,7 @@
         <v>44351</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>44500</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>44574</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3702,7 +3702,7 @@
         <v>44792</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>44879</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>44922</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>44977</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>45107</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>43511</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         <v>43857</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43980</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>44056</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>44101</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
         <v>44462</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>44664</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>44719</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>44740</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>44974</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>45002</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5160,7 +5160,7 @@
         <v>45049</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5336,7 +5336,7 @@
         <v>43511</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>43731</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43796</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>44101</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>44133</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>44495</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>44652</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>44684</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>44692</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>44791</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>44804</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>44938</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6410,7 +6410,7 @@
         <v>44956</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
         <v>44973</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6589,7 +6589,7 @@
         <v>43503</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6680,7 +6680,7 @@
         <v>43545</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>43607</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>43654</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6943,7 +6943,7 @@
         <v>43742</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         <v>43929</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>44054</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>44101</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>44659</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>44879</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>44967</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>45002</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>45090</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7742,7 +7742,7 @@
         <v>45121</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7833,7 +7833,7 @@
         <v>43321</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>43339</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>43462</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8088,7 +8088,7 @@
         <v>43473</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>43473</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8263,7 +8263,7 @@
         <v>43528</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>43551</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>43693</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>43693</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>43731</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8693,7 +8693,7 @@
         <v>43755</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8778,7 +8778,7 @@
         <v>43867</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43893</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8948,7 +8948,7 @@
         <v>43980</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>44042</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>44266</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>44467</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         <v>44487</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         <v>44489</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>44589</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>44614</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9643,7 +9643,7 @@
         <v>44645</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>44678</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>44729</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>44849</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>44855</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10088,7 +10088,7 @@
         <v>44897</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>44917</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         <v>44958</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10348,7 +10348,7 @@
         <v>44963</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>45002</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10523,7 +10523,7 @@
         <v>45021</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>45022</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10698,7 +10698,7 @@
         <v>45022</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>45055</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
         <v>45061</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>45072</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>45097</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>45098</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11218,7 +11218,7 @@
         <v>45104</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11303,7 +11303,7 @@
         <v>45121</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11393,7 +11393,7 @@
         <v>45139</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11478,7 +11478,7 @@
         <v>43321</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11535,7 +11535,7 @@
         <v>43321</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11592,7 +11592,7 @@
         <v>43335</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11649,7 +11649,7 @@
         <v>43341</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11706,7 +11706,7 @@
         <v>43347</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11763,7 +11763,7 @@
         <v>43355</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11820,7 +11820,7 @@
         <v>43360</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11877,7 +11877,7 @@
         <v>43377</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11934,7 +11934,7 @@
         <v>43378</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11996,7 +11996,7 @@
         <v>43378</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12053,7 +12053,7 @@
         <v>43378</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         <v>43381</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         <v>43381</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>43389</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>43395</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>43398</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>43407</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>43411</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>43418</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>43420</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12658,7 +12658,7 @@
         <v>43423</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12715,7 +12715,7 @@
         <v>43423</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12772,7 +12772,7 @@
         <v>43424</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12829,7 +12829,7 @@
         <v>43424</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>43424</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12953,7 +12953,7 @@
         <v>43427</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13010,7 +13010,7 @@
         <v>43430</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13067,7 +13067,7 @@
         <v>43431</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         <v>43433</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>43433</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>43433</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13295,7 +13295,7 @@
         <v>43433</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13352,7 +13352,7 @@
         <v>43436</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13409,7 +13409,7 @@
         <v>43436</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13466,7 +13466,7 @@
         <v>43437</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13523,7 +13523,7 @@
         <v>43439</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13580,7 +13580,7 @@
         <v>43444</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13637,7 +13637,7 @@
         <v>43445</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13694,7 +13694,7 @@
         <v>43446</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13751,7 +13751,7 @@
         <v>43447</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13808,7 +13808,7 @@
         <v>43447</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13865,7 +13865,7 @@
         <v>43447</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13927,7 +13927,7 @@
         <v>43451</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13984,7 +13984,7 @@
         <v>43451</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
         <v>43451</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14098,7 +14098,7 @@
         <v>43452</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>43452</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         <v>43455</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>43455</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14326,7 +14326,7 @@
         <v>43455</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14383,7 +14383,7 @@
         <v>43455</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14440,7 +14440,7 @@
         <v>43460</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14497,7 +14497,7 @@
         <v>43464</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14554,7 +14554,7 @@
         <v>43468</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14611,7 +14611,7 @@
         <v>43472</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14668,7 +14668,7 @@
         <v>43472</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14725,7 +14725,7 @@
         <v>43472</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14782,7 +14782,7 @@
         <v>43472</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>43473</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14901,7 +14901,7 @@
         <v>43473</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>43473</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>43473</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>43473</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>43473</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>43473</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>43473</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>43474</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>43474</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>43475</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>43475</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>43475</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15585,7 +15585,7 @@
         <v>43476</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>43479</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>43479</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>43479</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15818,7 +15818,7 @@
         <v>43479</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>43479</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15942,7 +15942,7 @@
         <v>43480</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15999,7 +15999,7 @@
         <v>43480</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16056,7 +16056,7 @@
         <v>43481</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>43481</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>43481</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>43481</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16284,7 +16284,7 @@
         <v>43481</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>43482</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>43482</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>43482</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>43482</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>43482</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>43482</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>43482</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16745,7 +16745,7 @@
         <v>43485</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16802,7 +16802,7 @@
         <v>43486</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16859,7 +16859,7 @@
         <v>43486</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>43486</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>43487</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17035,7 +17035,7 @@
         <v>43488</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>43488</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>43488</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>43492</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>43493</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>43493</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>43496</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>43496</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>43498</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>43500</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>43500</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17687,7 +17687,7 @@
         <v>43500</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>43500</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17801,7 +17801,7 @@
         <v>43500</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>43503</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         <v>43504</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>43507</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18034,7 +18034,7 @@
         <v>43507</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         <v>43508</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18148,7 +18148,7 @@
         <v>43509</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18205,7 +18205,7 @@
         <v>43511</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18262,7 +18262,7 @@
         <v>43511</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18319,7 +18319,7 @@
         <v>43511</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18376,7 +18376,7 @@
         <v>43511</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18433,7 +18433,7 @@
         <v>43511</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>43516</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         <v>43517</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18609,7 +18609,7 @@
         <v>43517</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18671,7 +18671,7 @@
         <v>43517</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>43517</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18795,7 +18795,7 @@
         <v>43523</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18852,7 +18852,7 @@
         <v>43528</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         <v>43528</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18966,7 +18966,7 @@
         <v>43531</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19023,7 +19023,7 @@
         <v>43531</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19080,7 +19080,7 @@
         <v>43531</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19142,7 +19142,7 @@
         <v>43532</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>43535</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>43536</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>43538</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19380,7 +19380,7 @@
         <v>43538</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19442,7 +19442,7 @@
         <v>43544</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19499,7 +19499,7 @@
         <v>43550</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19556,7 +19556,7 @@
         <v>43552</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19613,7 +19613,7 @@
         <v>43553</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         <v>43553</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19732,7 +19732,7 @@
         <v>43556</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19789,7 +19789,7 @@
         <v>43559</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19846,7 +19846,7 @@
         <v>43559</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19903,7 +19903,7 @@
         <v>43560</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19960,7 +19960,7 @@
         <v>43570</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20017,7 +20017,7 @@
         <v>43572</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         <v>43578</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20131,7 +20131,7 @@
         <v>43578</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
         <v>43583</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20245,7 +20245,7 @@
         <v>43585</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20307,7 +20307,7 @@
         <v>43591</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20364,7 +20364,7 @@
         <v>43592</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20426,7 +20426,7 @@
         <v>43600</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20483,7 +20483,7 @@
         <v>43605</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20540,7 +20540,7 @@
         <v>43605</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20597,7 +20597,7 @@
         <v>43607</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20654,7 +20654,7 @@
         <v>43628</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20711,7 +20711,7 @@
         <v>43628</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>43628</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         <v>43630</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20887,7 +20887,7 @@
         <v>43630</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20944,7 +20944,7 @@
         <v>43647</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21001,7 +21001,7 @@
         <v>43647</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21058,7 +21058,7 @@
         <v>43648</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         <v>43651</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21172,7 +21172,7 @@
         <v>43651</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21229,7 +21229,7 @@
         <v>43651</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21286,7 +21286,7 @@
         <v>43651</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21343,7 +21343,7 @@
         <v>43654</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21400,7 +21400,7 @@
         <v>43654</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21457,7 +21457,7 @@
         <v>43656</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21514,7 +21514,7 @@
         <v>43661</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21571,7 +21571,7 @@
         <v>43661</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21628,7 +21628,7 @@
         <v>43663</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21685,7 +21685,7 @@
         <v>43677</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21742,7 +21742,7 @@
         <v>43682</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21799,7 +21799,7 @@
         <v>43686</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21856,7 +21856,7 @@
         <v>43693</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
         <v>43696</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21975,7 +21975,7 @@
         <v>43696</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22032,7 +22032,7 @@
         <v>43699</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22089,7 +22089,7 @@
         <v>43699</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         <v>43699</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22203,7 +22203,7 @@
         <v>43705</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22260,7 +22260,7 @@
         <v>43706</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22322,7 +22322,7 @@
         <v>43706</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22384,7 +22384,7 @@
         <v>43706</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22446,7 +22446,7 @@
         <v>43706</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22503,7 +22503,7 @@
         <v>43706</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22565,7 +22565,7 @@
         <v>43706</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         <v>43707</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22689,7 +22689,7 @@
         <v>43707</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22751,7 +22751,7 @@
         <v>43707</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22808,7 +22808,7 @@
         <v>43707</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22870,7 +22870,7 @@
         <v>43710</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22927,7 +22927,7 @@
         <v>43712</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22984,7 +22984,7 @@
         <v>43712</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23041,7 +23041,7 @@
         <v>43713</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23098,7 +23098,7 @@
         <v>43716</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23155,7 +23155,7 @@
         <v>43718</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23212,7 +23212,7 @@
         <v>43718</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23274,7 +23274,7 @@
         <v>43718</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23331,7 +23331,7 @@
         <v>43718</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23393,7 +23393,7 @@
         <v>43718</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23455,7 +23455,7 @@
         <v>43718</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23512,7 +23512,7 @@
         <v>43720</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23569,7 +23569,7 @@
         <v>43727</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23626,7 +23626,7 @@
         <v>43730</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>43733</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23745,7 +23745,7 @@
         <v>43735</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23807,7 +23807,7 @@
         <v>43735</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23869,7 +23869,7 @@
         <v>43736</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23926,7 +23926,7 @@
         <v>43745</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23983,7 +23983,7 @@
         <v>43745</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24045,7 +24045,7 @@
         <v>43747</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24107,7 +24107,7 @@
         <v>43748</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24164,7 +24164,7 @@
         <v>43755</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>43759</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>43763</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24345,7 +24345,7 @@
         <v>43773</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24402,7 +24402,7 @@
         <v>43773</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24459,7 +24459,7 @@
         <v>43773</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24521,7 +24521,7 @@
         <v>43777</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24578,7 +24578,7 @@
         <v>43777</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>43780</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24702,7 +24702,7 @@
         <v>43780</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24764,7 +24764,7 @@
         <v>43782</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24821,7 +24821,7 @@
         <v>43784</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24878,7 +24878,7 @@
         <v>43791</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24935,7 +24935,7 @@
         <v>43791</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24992,7 +24992,7 @@
         <v>43791</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25049,7 +25049,7 @@
         <v>43791</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         <v>43795</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25163,7 +25163,7 @@
         <v>43795</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25220,7 +25220,7 @@
         <v>43795</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25277,7 +25277,7 @@
         <v>43801</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25334,7 +25334,7 @@
         <v>43801</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25391,7 +25391,7 @@
         <v>43803</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25448,7 +25448,7 @@
         <v>43808</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25505,7 +25505,7 @@
         <v>43808</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25562,7 +25562,7 @@
         <v>43811</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25619,7 +25619,7 @@
         <v>43812</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25681,7 +25681,7 @@
         <v>43814</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25743,7 +25743,7 @@
         <v>43814</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25805,7 +25805,7 @@
         <v>43815</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25862,7 +25862,7 @@
         <v>43815</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25924,7 +25924,7 @@
         <v>43817</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25981,7 +25981,7 @@
         <v>43817</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26038,7 +26038,7 @@
         <v>43818</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26095,7 +26095,7 @@
         <v>43818</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26152,7 +26152,7 @@
         <v>43822</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26209,7 +26209,7 @@
         <v>43837</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26266,7 +26266,7 @@
         <v>43837</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26323,7 +26323,7 @@
         <v>43838</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26380,7 +26380,7 @@
         <v>43844</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26437,7 +26437,7 @@
         <v>43850</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26494,7 +26494,7 @@
         <v>43853</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26551,7 +26551,7 @@
         <v>43853</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26613,7 +26613,7 @@
         <v>43866</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26675,7 +26675,7 @@
         <v>43866</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26737,7 +26737,7 @@
         <v>43867</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26794,7 +26794,7 @@
         <v>43874</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26851,7 +26851,7 @@
         <v>43878</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26913,7 +26913,7 @@
         <v>43878</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26970,7 +26970,7 @@
         <v>43878</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27027,7 +27027,7 @@
         <v>43879</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27089,7 +27089,7 @@
         <v>43879</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27151,7 +27151,7 @@
         <v>43879</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27213,7 +27213,7 @@
         <v>43881</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27270,7 +27270,7 @@
         <v>43882</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27327,7 +27327,7 @@
         <v>43882</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27389,7 +27389,7 @@
         <v>43882</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         <v>43886</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>43887</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>43891</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>43892</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27689,7 +27689,7 @@
         <v>43892</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         <v>43892</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27808,7 +27808,7 @@
         <v>43894</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27865,7 +27865,7 @@
         <v>43894</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27922,7 +27922,7 @@
         <v>43899</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27979,7 +27979,7 @@
         <v>43899</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28041,7 +28041,7 @@
         <v>43903</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28098,7 +28098,7 @@
         <v>43908</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28155,7 +28155,7 @@
         <v>43908</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28212,7 +28212,7 @@
         <v>43908</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28274,7 +28274,7 @@
         <v>43908</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28331,7 +28331,7 @@
         <v>43913</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28393,7 +28393,7 @@
         <v>43927</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28450,7 +28450,7 @@
         <v>43927</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28507,7 +28507,7 @@
         <v>43929</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28564,7 +28564,7 @@
         <v>43937</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28621,7 +28621,7 @@
         <v>43944</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28678,7 +28678,7 @@
         <v>43948</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28735,7 +28735,7 @@
         <v>43948</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28792,7 +28792,7 @@
         <v>43950</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28854,7 +28854,7 @@
         <v>43973</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28916,7 +28916,7 @@
         <v>43984</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28973,7 +28973,7 @@
         <v>43987</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29030,7 +29030,7 @@
         <v>43987</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29087,7 +29087,7 @@
         <v>43990</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29144,7 +29144,7 @@
         <v>43999</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29201,7 +29201,7 @@
         <v>43999</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29258,7 +29258,7 @@
         <v>44000</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29315,7 +29315,7 @@
         <v>44000</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29372,7 +29372,7 @@
         <v>44007</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29429,7 +29429,7 @@
         <v>44007</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29486,7 +29486,7 @@
         <v>44012</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29548,7 +29548,7 @@
         <v>44013</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29605,7 +29605,7 @@
         <v>44014</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29662,7 +29662,7 @@
         <v>44015</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29724,7 +29724,7 @@
         <v>44016</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29786,7 +29786,7 @@
         <v>44019</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29848,7 +29848,7 @@
         <v>44026</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29905,7 +29905,7 @@
         <v>44029</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29962,7 +29962,7 @@
         <v>44033</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30024,7 +30024,7 @@
         <v>44035</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30081,7 +30081,7 @@
         <v>44035</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30138,7 +30138,7 @@
         <v>44041</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30200,7 +30200,7 @@
         <v>44048</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30262,7 +30262,7 @@
         <v>44048</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30324,7 +30324,7 @@
         <v>44048</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         <v>44050</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30443,7 +30443,7 @@
         <v>44055</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30500,7 +30500,7 @@
         <v>44056</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30557,7 +30557,7 @@
         <v>44063</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         <v>44063</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30676,7 +30676,7 @@
         <v>44063</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30733,7 +30733,7 @@
         <v>44063</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30790,7 +30790,7 @@
         <v>44070</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30847,7 +30847,7 @@
         <v>44076</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30904,7 +30904,7 @@
         <v>44081</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30961,7 +30961,7 @@
         <v>44083</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31018,7 +31018,7 @@
         <v>44091</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31080,7 +31080,7 @@
         <v>44095</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31137,7 +31137,7 @@
         <v>44095</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31194,7 +31194,7 @@
         <v>44103</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31251,7 +31251,7 @@
         <v>44105</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31313,7 +31313,7 @@
         <v>44105</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31370,7 +31370,7 @@
         <v>44105</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31432,7 +31432,7 @@
         <v>44106</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31489,7 +31489,7 @@
         <v>44109</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31546,7 +31546,7 @@
         <v>44119</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31603,7 +31603,7 @@
         <v>44123</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31660,7 +31660,7 @@
         <v>44123</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31717,7 +31717,7 @@
         <v>44126</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31774,7 +31774,7 @@
         <v>44130</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31831,7 +31831,7 @@
         <v>44131</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31893,7 +31893,7 @@
         <v>44131</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31955,7 +31955,7 @@
         <v>44134</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32017,7 +32017,7 @@
         <v>44137</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32074,7 +32074,7 @@
         <v>44139</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         <v>44139</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32188,7 +32188,7 @@
         <v>44139</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32245,7 +32245,7 @@
         <v>44140</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32302,7 +32302,7 @@
         <v>44144</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32359,7 +32359,7 @@
         <v>44144</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32416,7 +32416,7 @@
         <v>44144</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32473,7 +32473,7 @@
         <v>44146</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32530,7 +32530,7 @@
         <v>44151</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32587,7 +32587,7 @@
         <v>44153</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32649,7 +32649,7 @@
         <v>44155</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         <v>44155</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32763,7 +32763,7 @@
         <v>44159</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32825,7 +32825,7 @@
         <v>44159</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32887,7 +32887,7 @@
         <v>44160</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32949,7 +32949,7 @@
         <v>44161</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33011,7 +33011,7 @@
         <v>44161</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33073,7 +33073,7 @@
         <v>44162</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33130,7 +33130,7 @@
         <v>44165</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33192,7 +33192,7 @@
         <v>44166</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33254,7 +33254,7 @@
         <v>44167</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33311,7 +33311,7 @@
         <v>44168</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33368,7 +33368,7 @@
         <v>44180</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33430,7 +33430,7 @@
         <v>44200</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33487,7 +33487,7 @@
         <v>44207</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33549,7 +33549,7 @@
         <v>44209</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33606,7 +33606,7 @@
         <v>44209</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33663,7 +33663,7 @@
         <v>44210</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33720,7 +33720,7 @@
         <v>44211</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33777,7 +33777,7 @@
         <v>44216</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33834,7 +33834,7 @@
         <v>44216</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33891,7 +33891,7 @@
         <v>44222</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33948,7 +33948,7 @@
         <v>44223</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34005,7 +34005,7 @@
         <v>44230</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34062,7 +34062,7 @@
         <v>44245</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34119,7 +34119,7 @@
         <v>44252</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34176,7 +34176,7 @@
         <v>44252</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34233,7 +34233,7 @@
         <v>44266</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34290,7 +34290,7 @@
         <v>44273</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34347,7 +34347,7 @@
         <v>44279</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34404,7 +34404,7 @@
         <v>44286</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34461,7 +34461,7 @@
         <v>44286</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34518,7 +34518,7 @@
         <v>44294</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34580,7 +34580,7 @@
         <v>44297</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34637,7 +34637,7 @@
         <v>44297</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34699,7 +34699,7 @@
         <v>44299</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34761,7 +34761,7 @@
         <v>44313</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34823,7 +34823,7 @@
         <v>44313</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34885,7 +34885,7 @@
         <v>44314</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34947,7 +34947,7 @@
         <v>44351</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35009,7 +35009,7 @@
         <v>44357</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35071,7 +35071,7 @@
         <v>44365</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35133,7 +35133,7 @@
         <v>44365</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35190,7 +35190,7 @@
         <v>44369</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35247,7 +35247,7 @@
         <v>44379</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35304,7 +35304,7 @@
         <v>44379</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35361,7 +35361,7 @@
         <v>44383</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35423,7 +35423,7 @@
         <v>44383</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35485,7 +35485,7 @@
         <v>44390</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35542,7 +35542,7 @@
         <v>44395</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35599,7 +35599,7 @@
         <v>44407</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35661,7 +35661,7 @@
         <v>44420</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35718,7 +35718,7 @@
         <v>44420</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35775,7 +35775,7 @@
         <v>44426</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35832,7 +35832,7 @@
         <v>44438</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35894,7 +35894,7 @@
         <v>44442</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -35951,7 +35951,7 @@
         <v>44445</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36008,7 +36008,7 @@
         <v>44446</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36065,7 +36065,7 @@
         <v>44447</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36122,7 +36122,7 @@
         <v>44453</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36179,7 +36179,7 @@
         <v>44459</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36241,7 +36241,7 @@
         <v>44461</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36303,7 +36303,7 @@
         <v>44463</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36360,7 +36360,7 @@
         <v>44470</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36417,7 +36417,7 @@
         <v>44479</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36474,7 +36474,7 @@
         <v>44481</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36531,7 +36531,7 @@
         <v>44484</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36588,7 +36588,7 @@
         <v>44486</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36645,7 +36645,7 @@
         <v>44489</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36702,7 +36702,7 @@
         <v>44489</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36759,7 +36759,7 @@
         <v>44494</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36821,7 +36821,7 @@
         <v>44495</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36878,7 +36878,7 @@
         <v>44497</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36935,7 +36935,7 @@
         <v>44503</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -36992,7 +36992,7 @@
         <v>44504</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37049,7 +37049,7 @@
         <v>44512</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         <v>44512</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37163,7 +37163,7 @@
         <v>44512</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37220,7 +37220,7 @@
         <v>44512</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37277,7 +37277,7 @@
         <v>44515</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37334,7 +37334,7 @@
         <v>44516</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37391,7 +37391,7 @@
         <v>44517</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37448,7 +37448,7 @@
         <v>44517</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37505,7 +37505,7 @@
         <v>44517</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37562,7 +37562,7 @@
         <v>44518</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37619,7 +37619,7 @@
         <v>44519</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37676,7 +37676,7 @@
         <v>44522</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37733,7 +37733,7 @@
         <v>44522</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37790,7 +37790,7 @@
         <v>44525</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37852,7 +37852,7 @@
         <v>44526</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -37914,7 +37914,7 @@
         <v>44526</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -37971,7 +37971,7 @@
         <v>44526</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38028,7 +38028,7 @@
         <v>44531</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38085,7 +38085,7 @@
         <v>44531</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38142,7 +38142,7 @@
         <v>44531</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38204,7 +38204,7 @@
         <v>44531</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38261,7 +38261,7 @@
         <v>44532</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38318,7 +38318,7 @@
         <v>44532</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38375,7 +38375,7 @@
         <v>44532</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38432,7 +38432,7 @@
         <v>44532</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38489,7 +38489,7 @@
         <v>44535</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         <v>44535</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38603,7 +38603,7 @@
         <v>44540</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38665,7 +38665,7 @@
         <v>44543</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38727,7 +38727,7 @@
         <v>44543</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38789,7 +38789,7 @@
         <v>44544</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -38846,7 +38846,7 @@
         <v>44544</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -38903,7 +38903,7 @@
         <v>44548</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -38960,7 +38960,7 @@
         <v>44553</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39017,7 +39017,7 @@
         <v>44553</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39074,7 +39074,7 @@
         <v>44560</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39131,7 +39131,7 @@
         <v>44560</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39188,7 +39188,7 @@
         <v>44569</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39250,7 +39250,7 @@
         <v>44571</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -39312,7 +39312,7 @@
         <v>44572</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -39374,7 +39374,7 @@
         <v>44574</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39431,7 +39431,7 @@
         <v>44575</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39488,7 +39488,7 @@
         <v>44575</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39545,7 +39545,7 @@
         <v>44575</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39602,7 +39602,7 @@
         <v>44583</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -39664,7 +39664,7 @@
         <v>44583</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -39726,7 +39726,7 @@
         <v>44583</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -39788,7 +39788,7 @@
         <v>44588</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -39845,7 +39845,7 @@
         <v>44588</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -39902,7 +39902,7 @@
         <v>44593</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -39964,7 +39964,7 @@
         <v>44593</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40021,7 +40021,7 @@
         <v>44593</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40078,7 +40078,7 @@
         <v>44593</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40135,7 +40135,7 @@
         <v>44594</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40192,7 +40192,7 @@
         <v>44594</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40249,7 +40249,7 @@
         <v>44598</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         <v>44600</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -40363,7 +40363,7 @@
         <v>44600</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -40425,7 +40425,7 @@
         <v>44602</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -40482,7 +40482,7 @@
         <v>44602</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -40539,7 +40539,7 @@
         <v>44602</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -40596,7 +40596,7 @@
         <v>44602</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -40653,7 +40653,7 @@
         <v>44602</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -40710,7 +40710,7 @@
         <v>44602</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -40772,7 +40772,7 @@
         <v>44602</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -40829,7 +40829,7 @@
         <v>44603</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -40886,7 +40886,7 @@
         <v>44603</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -40943,7 +40943,7 @@
         <v>44603</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41000,7 +41000,7 @@
         <v>44606</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41057,7 +41057,7 @@
         <v>44608</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41119,7 +41119,7 @@
         <v>44608</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41181,7 +41181,7 @@
         <v>44608</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41238,7 +41238,7 @@
         <v>44609</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -41300,7 +41300,7 @@
         <v>44609</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -41362,7 +41362,7 @@
         <v>44610</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -41424,7 +41424,7 @@
         <v>44610</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -41486,7 +41486,7 @@
         <v>44610</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -41548,7 +41548,7 @@
         <v>44612</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -41605,7 +41605,7 @@
         <v>44616</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -41667,7 +41667,7 @@
         <v>44616</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -41724,7 +41724,7 @@
         <v>44623</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -41786,7 +41786,7 @@
         <v>44634</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -41843,7 +41843,7 @@
         <v>44645</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -41900,7 +41900,7 @@
         <v>44649</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -41957,7 +41957,7 @@
         <v>44649</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42014,7 +42014,7 @@
         <v>44652</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42071,7 +42071,7 @@
         <v>44659</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42133,7 +42133,7 @@
         <v>44659</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42195,7 +42195,7 @@
         <v>44665</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -42257,7 +42257,7 @@
         <v>44673</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -42319,7 +42319,7 @@
         <v>44676</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -42381,7 +42381,7 @@
         <v>44676</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -42438,7 +42438,7 @@
         <v>44690</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -42500,7 +42500,7 @@
         <v>44691</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -42562,7 +42562,7 @@
         <v>44692</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -42624,7 +42624,7 @@
         <v>44699</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -42686,7 +42686,7 @@
         <v>44700</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -42743,7 +42743,7 @@
         <v>44700</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -42800,7 +42800,7 @@
         <v>44701</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -42862,7 +42862,7 @@
         <v>44704</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -42924,7 +42924,7 @@
         <v>44704</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -42981,7 +42981,7 @@
         <v>44711</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43043,7 +43043,7 @@
         <v>44713</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43105,7 +43105,7 @@
         <v>44713</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43167,7 +43167,7 @@
         <v>44714</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43224,7 +43224,7 @@
         <v>44719</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -43281,7 +43281,7 @@
         <v>44720</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -43338,7 +43338,7 @@
         <v>44729</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -43395,7 +43395,7 @@
         <v>44733</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -43452,7 +43452,7 @@
         <v>44742</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -43509,7 +43509,7 @@
         <v>44742</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -43566,7 +43566,7 @@
         <v>44742</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -43628,7 +43628,7 @@
         <v>44742</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -43685,7 +43685,7 @@
         <v>44742</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -43742,7 +43742,7 @@
         <v>44743</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -43799,7 +43799,7 @@
         <v>44762</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -43861,7 +43861,7 @@
         <v>44764</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -43923,7 +43923,7 @@
         <v>44764</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -43985,7 +43985,7 @@
         <v>44769</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44047,7 +44047,7 @@
         <v>44771</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44109,7 +44109,7 @@
         <v>44771</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44171,7 +44171,7 @@
         <v>44771</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44233,7 +44233,7 @@
         <v>44782</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -44290,7 +44290,7 @@
         <v>44782</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -44347,7 +44347,7 @@
         <v>44784</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -44404,7 +44404,7 @@
         <v>44788</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -44461,7 +44461,7 @@
         <v>44795</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -44518,7 +44518,7 @@
         <v>44797</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -44575,7 +44575,7 @@
         <v>44798</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -44632,7 +44632,7 @@
         <v>44806</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -44689,7 +44689,7 @@
         <v>44810</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -44746,7 +44746,7 @@
         <v>44811</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -44803,7 +44803,7 @@
         <v>44816</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -44860,7 +44860,7 @@
         <v>44816</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -44917,7 +44917,7 @@
         <v>44816</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -44974,7 +44974,7 @@
         <v>44816</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45031,7 +45031,7 @@
         <v>44816</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45093,7 +45093,7 @@
         <v>44817</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45150,7 +45150,7 @@
         <v>44817</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -45207,7 +45207,7 @@
         <v>44817</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -45264,7 +45264,7 @@
         <v>44819</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -45326,7 +45326,7 @@
         <v>44831</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -45383,7 +45383,7 @@
         <v>44832</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -45440,7 +45440,7 @@
         <v>44839</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -45497,7 +45497,7 @@
         <v>44844</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -45554,7 +45554,7 @@
         <v>44846</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -45611,7 +45611,7 @@
         <v>44847</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -45668,7 +45668,7 @@
         <v>44847</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -45725,7 +45725,7 @@
         <v>44847</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -45782,7 +45782,7 @@
         <v>44848</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -45839,7 +45839,7 @@
         <v>44849</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -45896,7 +45896,7 @@
         <v>44853</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -45953,7 +45953,7 @@
         <v>44865</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46010,7 +46010,7 @@
         <v>44866</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46067,7 +46067,7 @@
         <v>44872</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -46124,7 +46124,7 @@
         <v>44872</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -46181,7 +46181,7 @@
         <v>44883</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -46243,7 +46243,7 @@
         <v>44883</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -46300,7 +46300,7 @@
         <v>44886</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -46357,7 +46357,7 @@
         <v>44886</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -46419,7 +46419,7 @@
         <v>44888</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -46481,7 +46481,7 @@
         <v>44893</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -46538,7 +46538,7 @@
         <v>44897</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -46595,7 +46595,7 @@
         <v>44897</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -46652,7 +46652,7 @@
         <v>44901</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -46714,7 +46714,7 @@
         <v>44904</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -46776,7 +46776,7 @@
         <v>44908</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -46833,7 +46833,7 @@
         <v>44908</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -46890,7 +46890,7 @@
         <v>44909</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -46947,7 +46947,7 @@
         <v>44909</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47004,7 +47004,7 @@
         <v>44912</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47061,7 +47061,7 @@
         <v>44916</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -47123,7 +47123,7 @@
         <v>44916</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -47180,7 +47180,7 @@
         <v>44928</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -47242,7 +47242,7 @@
         <v>44928</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -47304,7 +47304,7 @@
         <v>44929</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -47361,7 +47361,7 @@
         <v>44930</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -47418,7 +47418,7 @@
         <v>44930</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -47480,7 +47480,7 @@
         <v>44935</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -47537,7 +47537,7 @@
         <v>44944</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -47594,7 +47594,7 @@
         <v>44944</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -47656,7 +47656,7 @@
         <v>44944</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -47713,7 +47713,7 @@
         <v>44944</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -47775,7 +47775,7 @@
         <v>44944</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -47832,7 +47832,7 @@
         <v>44945</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -47889,7 +47889,7 @@
         <v>44946</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -47946,7 +47946,7 @@
         <v>44949</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48008,7 +48008,7 @@
         <v>44950</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -48070,7 +48070,7 @@
         <v>44952</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -48132,7 +48132,7 @@
         <v>44960</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -48194,7 +48194,7 @@
         <v>44960</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -48251,7 +48251,7 @@
         <v>44960</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -48308,7 +48308,7 @@
         <v>44964</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -48365,7 +48365,7 @@
         <v>44964</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -48422,7 +48422,7 @@
         <v>44965</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -48479,7 +48479,7 @@
         <v>44965</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -48536,7 +48536,7 @@
         <v>44966</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -48598,7 +48598,7 @@
         <v>44967</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -48655,7 +48655,7 @@
         <v>44967</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -48712,7 +48712,7 @@
         <v>44967</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -48769,7 +48769,7 @@
         <v>44967</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -48826,7 +48826,7 @@
         <v>44967</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -48883,7 +48883,7 @@
         <v>44969</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -48940,7 +48940,7 @@
         <v>44970</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49002,7 +49002,7 @@
         <v>44971</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -49059,7 +49059,7 @@
         <v>44971</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -49116,7 +49116,7 @@
         <v>44972</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -49173,7 +49173,7 @@
         <v>44973</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -49230,7 +49230,7 @@
         <v>44973</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -49287,7 +49287,7 @@
         <v>44977</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -49349,7 +49349,7 @@
         <v>44977</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -49406,7 +49406,7 @@
         <v>44977</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -49463,7 +49463,7 @@
         <v>44978</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -49525,7 +49525,7 @@
         <v>44980</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -49582,7 +49582,7 @@
         <v>44980</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -49639,7 +49639,7 @@
         <v>44980</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -49696,7 +49696,7 @@
         <v>44980</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -49753,7 +49753,7 @@
         <v>44984</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -49815,7 +49815,7 @@
         <v>44984</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -49872,7 +49872,7 @@
         <v>44988</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -49929,7 +49929,7 @@
         <v>44991</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -49986,7 +49986,7 @@
         <v>44993</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -50043,7 +50043,7 @@
         <v>44993</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -50100,7 +50100,7 @@
         <v>44994</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -50157,7 +50157,7 @@
         <v>45006</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -50214,7 +50214,7 @@
         <v>45009</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -50276,7 +50276,7 @@
         <v>45013</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -50333,7 +50333,7 @@
         <v>45014</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -50390,7 +50390,7 @@
         <v>45026</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -50447,7 +50447,7 @@
         <v>45028</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -50509,7 +50509,7 @@
         <v>45033</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -50566,7 +50566,7 @@
         <v>45036</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -50623,7 +50623,7 @@
         <v>45037</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -50685,7 +50685,7 @@
         <v>45042</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -50742,7 +50742,7 @@
         <v>45042</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -50804,7 +50804,7 @@
         <v>45043</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -50861,7 +50861,7 @@
         <v>45049</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -50918,7 +50918,7 @@
         <v>45049</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -50975,7 +50975,7 @@
         <v>45049</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -51032,7 +51032,7 @@
         <v>45049</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -51089,7 +51089,7 @@
         <v>45050</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -51146,7 +51146,7 @@
         <v>45050</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -51203,7 +51203,7 @@
         <v>45050</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -51260,7 +51260,7 @@
         <v>45054</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -51317,7 +51317,7 @@
         <v>45054</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -51374,7 +51374,7 @@
         <v>45055</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -51431,7 +51431,7 @@
         <v>45056</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -51493,7 +51493,7 @@
         <v>45056</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -51555,7 +51555,7 @@
         <v>45058</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -51612,7 +51612,7 @@
         <v>45058</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -51669,7 +51669,7 @@
         <v>45058</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -51726,7 +51726,7 @@
         <v>45058</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -51783,7 +51783,7 @@
         <v>45058</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -51840,7 +51840,7 @@
         <v>45058</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -51902,7 +51902,7 @@
         <v>45060</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -51959,7 +51959,7 @@
         <v>45061</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -52016,7 +52016,7 @@
         <v>45063</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -52073,7 +52073,7 @@
         <v>45063</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -52130,7 +52130,7 @@
         <v>45063</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -52187,7 +52187,7 @@
         <v>45063</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -52244,7 +52244,7 @@
         <v>45070</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -52306,7 +52306,7 @@
         <v>45075</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -52363,7 +52363,7 @@
         <v>45078</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -52420,7 +52420,7 @@
         <v>45078</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -52482,7 +52482,7 @@
         <v>45078</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -52539,7 +52539,7 @@
         <v>45079</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -52596,7 +52596,7 @@
         <v>45084</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -52658,7 +52658,7 @@
         <v>45086</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -52720,7 +52720,7 @@
         <v>45089</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -52777,7 +52777,7 @@
         <v>45089</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -52834,7 +52834,7 @@
         <v>45089</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -52891,7 +52891,7 @@
         <v>45089</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -52948,7 +52948,7 @@
         <v>45091</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -53010,7 +53010,7 @@
         <v>45091</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -53067,7 +53067,7 @@
         <v>45091</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -53129,7 +53129,7 @@
         <v>45091</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -53191,7 +53191,7 @@
         <v>45091</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -53248,7 +53248,7 @@
         <v>45093</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -53310,7 +53310,7 @@
         <v>45096</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -53367,7 +53367,7 @@
         <v>45096</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -53424,7 +53424,7 @@
         <v>45096</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -53481,7 +53481,7 @@
         <v>45096</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -53538,7 +53538,7 @@
         <v>45096</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -53595,7 +53595,7 @@
         <v>45096</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -53652,7 +53652,7 @@
         <v>45096</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -53709,7 +53709,7 @@
         <v>45096</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -53766,7 +53766,7 @@
         <v>45097</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -53823,7 +53823,7 @@
         <v>45097</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -53880,7 +53880,7 @@
         <v>45097</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -53937,7 +53937,7 @@
         <v>45097</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -53994,7 +53994,7 @@
         <v>45097</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -54051,7 +54051,7 @@
         <v>45103</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -54108,7 +54108,7 @@
         <v>45103</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -54165,7 +54165,7 @@
         <v>45105</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -54222,7 +54222,7 @@
         <v>45105</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -54279,7 +54279,7 @@
         <v>45105</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -54336,7 +54336,7 @@
         <v>45107</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -54393,7 +54393,7 @@
         <v>45107</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -54450,7 +54450,7 @@
         <v>45107</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -54512,7 +54512,7 @@
         <v>45107</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -54574,7 +54574,7 @@
         <v>45107</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -54631,7 +54631,7 @@
         <v>45110</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -54688,7 +54688,7 @@
         <v>45112</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -54745,7 +54745,7 @@
         <v>45113</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -54802,7 +54802,7 @@
         <v>45119</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -54859,7 +54859,7 @@
         <v>45121</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -54921,7 +54921,7 @@
         <v>45123</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -54978,7 +54978,7 @@
         <v>45127</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -55035,7 +55035,7 @@
         <v>45128</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -55092,7 +55092,7 @@
         <v>45131</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -55149,7 +55149,7 @@
         <v>45132</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -55206,7 +55206,7 @@
         <v>45134</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -55263,7 +55263,7 @@
         <v>45145</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -55320,7 +55320,7 @@
         <v>45148</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -55377,7 +55377,7 @@
         <v>45148</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -55434,7 +55434,7 @@
         <v>45148</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -55491,7 +55491,7 @@
         <v>45148</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -55548,7 +55548,7 @@
         <v>45148</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -55605,7 +55605,7 @@
         <v>45149</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -55667,7 +55667,7 @@
         <v>45152</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -55724,7 +55724,7 @@
         <v>45152</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -55786,7 +55786,7 @@
         <v>45152</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -55843,7 +55843,7 @@
         <v>45152</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -55905,7 +55905,7 @@
         <v>45153</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -55967,7 +55967,7 @@
         <v>45153</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -56029,7 +56029,7 @@
         <v>45160</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -56086,7 +56086,7 @@
         <v>45161</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -56143,7 +56143,7 @@
         <v>45162</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -56200,7 +56200,7 @@
         <v>45162</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -56257,7 +56257,7 @@
         <v>45162</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -56319,7 +56319,7 @@
         <v>45162</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -56381,7 +56381,7 @@
         <v>45164</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -56443,7 +56443,7 @@
         <v>45167</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -56500,7 +56500,7 @@
         <v>45169</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -56562,7 +56562,7 @@
         <v>45169</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -56624,7 +56624,7 @@
         <v>45173</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -56681,7 +56681,7 @@
         <v>45173</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -56738,7 +56738,7 @@
         <v>45175</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -56800,7 +56800,7 @@
         <v>45180</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>

--- a/Översikt UPPSALA.xlsx
+++ b/Översikt UPPSALA.xlsx
@@ -572,7 +572,7 @@
         <v>44012</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -599,7 +599,7 @@
         <v>15</v>
       </c>
       <c r="J2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
         <v>5</v>
@@ -614,13 +614,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
@@ -630,6 +630,7 @@
 Rynkskinn
 Violgubbe
 Druvfingersvamp
+Gultoppig fingersvamp
 Koralltaggsvamp
 Persiljespindling
 Spillkråka
@@ -693,7 +694,7 @@
         <v>43913</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -811,7 +812,7 @@
         <v>43762</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -916,7 +917,7 @@
         <v>44377</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1026,7 +1027,7 @@
         <v>44349</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1125,7 +1126,7 @@
         <v>45082</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1229,7 +1230,7 @@
         <v>43381</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1332,7 +1333,7 @@
         <v>43875</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1429,7 +1430,7 @@
         <v>45013</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1526,7 +1527,7 @@
         <v>44222</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1626,7 +1627,7 @@
         <v>44623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1726,7 +1727,7 @@
         <v>44971</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1821,7 +1822,7 @@
         <v>43796</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1924,7 +1925,7 @@
         <v>44053</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2018,7 +2019,7 @@
         <v>44356</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2115,7 +2116,7 @@
         <v>45086</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2208,7 +2209,7 @@
         <v>43454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2305,7 +2306,7 @@
         <v>44158</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2402,7 +2403,7 @@
         <v>44180</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2499,7 +2500,7 @@
         <v>44497</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2595,7 +2596,7 @@
         <v>44901</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2687,7 +2688,7 @@
         <v>45092</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2783,7 +2784,7 @@
         <v>43433</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2874,7 +2875,7 @@
         <v>44376</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2974,7 +2975,7 @@
         <v>44575</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3065,7 +3066,7 @@
         <v>44356</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3155,7 +3156,7 @@
         <v>43814</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3249,7 +3250,7 @@
         <v>43861</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3338,7 +3339,7 @@
         <v>44119</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3427,7 +3428,7 @@
         <v>44351</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3520,7 +3521,7 @@
         <v>44500</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3613,7 +3614,7 @@
         <v>44574</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3702,7 +3703,7 @@
         <v>44792</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3796,7 +3797,7 @@
         <v>44879</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3885,7 +3886,7 @@
         <v>44922</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3978,7 +3979,7 @@
         <v>44977</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4067,7 +4068,7 @@
         <v>45107</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4156,7 +4157,7 @@
         <v>43511</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4244,7 +4245,7 @@
         <v>43857</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4332,7 +4333,7 @@
         <v>43980</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4424,7 +4425,7 @@
         <v>44056</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4521,7 +4522,7 @@
         <v>44101</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4614,7 +4615,7 @@
         <v>44462</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4711,7 +4712,7 @@
         <v>44664</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4799,7 +4800,7 @@
         <v>44719</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4887,7 +4888,7 @@
         <v>44740</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4975,7 +4976,7 @@
         <v>44974</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5063,7 +5064,7 @@
         <v>45002</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5160,7 +5161,7 @@
         <v>45049</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5248,7 +5249,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5336,7 +5337,7 @@
         <v>43511</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5423,7 +5424,7 @@
         <v>43731</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5510,7 +5511,7 @@
         <v>43796</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5602,7 +5603,7 @@
         <v>44101</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5694,7 +5695,7 @@
         <v>44133</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5786,7 +5787,7 @@
         <v>44495</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5873,7 +5874,7 @@
         <v>44652</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5965,7 +5966,7 @@
         <v>44684</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6052,7 +6053,7 @@
         <v>44692</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6144,7 +6145,7 @@
         <v>44791</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6231,7 +6232,7 @@
         <v>44804</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6318,7 +6319,7 @@
         <v>44938</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6410,7 +6411,7 @@
         <v>44956</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6497,7 +6498,7 @@
         <v>44973</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6589,7 +6590,7 @@
         <v>43503</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6680,7 +6681,7 @@
         <v>43545</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6771,7 +6772,7 @@
         <v>43607</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6857,7 +6858,7 @@
         <v>43654</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6943,7 +6944,7 @@
         <v>43742</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7034,7 +7035,7 @@
         <v>43929</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7120,7 +7121,7 @@
         <v>44054</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7211,7 +7212,7 @@
         <v>44101</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7302,7 +7303,7 @@
         <v>44659</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7388,7 +7389,7 @@
         <v>44879</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7474,7 +7475,7 @@
         <v>44967</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7560,7 +7561,7 @@
         <v>45002</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7651,7 +7652,7 @@
         <v>45090</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7742,7 +7743,7 @@
         <v>45121</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7833,7 +7834,7 @@
         <v>43321</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7918,7 +7919,7 @@
         <v>43339</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8003,7 +8004,7 @@
         <v>43462</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8088,7 +8089,7 @@
         <v>43473</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8173,7 +8174,7 @@
         <v>43473</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8263,7 +8264,7 @@
         <v>43528</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8348,7 +8349,7 @@
         <v>43551</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8438,7 +8439,7 @@
         <v>43693</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8523,7 +8524,7 @@
         <v>43693</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8608,7 +8609,7 @@
         <v>43731</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8693,7 +8694,7 @@
         <v>43755</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8778,7 +8779,7 @@
         <v>43867</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8863,7 +8864,7 @@
         <v>43893</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8948,7 +8949,7 @@
         <v>43980</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9038,7 +9039,7 @@
         <v>44042</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9123,7 +9124,7 @@
         <v>44266</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9213,7 +9214,7 @@
         <v>44467</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9303,7 +9304,7 @@
         <v>44487</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9388,7 +9389,7 @@
         <v>44489</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9473,7 +9474,7 @@
         <v>44589</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9558,7 +9559,7 @@
         <v>44614</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9643,7 +9644,7 @@
         <v>44645</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9733,7 +9734,7 @@
         <v>44678</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9823,7 +9824,7 @@
         <v>44729</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9913,7 +9914,7 @@
         <v>44849</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9998,7 +9999,7 @@
         <v>44855</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10088,7 +10089,7 @@
         <v>44897</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10173,7 +10174,7 @@
         <v>44917</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10263,7 +10264,7 @@
         <v>44958</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10348,7 +10349,7 @@
         <v>44963</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10433,7 +10434,7 @@
         <v>45002</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10523,7 +10524,7 @@
         <v>45021</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10608,7 +10609,7 @@
         <v>45022</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10698,7 +10699,7 @@
         <v>45022</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10788,7 +10789,7 @@
         <v>45055</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10873,7 +10874,7 @@
         <v>45061</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10958,7 +10959,7 @@
         <v>45072</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11048,7 +11049,7 @@
         <v>45097</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11133,7 +11134,7 @@
         <v>45098</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11218,7 +11219,7 @@
         <v>45104</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11303,7 +11304,7 @@
         <v>45121</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11393,7 +11394,7 @@
         <v>45139</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11478,7 +11479,7 @@
         <v>43321</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11535,7 +11536,7 @@
         <v>43321</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11592,7 +11593,7 @@
         <v>43335</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11649,7 +11650,7 @@
         <v>43341</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11706,7 +11707,7 @@
         <v>43347</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11763,7 +11764,7 @@
         <v>43355</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11820,7 +11821,7 @@
         <v>43360</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11877,7 +11878,7 @@
         <v>43377</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11934,7 +11935,7 @@
         <v>43378</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11996,7 +11997,7 @@
         <v>43378</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12053,7 +12054,7 @@
         <v>43378</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12115,7 +12116,7 @@
         <v>43381</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12177,7 +12178,7 @@
         <v>43381</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12239,7 +12240,7 @@
         <v>43389</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12296,7 +12297,7 @@
         <v>43395</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12353,7 +12354,7 @@
         <v>43398</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12415,7 +12416,7 @@
         <v>43407</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12472,7 +12473,7 @@
         <v>43411</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12534,7 +12535,7 @@
         <v>43418</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12596,7 +12597,7 @@
         <v>43420</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12658,7 +12659,7 @@
         <v>43423</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12715,7 +12716,7 @@
         <v>43423</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12772,7 +12773,7 @@
         <v>43424</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12829,7 +12830,7 @@
         <v>43424</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12891,7 +12892,7 @@
         <v>43424</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12953,7 +12954,7 @@
         <v>43427</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13010,7 +13011,7 @@
         <v>43430</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13067,7 +13068,7 @@
         <v>43431</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13124,7 +13125,7 @@
         <v>43433</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13181,7 +13182,7 @@
         <v>43433</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13238,7 +13239,7 @@
         <v>43433</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13295,7 +13296,7 @@
         <v>43433</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13352,7 +13353,7 @@
         <v>43436</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13409,7 +13410,7 @@
         <v>43436</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13466,7 +13467,7 @@
         <v>43437</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13523,7 +13524,7 @@
         <v>43439</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13580,7 +13581,7 @@
         <v>43444</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13637,7 +13638,7 @@
         <v>43445</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13694,7 +13695,7 @@
         <v>43446</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13751,7 +13752,7 @@
         <v>43447</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13808,7 +13809,7 @@
         <v>43447</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13865,7 +13866,7 @@
         <v>43447</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13927,7 +13928,7 @@
         <v>43451</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13984,7 +13985,7 @@
         <v>43451</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14041,7 +14042,7 @@
         <v>43451</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14098,7 +14099,7 @@
         <v>43452</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14155,7 +14156,7 @@
         <v>43452</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14212,7 +14213,7 @@
         <v>43455</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14269,7 +14270,7 @@
         <v>43455</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14326,7 +14327,7 @@
         <v>43455</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14383,7 +14384,7 @@
         <v>43455</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14440,7 +14441,7 @@
         <v>43460</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14497,7 +14498,7 @@
         <v>43464</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14554,7 +14555,7 @@
         <v>43468</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14611,7 +14612,7 @@
         <v>43472</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14668,7 +14669,7 @@
         <v>43472</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14725,7 +14726,7 @@
         <v>43472</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14782,7 +14783,7 @@
         <v>43472</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14839,7 +14840,7 @@
         <v>43473</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14901,7 +14902,7 @@
         <v>43473</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14958,7 +14959,7 @@
         <v>43473</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15015,7 +15016,7 @@
         <v>43473</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15072,7 +15073,7 @@
         <v>43473</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15129,7 +15130,7 @@
         <v>43473</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15186,7 +15187,7 @@
         <v>43473</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15243,7 +15244,7 @@
         <v>43473</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15300,7 +15301,7 @@
         <v>43474</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15357,7 +15358,7 @@
         <v>43474</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15414,7 +15415,7 @@
         <v>43475</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15471,7 +15472,7 @@
         <v>43475</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15528,7 +15529,7 @@
         <v>43475</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15585,7 +15586,7 @@
         <v>43476</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15642,7 +15643,7 @@
         <v>43479</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15704,7 +15705,7 @@
         <v>43479</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15761,7 +15762,7 @@
         <v>43479</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15818,7 +15819,7 @@
         <v>43479</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15880,7 +15881,7 @@
         <v>43479</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15942,7 +15943,7 @@
         <v>43480</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15999,7 +16000,7 @@
         <v>43480</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16056,7 +16057,7 @@
         <v>43481</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16113,7 +16114,7 @@
         <v>43481</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16170,7 +16171,7 @@
         <v>43481</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16227,7 +16228,7 @@
         <v>43481</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16284,7 +16285,7 @@
         <v>43481</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16346,7 +16347,7 @@
         <v>43482</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16403,7 +16404,7 @@
         <v>43482</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16460,7 +16461,7 @@
         <v>43482</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16517,7 +16518,7 @@
         <v>43482</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16574,7 +16575,7 @@
         <v>43482</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16631,7 +16632,7 @@
         <v>43482</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16688,7 +16689,7 @@
         <v>43482</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16745,7 +16746,7 @@
         <v>43485</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16802,7 +16803,7 @@
         <v>43486</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16859,7 +16860,7 @@
         <v>43486</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16921,7 +16922,7 @@
         <v>43486</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16978,7 +16979,7 @@
         <v>43487</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17035,7 +17036,7 @@
         <v>43488</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17097,7 +17098,7 @@
         <v>43488</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17154,7 +17155,7 @@
         <v>43488</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17216,7 +17217,7 @@
         <v>43492</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17278,7 +17279,7 @@
         <v>43493</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17335,7 +17336,7 @@
         <v>43493</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17392,7 +17393,7 @@
         <v>43496</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17449,7 +17450,7 @@
         <v>43496</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17506,7 +17507,7 @@
         <v>43498</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17568,7 +17569,7 @@
         <v>43500</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17625,7 +17626,7 @@
         <v>43500</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17687,7 +17688,7 @@
         <v>43500</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17744,7 +17745,7 @@
         <v>43500</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17801,7 +17802,7 @@
         <v>43500</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17863,7 +17864,7 @@
         <v>43503</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17920,7 +17921,7 @@
         <v>43504</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17977,7 +17978,7 @@
         <v>43507</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18034,7 +18035,7 @@
         <v>43507</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18091,7 +18092,7 @@
         <v>43508</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18148,7 +18149,7 @@
         <v>43509</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18205,7 +18206,7 @@
         <v>43511</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18262,7 +18263,7 @@
         <v>43511</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18319,7 +18320,7 @@
         <v>43511</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18376,7 +18377,7 @@
         <v>43511</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18433,7 +18434,7 @@
         <v>43511</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18490,7 +18491,7 @@
         <v>43516</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18552,7 +18553,7 @@
         <v>43517</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18609,7 +18610,7 @@
         <v>43517</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18671,7 +18672,7 @@
         <v>43517</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18733,7 +18734,7 @@
         <v>43517</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18795,7 +18796,7 @@
         <v>43523</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18852,7 +18853,7 @@
         <v>43528</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18909,7 +18910,7 @@
         <v>43528</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18966,7 +18967,7 @@
         <v>43531</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19023,7 +19024,7 @@
         <v>43531</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19080,7 +19081,7 @@
         <v>43531</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19142,7 +19143,7 @@
         <v>43532</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19204,7 +19205,7 @@
         <v>43535</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19261,7 +19262,7 @@
         <v>43536</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19318,7 +19319,7 @@
         <v>43538</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19380,7 +19381,7 @@
         <v>43538</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19442,7 +19443,7 @@
         <v>43544</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19499,7 +19500,7 @@
         <v>43550</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19556,7 +19557,7 @@
         <v>43552</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19613,7 +19614,7 @@
         <v>43553</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19675,7 +19676,7 @@
         <v>43553</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19732,7 +19733,7 @@
         <v>43556</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19789,7 +19790,7 @@
         <v>43559</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19846,7 +19847,7 @@
         <v>43559</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19903,7 +19904,7 @@
         <v>43560</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19960,7 +19961,7 @@
         <v>43570</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20017,7 +20018,7 @@
         <v>43572</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20074,7 +20075,7 @@
         <v>43578</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20131,7 +20132,7 @@
         <v>43578</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20188,7 +20189,7 @@
         <v>43583</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20245,7 +20246,7 @@
         <v>43585</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20307,7 +20308,7 @@
         <v>43591</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20364,7 +20365,7 @@
         <v>43592</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20426,7 +20427,7 @@
         <v>43600</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20483,7 +20484,7 @@
         <v>43605</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20540,7 +20541,7 @@
         <v>43605</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20597,7 +20598,7 @@
         <v>43607</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20654,7 +20655,7 @@
         <v>43628</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20711,7 +20712,7 @@
         <v>43628</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20768,7 +20769,7 @@
         <v>43628</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20830,7 +20831,7 @@
         <v>43630</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20887,7 +20888,7 @@
         <v>43630</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20944,7 +20945,7 @@
         <v>43647</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21001,7 +21002,7 @@
         <v>43647</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21058,7 +21059,7 @@
         <v>43648</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21115,7 +21116,7 @@
         <v>43651</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21172,7 +21173,7 @@
         <v>43651</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21229,7 +21230,7 @@
         <v>43651</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21286,7 +21287,7 @@
         <v>43651</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21343,7 +21344,7 @@
         <v>43654</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21400,7 +21401,7 @@
         <v>43654</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21457,7 +21458,7 @@
         <v>43656</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21514,7 +21515,7 @@
         <v>43661</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21571,7 +21572,7 @@
         <v>43661</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21628,7 +21629,7 @@
         <v>43663</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21685,7 +21686,7 @@
         <v>43677</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21742,7 +21743,7 @@
         <v>43682</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21799,7 +21800,7 @@
         <v>43686</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21856,7 +21857,7 @@
         <v>43693</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21913,7 +21914,7 @@
         <v>43696</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21975,7 +21976,7 @@
         <v>43696</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22032,7 +22033,7 @@
         <v>43699</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22089,7 +22090,7 @@
         <v>43699</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22146,7 +22147,7 @@
         <v>43699</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22203,7 +22204,7 @@
         <v>43705</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22260,7 +22261,7 @@
         <v>43706</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22322,7 +22323,7 @@
         <v>43706</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22384,7 +22385,7 @@
         <v>43706</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22446,7 +22447,7 @@
         <v>43706</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22503,7 +22504,7 @@
         <v>43706</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22565,7 +22566,7 @@
         <v>43706</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22627,7 +22628,7 @@
         <v>43707</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22689,7 +22690,7 @@
         <v>43707</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22751,7 +22752,7 @@
         <v>43707</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22808,7 +22809,7 @@
         <v>43707</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22870,7 +22871,7 @@
         <v>43710</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22927,7 +22928,7 @@
         <v>43712</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22984,7 +22985,7 @@
         <v>43712</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23041,7 +23042,7 @@
         <v>43713</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23098,7 +23099,7 @@
         <v>43716</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23155,7 +23156,7 @@
         <v>43718</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23212,7 +23213,7 @@
         <v>43718</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23274,7 +23275,7 @@
         <v>43718</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23331,7 +23332,7 @@
         <v>43718</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23393,7 +23394,7 @@
         <v>43718</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23455,7 +23456,7 @@
         <v>43718</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23512,7 +23513,7 @@
         <v>43720</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23569,7 +23570,7 @@
         <v>43727</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23626,7 +23627,7 @@
         <v>43730</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23683,7 +23684,7 @@
         <v>43733</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23745,7 +23746,7 @@
         <v>43735</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23807,7 +23808,7 @@
         <v>43735</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23869,7 +23870,7 @@
         <v>43736</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23926,7 +23927,7 @@
         <v>43745</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23983,7 +23984,7 @@
         <v>43745</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24045,7 +24046,7 @@
         <v>43747</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24107,7 +24108,7 @@
         <v>43748</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24164,7 +24165,7 @@
         <v>43755</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24226,7 +24227,7 @@
         <v>43759</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24283,7 +24284,7 @@
         <v>43763</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24345,7 +24346,7 @@
         <v>43773</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24402,7 +24403,7 @@
         <v>43773</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24459,7 +24460,7 @@
         <v>43773</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24521,7 +24522,7 @@
         <v>43777</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24578,7 +24579,7 @@
         <v>43777</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24640,7 +24641,7 @@
         <v>43780</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24702,7 +24703,7 @@
         <v>43780</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24764,7 +24765,7 @@
         <v>43782</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24821,7 +24822,7 @@
         <v>43784</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24878,7 +24879,7 @@
         <v>43791</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24935,7 +24936,7 @@
         <v>43791</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24992,7 +24993,7 @@
         <v>43791</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25049,7 +25050,7 @@
         <v>43791</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25106,7 +25107,7 @@
         <v>43795</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25163,7 +25164,7 @@
         <v>43795</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25220,7 +25221,7 @@
         <v>43795</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25277,7 +25278,7 @@
         <v>43801</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25334,7 +25335,7 @@
         <v>43801</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25391,7 +25392,7 @@
         <v>43803</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25448,7 +25449,7 @@
         <v>43808</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25505,7 +25506,7 @@
         <v>43808</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25562,7 +25563,7 @@
         <v>43811</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25619,7 +25620,7 @@
         <v>43812</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25681,7 +25682,7 @@
         <v>43814</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25743,7 +25744,7 @@
         <v>43814</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25805,7 +25806,7 @@
         <v>43815</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25862,7 +25863,7 @@
         <v>43815</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25924,7 +25925,7 @@
         <v>43817</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25981,7 +25982,7 @@
         <v>43817</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26038,7 +26039,7 @@
         <v>43818</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26095,7 +26096,7 @@
         <v>43818</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26152,7 +26153,7 @@
         <v>43822</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26209,7 +26210,7 @@
         <v>43837</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26266,7 +26267,7 @@
         <v>43837</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26323,7 +26324,7 @@
         <v>43838</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26380,7 +26381,7 @@
         <v>43844</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26437,7 +26438,7 @@
         <v>43850</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26494,7 +26495,7 @@
         <v>43853</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26551,7 +26552,7 @@
         <v>43853</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26613,7 +26614,7 @@
         <v>43866</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26675,7 +26676,7 @@
         <v>43866</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26737,7 +26738,7 @@
         <v>43867</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26794,7 +26795,7 @@
         <v>43874</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26851,7 +26852,7 @@
         <v>43878</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26913,7 +26914,7 @@
         <v>43878</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26970,7 +26971,7 @@
         <v>43878</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27027,7 +27028,7 @@
         <v>43879</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27089,7 +27090,7 @@
         <v>43879</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27151,7 +27152,7 @@
         <v>43879</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27213,7 +27214,7 @@
         <v>43881</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27270,7 +27271,7 @@
         <v>43882</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27327,7 +27328,7 @@
         <v>43882</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27389,7 +27390,7 @@
         <v>43882</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27451,7 +27452,7 @@
         <v>43886</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27508,7 +27509,7 @@
         <v>43887</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27565,7 +27566,7 @@
         <v>43891</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27627,7 +27628,7 @@
         <v>43892</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27689,7 +27690,7 @@
         <v>43892</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27746,7 +27747,7 @@
         <v>43892</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27808,7 +27809,7 @@
         <v>43894</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27865,7 +27866,7 @@
         <v>43894</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27922,7 +27923,7 @@
         <v>43899</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27979,7 +27980,7 @@
         <v>43899</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28041,7 +28042,7 @@
         <v>43903</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28098,7 +28099,7 @@
         <v>43908</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28155,7 +28156,7 @@
         <v>43908</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28212,7 +28213,7 @@
         <v>43908</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28274,7 +28275,7 @@
         <v>43908</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28331,7 +28332,7 @@
         <v>43913</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28393,7 +28394,7 @@
         <v>43927</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28450,7 +28451,7 @@
         <v>43927</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28507,7 +28508,7 @@
         <v>43929</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28564,7 +28565,7 @@
         <v>43937</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28621,7 +28622,7 @@
         <v>43944</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28678,7 +28679,7 @@
         <v>43948</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28735,7 +28736,7 @@
         <v>43948</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28792,7 +28793,7 @@
         <v>43950</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28854,7 +28855,7 @@
         <v>43973</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28916,7 +28917,7 @@
         <v>43984</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28973,7 +28974,7 @@
         <v>43987</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29030,7 +29031,7 @@
         <v>43987</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29087,7 +29088,7 @@
         <v>43990</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29144,7 +29145,7 @@
         <v>43999</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29201,7 +29202,7 @@
         <v>43999</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29258,7 +29259,7 @@
         <v>44000</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29315,7 +29316,7 @@
         <v>44000</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29372,7 +29373,7 @@
         <v>44007</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29429,7 +29430,7 @@
         <v>44007</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29486,7 +29487,7 @@
         <v>44012</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29548,7 +29549,7 @@
         <v>44013</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29605,7 +29606,7 @@
         <v>44014</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29662,7 +29663,7 @@
         <v>44015</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29724,7 +29725,7 @@
         <v>44016</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29786,7 +29787,7 @@
         <v>44019</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29848,7 +29849,7 @@
         <v>44026</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29905,7 +29906,7 @@
         <v>44029</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29962,7 +29963,7 @@
         <v>44033</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30024,7 +30025,7 @@
         <v>44035</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30081,7 +30082,7 @@
         <v>44035</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30138,7 +30139,7 @@
         <v>44041</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30200,7 +30201,7 @@
         <v>44048</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30262,7 +30263,7 @@
         <v>44048</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30324,7 +30325,7 @@
         <v>44048</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30386,7 +30387,7 @@
         <v>44050</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30443,7 +30444,7 @@
         <v>44055</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30500,7 +30501,7 @@
         <v>44056</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30557,7 +30558,7 @@
         <v>44063</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30619,7 +30620,7 @@
         <v>44063</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30676,7 +30677,7 @@
         <v>44063</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30733,7 +30734,7 @@
         <v>44063</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30790,7 +30791,7 @@
         <v>44070</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30847,7 +30848,7 @@
         <v>44076</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30904,7 +30905,7 @@
         <v>44081</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30961,7 +30962,7 @@
         <v>44083</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31018,7 +31019,7 @@
         <v>44091</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31080,7 +31081,7 @@
         <v>44095</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31137,7 +31138,7 @@
         <v>44095</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31194,7 +31195,7 @@
         <v>44103</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31251,7 +31252,7 @@
         <v>44105</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31313,7 +31314,7 @@
         <v>44105</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31370,7 +31371,7 @@
         <v>44105</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31432,7 +31433,7 @@
         <v>44106</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31489,7 +31490,7 @@
         <v>44109</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31546,7 +31547,7 @@
         <v>44119</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31603,7 +31604,7 @@
         <v>44123</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31660,7 +31661,7 @@
         <v>44123</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31717,7 +31718,7 @@
         <v>44126</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31774,7 +31775,7 @@
         <v>44130</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31831,7 +31832,7 @@
         <v>44131</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31893,7 +31894,7 @@
         <v>44131</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31955,7 +31956,7 @@
         <v>44134</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32017,7 +32018,7 @@
         <v>44137</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32074,7 +32075,7 @@
         <v>44139</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32131,7 +32132,7 @@
         <v>44139</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32188,7 +32189,7 @@
         <v>44139</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32245,7 +32246,7 @@
         <v>44140</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32302,7 +32303,7 @@
         <v>44144</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32359,7 +32360,7 @@
         <v>44144</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32416,7 +32417,7 @@
         <v>44144</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32473,7 +32474,7 @@
         <v>44146</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32530,7 +32531,7 @@
         <v>44151</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32587,7 +32588,7 @@
         <v>44153</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32649,7 +32650,7 @@
         <v>44155</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32706,7 +32707,7 @@
         <v>44155</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32763,7 +32764,7 @@
         <v>44159</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32825,7 +32826,7 @@
         <v>44159</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32887,7 +32888,7 @@
         <v>44160</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32949,7 +32950,7 @@
         <v>44161</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33011,7 +33012,7 @@
         <v>44161</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33073,7 +33074,7 @@
         <v>44162</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33130,7 +33131,7 @@
         <v>44165</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33192,7 +33193,7 @@
         <v>44166</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33254,7 +33255,7 @@
         <v>44167</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33311,7 +33312,7 @@
         <v>44168</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33368,7 +33369,7 @@
         <v>44180</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33430,7 +33431,7 @@
         <v>44200</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33487,7 +33488,7 @@
         <v>44207</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33549,7 +33550,7 @@
         <v>44209</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33606,7 +33607,7 @@
         <v>44209</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33663,7 +33664,7 @@
         <v>44210</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33720,7 +33721,7 @@
         <v>44211</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33777,7 +33778,7 @@
         <v>44216</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33834,7 +33835,7 @@
         <v>44216</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33891,7 +33892,7 @@
         <v>44222</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33948,7 +33949,7 @@
         <v>44223</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34005,7 +34006,7 @@
         <v>44230</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34062,7 +34063,7 @@
         <v>44245</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34119,7 +34120,7 @@
         <v>44252</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34176,7 +34177,7 @@
         <v>44252</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34233,7 +34234,7 @@
         <v>44266</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34290,7 +34291,7 @@
         <v>44273</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34347,7 +34348,7 @@
         <v>44279</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34404,7 +34405,7 @@
         <v>44286</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34461,7 +34462,7 @@
         <v>44286</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34518,7 +34519,7 @@
         <v>44294</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34580,7 +34581,7 @@
         <v>44297</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34637,7 +34638,7 @@
         <v>44297</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34699,7 +34700,7 @@
         <v>44299</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34761,7 +34762,7 @@
         <v>44313</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34823,7 +34824,7 @@
         <v>44313</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34885,7 +34886,7 @@
         <v>44314</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34947,7 +34948,7 @@
         <v>44351</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35009,7 +35010,7 @@
         <v>44357</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35071,7 +35072,7 @@
         <v>44365</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35133,7 +35134,7 @@
         <v>44365</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35190,7 +35191,7 @@
         <v>44369</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35247,7 +35248,7 @@
         <v>44379</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35304,7 +35305,7 @@
         <v>44379</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35361,7 +35362,7 @@
         <v>44383</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35423,7 +35424,7 @@
         <v>44383</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35485,7 +35486,7 @@
         <v>44390</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35542,7 +35543,7 @@
         <v>44395</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35599,7 +35600,7 @@
         <v>44407</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35661,7 +35662,7 @@
         <v>44420</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35718,7 +35719,7 @@
         <v>44420</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35775,7 +35776,7 @@
         <v>44426</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35832,7 +35833,7 @@
         <v>44438</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35894,7 +35895,7 @@
         <v>44442</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -35951,7 +35952,7 @@
         <v>44445</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36008,7 +36009,7 @@
         <v>44446</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36065,7 +36066,7 @@
         <v>44447</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36122,7 +36123,7 @@
         <v>44453</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36179,7 +36180,7 @@
         <v>44459</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36241,7 +36242,7 @@
         <v>44461</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36303,7 +36304,7 @@
         <v>44463</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36360,7 +36361,7 @@
         <v>44470</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36417,7 +36418,7 @@
         <v>44479</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36474,7 +36475,7 @@
         <v>44481</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36531,7 +36532,7 @@
         <v>44484</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36588,7 +36589,7 @@
         <v>44486</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36645,7 +36646,7 @@
         <v>44489</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36702,7 +36703,7 @@
         <v>44489</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36759,7 +36760,7 @@
         <v>44494</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36821,7 +36822,7 @@
         <v>44495</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36878,7 +36879,7 @@
         <v>44497</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36935,7 +36936,7 @@
         <v>44503</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -36992,7 +36993,7 @@
         <v>44504</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37049,7 +37050,7 @@
         <v>44512</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37106,7 +37107,7 @@
         <v>44512</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37163,7 +37164,7 @@
         <v>44512</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37220,7 +37221,7 @@
         <v>44512</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37277,7 +37278,7 @@
         <v>44515</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37334,7 +37335,7 @@
         <v>44516</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37391,7 +37392,7 @@
         <v>44517</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37448,7 +37449,7 @@
         <v>44517</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37505,7 +37506,7 @@
         <v>44517</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37562,7 +37563,7 @@
         <v>44518</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37619,7 +37620,7 @@
         <v>44519</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37676,7 +37677,7 @@
         <v>44522</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37733,7 +37734,7 @@
         <v>44522</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37790,7 +37791,7 @@
         <v>44525</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37852,7 +37853,7 @@
         <v>44526</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -37914,7 +37915,7 @@
         <v>44526</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -37971,7 +37972,7 @@
         <v>44526</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38028,7 +38029,7 @@
         <v>44531</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38085,7 +38086,7 @@
         <v>44531</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38142,7 +38143,7 @@
         <v>44531</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38204,7 +38205,7 @@
         <v>44531</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38261,7 +38262,7 @@
         <v>44532</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38318,7 +38319,7 @@
         <v>44532</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38375,7 +38376,7 @@
         <v>44532</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38432,7 +38433,7 @@
         <v>44532</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38489,7 +38490,7 @@
         <v>44535</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38546,7 +38547,7 @@
         <v>44535</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38603,7 +38604,7 @@
         <v>44540</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38665,7 +38666,7 @@
         <v>44543</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38727,7 +38728,7 @@
         <v>44543</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38789,7 +38790,7 @@
         <v>44544</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -38846,7 +38847,7 @@
         <v>44544</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -38903,7 +38904,7 @@
         <v>44548</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -38960,7 +38961,7 @@
         <v>44553</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39017,7 +39018,7 @@
         <v>44553</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39074,7 +39075,7 @@
         <v>44560</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39131,7 +39132,7 @@
         <v>44560</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39188,7 +39189,7 @@
         <v>44569</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39250,7 +39251,7 @@
         <v>44571</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -39312,7 +39313,7 @@
         <v>44572</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -39374,7 +39375,7 @@
         <v>44574</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39431,7 +39432,7 @@
         <v>44575</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39488,7 +39489,7 @@
         <v>44575</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39545,7 +39546,7 @@
         <v>44575</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39602,7 +39603,7 @@
         <v>44583</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -39664,7 +39665,7 @@
         <v>44583</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -39726,7 +39727,7 @@
         <v>44583</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -39788,7 +39789,7 @@
         <v>44588</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -39845,7 +39846,7 @@
         <v>44588</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -39902,7 +39903,7 @@
         <v>44593</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -39964,7 +39965,7 @@
         <v>44593</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40021,7 +40022,7 @@
         <v>44593</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40078,7 +40079,7 @@
         <v>44593</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40135,7 +40136,7 @@
         <v>44594</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40192,7 +40193,7 @@
         <v>44594</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40249,7 +40250,7 @@
         <v>44598</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -40306,7 +40307,7 @@
         <v>44600</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -40363,7 +40364,7 @@
         <v>44600</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -40425,7 +40426,7 @@
         <v>44602</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -40482,7 +40483,7 @@
         <v>44602</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -40539,7 +40540,7 @@
         <v>44602</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -40596,7 +40597,7 @@
         <v>44602</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -40653,7 +40654,7 @@
         <v>44602</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -40710,7 +40711,7 @@
         <v>44602</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -40772,7 +40773,7 @@
         <v>44602</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -40829,7 +40830,7 @@
         <v>44603</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -40886,7 +40887,7 @@
         <v>44603</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -40943,7 +40944,7 @@
         <v>44603</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41000,7 +41001,7 @@
         <v>44606</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41057,7 +41058,7 @@
         <v>44608</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41119,7 +41120,7 @@
         <v>44608</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41181,7 +41182,7 @@
         <v>44608</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41238,7 +41239,7 @@
         <v>44609</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -41300,7 +41301,7 @@
         <v>44609</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -41362,7 +41363,7 @@
         <v>44610</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -41424,7 +41425,7 @@
         <v>44610</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -41486,7 +41487,7 @@
         <v>44610</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -41548,7 +41549,7 @@
         <v>44612</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -41605,7 +41606,7 @@
         <v>44616</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -41667,7 +41668,7 @@
         <v>44616</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -41724,7 +41725,7 @@
         <v>44623</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -41786,7 +41787,7 @@
         <v>44634</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -41843,7 +41844,7 @@
         <v>44645</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -41900,7 +41901,7 @@
         <v>44649</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -41957,7 +41958,7 @@
         <v>44649</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42014,7 +42015,7 @@
         <v>44652</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42071,7 +42072,7 @@
         <v>44659</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42133,7 +42134,7 @@
         <v>44659</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42195,7 +42196,7 @@
         <v>44665</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -42257,7 +42258,7 @@
         <v>44673</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -42319,7 +42320,7 @@
         <v>44676</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -42381,7 +42382,7 @@
         <v>44676</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -42438,7 +42439,7 @@
         <v>44690</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -42500,7 +42501,7 @@
         <v>44691</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -42562,7 +42563,7 @@
         <v>44692</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -42624,7 +42625,7 @@
         <v>44699</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -42686,7 +42687,7 @@
         <v>44700</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -42743,7 +42744,7 @@
         <v>44700</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -42800,7 +42801,7 @@
         <v>44701</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -42862,7 +42863,7 @@
         <v>44704</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -42924,7 +42925,7 @@
         <v>44704</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -42981,7 +42982,7 @@
         <v>44711</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43043,7 +43044,7 @@
         <v>44713</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43105,7 +43106,7 @@
         <v>44713</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43167,7 +43168,7 @@
         <v>44714</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43224,7 +43225,7 @@
         <v>44719</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -43281,7 +43282,7 @@
         <v>44720</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -43338,7 +43339,7 @@
         <v>44729</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -43395,7 +43396,7 @@
         <v>44733</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -43452,7 +43453,7 @@
         <v>44742</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -43509,7 +43510,7 @@
         <v>44742</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -43566,7 +43567,7 @@
         <v>44742</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -43628,7 +43629,7 @@
         <v>44742</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -43685,7 +43686,7 @@
         <v>44742</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -43742,7 +43743,7 @@
         <v>44743</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -43799,7 +43800,7 @@
         <v>44762</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -43861,7 +43862,7 @@
         <v>44764</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -43923,7 +43924,7 @@
         <v>44764</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -43985,7 +43986,7 @@
         <v>44769</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44047,7 +44048,7 @@
         <v>44771</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44109,7 +44110,7 @@
         <v>44771</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44171,7 +44172,7 @@
         <v>44771</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44233,7 +44234,7 @@
         <v>44782</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -44290,7 +44291,7 @@
         <v>44782</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -44347,7 +44348,7 @@
         <v>44784</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -44404,7 +44405,7 @@
         <v>44788</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -44461,7 +44462,7 @@
         <v>44795</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -44518,7 +44519,7 @@
         <v>44797</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -44575,7 +44576,7 @@
         <v>44798</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -44632,7 +44633,7 @@
         <v>44806</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -44689,7 +44690,7 @@
         <v>44810</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -44746,7 +44747,7 @@
         <v>44811</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -44803,7 +44804,7 @@
         <v>44816</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -44860,7 +44861,7 @@
         <v>44816</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -44917,7 +44918,7 @@
         <v>44816</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -44974,7 +44975,7 @@
         <v>44816</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45031,7 +45032,7 @@
         <v>44816</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45093,7 +45094,7 @@
         <v>44817</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45150,7 +45151,7 @@
         <v>44817</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -45207,7 +45208,7 @@
         <v>44817</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -45264,7 +45265,7 @@
         <v>44819</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -45326,7 +45327,7 @@
         <v>44831</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -45383,7 +45384,7 @@
         <v>44832</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -45440,7 +45441,7 @@
         <v>44839</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -45497,7 +45498,7 @@
         <v>44844</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -45554,7 +45555,7 @@
         <v>44846</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -45611,7 +45612,7 @@
         <v>44847</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -45668,7 +45669,7 @@
         <v>44847</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -45725,7 +45726,7 @@
         <v>44847</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -45782,7 +45783,7 @@
         <v>44848</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -45839,7 +45840,7 @@
         <v>44849</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -45896,7 +45897,7 @@
         <v>44853</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -45953,7 +45954,7 @@
         <v>44865</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46010,7 +46011,7 @@
         <v>44866</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46067,7 +46068,7 @@
         <v>44872</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -46124,7 +46125,7 @@
         <v>44872</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -46181,7 +46182,7 @@
         <v>44883</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -46243,7 +46244,7 @@
         <v>44883</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -46300,7 +46301,7 @@
         <v>44886</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -46357,7 +46358,7 @@
         <v>44886</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -46419,7 +46420,7 @@
         <v>44888</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -46481,7 +46482,7 @@
         <v>44893</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -46538,7 +46539,7 @@
         <v>44897</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -46595,7 +46596,7 @@
         <v>44897</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -46652,7 +46653,7 @@
         <v>44901</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -46714,7 +46715,7 @@
         <v>44904</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -46776,7 +46777,7 @@
         <v>44908</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -46833,7 +46834,7 @@
         <v>44908</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -46890,7 +46891,7 @@
         <v>44909</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -46947,7 +46948,7 @@
         <v>44909</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47004,7 +47005,7 @@
         <v>44912</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47061,7 +47062,7 @@
         <v>44916</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -47123,7 +47124,7 @@
         <v>44916</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -47180,7 +47181,7 @@
         <v>44928</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -47242,7 +47243,7 @@
         <v>44928</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -47304,7 +47305,7 @@
         <v>44929</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -47361,7 +47362,7 @@
         <v>44930</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -47418,7 +47419,7 @@
         <v>44930</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -47480,7 +47481,7 @@
         <v>44935</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -47537,7 +47538,7 @@
         <v>44944</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -47594,7 +47595,7 @@
         <v>44944</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -47656,7 +47657,7 @@
         <v>44944</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -47713,7 +47714,7 @@
         <v>44944</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -47775,7 +47776,7 @@
         <v>44944</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -47832,7 +47833,7 @@
         <v>44945</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -47889,7 +47890,7 @@
         <v>44946</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -47946,7 +47947,7 @@
         <v>44949</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48008,7 +48009,7 @@
         <v>44950</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -48070,7 +48071,7 @@
         <v>44952</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -48132,7 +48133,7 @@
         <v>44960</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -48194,7 +48195,7 @@
         <v>44960</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -48251,7 +48252,7 @@
         <v>44960</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -48308,7 +48309,7 @@
         <v>44964</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -48365,7 +48366,7 @@
         <v>44964</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -48422,7 +48423,7 @@
         <v>44965</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -48479,7 +48480,7 @@
         <v>44965</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -48536,7 +48537,7 @@
         <v>44966</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -48598,7 +48599,7 @@
         <v>44967</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -48655,7 +48656,7 @@
         <v>44967</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -48712,7 +48713,7 @@
         <v>44967</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -48769,7 +48770,7 @@
         <v>44967</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -48826,7 +48827,7 @@
         <v>44967</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -48883,7 +48884,7 @@
         <v>44969</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -48940,7 +48941,7 @@
         <v>44970</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49002,7 +49003,7 @@
         <v>44971</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -49059,7 +49060,7 @@
         <v>44971</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -49116,7 +49117,7 @@
         <v>44972</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -49173,7 +49174,7 @@
         <v>44973</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -49230,7 +49231,7 @@
         <v>44973</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -49287,7 +49288,7 @@
         <v>44977</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -49349,7 +49350,7 @@
         <v>44977</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -49406,7 +49407,7 @@
         <v>44977</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -49463,7 +49464,7 @@
         <v>44978</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -49525,7 +49526,7 @@
         <v>44980</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -49582,7 +49583,7 @@
         <v>44980</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -49639,7 +49640,7 @@
         <v>44980</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -49696,7 +49697,7 @@
         <v>44980</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -49753,7 +49754,7 @@
         <v>44984</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -49815,7 +49816,7 @@
         <v>44984</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -49872,7 +49873,7 @@
         <v>44988</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -49929,7 +49930,7 @@
         <v>44991</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -49986,7 +49987,7 @@
         <v>44993</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -50043,7 +50044,7 @@
         <v>44993</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -50100,7 +50101,7 @@
         <v>44994</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -50157,7 +50158,7 @@
         <v>45006</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -50214,7 +50215,7 @@
         <v>45009</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -50276,7 +50277,7 @@
         <v>45013</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -50333,7 +50334,7 @@
         <v>45014</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -50390,7 +50391,7 @@
         <v>45026</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -50447,7 +50448,7 @@
         <v>45028</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -50509,7 +50510,7 @@
         <v>45033</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -50566,7 +50567,7 @@
         <v>45036</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -50623,7 +50624,7 @@
         <v>45037</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -50685,7 +50686,7 @@
         <v>45042</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -50742,7 +50743,7 @@
         <v>45042</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -50804,7 +50805,7 @@
         <v>45043</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -50861,7 +50862,7 @@
         <v>45049</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -50918,7 +50919,7 @@
         <v>45049</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -50975,7 +50976,7 @@
         <v>45049</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -51032,7 +51033,7 @@
         <v>45049</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -51089,7 +51090,7 @@
         <v>45050</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -51146,7 +51147,7 @@
         <v>45050</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -51203,7 +51204,7 @@
         <v>45050</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -51260,7 +51261,7 @@
         <v>45054</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -51317,7 +51318,7 @@
         <v>45054</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -51374,7 +51375,7 @@
         <v>45055</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -51431,7 +51432,7 @@
         <v>45056</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -51493,7 +51494,7 @@
         <v>45056</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -51555,7 +51556,7 @@
         <v>45058</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -51612,7 +51613,7 @@
         <v>45058</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -51669,7 +51670,7 @@
         <v>45058</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -51726,7 +51727,7 @@
         <v>45058</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -51783,7 +51784,7 @@
         <v>45058</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -51840,7 +51841,7 @@
         <v>45058</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -51902,7 +51903,7 @@
         <v>45060</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -51959,7 +51960,7 @@
         <v>45061</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -52016,7 +52017,7 @@
         <v>45063</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -52073,7 +52074,7 @@
         <v>45063</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -52130,7 +52131,7 @@
         <v>45063</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -52187,7 +52188,7 @@
         <v>45063</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -52244,7 +52245,7 @@
         <v>45070</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -52306,7 +52307,7 @@
         <v>45075</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -52363,7 +52364,7 @@
         <v>45078</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -52420,7 +52421,7 @@
         <v>45078</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -52482,7 +52483,7 @@
         <v>45078</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -52539,7 +52540,7 @@
         <v>45079</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -52596,7 +52597,7 @@
         <v>45084</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -52658,7 +52659,7 @@
         <v>45086</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -52720,7 +52721,7 @@
         <v>45089</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -52777,7 +52778,7 @@
         <v>45089</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -52834,7 +52835,7 @@
         <v>45089</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -52891,7 +52892,7 @@
         <v>45089</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -52948,7 +52949,7 @@
         <v>45091</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -53010,7 +53011,7 @@
         <v>45091</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -53067,7 +53068,7 @@
         <v>45091</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -53129,7 +53130,7 @@
         <v>45091</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -53191,7 +53192,7 @@
         <v>45091</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -53248,7 +53249,7 @@
         <v>45093</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -53310,7 +53311,7 @@
         <v>45096</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -53367,7 +53368,7 @@
         <v>45096</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -53424,7 +53425,7 @@
         <v>45096</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -53481,7 +53482,7 @@
         <v>45096</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -53538,7 +53539,7 @@
         <v>45096</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -53595,7 +53596,7 @@
         <v>45096</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -53652,7 +53653,7 @@
         <v>45096</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -53709,7 +53710,7 @@
         <v>45096</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -53766,7 +53767,7 @@
         <v>45097</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -53823,7 +53824,7 @@
         <v>45097</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -53880,7 +53881,7 @@
         <v>45097</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -53937,7 +53938,7 @@
         <v>45097</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -53994,7 +53995,7 @@
         <v>45097</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -54051,7 +54052,7 @@
         <v>45103</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -54108,7 +54109,7 @@
         <v>45103</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -54165,7 +54166,7 @@
         <v>45105</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -54222,7 +54223,7 @@
         <v>45105</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -54279,7 +54280,7 @@
         <v>45105</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -54336,7 +54337,7 @@
         <v>45107</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -54393,7 +54394,7 @@
         <v>45107</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -54450,7 +54451,7 @@
         <v>45107</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -54512,7 +54513,7 @@
         <v>45107</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -54574,7 +54575,7 @@
         <v>45107</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -54631,7 +54632,7 @@
         <v>45110</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -54688,7 +54689,7 @@
         <v>45112</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -54745,7 +54746,7 @@
         <v>45113</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -54802,7 +54803,7 @@
         <v>45119</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -54859,7 +54860,7 @@
         <v>45121</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -54921,7 +54922,7 @@
         <v>45123</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -54978,7 +54979,7 @@
         <v>45127</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -55035,7 +55036,7 @@
         <v>45128</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -55092,7 +55093,7 @@
         <v>45131</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -55149,7 +55150,7 @@
         <v>45132</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -55206,7 +55207,7 @@
         <v>45134</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -55263,7 +55264,7 @@
         <v>45145</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -55320,7 +55321,7 @@
         <v>45148</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -55377,7 +55378,7 @@
         <v>45148</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -55434,7 +55435,7 @@
         <v>45148</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -55491,7 +55492,7 @@
         <v>45148</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -55548,7 +55549,7 @@
         <v>45148</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -55605,7 +55606,7 @@
         <v>45149</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -55667,7 +55668,7 @@
         <v>45152</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -55724,7 +55725,7 @@
         <v>45152</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -55786,7 +55787,7 @@
         <v>45152</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -55843,7 +55844,7 @@
         <v>45152</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -55905,7 +55906,7 @@
         <v>45153</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -55967,7 +55968,7 @@
         <v>45153</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -56029,7 +56030,7 @@
         <v>45160</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -56086,7 +56087,7 @@
         <v>45161</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -56143,7 +56144,7 @@
         <v>45162</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -56200,7 +56201,7 @@
         <v>45162</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -56257,7 +56258,7 @@
         <v>45162</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -56319,7 +56320,7 @@
         <v>45162</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -56381,7 +56382,7 @@
         <v>45164</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -56443,7 +56444,7 @@
         <v>45167</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -56500,7 +56501,7 @@
         <v>45169</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -56562,7 +56563,7 @@
         <v>45169</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -56624,7 +56625,7 @@
         <v>45173</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -56681,7 +56682,7 @@
         <v>45173</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -56738,7 +56739,7 @@
         <v>45175</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -56800,7 +56801,7 @@
         <v>45180</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>

--- a/Översikt UPPSALA.xlsx
+++ b/Översikt UPPSALA.xlsx
@@ -572,7 +572,7 @@
         <v>44012</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         <v>43913</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         <v>43762</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44377</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>44349</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>45082</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>43381</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>43875</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>45013</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1526,7 +1526,7 @@
         <v>44222</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>44623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         <v>44971</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>43796</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>44053</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>44356</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>45086</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>44158</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>44180</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2499,7 +2499,7 @@
         <v>44497</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>44901</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>45092</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
         <v>43433</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>44376</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>44575</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>44356</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3155,7 +3155,7 @@
         <v>43814</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43861</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>44119</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3427,7 +3427,7 @@
         <v>44351</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>44500</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>44574</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3702,7 +3702,7 @@
         <v>44792</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>44879</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>44922</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>44977</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>45107</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>43511</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         <v>43857</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43980</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>44056</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>44101</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
         <v>44462</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>44664</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>44719</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>44740</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>44974</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>45002</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5160,7 +5160,7 @@
         <v>45049</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5336,7 +5336,7 @@
         <v>43511</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>43731</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43796</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>44101</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>44133</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>44495</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>44652</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>44684</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>44692</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>44791</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>44804</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>44938</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6410,7 +6410,7 @@
         <v>44956</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
         <v>44973</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6589,7 +6589,7 @@
         <v>43503</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6680,7 +6680,7 @@
         <v>43545</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>43607</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>43654</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6943,7 +6943,7 @@
         <v>43742</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         <v>43929</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>44054</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>44101</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>44659</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>44879</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>44967</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>45002</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>45090</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7742,7 +7742,7 @@
         <v>45121</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7833,7 +7833,7 @@
         <v>43321</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>43339</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>43462</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8088,7 +8088,7 @@
         <v>43473</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>43473</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8263,7 +8263,7 @@
         <v>43528</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>43551</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>43693</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>43693</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>43731</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8693,7 +8693,7 @@
         <v>43755</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8778,7 +8778,7 @@
         <v>43867</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43893</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8948,7 +8948,7 @@
         <v>43980</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>44042</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>44266</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>44467</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         <v>44487</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         <v>44489</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>44589</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>44614</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9643,7 +9643,7 @@
         <v>44645</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>44678</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>44729</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>44849</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>44855</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10088,7 +10088,7 @@
         <v>44897</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>44917</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         <v>44958</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10348,7 +10348,7 @@
         <v>44963</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>45002</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10523,7 +10523,7 @@
         <v>45021</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>45022</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10698,7 +10698,7 @@
         <v>45022</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>45055</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
         <v>45061</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>45072</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>45097</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>45098</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11218,7 +11218,7 @@
         <v>45104</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11303,7 +11303,7 @@
         <v>45121</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11393,7 +11393,7 @@
         <v>45139</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11478,7 +11478,7 @@
         <v>43321</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11535,7 +11535,7 @@
         <v>43321</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11592,7 +11592,7 @@
         <v>43335</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11649,7 +11649,7 @@
         <v>43341</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11706,7 +11706,7 @@
         <v>43347</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11763,7 +11763,7 @@
         <v>43355</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11820,7 +11820,7 @@
         <v>43360</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11877,7 +11877,7 @@
         <v>43377</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11934,7 +11934,7 @@
         <v>43378</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11996,7 +11996,7 @@
         <v>43378</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12053,7 +12053,7 @@
         <v>43378</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         <v>43381</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         <v>43381</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>43389</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>43395</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>43398</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>43407</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>43411</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>43418</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>43420</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12658,7 +12658,7 @@
         <v>43423</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12715,7 +12715,7 @@
         <v>43423</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12772,7 +12772,7 @@
         <v>43424</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12829,7 +12829,7 @@
         <v>43424</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>43424</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12953,7 +12953,7 @@
         <v>43427</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13010,7 +13010,7 @@
         <v>43430</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13067,7 +13067,7 @@
         <v>43431</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         <v>43433</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>43433</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>43433</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13295,7 +13295,7 @@
         <v>43433</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13352,7 +13352,7 @@
         <v>43436</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13409,7 +13409,7 @@
         <v>43436</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13466,7 +13466,7 @@
         <v>43437</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13523,7 +13523,7 @@
         <v>43439</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13580,7 +13580,7 @@
         <v>43444</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13637,7 +13637,7 @@
         <v>43445</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13694,7 +13694,7 @@
         <v>43446</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13751,7 +13751,7 @@
         <v>43447</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13808,7 +13808,7 @@
         <v>43447</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13865,7 +13865,7 @@
         <v>43447</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13927,7 +13927,7 @@
         <v>43451</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13984,7 +13984,7 @@
         <v>43451</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
         <v>43451</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14098,7 +14098,7 @@
         <v>43452</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>43452</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         <v>43455</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>43455</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14326,7 +14326,7 @@
         <v>43455</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14383,7 +14383,7 @@
         <v>43455</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14440,7 +14440,7 @@
         <v>43460</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14497,7 +14497,7 @@
         <v>43464</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14554,7 +14554,7 @@
         <v>43468</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14611,7 +14611,7 @@
         <v>43472</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14668,7 +14668,7 @@
         <v>43472</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14725,7 +14725,7 @@
         <v>43472</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14782,7 +14782,7 @@
         <v>43472</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>43473</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14901,7 +14901,7 @@
         <v>43473</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>43473</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>43473</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>43473</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>43473</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>43473</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>43473</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>43474</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>43474</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>43475</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>43475</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>43475</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15585,7 +15585,7 @@
         <v>43476</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>43479</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>43479</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>43479</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15818,7 +15818,7 @@
         <v>43479</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>43479</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15942,7 +15942,7 @@
         <v>43480</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15999,7 +15999,7 @@
         <v>43480</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16056,7 +16056,7 @@
         <v>43481</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>43481</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>43481</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>43481</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16284,7 +16284,7 @@
         <v>43481</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>43482</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>43482</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>43482</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>43482</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>43482</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>43482</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>43482</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16745,7 +16745,7 @@
         <v>43485</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16802,7 +16802,7 @@
         <v>43486</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16859,7 +16859,7 @@
         <v>43486</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>43486</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>43487</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17035,7 +17035,7 @@
         <v>43488</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>43488</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>43488</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>43492</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>43493</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>43493</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>43496</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>43496</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>43498</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>43500</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>43500</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17687,7 +17687,7 @@
         <v>43500</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>43500</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17801,7 +17801,7 @@
         <v>43500</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>43503</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         <v>43504</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>43507</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18034,7 +18034,7 @@
         <v>43507</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         <v>43508</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18148,7 +18148,7 @@
         <v>43509</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18205,7 +18205,7 @@
         <v>43511</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18262,7 +18262,7 @@
         <v>43511</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18319,7 +18319,7 @@
         <v>43511</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18376,7 +18376,7 @@
         <v>43511</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18433,7 +18433,7 @@
         <v>43511</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>43516</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         <v>43517</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18609,7 +18609,7 @@
         <v>43517</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18671,7 +18671,7 @@
         <v>43517</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>43517</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18795,7 +18795,7 @@
         <v>43523</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18852,7 +18852,7 @@
         <v>43528</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         <v>43528</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18966,7 +18966,7 @@
         <v>43531</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19023,7 +19023,7 @@
         <v>43531</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19080,7 +19080,7 @@
         <v>43531</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19142,7 +19142,7 @@
         <v>43532</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>43535</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>43536</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>43538</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19380,7 +19380,7 @@
         <v>43538</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19442,7 +19442,7 @@
         <v>43544</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19499,7 +19499,7 @@
         <v>43550</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19556,7 +19556,7 @@
         <v>43552</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19613,7 +19613,7 @@
         <v>43553</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         <v>43553</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19732,7 +19732,7 @@
         <v>43556</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19789,7 +19789,7 @@
         <v>43559</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19846,7 +19846,7 @@
         <v>43559</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19903,7 +19903,7 @@
         <v>43560</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19960,7 +19960,7 @@
         <v>43570</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20017,7 +20017,7 @@
         <v>43572</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         <v>43578</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20131,7 +20131,7 @@
         <v>43578</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
         <v>43583</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20245,7 +20245,7 @@
         <v>43585</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20307,7 +20307,7 @@
         <v>43591</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20364,7 +20364,7 @@
         <v>43592</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20426,7 +20426,7 @@
         <v>43600</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20483,7 +20483,7 @@
         <v>43605</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20540,7 +20540,7 @@
         <v>43605</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20597,7 +20597,7 @@
         <v>43607</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20654,7 +20654,7 @@
         <v>43628</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20711,7 +20711,7 @@
         <v>43628</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>43628</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         <v>43630</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20887,7 +20887,7 @@
         <v>43630</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20944,7 +20944,7 @@
         <v>43647</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21001,7 +21001,7 @@
         <v>43647</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21058,7 +21058,7 @@
         <v>43648</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         <v>43651</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21172,7 +21172,7 @@
         <v>43651</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21229,7 +21229,7 @@
         <v>43651</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21286,7 +21286,7 @@
         <v>43651</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21343,7 +21343,7 @@
         <v>43654</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21400,7 +21400,7 @@
         <v>43654</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21457,7 +21457,7 @@
         <v>43656</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21514,7 +21514,7 @@
         <v>43661</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21571,7 +21571,7 @@
         <v>43661</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21628,7 +21628,7 @@
         <v>43663</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21685,7 +21685,7 @@
         <v>43677</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21742,7 +21742,7 @@
         <v>43682</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21799,7 +21799,7 @@
         <v>43686</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21856,7 +21856,7 @@
         <v>43693</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
         <v>43696</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21975,7 +21975,7 @@
         <v>43696</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22032,7 +22032,7 @@
         <v>43699</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22089,7 +22089,7 @@
         <v>43699</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         <v>43699</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22203,7 +22203,7 @@
         <v>43705</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22260,7 +22260,7 @@
         <v>43706</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22322,7 +22322,7 @@
         <v>43706</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22384,7 +22384,7 @@
         <v>43706</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22446,7 +22446,7 @@
         <v>43706</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22503,7 +22503,7 @@
         <v>43706</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22565,7 +22565,7 @@
         <v>43706</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         <v>43707</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22689,7 +22689,7 @@
         <v>43707</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22751,7 +22751,7 @@
         <v>43707</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22808,7 +22808,7 @@
         <v>43707</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22870,7 +22870,7 @@
         <v>43710</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22927,7 +22927,7 @@
         <v>43712</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22984,7 +22984,7 @@
         <v>43712</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23041,7 +23041,7 @@
         <v>43713</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23098,7 +23098,7 @@
         <v>43716</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23155,7 +23155,7 @@
         <v>43718</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23212,7 +23212,7 @@
         <v>43718</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23274,7 +23274,7 @@
         <v>43718</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23331,7 +23331,7 @@
         <v>43718</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23393,7 +23393,7 @@
         <v>43718</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23455,7 +23455,7 @@
         <v>43718</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23512,7 +23512,7 @@
         <v>43720</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23569,7 +23569,7 @@
         <v>43727</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23626,7 +23626,7 @@
         <v>43730</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>43733</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23745,7 +23745,7 @@
         <v>43735</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23807,7 +23807,7 @@
         <v>43735</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23869,7 +23869,7 @@
         <v>43736</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23926,7 +23926,7 @@
         <v>43745</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23983,7 +23983,7 @@
         <v>43745</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24045,7 +24045,7 @@
         <v>43747</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24107,7 +24107,7 @@
         <v>43748</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24164,7 +24164,7 @@
         <v>43755</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>43759</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>43763</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24345,7 +24345,7 @@
         <v>43773</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24402,7 +24402,7 @@
         <v>43773</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24459,7 +24459,7 @@
         <v>43773</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24521,7 +24521,7 @@
         <v>43777</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24578,7 +24578,7 @@
         <v>43777</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>43780</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24702,7 +24702,7 @@
         <v>43780</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24764,7 +24764,7 @@
         <v>43782</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24821,7 +24821,7 @@
         <v>43784</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24878,7 +24878,7 @@
         <v>43791</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24935,7 +24935,7 @@
         <v>43791</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24992,7 +24992,7 @@
         <v>43791</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25049,7 +25049,7 @@
         <v>43791</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         <v>43795</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25163,7 +25163,7 @@
         <v>43795</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25220,7 +25220,7 @@
         <v>43795</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25277,7 +25277,7 @@
         <v>43801</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25334,7 +25334,7 @@
         <v>43801</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25391,7 +25391,7 @@
         <v>43803</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25448,7 +25448,7 @@
         <v>43808</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25505,7 +25505,7 @@
         <v>43808</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25562,7 +25562,7 @@
         <v>43811</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25619,7 +25619,7 @@
         <v>43812</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25681,7 +25681,7 @@
         <v>43814</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25743,7 +25743,7 @@
         <v>43814</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25805,7 +25805,7 @@
         <v>43815</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25862,7 +25862,7 @@
         <v>43815</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25924,7 +25924,7 @@
         <v>43817</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25981,7 +25981,7 @@
         <v>43817</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26038,7 +26038,7 @@
         <v>43818</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26095,7 +26095,7 @@
         <v>43818</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26152,7 +26152,7 @@
         <v>43822</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26209,7 +26209,7 @@
         <v>43837</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26266,7 +26266,7 @@
         <v>43837</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26323,7 +26323,7 @@
         <v>43838</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26380,7 +26380,7 @@
         <v>43844</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26437,7 +26437,7 @@
         <v>43850</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26494,7 +26494,7 @@
         <v>43853</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26551,7 +26551,7 @@
         <v>43853</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26613,7 +26613,7 @@
         <v>43866</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26675,7 +26675,7 @@
         <v>43866</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26737,7 +26737,7 @@
         <v>43867</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26794,7 +26794,7 @@
         <v>43874</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26851,7 +26851,7 @@
         <v>43878</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26913,7 +26913,7 @@
         <v>43878</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26970,7 +26970,7 @@
         <v>43878</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27027,7 +27027,7 @@
         <v>43879</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27089,7 +27089,7 @@
         <v>43879</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27151,7 +27151,7 @@
         <v>43879</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27213,7 +27213,7 @@
         <v>43881</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27270,7 +27270,7 @@
         <v>43882</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27327,7 +27327,7 @@
         <v>43882</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27389,7 +27389,7 @@
         <v>43882</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         <v>43886</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>43887</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>43891</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>43892</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27689,7 +27689,7 @@
         <v>43892</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         <v>43892</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27808,7 +27808,7 @@
         <v>43894</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27865,7 +27865,7 @@
         <v>43894</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27922,7 +27922,7 @@
         <v>43899</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27979,7 +27979,7 @@
         <v>43899</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28041,7 +28041,7 @@
         <v>43903</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28098,7 +28098,7 @@
         <v>43908</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28155,7 +28155,7 @@
         <v>43908</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28212,7 +28212,7 @@
         <v>43908</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28274,7 +28274,7 @@
         <v>43908</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28331,7 +28331,7 @@
         <v>43913</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28393,7 +28393,7 @@
         <v>43927</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28450,7 +28450,7 @@
         <v>43927</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28507,7 +28507,7 @@
         <v>43929</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28564,7 +28564,7 @@
         <v>43937</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28621,7 +28621,7 @@
         <v>43944</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28678,7 +28678,7 @@
         <v>43948</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28735,7 +28735,7 @@
         <v>43948</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28792,7 +28792,7 @@
         <v>43950</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28854,7 +28854,7 @@
         <v>43973</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28916,7 +28916,7 @@
         <v>43984</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28973,7 +28973,7 @@
         <v>43987</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29030,7 +29030,7 @@
         <v>43987</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29087,7 +29087,7 @@
         <v>43990</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29144,7 +29144,7 @@
         <v>43999</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29201,7 +29201,7 @@
         <v>43999</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29258,7 +29258,7 @@
         <v>44000</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29315,7 +29315,7 @@
         <v>44000</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29372,7 +29372,7 @@
         <v>44007</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29429,7 +29429,7 @@
         <v>44007</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29486,7 +29486,7 @@
         <v>44012</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29548,7 +29548,7 @@
         <v>44013</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29605,7 +29605,7 @@
         <v>44014</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29662,7 +29662,7 @@
         <v>44015</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29724,7 +29724,7 @@
         <v>44016</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29786,7 +29786,7 @@
         <v>44019</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29848,7 +29848,7 @@
         <v>44026</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29905,7 +29905,7 @@
         <v>44029</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29962,7 +29962,7 @@
         <v>44033</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30024,7 +30024,7 @@
         <v>44035</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30081,7 +30081,7 @@
         <v>44035</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30138,7 +30138,7 @@
         <v>44041</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30200,7 +30200,7 @@
         <v>44048</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30262,7 +30262,7 @@
         <v>44048</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30324,7 +30324,7 @@
         <v>44048</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         <v>44050</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30443,7 +30443,7 @@
         <v>44055</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30500,7 +30500,7 @@
         <v>44056</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30557,7 +30557,7 @@
         <v>44063</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         <v>44063</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30676,7 +30676,7 @@
         <v>44063</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30733,7 +30733,7 @@
         <v>44063</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30790,7 +30790,7 @@
         <v>44070</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30847,7 +30847,7 @@
         <v>44076</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30904,7 +30904,7 @@
         <v>44081</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30961,7 +30961,7 @@
         <v>44083</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31018,7 +31018,7 @@
         <v>44091</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31080,7 +31080,7 @@
         <v>44095</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31137,7 +31137,7 @@
         <v>44095</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31194,7 +31194,7 @@
         <v>44103</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31251,7 +31251,7 @@
         <v>44105</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31313,7 +31313,7 @@
         <v>44105</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31370,7 +31370,7 @@
         <v>44105</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31432,7 +31432,7 @@
         <v>44106</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31489,7 +31489,7 @@
         <v>44109</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31546,7 +31546,7 @@
         <v>44119</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31603,7 +31603,7 @@
         <v>44123</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31660,7 +31660,7 @@
         <v>44123</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31717,7 +31717,7 @@
         <v>44126</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31774,7 +31774,7 @@
         <v>44130</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31831,7 +31831,7 @@
         <v>44131</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31893,7 +31893,7 @@
         <v>44131</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31955,7 +31955,7 @@
         <v>44134</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32017,7 +32017,7 @@
         <v>44137</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32074,7 +32074,7 @@
         <v>44139</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         <v>44139</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32188,7 +32188,7 @@
         <v>44139</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32245,7 +32245,7 @@
         <v>44140</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32302,7 +32302,7 @@
         <v>44144</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32359,7 +32359,7 @@
         <v>44144</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32416,7 +32416,7 @@
         <v>44144</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32473,7 +32473,7 @@
         <v>44146</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32530,7 +32530,7 @@
         <v>44151</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32587,7 +32587,7 @@
         <v>44153</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32649,7 +32649,7 @@
         <v>44155</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         <v>44155</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32763,7 +32763,7 @@
         <v>44159</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32825,7 +32825,7 @@
         <v>44159</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32887,7 +32887,7 @@
         <v>44160</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32949,7 +32949,7 @@
         <v>44161</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33011,7 +33011,7 @@
         <v>44161</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33073,7 +33073,7 @@
         <v>44162</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33130,7 +33130,7 @@
         <v>44165</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33192,7 +33192,7 @@
         <v>44166</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33254,7 +33254,7 @@
         <v>44167</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33311,7 +33311,7 @@
         <v>44168</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33368,7 +33368,7 @@
         <v>44180</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33430,7 +33430,7 @@
         <v>44200</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33487,7 +33487,7 @@
         <v>44207</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33549,7 +33549,7 @@
         <v>44209</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33606,7 +33606,7 @@
         <v>44209</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33663,7 +33663,7 @@
         <v>44210</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33720,7 +33720,7 @@
         <v>44211</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33777,7 +33777,7 @@
         <v>44216</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33834,7 +33834,7 @@
         <v>44216</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33891,7 +33891,7 @@
         <v>44222</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33948,7 +33948,7 @@
         <v>44223</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34005,7 +34005,7 @@
         <v>44230</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34062,7 +34062,7 @@
         <v>44245</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34119,7 +34119,7 @@
         <v>44252</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34176,7 +34176,7 @@
         <v>44252</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34233,7 +34233,7 @@
         <v>44266</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34290,7 +34290,7 @@
         <v>44273</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34347,7 +34347,7 @@
         <v>44279</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34404,7 +34404,7 @@
         <v>44286</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34461,7 +34461,7 @@
         <v>44286</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34518,7 +34518,7 @@
         <v>44294</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34580,7 +34580,7 @@
         <v>44297</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34637,7 +34637,7 @@
         <v>44297</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34699,7 +34699,7 @@
         <v>44299</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34761,7 +34761,7 @@
         <v>44313</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34823,7 +34823,7 @@
         <v>44313</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34885,7 +34885,7 @@
         <v>44314</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34947,7 +34947,7 @@
         <v>44351</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35009,7 +35009,7 @@
         <v>44357</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35071,7 +35071,7 @@
         <v>44365</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35133,7 +35133,7 @@
         <v>44365</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35190,7 +35190,7 @@
         <v>44369</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35247,7 +35247,7 @@
         <v>44379</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35304,7 +35304,7 @@
         <v>44379</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35361,7 +35361,7 @@
         <v>44383</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35423,7 +35423,7 @@
         <v>44383</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35485,7 +35485,7 @@
         <v>44390</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35542,7 +35542,7 @@
         <v>44395</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35599,7 +35599,7 @@
         <v>44407</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35661,7 +35661,7 @@
         <v>44420</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35718,7 +35718,7 @@
         <v>44420</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35775,7 +35775,7 @@
         <v>44426</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35832,7 +35832,7 @@
         <v>44438</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35894,7 +35894,7 @@
         <v>44442</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -35951,7 +35951,7 @@
         <v>44445</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36008,7 +36008,7 @@
         <v>44446</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36065,7 +36065,7 @@
         <v>44447</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36122,7 +36122,7 @@
         <v>44453</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36179,7 +36179,7 @@
         <v>44459</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36241,7 +36241,7 @@
         <v>44461</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36303,7 +36303,7 @@
         <v>44463</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36360,7 +36360,7 @@
         <v>44470</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36417,7 +36417,7 @@
         <v>44479</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36474,7 +36474,7 @@
         <v>44481</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36531,7 +36531,7 @@
         <v>44484</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36588,7 +36588,7 @@
         <v>44486</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36645,7 +36645,7 @@
         <v>44489</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36702,7 +36702,7 @@
         <v>44489</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36759,7 +36759,7 @@
         <v>44494</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36821,7 +36821,7 @@
         <v>44495</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36878,7 +36878,7 @@
         <v>44497</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36935,7 +36935,7 @@
         <v>44503</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -36992,7 +36992,7 @@
         <v>44504</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37049,7 +37049,7 @@
         <v>44512</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         <v>44512</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37163,7 +37163,7 @@
         <v>44512</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37220,7 +37220,7 @@
         <v>44512</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37277,7 +37277,7 @@
         <v>44515</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37334,7 +37334,7 @@
         <v>44516</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37391,7 +37391,7 @@
         <v>44517</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37448,7 +37448,7 @@
         <v>44517</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37505,7 +37505,7 @@
         <v>44517</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37562,7 +37562,7 @@
         <v>44518</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37619,7 +37619,7 @@
         <v>44519</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37676,7 +37676,7 @@
         <v>44522</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37733,7 +37733,7 @@
         <v>44522</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37790,7 +37790,7 @@
         <v>44525</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37852,7 +37852,7 @@
         <v>44526</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -37914,7 +37914,7 @@
         <v>44526</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -37971,7 +37971,7 @@
         <v>44526</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38028,7 +38028,7 @@
         <v>44531</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38085,7 +38085,7 @@
         <v>44531</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38142,7 +38142,7 @@
         <v>44531</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38204,7 +38204,7 @@
         <v>44531</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38261,7 +38261,7 @@
         <v>44532</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38318,7 +38318,7 @@
         <v>44532</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38375,7 +38375,7 @@
         <v>44532</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38432,7 +38432,7 @@
         <v>44532</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38489,7 +38489,7 @@
         <v>44535</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         <v>44535</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38603,7 +38603,7 @@
         <v>44540</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38665,7 +38665,7 @@
         <v>44543</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38727,7 +38727,7 @@
         <v>44543</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38789,7 +38789,7 @@
         <v>44544</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -38846,7 +38846,7 @@
         <v>44544</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -38903,7 +38903,7 @@
         <v>44548</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -38960,7 +38960,7 @@
         <v>44553</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39017,7 +39017,7 @@
         <v>44553</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39074,7 +39074,7 @@
         <v>44560</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39131,7 +39131,7 @@
         <v>44560</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39188,7 +39188,7 @@
         <v>44569</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39250,7 +39250,7 @@
         <v>44571</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -39312,7 +39312,7 @@
         <v>44572</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -39374,7 +39374,7 @@
         <v>44574</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39431,7 +39431,7 @@
         <v>44575</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39488,7 +39488,7 @@
         <v>44575</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39545,7 +39545,7 @@
         <v>44575</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39602,7 +39602,7 @@
         <v>44583</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -39664,7 +39664,7 @@
         <v>44583</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -39726,7 +39726,7 @@
         <v>44583</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -39788,7 +39788,7 @@
         <v>44588</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -39845,7 +39845,7 @@
         <v>44588</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -39902,7 +39902,7 @@
         <v>44593</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -39964,7 +39964,7 @@
         <v>44593</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40021,7 +40021,7 @@
         <v>44593</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40078,7 +40078,7 @@
         <v>44593</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40135,7 +40135,7 @@
         <v>44594</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40192,7 +40192,7 @@
         <v>44594</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40249,7 +40249,7 @@
         <v>44598</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         <v>44600</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -40363,7 +40363,7 @@
         <v>44600</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -40425,7 +40425,7 @@
         <v>44602</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -40482,7 +40482,7 @@
         <v>44602</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -40539,7 +40539,7 @@
         <v>44602</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -40596,7 +40596,7 @@
         <v>44602</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -40653,7 +40653,7 @@
         <v>44602</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -40710,7 +40710,7 @@
         <v>44602</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -40772,7 +40772,7 @@
         <v>44602</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -40829,7 +40829,7 @@
         <v>44603</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -40886,7 +40886,7 @@
         <v>44603</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -40943,7 +40943,7 @@
         <v>44603</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41000,7 +41000,7 @@
         <v>44606</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41057,7 +41057,7 @@
         <v>44608</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41119,7 +41119,7 @@
         <v>44608</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41181,7 +41181,7 @@
         <v>44608</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41238,7 +41238,7 @@
         <v>44609</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -41300,7 +41300,7 @@
         <v>44609</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -41362,7 +41362,7 @@
         <v>44610</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -41424,7 +41424,7 @@
         <v>44610</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -41486,7 +41486,7 @@
         <v>44610</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -41548,7 +41548,7 @@
         <v>44612</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -41605,7 +41605,7 @@
         <v>44616</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -41667,7 +41667,7 @@
         <v>44616</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -41724,7 +41724,7 @@
         <v>44623</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -41786,7 +41786,7 @@
         <v>44634</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -41843,7 +41843,7 @@
         <v>44645</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -41900,7 +41900,7 @@
         <v>44649</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -41957,7 +41957,7 @@
         <v>44649</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42014,7 +42014,7 @@
         <v>44652</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42071,7 +42071,7 @@
         <v>44659</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42133,7 +42133,7 @@
         <v>44659</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42195,7 +42195,7 @@
         <v>44665</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -42257,7 +42257,7 @@
         <v>44673</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -42319,7 +42319,7 @@
         <v>44676</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -42381,7 +42381,7 @@
         <v>44676</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -42438,7 +42438,7 @@
         <v>44690</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -42500,7 +42500,7 @@
         <v>44691</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -42562,7 +42562,7 @@
         <v>44692</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -42624,7 +42624,7 @@
         <v>44699</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -42686,7 +42686,7 @@
         <v>44700</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -42743,7 +42743,7 @@
         <v>44700</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -42800,7 +42800,7 @@
         <v>44701</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -42862,7 +42862,7 @@
         <v>44704</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -42924,7 +42924,7 @@
         <v>44704</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -42981,7 +42981,7 @@
         <v>44711</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43043,7 +43043,7 @@
         <v>44713</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43105,7 +43105,7 @@
         <v>44713</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43167,7 +43167,7 @@
         <v>44714</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43224,7 +43224,7 @@
         <v>44719</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -43281,7 +43281,7 @@
         <v>44720</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -43338,7 +43338,7 @@
         <v>44729</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -43395,7 +43395,7 @@
         <v>44733</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -43452,7 +43452,7 @@
         <v>44742</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -43509,7 +43509,7 @@
         <v>44742</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -43566,7 +43566,7 @@
         <v>44742</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -43628,7 +43628,7 @@
         <v>44742</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -43685,7 +43685,7 @@
         <v>44742</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -43742,7 +43742,7 @@
         <v>44743</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -43799,7 +43799,7 @@
         <v>44762</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -43861,7 +43861,7 @@
         <v>44764</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -43923,7 +43923,7 @@
         <v>44764</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -43985,7 +43985,7 @@
         <v>44769</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44047,7 +44047,7 @@
         <v>44771</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44109,7 +44109,7 @@
         <v>44771</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44171,7 +44171,7 @@
         <v>44771</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44233,7 +44233,7 @@
         <v>44782</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -44290,7 +44290,7 @@
         <v>44782</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -44347,7 +44347,7 @@
         <v>44784</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -44404,7 +44404,7 @@
         <v>44788</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -44461,7 +44461,7 @@
         <v>44795</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -44518,7 +44518,7 @@
         <v>44797</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -44575,7 +44575,7 @@
         <v>44798</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -44632,7 +44632,7 @@
         <v>44806</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -44689,7 +44689,7 @@
         <v>44810</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -44746,7 +44746,7 @@
         <v>44811</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -44803,7 +44803,7 @@
         <v>44816</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -44860,7 +44860,7 @@
         <v>44816</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -44917,7 +44917,7 @@
         <v>44816</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -44974,7 +44974,7 @@
         <v>44816</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45031,7 +45031,7 @@
         <v>44816</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45093,7 +45093,7 @@
         <v>44817</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45150,7 +45150,7 @@
         <v>44817</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -45207,7 +45207,7 @@
         <v>44817</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -45264,7 +45264,7 @@
         <v>44819</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -45326,7 +45326,7 @@
         <v>44831</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -45383,7 +45383,7 @@
         <v>44832</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -45440,7 +45440,7 @@
         <v>44839</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -45497,7 +45497,7 @@
         <v>44844</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -45554,7 +45554,7 @@
         <v>44846</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -45611,7 +45611,7 @@
         <v>44847</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -45668,7 +45668,7 @@
         <v>44847</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -45725,7 +45725,7 @@
         <v>44847</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -45782,7 +45782,7 @@
         <v>44848</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -45839,7 +45839,7 @@
         <v>44849</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -45896,7 +45896,7 @@
         <v>44853</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -45953,7 +45953,7 @@
         <v>44865</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46010,7 +46010,7 @@
         <v>44866</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46067,7 +46067,7 @@
         <v>44872</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -46124,7 +46124,7 @@
         <v>44872</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -46181,7 +46181,7 @@
         <v>44883</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -46243,7 +46243,7 @@
         <v>44883</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -46300,7 +46300,7 @@
         <v>44886</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -46357,7 +46357,7 @@
         <v>44886</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -46419,7 +46419,7 @@
         <v>44888</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -46481,7 +46481,7 @@
         <v>44893</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -46538,7 +46538,7 @@
         <v>44897</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -46595,7 +46595,7 @@
         <v>44897</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -46652,7 +46652,7 @@
         <v>44901</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -46714,7 +46714,7 @@
         <v>44904</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -46776,7 +46776,7 @@
         <v>44908</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -46833,7 +46833,7 @@
         <v>44908</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -46890,7 +46890,7 @@
         <v>44909</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -46947,7 +46947,7 @@
         <v>44909</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47004,7 +47004,7 @@
         <v>44912</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47061,7 +47061,7 @@
         <v>44916</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -47123,7 +47123,7 @@
         <v>44916</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -47180,7 +47180,7 @@
         <v>44928</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -47242,7 +47242,7 @@
         <v>44928</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -47304,7 +47304,7 @@
         <v>44929</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -47361,7 +47361,7 @@
         <v>44930</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -47418,7 +47418,7 @@
         <v>44930</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -47480,7 +47480,7 @@
         <v>44935</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -47537,7 +47537,7 @@
         <v>44944</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -47594,7 +47594,7 @@
         <v>44944</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -47656,7 +47656,7 @@
         <v>44944</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -47713,7 +47713,7 @@
         <v>44944</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -47775,7 +47775,7 @@
         <v>44944</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -47832,7 +47832,7 @@
         <v>44945</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -47889,7 +47889,7 @@
         <v>44946</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -47946,7 +47946,7 @@
         <v>44949</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48008,7 +48008,7 @@
         <v>44950</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -48070,7 +48070,7 @@
         <v>44952</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -48132,7 +48132,7 @@
         <v>44960</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -48194,7 +48194,7 @@
         <v>44960</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -48251,7 +48251,7 @@
         <v>44960</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -48308,7 +48308,7 @@
         <v>44964</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -48365,7 +48365,7 @@
         <v>44964</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -48422,7 +48422,7 @@
         <v>44965</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -48479,7 +48479,7 @@
         <v>44965</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -48536,7 +48536,7 @@
         <v>44966</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -48598,7 +48598,7 @@
         <v>44967</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -48655,7 +48655,7 @@
         <v>44967</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -48712,7 +48712,7 @@
         <v>44967</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -48769,7 +48769,7 @@
         <v>44967</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -48826,7 +48826,7 @@
         <v>44967</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -48883,7 +48883,7 @@
         <v>44969</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -48940,7 +48940,7 @@
         <v>44970</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49002,7 +49002,7 @@
         <v>44971</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -49059,7 +49059,7 @@
         <v>44971</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -49116,7 +49116,7 @@
         <v>44972</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -49173,7 +49173,7 @@
         <v>44973</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -49230,7 +49230,7 @@
         <v>44973</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -49287,7 +49287,7 @@
         <v>44977</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -49349,7 +49349,7 @@
         <v>44977</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -49406,7 +49406,7 @@
         <v>44977</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -49463,7 +49463,7 @@
         <v>44978</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -49525,7 +49525,7 @@
         <v>44980</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -49582,7 +49582,7 @@
         <v>44980</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -49639,7 +49639,7 @@
         <v>44980</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -49696,7 +49696,7 @@
         <v>44980</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -49753,7 +49753,7 @@
         <v>44984</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -49815,7 +49815,7 @@
         <v>44984</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -49872,7 +49872,7 @@
         <v>44988</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -49929,7 +49929,7 @@
         <v>44991</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -49986,7 +49986,7 @@
         <v>44993</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -50043,7 +50043,7 @@
         <v>44993</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -50100,7 +50100,7 @@
         <v>44994</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -50157,7 +50157,7 @@
         <v>45006</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -50214,7 +50214,7 @@
         <v>45009</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -50276,7 +50276,7 @@
         <v>45013</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -50333,7 +50333,7 @@
         <v>45014</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -50390,7 +50390,7 @@
         <v>45026</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -50447,7 +50447,7 @@
         <v>45028</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -50509,7 +50509,7 @@
         <v>45033</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -50566,7 +50566,7 @@
         <v>45036</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -50623,7 +50623,7 @@
         <v>45037</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -50685,7 +50685,7 @@
         <v>45042</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -50742,7 +50742,7 @@
         <v>45042</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -50804,7 +50804,7 @@
         <v>45043</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -50861,7 +50861,7 @@
         <v>45049</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -50918,7 +50918,7 @@
         <v>45049</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -50975,7 +50975,7 @@
         <v>45049</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -51032,7 +51032,7 @@
         <v>45049</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -51089,7 +51089,7 @@
         <v>45050</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -51146,7 +51146,7 @@
         <v>45050</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -51203,7 +51203,7 @@
         <v>45050</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -51260,7 +51260,7 @@
         <v>45054</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -51317,7 +51317,7 @@
         <v>45054</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -51374,7 +51374,7 @@
         <v>45055</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -51431,7 +51431,7 @@
         <v>45056</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -51493,7 +51493,7 @@
         <v>45056</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -51555,7 +51555,7 @@
         <v>45058</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -51612,7 +51612,7 @@
         <v>45058</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -51669,7 +51669,7 @@
         <v>45058</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -51726,7 +51726,7 @@
         <v>45058</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -51783,7 +51783,7 @@
         <v>45058</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -51840,7 +51840,7 @@
         <v>45058</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -51902,7 +51902,7 @@
         <v>45060</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -51959,7 +51959,7 @@
         <v>45061</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -52016,7 +52016,7 @@
         <v>45063</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -52073,7 +52073,7 @@
         <v>45063</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -52130,7 +52130,7 @@
         <v>45063</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -52187,7 +52187,7 @@
         <v>45063</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -52244,7 +52244,7 @@
         <v>45070</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -52306,7 +52306,7 @@
         <v>45075</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -52363,7 +52363,7 @@
         <v>45078</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -52420,7 +52420,7 @@
         <v>45078</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -52482,7 +52482,7 @@
         <v>45078</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -52539,7 +52539,7 @@
         <v>45079</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -52596,7 +52596,7 @@
         <v>45084</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -52658,7 +52658,7 @@
         <v>45086</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -52720,7 +52720,7 @@
         <v>45089</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -52777,7 +52777,7 @@
         <v>45089</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -52834,7 +52834,7 @@
         <v>45089</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -52891,7 +52891,7 @@
         <v>45089</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -52948,7 +52948,7 @@
         <v>45091</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -53010,7 +53010,7 @@
         <v>45091</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -53067,7 +53067,7 @@
         <v>45091</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -53129,7 +53129,7 @@
         <v>45091</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -53191,7 +53191,7 @@
         <v>45091</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -53248,7 +53248,7 @@
         <v>45093</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -53310,7 +53310,7 @@
         <v>45096</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -53367,7 +53367,7 @@
         <v>45096</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -53424,7 +53424,7 @@
         <v>45096</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -53481,7 +53481,7 @@
         <v>45096</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -53538,7 +53538,7 @@
         <v>45096</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -53595,7 +53595,7 @@
         <v>45096</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -53652,7 +53652,7 @@
         <v>45096</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -53709,7 +53709,7 @@
         <v>45096</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -53766,7 +53766,7 @@
         <v>45097</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -53823,7 +53823,7 @@
         <v>45097</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -53880,7 +53880,7 @@
         <v>45097</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -53937,7 +53937,7 @@
         <v>45097</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -53994,7 +53994,7 @@
         <v>45097</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -54051,7 +54051,7 @@
         <v>45103</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -54108,7 +54108,7 @@
         <v>45103</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -54165,7 +54165,7 @@
         <v>45105</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -54222,7 +54222,7 @@
         <v>45105</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -54279,7 +54279,7 @@
         <v>45105</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -54336,7 +54336,7 @@
         <v>45107</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -54393,7 +54393,7 @@
         <v>45107</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -54450,7 +54450,7 @@
         <v>45107</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -54512,7 +54512,7 @@
         <v>45107</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -54574,7 +54574,7 @@
         <v>45107</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -54631,7 +54631,7 @@
         <v>45110</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -54688,7 +54688,7 @@
         <v>45112</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -54745,7 +54745,7 @@
         <v>45113</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -54802,7 +54802,7 @@
         <v>45119</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -54859,7 +54859,7 @@
         <v>45121</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -54921,7 +54921,7 @@
         <v>45123</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -54978,7 +54978,7 @@
         <v>45127</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -55035,7 +55035,7 @@
         <v>45128</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -55092,7 +55092,7 @@
         <v>45131</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -55149,7 +55149,7 @@
         <v>45132</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -55206,7 +55206,7 @@
         <v>45134</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -55263,7 +55263,7 @@
         <v>45145</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -55320,7 +55320,7 @@
         <v>45148</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -55377,7 +55377,7 @@
         <v>45148</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -55434,7 +55434,7 @@
         <v>45148</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -55491,7 +55491,7 @@
         <v>45148</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -55548,7 +55548,7 @@
         <v>45148</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -55605,7 +55605,7 @@
         <v>45149</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -55667,7 +55667,7 @@
         <v>45152</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -55724,7 +55724,7 @@
         <v>45152</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -55786,7 +55786,7 @@
         <v>45152</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -55843,7 +55843,7 @@
         <v>45152</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -55905,7 +55905,7 @@
         <v>45153</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -55967,7 +55967,7 @@
         <v>45153</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -56029,7 +56029,7 @@
         <v>45160</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -56086,7 +56086,7 @@
         <v>45161</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -56143,7 +56143,7 @@
         <v>45162</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -56200,7 +56200,7 @@
         <v>45162</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -56257,7 +56257,7 @@
         <v>45162</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -56319,7 +56319,7 @@
         <v>45162</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -56381,7 +56381,7 @@
         <v>45164</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -56443,7 +56443,7 @@
         <v>45167</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -56500,7 +56500,7 @@
         <v>45169</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -56562,7 +56562,7 @@
         <v>45169</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -56624,7 +56624,7 @@
         <v>45173</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -56681,7 +56681,7 @@
         <v>45173</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -56738,7 +56738,7 @@
         <v>45175</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -56800,7 +56800,7 @@
         <v>45180</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>

--- a/Översikt UPPSALA.xlsx
+++ b/Översikt UPPSALA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y898"/>
+  <dimension ref="A1:Y900"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44012</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         <v>43913</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         <v>43762</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44377</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>44349</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>45082</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>43381</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>43875</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>45013</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1526,7 +1526,7 @@
         <v>44222</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>44623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         <v>44971</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>43796</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>44053</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>44356</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>45086</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>44158</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>44180</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2499,7 +2499,7 @@
         <v>44497</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>44901</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>45092</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
         <v>43433</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>44376</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>44575</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>44356</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3155,7 +3155,7 @@
         <v>43814</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43861</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>44119</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3427,7 +3427,7 @@
         <v>44351</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>44500</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>44574</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3702,7 +3702,7 @@
         <v>44792</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>44879</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>44922</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>44977</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>45107</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>43511</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         <v>43857</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43980</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>44056</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>44101</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
         <v>44462</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>44664</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>44719</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>44740</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>44974</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>45002</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5160,7 +5160,7 @@
         <v>45049</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5336,7 +5336,7 @@
         <v>43511</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>43731</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43796</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>44101</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>44133</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>44495</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>44652</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>44684</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>44692</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>44791</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>44804</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>44938</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6410,7 +6410,7 @@
         <v>44956</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
         <v>44973</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6589,7 +6589,7 @@
         <v>43503</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6680,7 +6680,7 @@
         <v>43545</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>43607</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>43654</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6943,7 +6943,7 @@
         <v>43742</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         <v>43929</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>44054</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>44101</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>44659</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>44879</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>44967</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>45002</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>45090</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7742,7 +7742,7 @@
         <v>45121</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7833,7 +7833,7 @@
         <v>43321</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>43339</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>43462</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8088,7 +8088,7 @@
         <v>43473</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>43473</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8263,7 +8263,7 @@
         <v>43528</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>43551</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>43693</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>43693</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>43731</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8693,7 +8693,7 @@
         <v>43755</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8778,7 +8778,7 @@
         <v>43867</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43893</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8948,7 +8948,7 @@
         <v>43980</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>44042</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>44266</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>44467</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         <v>44487</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         <v>44489</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>44589</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>44614</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9643,7 +9643,7 @@
         <v>44645</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>44678</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>44729</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>44849</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>44855</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10088,7 +10088,7 @@
         <v>44897</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>44917</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         <v>44958</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10348,7 +10348,7 @@
         <v>44963</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>45002</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10523,7 +10523,7 @@
         <v>45021</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>45022</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10698,7 +10698,7 @@
         <v>45022</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>45055</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
         <v>45061</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>45072</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>45097</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>45098</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11218,7 +11218,7 @@
         <v>45104</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11303,7 +11303,7 @@
         <v>45121</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11393,7 +11393,7 @@
         <v>45139</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11478,7 +11478,7 @@
         <v>43321</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11535,7 +11535,7 @@
         <v>43321</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11592,7 +11592,7 @@
         <v>43335</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11649,7 +11649,7 @@
         <v>43341</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11706,7 +11706,7 @@
         <v>43347</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11763,7 +11763,7 @@
         <v>43355</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11820,7 +11820,7 @@
         <v>43360</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11877,7 +11877,7 @@
         <v>43377</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11934,7 +11934,7 @@
         <v>43378</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11996,7 +11996,7 @@
         <v>43378</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12053,7 +12053,7 @@
         <v>43378</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         <v>43381</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         <v>43381</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>43389</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>43395</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>43398</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>43407</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>43411</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>43418</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>43420</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12658,7 +12658,7 @@
         <v>43423</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12715,7 +12715,7 @@
         <v>43423</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12772,7 +12772,7 @@
         <v>43424</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12829,7 +12829,7 @@
         <v>43424</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>43424</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12953,7 +12953,7 @@
         <v>43427</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13010,7 +13010,7 @@
         <v>43430</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13067,7 +13067,7 @@
         <v>43431</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         <v>43433</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>43433</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>43433</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13295,7 +13295,7 @@
         <v>43433</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13352,7 +13352,7 @@
         <v>43436</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13409,7 +13409,7 @@
         <v>43436</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13466,7 +13466,7 @@
         <v>43437</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13523,7 +13523,7 @@
         <v>43439</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13580,7 +13580,7 @@
         <v>43444</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13637,7 +13637,7 @@
         <v>43445</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13694,7 +13694,7 @@
         <v>43446</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13751,7 +13751,7 @@
         <v>43447</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13808,7 +13808,7 @@
         <v>43447</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13865,7 +13865,7 @@
         <v>43447</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13927,7 +13927,7 @@
         <v>43451</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13984,7 +13984,7 @@
         <v>43451</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
         <v>43451</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14098,7 +14098,7 @@
         <v>43452</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>43452</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         <v>43455</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>43455</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14326,7 +14326,7 @@
         <v>43455</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14383,7 +14383,7 @@
         <v>43455</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14440,7 +14440,7 @@
         <v>43460</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14497,7 +14497,7 @@
         <v>43464</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14554,7 +14554,7 @@
         <v>43468</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14611,7 +14611,7 @@
         <v>43472</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14668,7 +14668,7 @@
         <v>43472</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14725,7 +14725,7 @@
         <v>43472</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14782,7 +14782,7 @@
         <v>43472</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>43473</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14901,7 +14901,7 @@
         <v>43473</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>43473</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>43473</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>43473</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>43473</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>43473</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>43473</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>43474</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>43474</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>43475</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>43475</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>43475</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15585,7 +15585,7 @@
         <v>43476</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>43479</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>43479</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>43479</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15818,7 +15818,7 @@
         <v>43479</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>43479</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15942,7 +15942,7 @@
         <v>43480</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15999,7 +15999,7 @@
         <v>43480</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16056,7 +16056,7 @@
         <v>43481</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>43481</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>43481</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>43481</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16284,7 +16284,7 @@
         <v>43481</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>43482</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>43482</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>43482</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>43482</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>43482</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>43482</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>43482</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16745,7 +16745,7 @@
         <v>43485</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16802,7 +16802,7 @@
         <v>43486</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16859,7 +16859,7 @@
         <v>43486</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>43486</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>43487</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17035,7 +17035,7 @@
         <v>43488</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>43488</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>43488</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>43492</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>43493</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>43493</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>43496</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>43496</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>43498</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>43500</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>43500</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17687,7 +17687,7 @@
         <v>43500</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>43500</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17801,7 +17801,7 @@
         <v>43500</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>43503</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         <v>43504</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>43507</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18034,7 +18034,7 @@
         <v>43507</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         <v>43508</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18148,7 +18148,7 @@
         <v>43509</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18205,7 +18205,7 @@
         <v>43511</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18262,7 +18262,7 @@
         <v>43511</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18319,7 +18319,7 @@
         <v>43511</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18376,7 +18376,7 @@
         <v>43511</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18433,7 +18433,7 @@
         <v>43511</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>43516</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         <v>43517</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18609,7 +18609,7 @@
         <v>43517</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18671,7 +18671,7 @@
         <v>43517</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>43517</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18795,7 +18795,7 @@
         <v>43523</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18852,7 +18852,7 @@
         <v>43528</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         <v>43528</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18966,7 +18966,7 @@
         <v>43531</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19023,7 +19023,7 @@
         <v>43531</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19080,7 +19080,7 @@
         <v>43531</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19142,7 +19142,7 @@
         <v>43532</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>43535</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>43536</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>43538</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19380,7 +19380,7 @@
         <v>43538</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19442,7 +19442,7 @@
         <v>43544</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19499,7 +19499,7 @@
         <v>43550</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19556,7 +19556,7 @@
         <v>43552</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19613,7 +19613,7 @@
         <v>43553</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         <v>43553</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19732,7 +19732,7 @@
         <v>43556</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19789,7 +19789,7 @@
         <v>43559</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19846,7 +19846,7 @@
         <v>43559</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19903,7 +19903,7 @@
         <v>43560</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19960,7 +19960,7 @@
         <v>43570</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20017,7 +20017,7 @@
         <v>43572</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         <v>43578</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20131,7 +20131,7 @@
         <v>43578</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
         <v>43583</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20245,7 +20245,7 @@
         <v>43585</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20307,7 +20307,7 @@
         <v>43591</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20364,7 +20364,7 @@
         <v>43592</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20426,7 +20426,7 @@
         <v>43600</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20483,7 +20483,7 @@
         <v>43605</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20540,7 +20540,7 @@
         <v>43605</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20597,7 +20597,7 @@
         <v>43607</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20654,7 +20654,7 @@
         <v>43628</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20711,7 +20711,7 @@
         <v>43628</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>43628</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         <v>43630</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20887,7 +20887,7 @@
         <v>43630</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20944,7 +20944,7 @@
         <v>43647</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21001,7 +21001,7 @@
         <v>43647</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21058,7 +21058,7 @@
         <v>43648</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         <v>43651</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21172,7 +21172,7 @@
         <v>43651</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21229,7 +21229,7 @@
         <v>43651</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21286,7 +21286,7 @@
         <v>43651</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21343,7 +21343,7 @@
         <v>43654</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21400,7 +21400,7 @@
         <v>43654</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21457,7 +21457,7 @@
         <v>43656</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21514,7 +21514,7 @@
         <v>43661</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21571,7 +21571,7 @@
         <v>43661</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21628,7 +21628,7 @@
         <v>43663</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21685,7 +21685,7 @@
         <v>43677</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21742,7 +21742,7 @@
         <v>43682</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21799,7 +21799,7 @@
         <v>43686</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21856,7 +21856,7 @@
         <v>43693</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
         <v>43696</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21975,7 +21975,7 @@
         <v>43696</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22032,7 +22032,7 @@
         <v>43699</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22089,7 +22089,7 @@
         <v>43699</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         <v>43699</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22203,7 +22203,7 @@
         <v>43705</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22260,7 +22260,7 @@
         <v>43706</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22322,7 +22322,7 @@
         <v>43706</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22384,7 +22384,7 @@
         <v>43706</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22446,7 +22446,7 @@
         <v>43706</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22503,7 +22503,7 @@
         <v>43706</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22565,7 +22565,7 @@
         <v>43706</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         <v>43707</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22689,7 +22689,7 @@
         <v>43707</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22751,7 +22751,7 @@
         <v>43707</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22808,7 +22808,7 @@
         <v>43707</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22870,7 +22870,7 @@
         <v>43710</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22927,7 +22927,7 @@
         <v>43712</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22984,7 +22984,7 @@
         <v>43712</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23041,7 +23041,7 @@
         <v>43713</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23098,7 +23098,7 @@
         <v>43716</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23155,7 +23155,7 @@
         <v>43718</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23212,7 +23212,7 @@
         <v>43718</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23274,7 +23274,7 @@
         <v>43718</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23331,7 +23331,7 @@
         <v>43718</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23393,7 +23393,7 @@
         <v>43718</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23455,7 +23455,7 @@
         <v>43718</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23512,7 +23512,7 @@
         <v>43720</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23569,7 +23569,7 @@
         <v>43727</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23626,7 +23626,7 @@
         <v>43730</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>43733</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23745,7 +23745,7 @@
         <v>43735</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23807,7 +23807,7 @@
         <v>43735</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23869,7 +23869,7 @@
         <v>43736</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23926,7 +23926,7 @@
         <v>43745</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23983,7 +23983,7 @@
         <v>43745</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24045,7 +24045,7 @@
         <v>43747</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24107,7 +24107,7 @@
         <v>43748</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24164,7 +24164,7 @@
         <v>43755</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>43759</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>43763</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24345,7 +24345,7 @@
         <v>43773</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24402,7 +24402,7 @@
         <v>43773</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24459,7 +24459,7 @@
         <v>43773</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24521,7 +24521,7 @@
         <v>43777</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24578,7 +24578,7 @@
         <v>43777</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>43780</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24702,7 +24702,7 @@
         <v>43780</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24764,7 +24764,7 @@
         <v>43782</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24821,7 +24821,7 @@
         <v>43784</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24878,7 +24878,7 @@
         <v>43791</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24935,7 +24935,7 @@
         <v>43791</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24992,7 +24992,7 @@
         <v>43791</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25049,7 +25049,7 @@
         <v>43791</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         <v>43795</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25163,7 +25163,7 @@
         <v>43795</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25220,7 +25220,7 @@
         <v>43795</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25277,7 +25277,7 @@
         <v>43801</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25334,7 +25334,7 @@
         <v>43801</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25391,7 +25391,7 @@
         <v>43803</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25448,7 +25448,7 @@
         <v>43808</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25505,7 +25505,7 @@
         <v>43808</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25562,7 +25562,7 @@
         <v>43811</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25619,7 +25619,7 @@
         <v>43812</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25681,7 +25681,7 @@
         <v>43814</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25743,7 +25743,7 @@
         <v>43814</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25805,7 +25805,7 @@
         <v>43815</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25862,7 +25862,7 @@
         <v>43815</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25924,7 +25924,7 @@
         <v>43817</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25981,7 +25981,7 @@
         <v>43817</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26038,7 +26038,7 @@
         <v>43818</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26095,7 +26095,7 @@
         <v>43818</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26152,7 +26152,7 @@
         <v>43822</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26209,7 +26209,7 @@
         <v>43837</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26266,7 +26266,7 @@
         <v>43837</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26323,7 +26323,7 @@
         <v>43838</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26380,7 +26380,7 @@
         <v>43844</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26437,7 +26437,7 @@
         <v>43850</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26494,7 +26494,7 @@
         <v>43853</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26551,7 +26551,7 @@
         <v>43853</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26613,7 +26613,7 @@
         <v>43866</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26675,7 +26675,7 @@
         <v>43866</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26737,7 +26737,7 @@
         <v>43867</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26794,7 +26794,7 @@
         <v>43874</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26851,7 +26851,7 @@
         <v>43878</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26913,7 +26913,7 @@
         <v>43878</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26970,7 +26970,7 @@
         <v>43878</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27027,7 +27027,7 @@
         <v>43879</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27089,7 +27089,7 @@
         <v>43879</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27151,7 +27151,7 @@
         <v>43879</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27213,7 +27213,7 @@
         <v>43881</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27270,7 +27270,7 @@
         <v>43882</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27327,7 +27327,7 @@
         <v>43882</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27389,7 +27389,7 @@
         <v>43882</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         <v>43886</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>43887</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>43891</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>43892</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27689,7 +27689,7 @@
         <v>43892</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         <v>43892</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27808,7 +27808,7 @@
         <v>43894</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27865,7 +27865,7 @@
         <v>43894</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27922,7 +27922,7 @@
         <v>43899</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27979,7 +27979,7 @@
         <v>43899</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28041,7 +28041,7 @@
         <v>43903</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28098,7 +28098,7 @@
         <v>43908</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28155,7 +28155,7 @@
         <v>43908</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28212,7 +28212,7 @@
         <v>43908</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28274,7 +28274,7 @@
         <v>43908</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28331,7 +28331,7 @@
         <v>43913</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28393,7 +28393,7 @@
         <v>43927</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28450,7 +28450,7 @@
         <v>43927</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28507,7 +28507,7 @@
         <v>43929</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28564,7 +28564,7 @@
         <v>43937</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28621,7 +28621,7 @@
         <v>43944</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28678,7 +28678,7 @@
         <v>43948</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28735,7 +28735,7 @@
         <v>43948</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28792,7 +28792,7 @@
         <v>43950</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28854,7 +28854,7 @@
         <v>43973</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28916,7 +28916,7 @@
         <v>43984</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28973,7 +28973,7 @@
         <v>43987</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29030,7 +29030,7 @@
         <v>43987</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29087,7 +29087,7 @@
         <v>43990</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29144,7 +29144,7 @@
         <v>43999</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29201,7 +29201,7 @@
         <v>43999</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29258,7 +29258,7 @@
         <v>44000</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29315,7 +29315,7 @@
         <v>44000</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29372,7 +29372,7 @@
         <v>44007</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29429,7 +29429,7 @@
         <v>44007</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29486,7 +29486,7 @@
         <v>44012</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29548,7 +29548,7 @@
         <v>44013</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29605,7 +29605,7 @@
         <v>44014</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29662,7 +29662,7 @@
         <v>44015</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29724,7 +29724,7 @@
         <v>44016</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29786,7 +29786,7 @@
         <v>44019</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29848,7 +29848,7 @@
         <v>44026</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29905,7 +29905,7 @@
         <v>44029</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29962,7 +29962,7 @@
         <v>44033</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30024,7 +30024,7 @@
         <v>44035</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30081,7 +30081,7 @@
         <v>44035</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30138,7 +30138,7 @@
         <v>44041</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30200,7 +30200,7 @@
         <v>44048</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30262,7 +30262,7 @@
         <v>44048</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30324,7 +30324,7 @@
         <v>44048</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         <v>44050</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30443,7 +30443,7 @@
         <v>44055</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30500,7 +30500,7 @@
         <v>44056</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30557,7 +30557,7 @@
         <v>44063</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         <v>44063</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30676,7 +30676,7 @@
         <v>44063</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30733,7 +30733,7 @@
         <v>44063</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30790,7 +30790,7 @@
         <v>44070</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30847,7 +30847,7 @@
         <v>44076</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30904,7 +30904,7 @@
         <v>44081</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30961,7 +30961,7 @@
         <v>44083</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31018,7 +31018,7 @@
         <v>44091</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31080,7 +31080,7 @@
         <v>44095</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31137,7 +31137,7 @@
         <v>44095</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31194,7 +31194,7 @@
         <v>44103</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31251,7 +31251,7 @@
         <v>44105</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31313,7 +31313,7 @@
         <v>44105</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31370,7 +31370,7 @@
         <v>44105</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31432,7 +31432,7 @@
         <v>44106</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31489,7 +31489,7 @@
         <v>44109</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31546,7 +31546,7 @@
         <v>44119</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31603,7 +31603,7 @@
         <v>44123</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31660,7 +31660,7 @@
         <v>44123</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31717,7 +31717,7 @@
         <v>44126</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31774,7 +31774,7 @@
         <v>44130</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31831,7 +31831,7 @@
         <v>44131</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31893,7 +31893,7 @@
         <v>44131</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31955,7 +31955,7 @@
         <v>44134</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32017,7 +32017,7 @@
         <v>44137</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32074,7 +32074,7 @@
         <v>44139</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         <v>44139</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32188,7 +32188,7 @@
         <v>44139</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32245,7 +32245,7 @@
         <v>44140</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32302,7 +32302,7 @@
         <v>44144</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32359,7 +32359,7 @@
         <v>44144</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32416,7 +32416,7 @@
         <v>44144</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32473,7 +32473,7 @@
         <v>44146</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32530,7 +32530,7 @@
         <v>44151</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32587,7 +32587,7 @@
         <v>44153</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32649,7 +32649,7 @@
         <v>44155</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         <v>44155</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32763,7 +32763,7 @@
         <v>44159</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32825,7 +32825,7 @@
         <v>44159</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32887,7 +32887,7 @@
         <v>44160</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32949,7 +32949,7 @@
         <v>44161</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33011,7 +33011,7 @@
         <v>44161</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33073,7 +33073,7 @@
         <v>44162</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33130,7 +33130,7 @@
         <v>44165</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33192,7 +33192,7 @@
         <v>44166</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33254,7 +33254,7 @@
         <v>44167</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33311,7 +33311,7 @@
         <v>44168</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33368,7 +33368,7 @@
         <v>44180</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33430,7 +33430,7 @@
         <v>44200</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33487,7 +33487,7 @@
         <v>44207</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33549,7 +33549,7 @@
         <v>44209</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33606,7 +33606,7 @@
         <v>44209</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33663,7 +33663,7 @@
         <v>44210</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33720,7 +33720,7 @@
         <v>44211</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33777,7 +33777,7 @@
         <v>44216</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33834,7 +33834,7 @@
         <v>44216</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33891,7 +33891,7 @@
         <v>44222</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33948,7 +33948,7 @@
         <v>44223</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34005,7 +34005,7 @@
         <v>44230</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34062,7 +34062,7 @@
         <v>44245</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34119,7 +34119,7 @@
         <v>44252</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34176,7 +34176,7 @@
         <v>44252</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34233,7 +34233,7 @@
         <v>44266</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34290,7 +34290,7 @@
         <v>44273</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34347,7 +34347,7 @@
         <v>44279</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34404,7 +34404,7 @@
         <v>44286</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34461,7 +34461,7 @@
         <v>44286</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34518,7 +34518,7 @@
         <v>44294</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34580,7 +34580,7 @@
         <v>44297</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34637,7 +34637,7 @@
         <v>44297</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34699,7 +34699,7 @@
         <v>44299</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34761,7 +34761,7 @@
         <v>44313</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34823,7 +34823,7 @@
         <v>44313</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34885,7 +34885,7 @@
         <v>44314</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34947,7 +34947,7 @@
         <v>44351</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35009,7 +35009,7 @@
         <v>44357</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35071,7 +35071,7 @@
         <v>44365</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35133,7 +35133,7 @@
         <v>44365</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35190,7 +35190,7 @@
         <v>44369</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35247,7 +35247,7 @@
         <v>44379</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35304,7 +35304,7 @@
         <v>44379</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35361,7 +35361,7 @@
         <v>44383</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35423,7 +35423,7 @@
         <v>44383</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35485,7 +35485,7 @@
         <v>44390</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35542,7 +35542,7 @@
         <v>44395</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35599,7 +35599,7 @@
         <v>44407</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35661,7 +35661,7 @@
         <v>44420</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35718,7 +35718,7 @@
         <v>44420</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35775,7 +35775,7 @@
         <v>44426</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35832,7 +35832,7 @@
         <v>44438</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35894,7 +35894,7 @@
         <v>44442</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -35951,7 +35951,7 @@
         <v>44445</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36008,7 +36008,7 @@
         <v>44446</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36065,7 +36065,7 @@
         <v>44447</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36122,7 +36122,7 @@
         <v>44453</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36179,7 +36179,7 @@
         <v>44459</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36241,7 +36241,7 @@
         <v>44461</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36303,7 +36303,7 @@
         <v>44463</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36360,7 +36360,7 @@
         <v>44470</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36417,7 +36417,7 @@
         <v>44479</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36474,7 +36474,7 @@
         <v>44481</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36531,7 +36531,7 @@
         <v>44484</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36588,7 +36588,7 @@
         <v>44486</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36645,7 +36645,7 @@
         <v>44489</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36702,7 +36702,7 @@
         <v>44489</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36759,7 +36759,7 @@
         <v>44494</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36821,7 +36821,7 @@
         <v>44495</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36878,7 +36878,7 @@
         <v>44497</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36935,7 +36935,7 @@
         <v>44503</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -36992,7 +36992,7 @@
         <v>44504</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37049,7 +37049,7 @@
         <v>44512</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         <v>44512</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37163,7 +37163,7 @@
         <v>44512</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37220,7 +37220,7 @@
         <v>44512</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37277,7 +37277,7 @@
         <v>44515</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37334,7 +37334,7 @@
         <v>44516</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37391,7 +37391,7 @@
         <v>44517</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37448,7 +37448,7 @@
         <v>44517</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37505,7 +37505,7 @@
         <v>44517</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37562,7 +37562,7 @@
         <v>44518</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37619,7 +37619,7 @@
         <v>44519</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37676,7 +37676,7 @@
         <v>44522</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37733,7 +37733,7 @@
         <v>44522</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37790,7 +37790,7 @@
         <v>44525</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37852,7 +37852,7 @@
         <v>44526</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -37914,7 +37914,7 @@
         <v>44526</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -37971,7 +37971,7 @@
         <v>44526</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38028,7 +38028,7 @@
         <v>44531</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38085,7 +38085,7 @@
         <v>44531</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38142,7 +38142,7 @@
         <v>44531</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38204,7 +38204,7 @@
         <v>44531</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38261,7 +38261,7 @@
         <v>44532</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38318,7 +38318,7 @@
         <v>44532</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38375,7 +38375,7 @@
         <v>44532</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38432,7 +38432,7 @@
         <v>44532</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38489,7 +38489,7 @@
         <v>44535</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         <v>44535</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38603,7 +38603,7 @@
         <v>44540</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38665,7 +38665,7 @@
         <v>44543</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38727,7 +38727,7 @@
         <v>44543</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38789,7 +38789,7 @@
         <v>44544</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -38846,7 +38846,7 @@
         <v>44544</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -38903,7 +38903,7 @@
         <v>44548</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -38960,7 +38960,7 @@
         <v>44553</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39017,7 +39017,7 @@
         <v>44553</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39074,7 +39074,7 @@
         <v>44560</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39131,7 +39131,7 @@
         <v>44560</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39188,7 +39188,7 @@
         <v>44569</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39250,7 +39250,7 @@
         <v>44571</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -39312,7 +39312,7 @@
         <v>44572</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -39374,7 +39374,7 @@
         <v>44574</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39431,7 +39431,7 @@
         <v>44575</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39488,7 +39488,7 @@
         <v>44575</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39545,7 +39545,7 @@
         <v>44575</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39602,7 +39602,7 @@
         <v>44583</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -39664,7 +39664,7 @@
         <v>44583</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -39726,7 +39726,7 @@
         <v>44583</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -39788,7 +39788,7 @@
         <v>44588</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -39845,7 +39845,7 @@
         <v>44588</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -39902,7 +39902,7 @@
         <v>44593</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -39964,7 +39964,7 @@
         <v>44593</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40021,7 +40021,7 @@
         <v>44593</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40078,7 +40078,7 @@
         <v>44593</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40135,7 +40135,7 @@
         <v>44594</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40192,7 +40192,7 @@
         <v>44594</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40249,7 +40249,7 @@
         <v>44598</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         <v>44600</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -40363,7 +40363,7 @@
         <v>44600</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -40425,7 +40425,7 @@
         <v>44602</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -40482,7 +40482,7 @@
         <v>44602</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -40539,7 +40539,7 @@
         <v>44602</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -40596,7 +40596,7 @@
         <v>44602</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -40653,7 +40653,7 @@
         <v>44602</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -40710,7 +40710,7 @@
         <v>44602</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -40772,7 +40772,7 @@
         <v>44602</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -40829,7 +40829,7 @@
         <v>44603</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -40886,7 +40886,7 @@
         <v>44603</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -40943,7 +40943,7 @@
         <v>44603</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41000,7 +41000,7 @@
         <v>44606</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41057,7 +41057,7 @@
         <v>44608</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41119,7 +41119,7 @@
         <v>44608</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41181,7 +41181,7 @@
         <v>44608</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41238,7 +41238,7 @@
         <v>44609</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -41300,7 +41300,7 @@
         <v>44609</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -41362,7 +41362,7 @@
         <v>44610</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -41424,7 +41424,7 @@
         <v>44610</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -41486,7 +41486,7 @@
         <v>44610</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -41548,7 +41548,7 @@
         <v>44612</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -41605,7 +41605,7 @@
         <v>44616</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -41667,7 +41667,7 @@
         <v>44616</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -41724,7 +41724,7 @@
         <v>44623</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -41786,7 +41786,7 @@
         <v>44634</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -41843,7 +41843,7 @@
         <v>44645</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -41900,7 +41900,7 @@
         <v>44649</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -41957,7 +41957,7 @@
         <v>44649</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42014,7 +42014,7 @@
         <v>44652</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42071,7 +42071,7 @@
         <v>44659</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42133,7 +42133,7 @@
         <v>44659</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42195,7 +42195,7 @@
         <v>44665</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -42257,7 +42257,7 @@
         <v>44673</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -42319,7 +42319,7 @@
         <v>44676</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -42381,7 +42381,7 @@
         <v>44676</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -42438,7 +42438,7 @@
         <v>44690</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -42500,7 +42500,7 @@
         <v>44691</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -42562,7 +42562,7 @@
         <v>44692</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -42624,7 +42624,7 @@
         <v>44699</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -42686,7 +42686,7 @@
         <v>44700</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -42743,7 +42743,7 @@
         <v>44700</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -42800,7 +42800,7 @@
         <v>44701</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -42862,7 +42862,7 @@
         <v>44704</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -42924,7 +42924,7 @@
         <v>44704</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -42981,7 +42981,7 @@
         <v>44711</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43043,7 +43043,7 @@
         <v>44713</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43105,7 +43105,7 @@
         <v>44713</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43167,7 +43167,7 @@
         <v>44714</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43224,7 +43224,7 @@
         <v>44719</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -43281,7 +43281,7 @@
         <v>44720</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -43338,7 +43338,7 @@
         <v>44729</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -43395,7 +43395,7 @@
         <v>44733</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -43452,7 +43452,7 @@
         <v>44742</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -43509,7 +43509,7 @@
         <v>44742</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -43566,7 +43566,7 @@
         <v>44742</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -43628,7 +43628,7 @@
         <v>44742</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -43685,7 +43685,7 @@
         <v>44742</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -43742,7 +43742,7 @@
         <v>44743</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -43799,7 +43799,7 @@
         <v>44762</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -43861,7 +43861,7 @@
         <v>44764</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -43923,7 +43923,7 @@
         <v>44764</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -43985,7 +43985,7 @@
         <v>44769</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44047,7 +44047,7 @@
         <v>44771</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44109,7 +44109,7 @@
         <v>44771</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44171,7 +44171,7 @@
         <v>44771</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44233,7 +44233,7 @@
         <v>44782</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -44290,7 +44290,7 @@
         <v>44782</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -44347,7 +44347,7 @@
         <v>44784</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -44404,7 +44404,7 @@
         <v>44788</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -44461,7 +44461,7 @@
         <v>44795</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -44518,7 +44518,7 @@
         <v>44797</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -44575,7 +44575,7 @@
         <v>44798</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -44632,7 +44632,7 @@
         <v>44806</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -44689,7 +44689,7 @@
         <v>44810</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -44746,7 +44746,7 @@
         <v>44811</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -44803,7 +44803,7 @@
         <v>44816</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -44860,7 +44860,7 @@
         <v>44816</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -44917,7 +44917,7 @@
         <v>44816</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -44974,7 +44974,7 @@
         <v>44816</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45031,7 +45031,7 @@
         <v>44816</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45093,7 +45093,7 @@
         <v>44817</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45150,7 +45150,7 @@
         <v>44817</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -45207,7 +45207,7 @@
         <v>44817</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -45264,7 +45264,7 @@
         <v>44819</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -45326,7 +45326,7 @@
         <v>44831</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -45383,7 +45383,7 @@
         <v>44832</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -45440,7 +45440,7 @@
         <v>44839</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -45497,7 +45497,7 @@
         <v>44844</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -45554,7 +45554,7 @@
         <v>44846</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -45611,7 +45611,7 @@
         <v>44847</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -45668,7 +45668,7 @@
         <v>44847</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -45725,7 +45725,7 @@
         <v>44847</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -45782,7 +45782,7 @@
         <v>44848</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -45839,7 +45839,7 @@
         <v>44849</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -45896,7 +45896,7 @@
         <v>44853</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -45953,7 +45953,7 @@
         <v>44865</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46010,7 +46010,7 @@
         <v>44866</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46067,7 +46067,7 @@
         <v>44872</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -46124,7 +46124,7 @@
         <v>44872</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -46181,7 +46181,7 @@
         <v>44883</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -46243,7 +46243,7 @@
         <v>44883</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -46300,7 +46300,7 @@
         <v>44886</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -46357,7 +46357,7 @@
         <v>44886</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -46419,7 +46419,7 @@
         <v>44888</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -46481,7 +46481,7 @@
         <v>44893</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -46538,7 +46538,7 @@
         <v>44897</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -46595,7 +46595,7 @@
         <v>44897</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -46652,7 +46652,7 @@
         <v>44901</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -46714,7 +46714,7 @@
         <v>44904</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -46776,7 +46776,7 @@
         <v>44908</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -46833,7 +46833,7 @@
         <v>44908</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -46890,7 +46890,7 @@
         <v>44909</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -46947,7 +46947,7 @@
         <v>44909</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47004,7 +47004,7 @@
         <v>44912</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47061,7 +47061,7 @@
         <v>44916</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -47123,7 +47123,7 @@
         <v>44916</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -47180,7 +47180,7 @@
         <v>44928</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -47242,7 +47242,7 @@
         <v>44928</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -47304,7 +47304,7 @@
         <v>44929</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -47361,7 +47361,7 @@
         <v>44930</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -47418,7 +47418,7 @@
         <v>44930</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -47480,7 +47480,7 @@
         <v>44935</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -47537,7 +47537,7 @@
         <v>44944</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -47594,7 +47594,7 @@
         <v>44944</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -47656,7 +47656,7 @@
         <v>44944</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -47713,7 +47713,7 @@
         <v>44944</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -47775,7 +47775,7 @@
         <v>44944</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -47832,7 +47832,7 @@
         <v>44945</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -47889,7 +47889,7 @@
         <v>44946</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -47946,7 +47946,7 @@
         <v>44949</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48008,7 +48008,7 @@
         <v>44950</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -48070,7 +48070,7 @@
         <v>44952</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -48132,7 +48132,7 @@
         <v>44960</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -48194,7 +48194,7 @@
         <v>44960</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -48251,7 +48251,7 @@
         <v>44960</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -48308,7 +48308,7 @@
         <v>44964</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -48365,7 +48365,7 @@
         <v>44964</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -48422,7 +48422,7 @@
         <v>44965</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -48479,7 +48479,7 @@
         <v>44965</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -48536,7 +48536,7 @@
         <v>44966</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -48598,7 +48598,7 @@
         <v>44967</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -48655,7 +48655,7 @@
         <v>44967</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -48712,7 +48712,7 @@
         <v>44967</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -48769,7 +48769,7 @@
         <v>44967</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -48826,7 +48826,7 @@
         <v>44967</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -48883,7 +48883,7 @@
         <v>44969</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -48940,7 +48940,7 @@
         <v>44970</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49002,7 +49002,7 @@
         <v>44971</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -49059,7 +49059,7 @@
         <v>44971</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -49116,7 +49116,7 @@
         <v>44972</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -49173,7 +49173,7 @@
         <v>44973</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -49230,7 +49230,7 @@
         <v>44973</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -49287,7 +49287,7 @@
         <v>44977</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -49349,7 +49349,7 @@
         <v>44977</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -49406,7 +49406,7 @@
         <v>44977</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -49463,7 +49463,7 @@
         <v>44978</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -49525,7 +49525,7 @@
         <v>44980</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -49582,7 +49582,7 @@
         <v>44980</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -49639,7 +49639,7 @@
         <v>44980</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -49696,7 +49696,7 @@
         <v>44980</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -49753,7 +49753,7 @@
         <v>44984</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -49815,7 +49815,7 @@
         <v>44984</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -49872,7 +49872,7 @@
         <v>44988</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -49929,7 +49929,7 @@
         <v>44991</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -49986,7 +49986,7 @@
         <v>44993</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -50043,7 +50043,7 @@
         <v>44993</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -50100,7 +50100,7 @@
         <v>44994</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -50157,7 +50157,7 @@
         <v>45006</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -50214,7 +50214,7 @@
         <v>45009</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -50276,7 +50276,7 @@
         <v>45013</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -50333,7 +50333,7 @@
         <v>45014</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -50390,7 +50390,7 @@
         <v>45026</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -50447,7 +50447,7 @@
         <v>45028</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -50509,7 +50509,7 @@
         <v>45033</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -50566,7 +50566,7 @@
         <v>45036</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -50623,7 +50623,7 @@
         <v>45037</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -50685,7 +50685,7 @@
         <v>45042</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -50742,7 +50742,7 @@
         <v>45042</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -50804,7 +50804,7 @@
         <v>45043</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -50861,7 +50861,7 @@
         <v>45049</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -50918,7 +50918,7 @@
         <v>45049</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -50975,7 +50975,7 @@
         <v>45049</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -51032,7 +51032,7 @@
         <v>45049</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -51089,7 +51089,7 @@
         <v>45050</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -51146,7 +51146,7 @@
         <v>45050</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -51203,7 +51203,7 @@
         <v>45050</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -51260,7 +51260,7 @@
         <v>45054</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -51317,7 +51317,7 @@
         <v>45054</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -51374,7 +51374,7 @@
         <v>45055</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -51431,7 +51431,7 @@
         <v>45056</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -51493,7 +51493,7 @@
         <v>45056</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -51555,7 +51555,7 @@
         <v>45058</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -51612,7 +51612,7 @@
         <v>45058</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -51669,7 +51669,7 @@
         <v>45058</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -51726,7 +51726,7 @@
         <v>45058</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -51783,7 +51783,7 @@
         <v>45058</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -51840,7 +51840,7 @@
         <v>45058</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -51902,7 +51902,7 @@
         <v>45060</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -51959,7 +51959,7 @@
         <v>45061</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -52016,7 +52016,7 @@
         <v>45063</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -52073,7 +52073,7 @@
         <v>45063</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -52130,7 +52130,7 @@
         <v>45063</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -52187,7 +52187,7 @@
         <v>45063</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -52244,7 +52244,7 @@
         <v>45070</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -52306,7 +52306,7 @@
         <v>45075</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -52363,7 +52363,7 @@
         <v>45078</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -52420,7 +52420,7 @@
         <v>45078</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -52482,7 +52482,7 @@
         <v>45078</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -52539,7 +52539,7 @@
         <v>45079</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -52596,7 +52596,7 @@
         <v>45084</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -52658,7 +52658,7 @@
         <v>45086</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -52720,7 +52720,7 @@
         <v>45089</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -52777,7 +52777,7 @@
         <v>45089</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -52834,7 +52834,7 @@
         <v>45089</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -52891,7 +52891,7 @@
         <v>45089</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -52948,7 +52948,7 @@
         <v>45091</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -53010,7 +53010,7 @@
         <v>45091</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -53067,7 +53067,7 @@
         <v>45091</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -53129,7 +53129,7 @@
         <v>45091</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -53191,7 +53191,7 @@
         <v>45091</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -53248,7 +53248,7 @@
         <v>45093</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -53310,7 +53310,7 @@
         <v>45096</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -53367,7 +53367,7 @@
         <v>45096</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -53424,7 +53424,7 @@
         <v>45096</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -53481,7 +53481,7 @@
         <v>45096</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -53538,7 +53538,7 @@
         <v>45096</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -53595,7 +53595,7 @@
         <v>45096</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -53652,7 +53652,7 @@
         <v>45096</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -53709,7 +53709,7 @@
         <v>45096</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -53766,7 +53766,7 @@
         <v>45097</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -53823,7 +53823,7 @@
         <v>45097</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -53880,7 +53880,7 @@
         <v>45097</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -53937,7 +53937,7 @@
         <v>45097</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -53994,7 +53994,7 @@
         <v>45097</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -54051,7 +54051,7 @@
         <v>45103</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -54108,7 +54108,7 @@
         <v>45103</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -54165,7 +54165,7 @@
         <v>45105</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -54222,7 +54222,7 @@
         <v>45105</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -54279,7 +54279,7 @@
         <v>45105</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -54336,7 +54336,7 @@
         <v>45107</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -54393,7 +54393,7 @@
         <v>45107</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -54450,7 +54450,7 @@
         <v>45107</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -54512,7 +54512,7 @@
         <v>45107</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -54574,7 +54574,7 @@
         <v>45107</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -54631,7 +54631,7 @@
         <v>45110</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -54688,7 +54688,7 @@
         <v>45112</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -54745,7 +54745,7 @@
         <v>45113</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -54802,7 +54802,7 @@
         <v>45119</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -54859,7 +54859,7 @@
         <v>45121</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -54921,7 +54921,7 @@
         <v>45123</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -54978,7 +54978,7 @@
         <v>45127</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -55035,7 +55035,7 @@
         <v>45128</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -55092,7 +55092,7 @@
         <v>45131</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -55149,7 +55149,7 @@
         <v>45132</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -55206,7 +55206,7 @@
         <v>45134</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -55263,7 +55263,7 @@
         <v>45145</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -55320,7 +55320,7 @@
         <v>45148</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -55377,7 +55377,7 @@
         <v>45148</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -55434,7 +55434,7 @@
         <v>45148</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -55491,7 +55491,7 @@
         <v>45148</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -55548,7 +55548,7 @@
         <v>45148</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -55605,7 +55605,7 @@
         <v>45149</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -55667,7 +55667,7 @@
         <v>45152</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -55724,7 +55724,7 @@
         <v>45152</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -55786,7 +55786,7 @@
         <v>45152</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -55843,7 +55843,7 @@
         <v>45152</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -55905,7 +55905,7 @@
         <v>45153</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -55967,7 +55967,7 @@
         <v>45153</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -56029,7 +56029,7 @@
         <v>45160</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -56086,7 +56086,7 @@
         <v>45161</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -56143,7 +56143,7 @@
         <v>45162</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -56200,7 +56200,7 @@
         <v>45162</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -56257,7 +56257,7 @@
         <v>45162</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -56319,7 +56319,7 @@
         <v>45162</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -56381,7 +56381,7 @@
         <v>45164</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -56443,7 +56443,7 @@
         <v>45167</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -56500,7 +56500,7 @@
         <v>45169</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -56562,7 +56562,7 @@
         <v>45169</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -56624,7 +56624,7 @@
         <v>45173</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -56681,7 +56681,7 @@
         <v>45173</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -56738,7 +56738,7 @@
         <v>45175</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -56790,7 +56790,7 @@
       </c>
       <c r="R897" s="2" t="inlineStr"/>
     </row>
-    <row r="898">
+    <row r="898" ht="15" customHeight="1">
       <c r="A898" t="inlineStr">
         <is>
           <t>A 42436-2023</t>
@@ -56800,7 +56800,7 @@
         <v>45180</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -56846,6 +56846,125 @@
         <v>0</v>
       </c>
       <c r="R898" s="2" t="inlineStr"/>
+    </row>
+    <row r="899" ht="15" customHeight="1">
+      <c r="A899" t="inlineStr">
+        <is>
+          <t>A 43944-2023</t>
+        </is>
+      </c>
+      <c r="B899" s="1" t="n">
+        <v>45187</v>
+      </c>
+      <c r="C899" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D899" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E899" t="inlineStr">
+        <is>
+          <t>UPPSALA</t>
+        </is>
+      </c>
+      <c r="G899" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="H899" t="n">
+        <v>0</v>
+      </c>
+      <c r="I899" t="n">
+        <v>0</v>
+      </c>
+      <c r="J899" t="n">
+        <v>0</v>
+      </c>
+      <c r="K899" t="n">
+        <v>0</v>
+      </c>
+      <c r="L899" t="n">
+        <v>0</v>
+      </c>
+      <c r="M899" t="n">
+        <v>0</v>
+      </c>
+      <c r="N899" t="n">
+        <v>0</v>
+      </c>
+      <c r="O899" t="n">
+        <v>0</v>
+      </c>
+      <c r="P899" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q899" t="n">
+        <v>0</v>
+      </c>
+      <c r="R899" s="2" t="inlineStr"/>
+    </row>
+    <row r="900">
+      <c r="A900" t="inlineStr">
+        <is>
+          <t>A 44115-2023</t>
+        </is>
+      </c>
+      <c r="B900" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="C900" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D900" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E900" t="inlineStr">
+        <is>
+          <t>UPPSALA</t>
+        </is>
+      </c>
+      <c r="F900" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
+      <c r="G900" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H900" t="n">
+        <v>0</v>
+      </c>
+      <c r="I900" t="n">
+        <v>0</v>
+      </c>
+      <c r="J900" t="n">
+        <v>0</v>
+      </c>
+      <c r="K900" t="n">
+        <v>0</v>
+      </c>
+      <c r="L900" t="n">
+        <v>0</v>
+      </c>
+      <c r="M900" t="n">
+        <v>0</v>
+      </c>
+      <c r="N900" t="n">
+        <v>0</v>
+      </c>
+      <c r="O900" t="n">
+        <v>0</v>
+      </c>
+      <c r="P900" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q900" t="n">
+        <v>0</v>
+      </c>
+      <c r="R900" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt UPPSALA.xlsx
+++ b/Översikt UPPSALA.xlsx
@@ -572,7 +572,7 @@
         <v>44012</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         <v>43913</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         <v>43762</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44377</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>44349</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>45082</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>43381</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>43875</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>45013</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1526,7 +1526,7 @@
         <v>44222</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>44623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         <v>44971</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>43796</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>44053</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>44356</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>45086</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>44158</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>44180</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2499,7 +2499,7 @@
         <v>44497</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>44901</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>45092</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
         <v>43433</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>44376</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>44575</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>44356</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3155,7 +3155,7 @@
         <v>43814</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43861</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>44119</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3427,7 +3427,7 @@
         <v>44351</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>44500</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>44574</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3702,7 +3702,7 @@
         <v>44792</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>44879</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>44922</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>44977</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>45107</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>43511</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         <v>43857</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43980</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>44056</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>44101</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
         <v>44462</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>44664</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>44719</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>44740</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>44974</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>45002</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5160,7 +5160,7 @@
         <v>45049</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5336,7 +5336,7 @@
         <v>43511</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>43731</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43796</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>44101</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>44133</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>44495</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>44652</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>44684</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>44692</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>44791</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>44804</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>44938</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6410,7 +6410,7 @@
         <v>44956</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
         <v>44973</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6589,7 +6589,7 @@
         <v>43503</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6680,7 +6680,7 @@
         <v>43545</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>43607</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>43654</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6943,7 +6943,7 @@
         <v>43742</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         <v>43929</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>44054</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>44101</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>44659</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>44879</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>44967</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>45002</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>45090</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7742,7 +7742,7 @@
         <v>45121</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7833,7 +7833,7 @@
         <v>43321</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>43339</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>43462</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8088,7 +8088,7 @@
         <v>43473</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>43473</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8263,7 +8263,7 @@
         <v>43528</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>43551</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>43693</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>43693</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>43731</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8693,7 +8693,7 @@
         <v>43755</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8778,7 +8778,7 @@
         <v>43867</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43893</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8948,7 +8948,7 @@
         <v>43980</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>44042</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>44266</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>44467</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         <v>44487</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         <v>44489</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>44589</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>44614</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9643,7 +9643,7 @@
         <v>44645</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>44678</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>44729</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>44849</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>44855</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10088,7 +10088,7 @@
         <v>44897</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>44917</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         <v>44958</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10348,7 +10348,7 @@
         <v>44963</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>45002</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10523,7 +10523,7 @@
         <v>45021</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>45022</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10698,7 +10698,7 @@
         <v>45022</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>45055</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
         <v>45061</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>45072</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>45097</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>45098</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11218,7 +11218,7 @@
         <v>45104</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11303,7 +11303,7 @@
         <v>45121</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11393,7 +11393,7 @@
         <v>45139</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11478,7 +11478,7 @@
         <v>43321</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11535,7 +11535,7 @@
         <v>43321</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11592,7 +11592,7 @@
         <v>43335</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11649,7 +11649,7 @@
         <v>43341</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11706,7 +11706,7 @@
         <v>43347</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11763,7 +11763,7 @@
         <v>43355</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11820,7 +11820,7 @@
         <v>43360</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11877,7 +11877,7 @@
         <v>43377</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11934,7 +11934,7 @@
         <v>43378</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11996,7 +11996,7 @@
         <v>43378</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12053,7 +12053,7 @@
         <v>43378</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         <v>43381</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         <v>43381</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>43389</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>43395</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>43398</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>43407</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>43411</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>43418</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>43420</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12658,7 +12658,7 @@
         <v>43423</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12715,7 +12715,7 @@
         <v>43423</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12772,7 +12772,7 @@
         <v>43424</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12829,7 +12829,7 @@
         <v>43424</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>43424</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12953,7 +12953,7 @@
         <v>43427</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13010,7 +13010,7 @@
         <v>43430</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13067,7 +13067,7 @@
         <v>43431</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         <v>43433</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>43433</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>43433</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13295,7 +13295,7 @@
         <v>43433</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13352,7 +13352,7 @@
         <v>43436</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13409,7 +13409,7 @@
         <v>43436</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13466,7 +13466,7 @@
         <v>43437</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13523,7 +13523,7 @@
         <v>43439</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13580,7 +13580,7 @@
         <v>43444</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13637,7 +13637,7 @@
         <v>43445</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13694,7 +13694,7 @@
         <v>43446</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13751,7 +13751,7 @@
         <v>43447</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13808,7 +13808,7 @@
         <v>43447</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13865,7 +13865,7 @@
         <v>43447</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13927,7 +13927,7 @@
         <v>43451</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13984,7 +13984,7 @@
         <v>43451</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
         <v>43451</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14098,7 +14098,7 @@
         <v>43452</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>43452</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         <v>43455</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>43455</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14326,7 +14326,7 @@
         <v>43455</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14383,7 +14383,7 @@
         <v>43455</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14440,7 +14440,7 @@
         <v>43460</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14497,7 +14497,7 @@
         <v>43464</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14554,7 +14554,7 @@
         <v>43468</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14611,7 +14611,7 @@
         <v>43472</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14668,7 +14668,7 @@
         <v>43472</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14725,7 +14725,7 @@
         <v>43472</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14782,7 +14782,7 @@
         <v>43472</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>43473</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14901,7 +14901,7 @@
         <v>43473</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>43473</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>43473</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>43473</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>43473</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>43473</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>43473</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>43474</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>43474</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>43475</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>43475</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>43475</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15585,7 +15585,7 @@
         <v>43476</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>43479</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>43479</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>43479</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15818,7 +15818,7 @@
         <v>43479</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>43479</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15942,7 +15942,7 @@
         <v>43480</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15999,7 +15999,7 @@
         <v>43480</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16056,7 +16056,7 @@
         <v>43481</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>43481</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>43481</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>43481</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16284,7 +16284,7 @@
         <v>43481</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>43482</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>43482</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>43482</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>43482</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>43482</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>43482</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>43482</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16745,7 +16745,7 @@
         <v>43485</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16802,7 +16802,7 @@
         <v>43486</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16859,7 +16859,7 @@
         <v>43486</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>43486</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>43487</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17035,7 +17035,7 @@
         <v>43488</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>43488</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>43488</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>43492</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>43493</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>43493</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>43496</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>43496</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>43498</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>43500</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>43500</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17687,7 +17687,7 @@
         <v>43500</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>43500</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17801,7 +17801,7 @@
         <v>43500</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>43503</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         <v>43504</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>43507</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18034,7 +18034,7 @@
         <v>43507</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         <v>43508</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18148,7 +18148,7 @@
         <v>43509</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18205,7 +18205,7 @@
         <v>43511</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18262,7 +18262,7 @@
         <v>43511</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18319,7 +18319,7 @@
         <v>43511</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18376,7 +18376,7 @@
         <v>43511</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18433,7 +18433,7 @@
         <v>43511</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>43516</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         <v>43517</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18609,7 +18609,7 @@
         <v>43517</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18671,7 +18671,7 @@
         <v>43517</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>43517</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18795,7 +18795,7 @@
         <v>43523</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18852,7 +18852,7 @@
         <v>43528</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         <v>43528</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18966,7 +18966,7 @@
         <v>43531</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19023,7 +19023,7 @@
         <v>43531</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19080,7 +19080,7 @@
         <v>43531</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19142,7 +19142,7 @@
         <v>43532</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>43535</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>43536</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>43538</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19380,7 +19380,7 @@
         <v>43538</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19442,7 +19442,7 @@
         <v>43544</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19499,7 +19499,7 @@
         <v>43550</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19556,7 +19556,7 @@
         <v>43552</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19613,7 +19613,7 @@
         <v>43553</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         <v>43553</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19732,7 +19732,7 @@
         <v>43556</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19789,7 +19789,7 @@
         <v>43559</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19846,7 +19846,7 @@
         <v>43559</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19903,7 +19903,7 @@
         <v>43560</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19960,7 +19960,7 @@
         <v>43570</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20017,7 +20017,7 @@
         <v>43572</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         <v>43578</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20131,7 +20131,7 @@
         <v>43578</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
         <v>43583</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20245,7 +20245,7 @@
         <v>43585</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20307,7 +20307,7 @@
         <v>43591</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20364,7 +20364,7 @@
         <v>43592</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20426,7 +20426,7 @@
         <v>43600</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20483,7 +20483,7 @@
         <v>43605</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20540,7 +20540,7 @@
         <v>43605</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20597,7 +20597,7 @@
         <v>43607</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20654,7 +20654,7 @@
         <v>43628</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20711,7 +20711,7 @@
         <v>43628</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>43628</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         <v>43630</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20887,7 +20887,7 @@
         <v>43630</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20944,7 +20944,7 @@
         <v>43647</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21001,7 +21001,7 @@
         <v>43647</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21058,7 +21058,7 @@
         <v>43648</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         <v>43651</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21172,7 +21172,7 @@
         <v>43651</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21229,7 +21229,7 @@
         <v>43651</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21286,7 +21286,7 @@
         <v>43651</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21343,7 +21343,7 @@
         <v>43654</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21400,7 +21400,7 @@
         <v>43654</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21457,7 +21457,7 @@
         <v>43656</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21514,7 +21514,7 @@
         <v>43661</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21571,7 +21571,7 @@
         <v>43661</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21628,7 +21628,7 @@
         <v>43663</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21685,7 +21685,7 @@
         <v>43677</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21742,7 +21742,7 @@
         <v>43682</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21799,7 +21799,7 @@
         <v>43686</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21856,7 +21856,7 @@
         <v>43693</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
         <v>43696</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21975,7 +21975,7 @@
         <v>43696</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22032,7 +22032,7 @@
         <v>43699</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22089,7 +22089,7 @@
         <v>43699</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         <v>43699</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22203,7 +22203,7 @@
         <v>43705</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22260,7 +22260,7 @@
         <v>43706</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22322,7 +22322,7 @@
         <v>43706</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22384,7 +22384,7 @@
         <v>43706</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22446,7 +22446,7 @@
         <v>43706</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22503,7 +22503,7 @@
         <v>43706</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22565,7 +22565,7 @@
         <v>43706</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         <v>43707</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22689,7 +22689,7 @@
         <v>43707</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22751,7 +22751,7 @@
         <v>43707</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22808,7 +22808,7 @@
         <v>43707</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22870,7 +22870,7 @@
         <v>43710</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22927,7 +22927,7 @@
         <v>43712</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22984,7 +22984,7 @@
         <v>43712</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23041,7 +23041,7 @@
         <v>43713</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23098,7 +23098,7 @@
         <v>43716</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23155,7 +23155,7 @@
         <v>43718</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23212,7 +23212,7 @@
         <v>43718</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23274,7 +23274,7 @@
         <v>43718</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23331,7 +23331,7 @@
         <v>43718</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23393,7 +23393,7 @@
         <v>43718</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23455,7 +23455,7 @@
         <v>43718</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23512,7 +23512,7 @@
         <v>43720</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23569,7 +23569,7 @@
         <v>43727</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23626,7 +23626,7 @@
         <v>43730</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>43733</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23745,7 +23745,7 @@
         <v>43735</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23807,7 +23807,7 @@
         <v>43735</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23869,7 +23869,7 @@
         <v>43736</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23926,7 +23926,7 @@
         <v>43745</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23983,7 +23983,7 @@
         <v>43745</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24045,7 +24045,7 @@
         <v>43747</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24107,7 +24107,7 @@
         <v>43748</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24164,7 +24164,7 @@
         <v>43755</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>43759</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>43763</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24345,7 +24345,7 @@
         <v>43773</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24402,7 +24402,7 @@
         <v>43773</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24459,7 +24459,7 @@
         <v>43773</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24521,7 +24521,7 @@
         <v>43777</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24578,7 +24578,7 @@
         <v>43777</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>43780</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24702,7 +24702,7 @@
         <v>43780</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24764,7 +24764,7 @@
         <v>43782</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24821,7 +24821,7 @@
         <v>43784</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24878,7 +24878,7 @@
         <v>43791</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24935,7 +24935,7 @@
         <v>43791</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24992,7 +24992,7 @@
         <v>43791</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25049,7 +25049,7 @@
         <v>43791</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         <v>43795</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25163,7 +25163,7 @@
         <v>43795</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25220,7 +25220,7 @@
         <v>43795</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25277,7 +25277,7 @@
         <v>43801</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25334,7 +25334,7 @@
         <v>43801</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25391,7 +25391,7 @@
         <v>43803</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25448,7 +25448,7 @@
         <v>43808</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25505,7 +25505,7 @@
         <v>43808</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25562,7 +25562,7 @@
         <v>43811</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25619,7 +25619,7 @@
         <v>43812</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25681,7 +25681,7 @@
         <v>43814</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25743,7 +25743,7 @@
         <v>43814</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25805,7 +25805,7 @@
         <v>43815</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25862,7 +25862,7 @@
         <v>43815</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25924,7 +25924,7 @@
         <v>43817</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25981,7 +25981,7 @@
         <v>43817</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26038,7 +26038,7 @@
         <v>43818</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26095,7 +26095,7 @@
         <v>43818</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26152,7 +26152,7 @@
         <v>43822</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26209,7 +26209,7 @@
         <v>43837</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26266,7 +26266,7 @@
         <v>43837</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26323,7 +26323,7 @@
         <v>43838</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26380,7 +26380,7 @@
         <v>43844</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26437,7 +26437,7 @@
         <v>43850</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26494,7 +26494,7 @@
         <v>43853</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26551,7 +26551,7 @@
         <v>43853</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26613,7 +26613,7 @@
         <v>43866</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26675,7 +26675,7 @@
         <v>43866</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26737,7 +26737,7 @@
         <v>43867</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26794,7 +26794,7 @@
         <v>43874</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26851,7 +26851,7 @@
         <v>43878</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26913,7 +26913,7 @@
         <v>43878</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26970,7 +26970,7 @@
         <v>43878</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27027,7 +27027,7 @@
         <v>43879</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27089,7 +27089,7 @@
         <v>43879</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27151,7 +27151,7 @@
         <v>43879</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27213,7 +27213,7 @@
         <v>43881</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27270,7 +27270,7 @@
         <v>43882</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27327,7 +27327,7 @@
         <v>43882</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27389,7 +27389,7 @@
         <v>43882</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         <v>43886</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>43887</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>43891</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>43892</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27689,7 +27689,7 @@
         <v>43892</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         <v>43892</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27808,7 +27808,7 @@
         <v>43894</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27865,7 +27865,7 @@
         <v>43894</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27922,7 +27922,7 @@
         <v>43899</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27979,7 +27979,7 @@
         <v>43899</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28041,7 +28041,7 @@
         <v>43903</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28098,7 +28098,7 @@
         <v>43908</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28155,7 +28155,7 @@
         <v>43908</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28212,7 +28212,7 @@
         <v>43908</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28274,7 +28274,7 @@
         <v>43908</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28331,7 +28331,7 @@
         <v>43913</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28393,7 +28393,7 @@
         <v>43927</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28450,7 +28450,7 @@
         <v>43927</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28507,7 +28507,7 @@
         <v>43929</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28564,7 +28564,7 @@
         <v>43937</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28621,7 +28621,7 @@
         <v>43944</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28678,7 +28678,7 @@
         <v>43948</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28735,7 +28735,7 @@
         <v>43948</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28792,7 +28792,7 @@
         <v>43950</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28854,7 +28854,7 @@
         <v>43973</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28916,7 +28916,7 @@
         <v>43984</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28973,7 +28973,7 @@
         <v>43987</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29030,7 +29030,7 @@
         <v>43987</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29087,7 +29087,7 @@
         <v>43990</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29144,7 +29144,7 @@
         <v>43999</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29201,7 +29201,7 @@
         <v>43999</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29258,7 +29258,7 @@
         <v>44000</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29315,7 +29315,7 @@
         <v>44000</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29372,7 +29372,7 @@
         <v>44007</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29429,7 +29429,7 @@
         <v>44007</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29486,7 +29486,7 @@
         <v>44012</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29548,7 +29548,7 @@
         <v>44013</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29605,7 +29605,7 @@
         <v>44014</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29662,7 +29662,7 @@
         <v>44015</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29724,7 +29724,7 @@
         <v>44016</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29786,7 +29786,7 @@
         <v>44019</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29848,7 +29848,7 @@
         <v>44026</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29905,7 +29905,7 @@
         <v>44029</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29962,7 +29962,7 @@
         <v>44033</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30024,7 +30024,7 @@
         <v>44035</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30081,7 +30081,7 @@
         <v>44035</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30138,7 +30138,7 @@
         <v>44041</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30200,7 +30200,7 @@
         <v>44048</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30262,7 +30262,7 @@
         <v>44048</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30324,7 +30324,7 @@
         <v>44048</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         <v>44050</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30443,7 +30443,7 @@
         <v>44055</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30500,7 +30500,7 @@
         <v>44056</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30557,7 +30557,7 @@
         <v>44063</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         <v>44063</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30676,7 +30676,7 @@
         <v>44063</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30733,7 +30733,7 @@
         <v>44063</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30790,7 +30790,7 @@
         <v>44070</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30847,7 +30847,7 @@
         <v>44076</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30904,7 +30904,7 @@
         <v>44081</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30961,7 +30961,7 @@
         <v>44083</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31018,7 +31018,7 @@
         <v>44091</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31080,7 +31080,7 @@
         <v>44095</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31137,7 +31137,7 @@
         <v>44095</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31194,7 +31194,7 @@
         <v>44103</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31251,7 +31251,7 @@
         <v>44105</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31313,7 +31313,7 @@
         <v>44105</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31370,7 +31370,7 @@
         <v>44105</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31432,7 +31432,7 @@
         <v>44106</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31489,7 +31489,7 @@
         <v>44109</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31546,7 +31546,7 @@
         <v>44119</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31603,7 +31603,7 @@
         <v>44123</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31660,7 +31660,7 @@
         <v>44123</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31717,7 +31717,7 @@
         <v>44126</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31774,7 +31774,7 @@
         <v>44130</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31831,7 +31831,7 @@
         <v>44131</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31893,7 +31893,7 @@
         <v>44131</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31955,7 +31955,7 @@
         <v>44134</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32017,7 +32017,7 @@
         <v>44137</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32074,7 +32074,7 @@
         <v>44139</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         <v>44139</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32188,7 +32188,7 @@
         <v>44139</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32245,7 +32245,7 @@
         <v>44140</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32302,7 +32302,7 @@
         <v>44144</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32359,7 +32359,7 @@
         <v>44144</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32416,7 +32416,7 @@
         <v>44144</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32473,7 +32473,7 @@
         <v>44146</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32530,7 +32530,7 @@
         <v>44151</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32587,7 +32587,7 @@
         <v>44153</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32649,7 +32649,7 @@
         <v>44155</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         <v>44155</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32763,7 +32763,7 @@
         <v>44159</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32825,7 +32825,7 @@
         <v>44159</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32887,7 +32887,7 @@
         <v>44160</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32949,7 +32949,7 @@
         <v>44161</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33011,7 +33011,7 @@
         <v>44161</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33073,7 +33073,7 @@
         <v>44162</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33130,7 +33130,7 @@
         <v>44165</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33192,7 +33192,7 @@
         <v>44166</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33254,7 +33254,7 @@
         <v>44167</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33311,7 +33311,7 @@
         <v>44168</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33368,7 +33368,7 @@
         <v>44180</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33430,7 +33430,7 @@
         <v>44200</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33487,7 +33487,7 @@
         <v>44207</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33549,7 +33549,7 @@
         <v>44209</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33606,7 +33606,7 @@
         <v>44209</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33663,7 +33663,7 @@
         <v>44210</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33720,7 +33720,7 @@
         <v>44211</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33777,7 +33777,7 @@
         <v>44216</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33834,7 +33834,7 @@
         <v>44216</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33891,7 +33891,7 @@
         <v>44222</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33948,7 +33948,7 @@
         <v>44223</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34005,7 +34005,7 @@
         <v>44230</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34062,7 +34062,7 @@
         <v>44245</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34119,7 +34119,7 @@
         <v>44252</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34176,7 +34176,7 @@
         <v>44252</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34233,7 +34233,7 @@
         <v>44266</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34290,7 +34290,7 @@
         <v>44273</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34347,7 +34347,7 @@
         <v>44279</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34404,7 +34404,7 @@
         <v>44286</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34461,7 +34461,7 @@
         <v>44286</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34518,7 +34518,7 @@
         <v>44294</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34580,7 +34580,7 @@
         <v>44297</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34637,7 +34637,7 @@
         <v>44297</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34699,7 +34699,7 @@
         <v>44299</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34761,7 +34761,7 @@
         <v>44313</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34823,7 +34823,7 @@
         <v>44313</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34885,7 +34885,7 @@
         <v>44314</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34947,7 +34947,7 @@
         <v>44351</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35009,7 +35009,7 @@
         <v>44357</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35071,7 +35071,7 @@
         <v>44365</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35133,7 +35133,7 @@
         <v>44365</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35190,7 +35190,7 @@
         <v>44369</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35247,7 +35247,7 @@
         <v>44379</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35304,7 +35304,7 @@
         <v>44379</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35361,7 +35361,7 @@
         <v>44383</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35423,7 +35423,7 @@
         <v>44383</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35485,7 +35485,7 @@
         <v>44390</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35542,7 +35542,7 @@
         <v>44395</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35599,7 +35599,7 @@
         <v>44407</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35661,7 +35661,7 @@
         <v>44420</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35718,7 +35718,7 @@
         <v>44420</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35775,7 +35775,7 @@
         <v>44426</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35832,7 +35832,7 @@
         <v>44438</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35894,7 +35894,7 @@
         <v>44442</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -35951,7 +35951,7 @@
         <v>44445</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36008,7 +36008,7 @@
         <v>44446</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36065,7 +36065,7 @@
         <v>44447</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36122,7 +36122,7 @@
         <v>44453</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36179,7 +36179,7 @@
         <v>44459</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36241,7 +36241,7 @@
         <v>44461</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36303,7 +36303,7 @@
         <v>44463</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36360,7 +36360,7 @@
         <v>44470</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36417,7 +36417,7 @@
         <v>44479</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36474,7 +36474,7 @@
         <v>44481</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36531,7 +36531,7 @@
         <v>44484</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36588,7 +36588,7 @@
         <v>44486</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36645,7 +36645,7 @@
         <v>44489</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36702,7 +36702,7 @@
         <v>44489</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36759,7 +36759,7 @@
         <v>44494</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36821,7 +36821,7 @@
         <v>44495</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36878,7 +36878,7 @@
         <v>44497</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36935,7 +36935,7 @@
         <v>44503</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -36992,7 +36992,7 @@
         <v>44504</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37049,7 +37049,7 @@
         <v>44512</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         <v>44512</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37163,7 +37163,7 @@
         <v>44512</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37220,7 +37220,7 @@
         <v>44512</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37277,7 +37277,7 @@
         <v>44515</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37334,7 +37334,7 @@
         <v>44516</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37391,7 +37391,7 @@
         <v>44517</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37448,7 +37448,7 @@
         <v>44517</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37505,7 +37505,7 @@
         <v>44517</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37562,7 +37562,7 @@
         <v>44518</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37619,7 +37619,7 @@
         <v>44519</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37676,7 +37676,7 @@
         <v>44522</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37733,7 +37733,7 @@
         <v>44522</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37790,7 +37790,7 @@
         <v>44525</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37852,7 +37852,7 @@
         <v>44526</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -37914,7 +37914,7 @@
         <v>44526</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -37971,7 +37971,7 @@
         <v>44526</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38028,7 +38028,7 @@
         <v>44531</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38085,7 +38085,7 @@
         <v>44531</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38142,7 +38142,7 @@
         <v>44531</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38204,7 +38204,7 @@
         <v>44531</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38261,7 +38261,7 @@
         <v>44532</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38318,7 +38318,7 @@
         <v>44532</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38375,7 +38375,7 @@
         <v>44532</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38432,7 +38432,7 @@
         <v>44532</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38489,7 +38489,7 @@
         <v>44535</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         <v>44535</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38603,7 +38603,7 @@
         <v>44540</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38665,7 +38665,7 @@
         <v>44543</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38727,7 +38727,7 @@
         <v>44543</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38789,7 +38789,7 @@
         <v>44544</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -38846,7 +38846,7 @@
         <v>44544</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -38903,7 +38903,7 @@
         <v>44548</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -38960,7 +38960,7 @@
         <v>44553</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39017,7 +39017,7 @@
         <v>44553</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39074,7 +39074,7 @@
         <v>44560</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39131,7 +39131,7 @@
         <v>44560</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39188,7 +39188,7 @@
         <v>44569</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39250,7 +39250,7 @@
         <v>44571</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -39312,7 +39312,7 @@
         <v>44572</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -39374,7 +39374,7 @@
         <v>44574</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39431,7 +39431,7 @@
         <v>44575</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39488,7 +39488,7 @@
         <v>44575</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39545,7 +39545,7 @@
         <v>44575</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39602,7 +39602,7 @@
         <v>44583</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -39664,7 +39664,7 @@
         <v>44583</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -39726,7 +39726,7 @@
         <v>44583</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -39788,7 +39788,7 @@
         <v>44588</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -39845,7 +39845,7 @@
         <v>44588</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -39902,7 +39902,7 @@
         <v>44593</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -39964,7 +39964,7 @@
         <v>44593</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40021,7 +40021,7 @@
         <v>44593</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40078,7 +40078,7 @@
         <v>44593</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40135,7 +40135,7 @@
         <v>44594</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40192,7 +40192,7 @@
         <v>44594</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40249,7 +40249,7 @@
         <v>44598</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         <v>44600</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -40363,7 +40363,7 @@
         <v>44600</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -40425,7 +40425,7 @@
         <v>44602</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -40482,7 +40482,7 @@
         <v>44602</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -40539,7 +40539,7 @@
         <v>44602</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -40596,7 +40596,7 @@
         <v>44602</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -40653,7 +40653,7 @@
         <v>44602</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -40710,7 +40710,7 @@
         <v>44602</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -40772,7 +40772,7 @@
         <v>44602</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -40829,7 +40829,7 @@
         <v>44603</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -40886,7 +40886,7 @@
         <v>44603</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -40943,7 +40943,7 @@
         <v>44603</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41000,7 +41000,7 @@
         <v>44606</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41057,7 +41057,7 @@
         <v>44608</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41119,7 +41119,7 @@
         <v>44608</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41181,7 +41181,7 @@
         <v>44608</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41238,7 +41238,7 @@
         <v>44609</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -41300,7 +41300,7 @@
         <v>44609</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -41362,7 +41362,7 @@
         <v>44610</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -41424,7 +41424,7 @@
         <v>44610</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -41486,7 +41486,7 @@
         <v>44610</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -41548,7 +41548,7 @@
         <v>44612</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -41605,7 +41605,7 @@
         <v>44616</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -41667,7 +41667,7 @@
         <v>44616</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -41724,7 +41724,7 @@
         <v>44623</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -41786,7 +41786,7 @@
         <v>44634</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -41843,7 +41843,7 @@
         <v>44645</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -41900,7 +41900,7 @@
         <v>44649</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -41957,7 +41957,7 @@
         <v>44649</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42014,7 +42014,7 @@
         <v>44652</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42071,7 +42071,7 @@
         <v>44659</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42133,7 +42133,7 @@
         <v>44659</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42195,7 +42195,7 @@
         <v>44665</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -42257,7 +42257,7 @@
         <v>44673</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -42319,7 +42319,7 @@
         <v>44676</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -42381,7 +42381,7 @@
         <v>44676</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -42438,7 +42438,7 @@
         <v>44690</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -42500,7 +42500,7 @@
         <v>44691</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -42562,7 +42562,7 @@
         <v>44692</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -42624,7 +42624,7 @@
         <v>44699</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -42686,7 +42686,7 @@
         <v>44700</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -42743,7 +42743,7 @@
         <v>44700</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -42800,7 +42800,7 @@
         <v>44701</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -42862,7 +42862,7 @@
         <v>44704</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -42924,7 +42924,7 @@
         <v>44704</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -42981,7 +42981,7 @@
         <v>44711</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43043,7 +43043,7 @@
         <v>44713</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43105,7 +43105,7 @@
         <v>44713</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43167,7 +43167,7 @@
         <v>44714</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43224,7 +43224,7 @@
         <v>44719</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -43281,7 +43281,7 @@
         <v>44720</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -43338,7 +43338,7 @@
         <v>44729</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -43395,7 +43395,7 @@
         <v>44733</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -43452,7 +43452,7 @@
         <v>44742</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -43509,7 +43509,7 @@
         <v>44742</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -43566,7 +43566,7 @@
         <v>44742</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -43628,7 +43628,7 @@
         <v>44742</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -43685,7 +43685,7 @@
         <v>44742</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -43742,7 +43742,7 @@
         <v>44743</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -43799,7 +43799,7 @@
         <v>44762</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -43861,7 +43861,7 @@
         <v>44764</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -43923,7 +43923,7 @@
         <v>44764</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -43985,7 +43985,7 @@
         <v>44769</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44047,7 +44047,7 @@
         <v>44771</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44109,7 +44109,7 @@
         <v>44771</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44171,7 +44171,7 @@
         <v>44771</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44233,7 +44233,7 @@
         <v>44782</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -44290,7 +44290,7 @@
         <v>44782</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -44347,7 +44347,7 @@
         <v>44784</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -44404,7 +44404,7 @@
         <v>44788</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -44461,7 +44461,7 @@
         <v>44795</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -44518,7 +44518,7 @@
         <v>44797</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -44575,7 +44575,7 @@
         <v>44798</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -44632,7 +44632,7 @@
         <v>44806</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -44689,7 +44689,7 @@
         <v>44810</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -44746,7 +44746,7 @@
         <v>44811</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -44803,7 +44803,7 @@
         <v>44816</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -44860,7 +44860,7 @@
         <v>44816</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -44917,7 +44917,7 @@
         <v>44816</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -44974,7 +44974,7 @@
         <v>44816</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45031,7 +45031,7 @@
         <v>44816</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45093,7 +45093,7 @@
         <v>44817</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45150,7 +45150,7 @@
         <v>44817</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -45207,7 +45207,7 @@
         <v>44817</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -45264,7 +45264,7 @@
         <v>44819</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -45326,7 +45326,7 @@
         <v>44831</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -45383,7 +45383,7 @@
         <v>44832</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -45440,7 +45440,7 @@
         <v>44839</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -45497,7 +45497,7 @@
         <v>44844</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -45554,7 +45554,7 @@
         <v>44846</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -45611,7 +45611,7 @@
         <v>44847</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -45668,7 +45668,7 @@
         <v>44847</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -45725,7 +45725,7 @@
         <v>44847</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -45782,7 +45782,7 @@
         <v>44848</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -45839,7 +45839,7 @@
         <v>44849</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -45896,7 +45896,7 @@
         <v>44853</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -45953,7 +45953,7 @@
         <v>44865</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46010,7 +46010,7 @@
         <v>44866</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46067,7 +46067,7 @@
         <v>44872</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -46124,7 +46124,7 @@
         <v>44872</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -46181,7 +46181,7 @@
         <v>44883</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -46243,7 +46243,7 @@
         <v>44883</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -46300,7 +46300,7 @@
         <v>44886</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -46357,7 +46357,7 @@
         <v>44886</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -46419,7 +46419,7 @@
         <v>44888</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -46481,7 +46481,7 @@
         <v>44893</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -46538,7 +46538,7 @@
         <v>44897</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -46595,7 +46595,7 @@
         <v>44897</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -46652,7 +46652,7 @@
         <v>44901</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -46714,7 +46714,7 @@
         <v>44904</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -46776,7 +46776,7 @@
         <v>44908</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -46833,7 +46833,7 @@
         <v>44908</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -46890,7 +46890,7 @@
         <v>44909</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -46947,7 +46947,7 @@
         <v>44909</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47004,7 +47004,7 @@
         <v>44912</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47061,7 +47061,7 @@
         <v>44916</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -47123,7 +47123,7 @@
         <v>44916</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -47180,7 +47180,7 @@
         <v>44928</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -47242,7 +47242,7 @@
         <v>44928</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -47304,7 +47304,7 @@
         <v>44929</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -47361,7 +47361,7 @@
         <v>44930</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -47418,7 +47418,7 @@
         <v>44930</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -47480,7 +47480,7 @@
         <v>44935</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -47537,7 +47537,7 @@
         <v>44944</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -47594,7 +47594,7 @@
         <v>44944</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -47656,7 +47656,7 @@
         <v>44944</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -47713,7 +47713,7 @@
         <v>44944</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -47775,7 +47775,7 @@
         <v>44944</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -47832,7 +47832,7 @@
         <v>44945</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -47889,7 +47889,7 @@
         <v>44946</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -47946,7 +47946,7 @@
         <v>44949</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48008,7 +48008,7 @@
         <v>44950</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -48070,7 +48070,7 @@
         <v>44952</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -48132,7 +48132,7 @@
         <v>44960</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -48194,7 +48194,7 @@
         <v>44960</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -48251,7 +48251,7 @@
         <v>44960</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -48308,7 +48308,7 @@
         <v>44964</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -48365,7 +48365,7 @@
         <v>44964</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -48422,7 +48422,7 @@
         <v>44965</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -48479,7 +48479,7 @@
         <v>44965</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -48536,7 +48536,7 @@
         <v>44966</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -48598,7 +48598,7 @@
         <v>44967</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -48655,7 +48655,7 @@
         <v>44967</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -48712,7 +48712,7 @@
         <v>44967</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -48769,7 +48769,7 @@
         <v>44967</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -48826,7 +48826,7 @@
         <v>44967</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -48883,7 +48883,7 @@
         <v>44969</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -48940,7 +48940,7 @@
         <v>44970</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49002,7 +49002,7 @@
         <v>44971</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -49059,7 +49059,7 @@
         <v>44971</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -49116,7 +49116,7 @@
         <v>44972</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -49173,7 +49173,7 @@
         <v>44973</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -49230,7 +49230,7 @@
         <v>44973</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -49287,7 +49287,7 @@
         <v>44977</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -49349,7 +49349,7 @@
         <v>44977</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -49406,7 +49406,7 @@
         <v>44977</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -49463,7 +49463,7 @@
         <v>44978</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -49525,7 +49525,7 @@
         <v>44980</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -49582,7 +49582,7 @@
         <v>44980</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -49639,7 +49639,7 @@
         <v>44980</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -49696,7 +49696,7 @@
         <v>44980</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -49753,7 +49753,7 @@
         <v>44984</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -49815,7 +49815,7 @@
         <v>44984</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -49872,7 +49872,7 @@
         <v>44988</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -49929,7 +49929,7 @@
         <v>44991</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -49986,7 +49986,7 @@
         <v>44993</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -50043,7 +50043,7 @@
         <v>44993</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -50100,7 +50100,7 @@
         <v>44994</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -50157,7 +50157,7 @@
         <v>45006</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -50214,7 +50214,7 @@
         <v>45009</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -50276,7 +50276,7 @@
         <v>45013</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -50333,7 +50333,7 @@
         <v>45014</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -50390,7 +50390,7 @@
         <v>45026</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -50447,7 +50447,7 @@
         <v>45028</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -50509,7 +50509,7 @@
         <v>45033</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -50566,7 +50566,7 @@
         <v>45036</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -50623,7 +50623,7 @@
         <v>45037</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -50685,7 +50685,7 @@
         <v>45042</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -50742,7 +50742,7 @@
         <v>45042</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -50804,7 +50804,7 @@
         <v>45043</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -50861,7 +50861,7 @@
         <v>45049</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -50918,7 +50918,7 @@
         <v>45049</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -50975,7 +50975,7 @@
         <v>45049</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -51032,7 +51032,7 @@
         <v>45049</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -51089,7 +51089,7 @@
         <v>45050</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -51146,7 +51146,7 @@
         <v>45050</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -51203,7 +51203,7 @@
         <v>45050</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -51260,7 +51260,7 @@
         <v>45054</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -51317,7 +51317,7 @@
         <v>45054</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -51374,7 +51374,7 @@
         <v>45055</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -51431,7 +51431,7 @@
         <v>45056</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -51493,7 +51493,7 @@
         <v>45056</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -51555,7 +51555,7 @@
         <v>45058</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -51612,7 +51612,7 @@
         <v>45058</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -51669,7 +51669,7 @@
         <v>45058</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -51726,7 +51726,7 @@
         <v>45058</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -51783,7 +51783,7 @@
         <v>45058</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -51840,7 +51840,7 @@
         <v>45058</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -51902,7 +51902,7 @@
         <v>45060</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -51959,7 +51959,7 @@
         <v>45061</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -52016,7 +52016,7 @@
         <v>45063</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -52073,7 +52073,7 @@
         <v>45063</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -52130,7 +52130,7 @@
         <v>45063</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -52187,7 +52187,7 @@
         <v>45063</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -52244,7 +52244,7 @@
         <v>45070</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -52306,7 +52306,7 @@
         <v>45075</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -52363,7 +52363,7 @@
         <v>45078</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -52420,7 +52420,7 @@
         <v>45078</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -52482,7 +52482,7 @@
         <v>45078</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -52539,7 +52539,7 @@
         <v>45079</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -52596,7 +52596,7 @@
         <v>45084</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -52658,7 +52658,7 @@
         <v>45086</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -52720,7 +52720,7 @@
         <v>45089</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -52777,7 +52777,7 @@
         <v>45089</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -52834,7 +52834,7 @@
         <v>45089</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -52891,7 +52891,7 @@
         <v>45089</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -52948,7 +52948,7 @@
         <v>45091</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -53010,7 +53010,7 @@
         <v>45091</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -53067,7 +53067,7 @@
         <v>45091</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -53129,7 +53129,7 @@
         <v>45091</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -53191,7 +53191,7 @@
         <v>45091</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -53248,7 +53248,7 @@
         <v>45093</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -53310,7 +53310,7 @@
         <v>45096</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -53367,7 +53367,7 @@
         <v>45096</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -53424,7 +53424,7 @@
         <v>45096</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -53481,7 +53481,7 @@
         <v>45096</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -53538,7 +53538,7 @@
         <v>45096</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -53595,7 +53595,7 @@
         <v>45096</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -53652,7 +53652,7 @@
         <v>45096</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -53709,7 +53709,7 @@
         <v>45096</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -53766,7 +53766,7 @@
         <v>45097</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -53823,7 +53823,7 @@
         <v>45097</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -53880,7 +53880,7 @@
         <v>45097</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -53937,7 +53937,7 @@
         <v>45097</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -53994,7 +53994,7 @@
         <v>45097</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -54051,7 +54051,7 @@
         <v>45103</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -54108,7 +54108,7 @@
         <v>45103</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -54165,7 +54165,7 @@
         <v>45105</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -54222,7 +54222,7 @@
         <v>45105</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -54279,7 +54279,7 @@
         <v>45105</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -54336,7 +54336,7 @@
         <v>45107</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -54393,7 +54393,7 @@
         <v>45107</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -54450,7 +54450,7 @@
         <v>45107</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -54512,7 +54512,7 @@
         <v>45107</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -54574,7 +54574,7 @@
         <v>45107</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -54631,7 +54631,7 @@
         <v>45110</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -54688,7 +54688,7 @@
         <v>45112</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -54745,7 +54745,7 @@
         <v>45113</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -54802,7 +54802,7 @@
         <v>45119</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -54859,7 +54859,7 @@
         <v>45121</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -54921,7 +54921,7 @@
         <v>45123</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -54978,7 +54978,7 @@
         <v>45127</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -55035,7 +55035,7 @@
         <v>45128</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -55092,7 +55092,7 @@
         <v>45131</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -55149,7 +55149,7 @@
         <v>45132</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -55206,7 +55206,7 @@
         <v>45134</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -55263,7 +55263,7 @@
         <v>45145</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -55320,7 +55320,7 @@
         <v>45148</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -55377,7 +55377,7 @@
         <v>45148</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -55434,7 +55434,7 @@
         <v>45148</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -55491,7 +55491,7 @@
         <v>45148</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -55548,7 +55548,7 @@
         <v>45148</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -55605,7 +55605,7 @@
         <v>45149</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -55667,7 +55667,7 @@
         <v>45152</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -55724,7 +55724,7 @@
         <v>45152</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -55786,7 +55786,7 @@
         <v>45152</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -55843,7 +55843,7 @@
         <v>45152</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -55905,7 +55905,7 @@
         <v>45153</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -55967,7 +55967,7 @@
         <v>45153</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -56029,7 +56029,7 @@
         <v>45160</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -56086,7 +56086,7 @@
         <v>45161</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -56143,7 +56143,7 @@
         <v>45162</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -56200,7 +56200,7 @@
         <v>45162</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -56257,7 +56257,7 @@
         <v>45162</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -56319,7 +56319,7 @@
         <v>45162</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -56381,7 +56381,7 @@
         <v>45164</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -56443,7 +56443,7 @@
         <v>45167</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -56500,7 +56500,7 @@
         <v>45169</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -56562,7 +56562,7 @@
         <v>45169</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -56624,7 +56624,7 @@
         <v>45173</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -56681,7 +56681,7 @@
         <v>45173</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -56738,7 +56738,7 @@
         <v>45175</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -56800,7 +56800,7 @@
         <v>45180</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -56857,7 +56857,7 @@
         <v>45187</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -56914,7 +56914,7 @@
         <v>45188</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>

--- a/Översikt UPPSALA.xlsx
+++ b/Översikt UPPSALA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y904"/>
+  <dimension ref="A1:Y906"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44012</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         <v>43913</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         <v>43762</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44377</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>44349</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>45082</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>43381</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>43875</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>45013</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1526,7 +1526,7 @@
         <v>44222</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>44623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         <v>44971</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>43796</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>44053</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>44356</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>45086</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>44158</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>44180</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2499,7 +2499,7 @@
         <v>44497</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>44901</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>45092</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
         <v>43433</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>44376</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>44575</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>44356</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3155,7 +3155,7 @@
         <v>43814</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43861</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>44119</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3427,7 +3427,7 @@
         <v>44351</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>44500</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>44574</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3702,7 +3702,7 @@
         <v>44792</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>44879</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>44922</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>44977</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>45107</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>43511</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         <v>43857</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43980</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>44056</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>44101</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
         <v>44462</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>44664</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>44719</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>44740</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>44974</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>45002</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5160,7 +5160,7 @@
         <v>45049</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5336,7 +5336,7 @@
         <v>43511</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>43731</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43796</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>44101</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>44133</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>44495</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>44652</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>44684</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>44692</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>44791</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>44804</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>44938</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6410,7 +6410,7 @@
         <v>44956</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
         <v>44973</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6589,7 +6589,7 @@
         <v>43503</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6680,7 +6680,7 @@
         <v>43545</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>43607</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>43654</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6943,7 +6943,7 @@
         <v>43742</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         <v>43929</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>44054</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>44101</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>44659</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>44879</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>44967</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>45002</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>45090</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7742,7 +7742,7 @@
         <v>45121</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7833,7 +7833,7 @@
         <v>43321</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>43339</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>43462</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8088,7 +8088,7 @@
         <v>43473</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>43473</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8263,7 +8263,7 @@
         <v>43528</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>43551</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>43693</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>43693</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>43731</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8693,7 +8693,7 @@
         <v>43755</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8778,7 +8778,7 @@
         <v>43867</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43893</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8948,7 +8948,7 @@
         <v>43980</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>44042</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>44266</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>44467</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         <v>44487</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         <v>44489</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>44589</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>44614</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9643,7 +9643,7 @@
         <v>44645</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>44678</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>44729</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>44849</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>44855</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10088,7 +10088,7 @@
         <v>44897</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>44917</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         <v>44958</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10348,7 +10348,7 @@
         <v>44963</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>45002</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10523,7 +10523,7 @@
         <v>45021</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>45022</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10698,7 +10698,7 @@
         <v>45022</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>45055</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
         <v>45061</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>45072</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>45097</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>45098</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11218,7 +11218,7 @@
         <v>45104</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11303,7 +11303,7 @@
         <v>45107</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11393,7 +11393,7 @@
         <v>45121</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         <v>45139</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>45189</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>43321</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>43321</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11767,7 +11767,7 @@
         <v>43335</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11824,7 +11824,7 @@
         <v>43341</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>43347</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11938,7 +11938,7 @@
         <v>43355</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11995,7 +11995,7 @@
         <v>43360</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12052,7 +12052,7 @@
         <v>43377</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12109,7 +12109,7 @@
         <v>43378</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12171,7 +12171,7 @@
         <v>43378</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12228,7 +12228,7 @@
         <v>43378</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12290,7 +12290,7 @@
         <v>43381</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>43381</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>43389</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12471,7 +12471,7 @@
         <v>43395</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12528,7 +12528,7 @@
         <v>43398</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>43407</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>43411</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>43418</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>43420</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12833,7 +12833,7 @@
         <v>43423</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12890,7 +12890,7 @@
         <v>43423</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12947,7 +12947,7 @@
         <v>43424</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13004,7 +13004,7 @@
         <v>43424</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13066,7 +13066,7 @@
         <v>43424</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>43427</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>43430</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>43431</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>43433</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>43433</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>43433</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>43433</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>43436</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>43436</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>43437</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>43439</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>43444</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>43445</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>43446</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>43447</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>43447</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14040,7 +14040,7 @@
         <v>43447</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>43451</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>43451</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>43451</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>43452</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>43452</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>43455</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>43455</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>43455</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14558,7 +14558,7 @@
         <v>43455</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>43460</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14672,7 +14672,7 @@
         <v>43464</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14729,7 +14729,7 @@
         <v>43468</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         <v>43472</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14843,7 +14843,7 @@
         <v>43472</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14900,7 +14900,7 @@
         <v>43472</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14957,7 +14957,7 @@
         <v>43472</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15014,7 +15014,7 @@
         <v>43473</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>43473</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15133,7 +15133,7 @@
         <v>43473</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>43473</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>43473</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>43473</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15361,7 +15361,7 @@
         <v>43473</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         <v>43473</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>43474</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>43474</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15589,7 +15589,7 @@
         <v>43475</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15646,7 +15646,7 @@
         <v>43475</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15703,7 +15703,7 @@
         <v>43475</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15760,7 +15760,7 @@
         <v>43476</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
         <v>43479</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15879,7 +15879,7 @@
         <v>43479</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15936,7 +15936,7 @@
         <v>43479</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15993,7 +15993,7 @@
         <v>43479</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16055,7 +16055,7 @@
         <v>43479</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16117,7 +16117,7 @@
         <v>43480</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16174,7 +16174,7 @@
         <v>43480</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16231,7 +16231,7 @@
         <v>43481</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16288,7 +16288,7 @@
         <v>43481</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16345,7 +16345,7 @@
         <v>43481</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16402,7 +16402,7 @@
         <v>43481</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16459,7 +16459,7 @@
         <v>43481</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16521,7 +16521,7 @@
         <v>43482</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16578,7 +16578,7 @@
         <v>43482</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16635,7 +16635,7 @@
         <v>43482</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16692,7 +16692,7 @@
         <v>43482</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         <v>43482</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16806,7 +16806,7 @@
         <v>43482</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16863,7 +16863,7 @@
         <v>43482</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16920,7 +16920,7 @@
         <v>43485</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16977,7 +16977,7 @@
         <v>43486</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17034,7 +17034,7 @@
         <v>43486</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17096,7 +17096,7 @@
         <v>43486</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17153,7 +17153,7 @@
         <v>43487</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>43488</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17272,7 +17272,7 @@
         <v>43488</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17329,7 +17329,7 @@
         <v>43488</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17391,7 +17391,7 @@
         <v>43492</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17453,7 +17453,7 @@
         <v>43493</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>43493</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17567,7 +17567,7 @@
         <v>43496</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>43496</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17681,7 +17681,7 @@
         <v>43498</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17743,7 +17743,7 @@
         <v>43500</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17800,7 +17800,7 @@
         <v>43500</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17862,7 +17862,7 @@
         <v>43500</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17919,7 +17919,7 @@
         <v>43500</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17976,7 +17976,7 @@
         <v>43500</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
         <v>43503</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18095,7 +18095,7 @@
         <v>43504</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18152,7 +18152,7 @@
         <v>43507</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18209,7 +18209,7 @@
         <v>43507</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18266,7 +18266,7 @@
         <v>43508</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18323,7 +18323,7 @@
         <v>43509</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18380,7 +18380,7 @@
         <v>43511</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18437,7 +18437,7 @@
         <v>43511</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18494,7 +18494,7 @@
         <v>43511</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18551,7 +18551,7 @@
         <v>43511</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18608,7 +18608,7 @@
         <v>43511</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18665,7 +18665,7 @@
         <v>43516</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18727,7 +18727,7 @@
         <v>43517</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18784,7 +18784,7 @@
         <v>43517</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18846,7 +18846,7 @@
         <v>43517</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18908,7 +18908,7 @@
         <v>43517</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18970,7 +18970,7 @@
         <v>43523</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         <v>43528</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19084,7 +19084,7 @@
         <v>43528</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19141,7 +19141,7 @@
         <v>43531</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>43531</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19255,7 +19255,7 @@
         <v>43531</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19317,7 +19317,7 @@
         <v>43532</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>43535</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>43536</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>43538</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19555,7 +19555,7 @@
         <v>43538</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>43544</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>43550</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>43552</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>43553</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19850,7 +19850,7 @@
         <v>43553</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19907,7 +19907,7 @@
         <v>43556</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19964,7 +19964,7 @@
         <v>43559</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20021,7 +20021,7 @@
         <v>43559</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20078,7 +20078,7 @@
         <v>43560</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>43570</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20192,7 +20192,7 @@
         <v>43572</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20249,7 +20249,7 @@
         <v>43578</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         <v>43578</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20363,7 +20363,7 @@
         <v>43583</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20420,7 +20420,7 @@
         <v>43585</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20482,7 +20482,7 @@
         <v>43591</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         <v>43592</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>43600</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>43605</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>43605</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>43607</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>43628</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>43628</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>43628</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21005,7 +21005,7 @@
         <v>43630</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>43630</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>43647</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>43647</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>43648</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21290,7 +21290,7 @@
         <v>43651</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         <v>43651</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>43651</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>43651</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>43654</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>43654</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>43656</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>43661</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         <v>43661</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>43663</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>43677</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>43682</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21974,7 +21974,7 @@
         <v>43686</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22031,7 +22031,7 @@
         <v>43693</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>43696</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         <v>43696</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22207,7 +22207,7 @@
         <v>43699</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22264,7 +22264,7 @@
         <v>43699</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22321,7 +22321,7 @@
         <v>43699</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>43705</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>43706</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>43706</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22559,7 +22559,7 @@
         <v>43706</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22621,7 +22621,7 @@
         <v>43706</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22678,7 +22678,7 @@
         <v>43706</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22740,7 +22740,7 @@
         <v>43706</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22802,7 +22802,7 @@
         <v>43707</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22864,7 +22864,7 @@
         <v>43707</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22926,7 +22926,7 @@
         <v>43707</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22983,7 +22983,7 @@
         <v>43707</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>43710</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>43712</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>43712</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23216,7 +23216,7 @@
         <v>43713</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23273,7 +23273,7 @@
         <v>43716</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23330,7 +23330,7 @@
         <v>43718</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23387,7 +23387,7 @@
         <v>43718</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23449,7 +23449,7 @@
         <v>43718</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         <v>43718</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23568,7 +23568,7 @@
         <v>43718</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23630,7 +23630,7 @@
         <v>43718</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23687,7 +23687,7 @@
         <v>43720</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23744,7 +23744,7 @@
         <v>43727</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23801,7 +23801,7 @@
         <v>43730</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23858,7 +23858,7 @@
         <v>43733</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23920,7 +23920,7 @@
         <v>43735</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23982,7 +23982,7 @@
         <v>43735</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24044,7 +24044,7 @@
         <v>43736</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         <v>43745</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24158,7 +24158,7 @@
         <v>43745</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24220,7 +24220,7 @@
         <v>43747</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24282,7 +24282,7 @@
         <v>43748</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24339,7 +24339,7 @@
         <v>43755</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24401,7 +24401,7 @@
         <v>43759</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24458,7 +24458,7 @@
         <v>43763</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24520,7 +24520,7 @@
         <v>43773</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24577,7 +24577,7 @@
         <v>43773</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24634,7 +24634,7 @@
         <v>43773</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>43777</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24753,7 +24753,7 @@
         <v>43777</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24815,7 +24815,7 @@
         <v>43780</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24877,7 +24877,7 @@
         <v>43780</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24939,7 +24939,7 @@
         <v>43782</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24996,7 +24996,7 @@
         <v>43784</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25053,7 +25053,7 @@
         <v>43791</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25110,7 +25110,7 @@
         <v>43791</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25167,7 +25167,7 @@
         <v>43791</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25224,7 +25224,7 @@
         <v>43791</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25281,7 +25281,7 @@
         <v>43795</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25338,7 +25338,7 @@
         <v>43795</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25395,7 +25395,7 @@
         <v>43795</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25452,7 +25452,7 @@
         <v>43801</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25509,7 +25509,7 @@
         <v>43801</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25566,7 +25566,7 @@
         <v>43803</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25623,7 +25623,7 @@
         <v>43808</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25680,7 +25680,7 @@
         <v>43808</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25737,7 +25737,7 @@
         <v>43811</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25794,7 +25794,7 @@
         <v>43812</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25856,7 +25856,7 @@
         <v>43814</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25918,7 +25918,7 @@
         <v>43814</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25980,7 +25980,7 @@
         <v>43815</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26037,7 +26037,7 @@
         <v>43815</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26099,7 +26099,7 @@
         <v>43817</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26156,7 +26156,7 @@
         <v>43817</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26213,7 +26213,7 @@
         <v>43818</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26270,7 +26270,7 @@
         <v>43818</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26327,7 +26327,7 @@
         <v>43822</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26384,7 +26384,7 @@
         <v>43837</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26441,7 +26441,7 @@
         <v>43837</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26498,7 +26498,7 @@
         <v>43838</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26555,7 +26555,7 @@
         <v>43844</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26612,7 +26612,7 @@
         <v>43850</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26669,7 +26669,7 @@
         <v>43853</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26726,7 +26726,7 @@
         <v>43853</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26788,7 +26788,7 @@
         <v>43866</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26850,7 +26850,7 @@
         <v>43866</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26912,7 +26912,7 @@
         <v>43867</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26969,7 +26969,7 @@
         <v>43874</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         <v>43878</v>
       </c>
       <c r="C388" s="1" t="n">
